--- a/financial_models/opportunities/1288.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1288.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0062B0CC-24C8-4BB4-BAB6-154028F78ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D7F6718-8733-4051-A57E-972BB966A78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -831,15 +831,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Consumer Monopoly</t>
-  </si>
-  <si>
-    <t>Strongly agree</t>
-  </si>
-  <si>
-    <t>agree</t>
-  </si>
-  <si>
     <t>6. No big MCX-D&amp;A required?</t>
   </si>
   <si>
@@ -956,6 +947,15 @@
   </si>
   <si>
     <t>CN</t>
+  </si>
+  <si>
+    <t>Strongly agree</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>Consumer Monopoly</t>
   </si>
   <si>
     <t>Dividend</t>
@@ -1517,7 +1517,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="284">
+  <cellXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2152,6 +2152,7 @@
     <xf numFmtId="9" fontId="10" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3566,7 +3567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3577,29 +3578,29 @@
     <col min="3" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
         <v>196</v>
       </c>
       <c r="C4" s="189" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
         <v>197</v>
       </c>
       <c r="C5" s="192" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
         <v>164</v>
       </c>
@@ -3607,7 +3608,7 @@
         <v>45593</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
         <v>4</v>
       </c>
@@ -3615,23 +3616,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
         <v>217</v>
       </c>
       <c r="C8" s="192" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="E8" s="268"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>218</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
         <v>219</v>
       </c>
@@ -3639,15 +3641,15 @@
         <v>349983033873</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
         <v>220</v>
       </c>
       <c r="C11" s="193" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="219" t="s">
         <v>10</v>
       </c>
@@ -3655,7 +3657,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="219" t="s">
         <v>11</v>
       </c>
@@ -3663,7 +3665,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
         <v>221</v>
       </c>
@@ -3671,15 +3673,15 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="13.9" x14ac:dyDescent="0.4">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="223" t="s">
         <v>97</v>
       </c>
@@ -3693,25 +3695,25 @@
         <v>226</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C19" s="243" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3720,16 +3722,16 @@
         <v>230</v>
       </c>
       <c r="C20" s="243" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C21" s="243" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3738,7 +3740,7 @@
         <v>232</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>233</v>
+        <v>266</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3869,7 +3871,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C29" s="151">
         <v>651948</v>
@@ -4136,11 +4138,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.5838522268546972E-2</v>
+        <v>2.3497970654576122E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4185,7 +4187,7 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C47" s="195" t="s">
         <v>34</v>
@@ -4551,7 +4553,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4559,7 +4561,7 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C87" s="237" t="s">
         <v>267</v>
@@ -4569,11 +4571,11 @@
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="268">
+      <c r="C89" s="269">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="268"/>
+      <c r="D89" s="269"/>
       <c r="E89" s="89" t="s">
         <v>208</v>
       </c>
@@ -4587,10 +4589,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C90" s="269" t="s">
+      <c r="C90" s="270" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="269"/>
+      <c r="D90" s="270"/>
       <c r="E90" s="236" t="s">
         <v>102</v>
       </c>
@@ -4639,7 +4641,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4660,7 +4662,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4678,7 +4680,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4784,7 +4786,7 @@
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
-      <formula1>"Y, N"</formula1>
+      <formula1>"Tier 1, Superior Cycl. ,Cigar Butts, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C11" xr:uid="{7C8576B4-3288-485C-91EB-6274925EDC41}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
@@ -4820,8 +4822,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4864,17 +4866,17 @@
       <c r="B3" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C3" s="274" t="str">
+      <c r="C3" s="275" t="str">
         <f>Inputs!C4</f>
         <v>1288.HK</v>
       </c>
-      <c r="D3" s="275"/>
+      <c r="D3" s="276"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>3.89</v>
+        <v>14.779999732971191</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -4884,40 +4886,40 @@
       <c r="B4" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="C4" s="276" t="str">
+      <c r="C4" s="277" t="str">
         <f>Inputs!C5</f>
         <v>农业银行</v>
       </c>
-      <c r="D4" s="277"/>
+      <c r="D4" s="278"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="280">
+      <c r="G4" s="281">
         <f>Inputs!C10</f>
         <v>349983033873</v>
       </c>
-      <c r="H4" s="280"/>
+      <c r="H4" s="281"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="278">
+      <c r="C5" s="279">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="279"/>
+      <c r="D5" s="280"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="272">
+      <c r="G5" s="273">
         <f>G3*G4/1000000</f>
-        <v>1361434.0017659699</v>
-      </c>
-      <c r="H5" s="272"/>
+        <v>5172749.1471873876</v>
+      </c>
+      <c r="H5" s="273"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4940,11 +4942,11 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="273" t="str">
+      <c r="G6" s="274" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="273"/>
+      <c r="H6" s="274"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4964,7 +4966,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0734576781590779</v>
+        <v>1</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5007,7 +5009,7 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5057,7 +5059,7 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5097,7 +5099,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5147,12 +5149,12 @@
       </c>
       <c r="G24" s="179">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>0.15565240391913782</v>
+        <v>3.816331401017941E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
@@ -5179,7 +5181,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.3717577862964281E-2</v>
+        <v>1.562246306980025E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5196,12 +5198,12 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>242</v>
-      </c>
-      <c r="G28" s="270" t="s">
-        <v>261</v>
-      </c>
-      <c r="H28" s="270"/>
+        <v>239</v>
+      </c>
+      <c r="G28" s="271" t="s">
+        <v>258</v>
+      </c>
+      <c r="H28" s="271"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5209,22 +5211,22 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.9812431002160282</v>
+        <v>1.4644773177754111</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.8083070501738283</v>
+        <v>2.8149898886692091</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.3308742355482686</v>
-      </c>
-      <c r="G29" s="271">
+        <v>1.7229144915004837</v>
+      </c>
+      <c r="G29" s="272">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.3115713479772424</v>
-      </c>
-      <c r="H29" s="271"/>
+        <v>2.4478172944949645</v>
+      </c>
+      <c r="H29" s="272"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5272,7 +5274,7 @@
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5282,7 +5284,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5309,7 +5311,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -6255,12 +6257,9 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7" xr:uid="{3894A86A-E1B4-A843-BE8E-14D1CE0AE26E}">
-      <formula1>"Y, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C33:C34 C36:C37 C39:C40" xr:uid="{AFC23D6B-591E-BA4C-B3BE-727ADB8DA907}">
       <formula1>"Strongly agree,agree,unclear,disagree,Strongly disagree"</formula1>
@@ -6746,7 +6745,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6797,7 +6796,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6848,7 +6847,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6899,7 +6898,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7001,7 +7000,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7154,7 +7153,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -8225,7 +8224,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8294,7 +8293,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8498,7 +8497,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -11448,11 +11447,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="281">
+      <c r="D56" s="282">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="279"/>
+      <c r="E56" s="280"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11463,11 +11462,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="280">
+      <c r="D57" s="281">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="279"/>
+      <c r="E57" s="280"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11479,11 +11478,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="280">
+      <c r="D58" s="281">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="279"/>
+      <c r="E58" s="280"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11697,19 +11696,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="268">
+      <c r="C72" s="269">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="268"/>
-      <c r="E72" s="282" t="s">
+      <c r="D72" s="269"/>
+      <c r="E72" s="283" t="s">
         <v>208</v>
       </c>
-      <c r="F72" s="282"/>
-      <c r="H72" s="282" t="s">
+      <c r="F72" s="283"/>
+      <c r="H72" s="283" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="282"/>
+      <c r="I72" s="283"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11719,18 +11718,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C73" s="269" t="s">
+      <c r="C73" s="270" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="269"/>
-      <c r="E73" s="283" t="s">
+      <c r="D73" s="270"/>
+      <c r="E73" s="284" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="269"/>
-      <c r="H73" s="283" t="s">
+      <c r="F73" s="270"/>
+      <c r="H73" s="284" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="269"/>
+      <c r="I73" s="270"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11807,7 +11806,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11867,7 +11866,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -11930,7 +11929,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11960,7 +11959,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12097,17 +12096,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.15565240391913782</v>
+        <v>3.816331401017941E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.15565240391913782</v>
+        <v>3.816331401017941E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.15565240391913782</v>
+        <v>3.816331401017941E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12148,17 +12147,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.5838522268546972E-2</v>
+        <v>2.3497970654576122E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3717577862964281E-2</v>
+        <v>1.562246306980025E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3717577862964281E-2</v>
+        <v>1.562246306980025E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12189,15 +12188,15 @@
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="282" t="s">
+      <c r="E92" s="283" t="s">
         <v>208</v>
       </c>
-      <c r="F92" s="282"/>
+      <c r="F92" s="283"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="282" t="s">
+      <c r="H92" s="283" t="s">
         <v>207</v>
       </c>
-      <c r="I92" s="282"/>
+      <c r="I92" s="283"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12218,14 +12217,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>17.334410317529258</v>
+        <v>9.4474891195469084</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>17.334410317529258</v>
+        <v>9.4474891195469084</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12243,14 +12242,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>4.6882206468285768</v>
+        <v>3.4653964459274045</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>212</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>4.6882206468285768</v>
+        <v>3.4653964459274045</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12276,7 +12275,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
@@ -12293,21 +12292,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>3016246.7169090649</v>
+        <v>1643895.4379112169</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>8.6182655299901896</v>
+        <v>4.6970717972224474</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>8.6182655299901896</v>
+        <v>4.6970717972224474</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>12.244333376340327</v>
+        <v>6.6733280353991509</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12356,27 +12355,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>3016246.7169090649</v>
+        <v>1643895.4379112169</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>7.325525700491661</v>
+        <v>3.9925110276390803</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>8.6182655299901896</v>
+        <v>4.6970717972224474</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>8.6182655299901896</v>
+        <v>4.6970717972224474</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>8.6182655299901896</v>
+        <v>4.6970717972224474</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>12.244333376340327</v>
+        <v>6.6733280353991509</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12400,7 +12399,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
@@ -12417,27 +12416,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>815766.43653359264</v>
+        <v>602990.84083909635</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.9812431002160282</v>
+        <v>1.4644773177754111</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.3308742355482686</v>
+        <v>1.7229144915004837</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.3308742355482686</v>
+        <v>1.7229144915004837</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.3308742355482686</v>
+        <v>1.7229144915004837</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.3115713479772424</v>
+        <v>2.4478172944949645</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12461,7 +12460,7 @@
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
@@ -12478,27 +12477,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>1916006.5767213288</v>
+        <v>1123443.1393751567</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>4.6533844003538443</v>
+        <v>2.7284941727072458</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>5.4745698827692291</v>
+        <v>3.2099931443614658</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>5.4745698827692291</v>
+        <v>3.2099931443614658</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>5.4745698827692291</v>
+        <v>3.2099931443614658</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>7.7779523621587847</v>
+        <v>4.5605726649470579</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1288.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1288.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D7F6718-8733-4051-A57E-972BB966A78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6BE53D8-1251-4D9A-9F2A-358ACE4584FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -625,9 +625,6 @@
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
-    <t>Normalized E/P</t>
-  </si>
-  <si>
     <t>US Riskfree</t>
   </si>
   <si>
@@ -931,6 +928,10 @@
   </si>
   <si>
     <t>Base Case Valuation</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized PE Ratio</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1517,7 +1518,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="285">
+  <cellXfs count="286">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2153,6 +2154,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3567,7 +3571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3581,12 +3585,12 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="189" t="s">
         <v>259</v>
@@ -3594,7 +3598,7 @@
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="192" t="s">
         <v>260</v>
@@ -3618,7 +3622,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C8" s="192" t="s">
         <v>46</v>
@@ -3627,7 +3631,7 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" s="193" t="s">
         <v>261</v>
@@ -3635,7 +3639,7 @@
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C10" s="194">
         <v>349983033873</v>
@@ -3643,7 +3647,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C11" s="193" t="s">
         <v>262</v>
@@ -3667,7 +3671,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C14" s="220">
         <v>45473</v>
@@ -3675,7 +3679,7 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C15" s="177" t="s">
         <v>263</v>
@@ -3692,7 +3696,7 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C17" s="243" t="s">
         <v>264</v>
@@ -3701,7 +3705,7 @@
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C18" s="243" t="s">
         <v>265</v>
@@ -3710,7 +3714,7 @@
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C19" s="243" t="s">
         <v>265</v>
@@ -3719,7 +3723,7 @@
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C20" s="243" t="s">
         <v>265</v>
@@ -3728,7 +3732,7 @@
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C21" s="243" t="s">
         <v>264</v>
@@ -3737,7 +3741,7 @@
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C22" s="244" t="s">
         <v>266</v>
@@ -3871,7 +3875,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C29" s="151">
         <v>651948</v>
@@ -4119,7 +4123,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C44" s="251">
         <f>0.2309+0.1164</f>
@@ -4138,11 +4142,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>2.3497970654576122E-2</v>
+        <v>9.6103369778988687E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4187,13 +4191,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C47" s="195" t="s">
         <v>34</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>36</v>
@@ -4535,7 +4539,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -4553,7 +4557,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4561,7 +4565,7 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C87" s="237" t="s">
         <v>267</v>
@@ -4571,16 +4575,16 @@
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="269">
+      <c r="C89" s="270">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="269"/>
+      <c r="D89" s="270"/>
       <c r="E89" s="89" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4589,10 +4593,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C90" s="270" t="s">
+      <c r="C90" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="270"/>
+      <c r="D90" s="271"/>
       <c r="E90" s="236" t="s">
         <v>102</v>
       </c>
@@ -4641,7 +4645,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4662,7 +4666,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4680,7 +4684,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4737,7 +4741,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
@@ -4823,7 +4827,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4864,19 +4868,19 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C3" s="275" t="str">
+        <v>195</v>
+      </c>
+      <c r="C3" s="276" t="str">
         <f>Inputs!C4</f>
         <v>1288.HK</v>
       </c>
-      <c r="D3" s="276"/>
+      <c r="D3" s="277"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>14.779999732971191</v>
+        <v>3.88</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -4884,42 +4888,42 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="277" t="str">
+        <v>196</v>
+      </c>
+      <c r="C4" s="278" t="str">
         <f>Inputs!C5</f>
         <v>农业银行</v>
       </c>
-      <c r="D4" s="278"/>
+      <c r="D4" s="279"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="281">
+      <c r="G4" s="282">
         <f>Inputs!C10</f>
         <v>349983033873</v>
       </c>
-      <c r="H4" s="281"/>
+      <c r="H4" s="282"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="279">
+      <c r="C5" s="280">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="280"/>
+      <c r="D5" s="281"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="273">
+      <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>5172749.1471873876</v>
-      </c>
-      <c r="H5" s="273"/>
+        <v>1357934.1714272399</v>
+      </c>
+      <c r="H5" s="274"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4942,16 +4946,16 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="274" t="str">
+      <c r="G6" s="275" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="274"/>
+      <c r="H6" s="275"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -4966,7 +4970,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="133">
-        <v>1</v>
+        <v>1.0736569960912068</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4976,40 +4980,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5022,29 +5026,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5054,12 +5058,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5069,7 +5073,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>52</v>
@@ -5077,7 +5081,7 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
@@ -5091,7 +5095,7 @@
         <v>0.11401933240696355</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
@@ -5099,7 +5103,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5110,14 +5114,14 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C22" s="172">
         <f>Fin_Analysis!I78</f>
         <v>4.6925281602255647E-4</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5129,7 +5133,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G23" s="178" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5145,16 +5149,16 @@
         <v>0.49449639261897682</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>176</v>
-      </c>
-      <c r="G24" s="179">
-        <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>3.816331401017941E-2</v>
+        <v>258</v>
+      </c>
+      <c r="G24" s="269">
+        <f>G3/(Fin_Analysis!H86*G7)</f>
+        <v>6.4068662871952888</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
@@ -5177,11 +5181,11 @@
         <v>0.19964406567112258</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.562246306980025E-2</v>
+        <v>6.3893659896252494E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5198,12 +5202,12 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="G28" s="271" t="s">
-        <v>258</v>
-      </c>
-      <c r="H28" s="271"/>
+        <v>238</v>
+      </c>
+      <c r="G28" s="272" t="s">
+        <v>257</v>
+      </c>
+      <c r="H28" s="272"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5211,42 +5215,42 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.4644773177754111</v>
+        <v>1.9832516430174765</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>2.8149898886692091</v>
+        <v>3.8121678321800836</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>1.7229144915004837</v>
-      </c>
-      <c r="G29" s="272">
+        <v>2.3332372270793842</v>
+      </c>
+      <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.4478172944949645</v>
-      </c>
-      <c r="H29" s="272"/>
+        <v>3.3149285497218122</v>
+      </c>
+      <c r="H29" s="273"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C32" s="225"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
@@ -5256,7 +5260,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C34" s="226" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5267,14 +5271,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C35" s="225"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5284,7 +5288,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5294,14 +5298,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C38" s="225"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
@@ -5311,7 +5315,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -5326,14 +5330,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
@@ -6318,16 +6322,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="149" t="s">
         <v>204</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="H2" s="148" t="s">
         <v>205</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>206</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6345,7 +6349,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6378,7 +6382,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6745,7 +6749,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6796,7 +6800,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6847,7 +6851,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6898,7 +6902,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7000,7 +7004,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7153,7 +7157,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -8224,7 +8228,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8293,7 +8297,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8497,7 +8501,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -10395,7 +10399,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>35</v>
@@ -11447,11 +11451,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="282">
+      <c r="D56" s="283">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="280"/>
+      <c r="E56" s="281"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11462,11 +11466,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="281">
+      <c r="D57" s="282">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="280"/>
+      <c r="E57" s="281"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11478,11 +11482,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="281">
+      <c r="D58" s="282">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="280"/>
+      <c r="E58" s="281"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11696,19 +11700,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="269">
+      <c r="C72" s="270">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="269"/>
-      <c r="E72" s="283" t="s">
-        <v>208</v>
-      </c>
-      <c r="F72" s="283"/>
-      <c r="H72" s="283" t="s">
+      <c r="D72" s="270"/>
+      <c r="E72" s="284" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="283"/>
+      <c r="F72" s="284"/>
+      <c r="H72" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I72" s="284"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11718,18 +11722,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C73" s="270" t="s">
+      <c r="C73" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="270"/>
-      <c r="E73" s="284" t="s">
+      <c r="D73" s="271"/>
+      <c r="E73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="270"/>
-      <c r="H73" s="284" t="s">
+      <c r="F73" s="271"/>
+      <c r="H73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="270"/>
+      <c r="I73" s="271"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11806,7 +11810,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11866,7 +11870,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -11929,7 +11933,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11959,7 +11963,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12092,28 +12096,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.816331401017941E-2</v>
+        <v>0.15608254568986274</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.816331401017941E-2</v>
+        <v>0.15608254568986274</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>3.816331401017941E-2</v>
+        <v>0.15608254568986274</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
@@ -12143,21 +12147,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>2.3497970654576122E-2</v>
+        <v>9.6103369778988687E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.562246306980025E-2</v>
+        <v>6.3893659896252494E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>1.562246306980025E-2</v>
+        <v>6.3893659896252494E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12188,15 +12192,15 @@
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="283" t="s">
-        <v>208</v>
-      </c>
-      <c r="F92" s="283"/>
+      <c r="E92" s="284" t="s">
+        <v>207</v>
+      </c>
+      <c r="F92" s="284"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="283" t="s">
-        <v>207</v>
-      </c>
-      <c r="I92" s="283"/>
+      <c r="H92" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I92" s="284"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12213,24 +12217,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>9.4474891195469084</v>
+        <v>17.369918895203391</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>9.4474891195469084</v>
+        <v>17.369918895203391</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12238,18 +12242,18 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>3.4653964459274045</v>
+        <v>4.692973466828688</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>3.4653964459274045</v>
+        <v>4.692973466828688</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12268,14 +12272,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
@@ -12292,21 +12296,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>1643895.4379112169</v>
+        <v>3022425.3309414904</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>4.6970717972224474</v>
+        <v>8.6359195687132999</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>4.6970717972224474</v>
+        <v>8.6359195687132999</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>6.6733280353991509</v>
+        <v>12.269415213841432</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12355,27 +12359,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>1643895.4379112169</v>
+        <v>3022425.3309414904</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>3.9925110276390803</v>
+        <v>7.3405316334063047</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>4.6970717972224474</v>
+        <v>8.6359195687132999</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>4.6970717972224474</v>
+        <v>8.6359195687132999</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>4.6970717972224474</v>
+        <v>8.6359195687132999</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>6.6733280353991509</v>
+        <v>12.269415213841432</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12392,14 +12396,14 @@
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
@@ -12416,27 +12420,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>602990.84083909635</v>
+        <v>816593.44347866869</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.4644773177754111</v>
+        <v>1.9832516430174765</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>1.7229144915004837</v>
+        <v>2.3332372270793842</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>1.7229144915004837</v>
+        <v>2.3332372270793842</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>1.7229144915004837</v>
+        <v>2.3332372270793842</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.4478172944949645</v>
+        <v>3.3149285497218122</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12446,21 +12450,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
@@ -12473,31 +12477,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>1123443.1393751567</v>
+        <v>1919509.3872100797</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>2.7284941727072458</v>
+        <v>4.6618916382118902</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.2099931443614658</v>
+        <v>5.4845783978963425</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>3.2099931443614658</v>
+        <v>5.4845783978963425</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>3.2099931443614658</v>
+        <v>5.4845783978963425</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>4.5605726649470579</v>
+        <v>7.7921718817816217</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1288.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1288.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6BE53D8-1251-4D9A-9F2A-358ACE4584FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{64738E1B-541C-406D-9B27-4D0199FEA19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,9 +43,6 @@
     <t>Current Price:</t>
   </si>
   <si>
-    <t>HKD</t>
-  </si>
-  <si>
     <t>Number of Shares:</t>
   </si>
   <si>
@@ -960,6 +957,10 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>HKD</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3585,28 +3586,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C4" s="189" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C5" s="192" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="190">
         <v>45593</v>
@@ -3614,7 +3615,7 @@
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="191">
         <v>8</v>
@@ -3622,24 +3623,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C8" s="192" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" s="268"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C10" s="194">
         <v>349983033873</v>
@@ -3647,15 +3648,15 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C11" s="193" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="219" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="220">
         <v>45291</v>
@@ -3663,7 +3664,7 @@
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="219" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="221">
         <v>1000000</v>
@@ -3671,7 +3672,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="220">
         <v>45473</v>
@@ -3679,15 +3680,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="223" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C16" s="224">
         <v>0.25</v>
@@ -3696,61 +3697,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C19" s="243" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C20" s="243" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C21" s="243" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="227" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3799,7 +3800,7 @@
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B25" s="94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="150">
         <v>1318408</v>
@@ -3819,7 +3820,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C26" s="151">
         <v>150324</v>
@@ -3839,7 +3840,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27" s="151">
         <v>252305</v>
@@ -3859,7 +3860,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C28" s="151"/>
       <c r="D28" s="151"/>
@@ -3875,7 +3876,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C29" s="151">
         <v>651948</v>
@@ -3895,7 +3896,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C30" s="151">
         <v>464</v>
@@ -3915,7 +3916,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C31" s="151"/>
       <c r="D31" s="151"/>
@@ -3931,7 +3932,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" s="151"/>
       <c r="D32" s="151"/>
@@ -3947,7 +3948,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C33" s="151"/>
       <c r="D33" s="151"/>
@@ -3963,7 +3964,7 @@
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" s="218"/>
       <c r="D34" s="151"/>
@@ -3979,7 +3980,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C35" s="218"/>
       <c r="D35" s="151"/>
@@ -3995,7 +3996,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C36" s="218"/>
       <c r="D36" s="151"/>
@@ -4011,7 +4012,7 @@
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="218"/>
       <c r="D37" s="151"/>
@@ -4027,7 +4028,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" s="218"/>
       <c r="D38" s="151"/>
@@ -4043,7 +4044,7 @@
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C39" s="218"/>
       <c r="D39" s="151"/>
@@ -4059,7 +4060,7 @@
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C40" s="218"/>
       <c r="D40" s="151"/>
@@ -4075,7 +4076,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C41" s="218"/>
       <c r="D41" s="151"/>
@@ -4091,7 +4092,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C42" s="218"/>
       <c r="D42" s="151"/>
@@ -4107,7 +4108,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C43" s="218"/>
       <c r="D43" s="151"/>
@@ -4123,7 +4124,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C44" s="251">
         <f>0.2309+0.1164</f>
@@ -4142,11 +4143,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.6103369778988687E-2</v>
+        <v>9.1964613069722687E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4191,21 +4192,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C47" s="195" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
@@ -4215,7 +4216,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -4225,7 +4226,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -4236,7 +4237,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
@@ -4246,7 +4247,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
@@ -4256,7 +4257,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4267,7 +4268,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4277,7 +4278,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
@@ -4288,7 +4289,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4296,24 +4297,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="222" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
@@ -4324,7 +4325,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="196">
@@ -4335,7 +4336,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
@@ -4346,7 +4347,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
@@ -4357,7 +4358,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
@@ -4368,7 +4369,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4379,7 +4380,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4389,31 +4390,31 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
       <c r="E65" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
       <c r="E66" s="222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
@@ -4421,12 +4422,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="222" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -4437,7 +4438,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4448,7 +4449,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
@@ -4458,7 +4459,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
@@ -4469,7 +4470,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="247" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C72" s="248"/>
       <c r="D72" s="249">
@@ -4479,85 +4480,85 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C76" s="120"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C77" s="83"/>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C82" s="83"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C83" s="59"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4565,15 +4566,15 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C87" s="237" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C89" s="270">
         <f>C24</f>
@@ -4581,10 +4582,10 @@
       </c>
       <c r="D89" s="270"/>
       <c r="E89" s="89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4594,19 +4595,19 @@
         <v>(Numbers in 1000000CNY)</v>
       </c>
       <c r="C90" s="271" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D90" s="271"/>
       <c r="E90" s="236" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F90" s="256" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4624,7 +4625,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4645,7 +4646,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4666,7 +4667,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4684,7 +4685,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4705,7 +4706,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4723,7 +4724,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4741,7 +4742,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
@@ -4868,7 +4869,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C3" s="276" t="str">
         <f>Inputs!C4</f>
@@ -4880,15 +4881,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>3.88</v>
+        <v>4.05</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>2</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="278" t="str">
         <f>Inputs!C5</f>
@@ -4897,7 +4898,7 @@
       <c r="D4" s="279"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="282">
         <f>Inputs!C10</f>
@@ -4908,7 +4909,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C5" s="280">
         <f>Inputs!C6</f>
@@ -4917,11 +4918,11 @@
       <c r="D5" s="281"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>1357934.1714272399</v>
+        <v>1417431.2871856499</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -4929,7 +4930,7 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="87" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="186">
         <f>Inputs!C7</f>
@@ -4944,7 +4945,7 @@
         <v>45291</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" s="275" t="str">
         <f>Inputs!C11</f>
@@ -4955,7 +4956,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -4967,10 +4968,10 @@
       </c>
       <c r="E7" s="87"/>
       <c r="F7" s="35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0736569960912068</v>
+        <v>1.0724350214004517</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4980,40 +4981,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5026,29 +5027,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5058,12 +5059,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5073,29 +5074,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C20" s="172">
         <f>Fin_Analysis!I75</f>
         <v>0.11401933240696355</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
@@ -5103,7 +5104,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5114,26 +5115,26 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C22" s="172">
         <f>Fin_Analysis!I78</f>
         <v>4.6925281602255647E-4</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C23" s="172">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G23" s="178" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5142,30 +5143,30 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C24" s="172">
         <f>Fin_Analysis!I81</f>
         <v>0.49449639261897682</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.4068662871952888</v>
+        <v>6.6951995922176932</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G25" s="172">
         <f>Fin_Analysis!I88</f>
@@ -5174,61 +5175,61 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C26" s="172">
         <f>Fin_Analysis!I83</f>
         <v>0.19964406567112258</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.3893659896252494E-2</v>
+        <v>6.114203615836155E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>167</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>168</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G28" s="272" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H28" s="272"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.9832516430174765</v>
+        <v>1.955508659778546</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.8121678321800836</v>
+        <v>3.7588408080253224</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.3332372270793842</v>
+        <v>2.3005984232688776</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.3149285497218122</v>
+        <v>3.2685572243698457</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -5236,21 +5237,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C32" s="225"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
@@ -5260,7 +5261,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C34" s="226" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5271,14 +5272,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C35" s="225"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5288,7 +5289,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5298,14 +5299,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C38" s="225"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
@@ -5315,7 +5316,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -5330,14 +5331,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
@@ -6317,21 +6318,21 @@
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="149" t="s">
         <v>203</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="H2" s="148" t="s">
         <v>204</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>205</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6342,14 +6343,14 @@
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="202">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6371,7 +6372,7 @@
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="128">
         <f>Inputs!C13</f>
@@ -6382,7 +6383,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6393,7 +6394,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6443,7 +6444,7 @@
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="201">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
@@ -6494,7 +6495,7 @@
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="92">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
@@ -6545,7 +6546,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="200">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6596,7 +6597,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="152">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6647,7 +6648,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="200">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6698,7 +6699,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="200" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6749,7 +6750,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6800,7 +6801,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6851,7 +6852,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6902,7 +6903,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6953,7 +6954,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16" s="200" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7004,7 +7005,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7055,7 +7056,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" s="153" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7106,7 +7107,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19" s="200" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7157,7 +7158,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7208,7 +7209,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" s="200" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7259,7 +7260,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C22" s="162">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7310,7 +7311,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C23" s="154">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7361,7 +7362,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C24" s="155">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7412,7 +7413,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="235" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C25" s="234">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7463,7 +7464,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7514,7 +7515,7 @@
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" s="65">
         <f>IF(C36="","",C36+C31+C32)</f>
@@ -7565,7 +7566,7 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C28</f>
@@ -7616,7 +7617,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7667,7 +7668,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7718,7 +7719,7 @@
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I28</f>
@@ -7769,7 +7770,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -7820,7 +7821,7 @@
     <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" s="65">
         <f>Fin_Analysis!I15</f>
@@ -7871,7 +7872,7 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" s="65">
         <f>Fin_Analysis!I34</f>
@@ -7922,7 +7923,7 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" s="77">
         <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
@@ -7973,7 +7974,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8024,7 +8025,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8075,7 +8076,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8126,7 +8127,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8177,7 +8178,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C40" s="156" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8228,7 +8229,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8246,7 +8247,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C42" s="157">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8297,7 +8298,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8348,7 +8349,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C44" s="154">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8399,7 +8400,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C45" s="154">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8450,7 +8451,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C46" s="154">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8501,7 +8502,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8552,7 +8553,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C48" s="154">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8603,7 +8604,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8621,7 +8622,7 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="95" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C50" s="157">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
@@ -8672,7 +8673,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C51" s="154">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
@@ -8723,7 +8724,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8740,7 +8741,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C53" s="157" t="e">
         <f>IF(C36="","",(C27-C36)/C27)</f>
@@ -8790,7 +8791,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="94" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C54" s="158" t="str">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
@@ -8840,7 +8841,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C55" s="154">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
@@ -8890,7 +8891,7 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="98" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C56" s="159" t="e">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
@@ -10249,7 +10250,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10259,12 +10260,12 @@
       <c r="H2" s="7"/>
       <c r="I2" s="87"/>
       <c r="K2" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10278,7 +10279,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="205">
         <f>Inputs!C83</f>
@@ -10288,7 +10289,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10306,10 +10307,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -10319,7 +10320,7 @@
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
@@ -10333,7 +10334,7 @@
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
@@ -10344,7 +10345,7 @@
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10356,7 +10357,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
@@ -10374,7 +10375,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="204">
@@ -10393,32 +10394,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="111" t="s">
         <v>35</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>36</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10435,7 +10436,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10446,7 +10447,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10463,7 +10464,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10474,7 +10475,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10491,7 +10492,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10502,7 +10503,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10519,7 +10520,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="206">
         <f>Inputs!C76</f>
@@ -10530,7 +10531,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10547,7 +10548,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10557,7 +10558,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10579,7 +10580,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10601,7 +10602,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10622,7 +10623,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10647,7 +10648,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10674,7 +10675,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10695,7 +10696,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10712,7 +10713,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10724,13 +10725,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10752,7 +10753,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10772,7 +10773,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -10781,7 +10782,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10801,7 +10802,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10814,7 +10815,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10834,7 +10835,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -10847,7 +10848,7 @@
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="79">
         <f>SUM(C11:C22)</f>
@@ -10864,7 +10865,7 @@
       <c r="F28" s="112"/>
       <c r="G28" s="87"/>
       <c r="H28" s="78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I28" s="207">
         <f>Inputs!C77</f>
@@ -10880,7 +10881,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -10889,7 +10890,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -10905,7 +10906,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -10915,7 +10916,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -10932,7 +10933,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -10942,7 +10943,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -10959,7 +10960,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -10969,7 +10970,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -10989,7 +10990,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I33" s="206">
         <f>Inputs!C81</f>
@@ -10999,7 +11000,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11016,7 +11017,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11026,7 +11027,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11052,7 +11053,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11079,7 +11080,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11106,7 +11107,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11127,7 +11128,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11148,7 +11149,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11169,7 +11170,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11190,7 +11191,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11207,7 +11208,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11225,7 +11226,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11244,7 +11245,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11263,7 +11264,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11280,7 +11281,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -11293,7 +11294,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11310,7 +11311,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11323,7 +11324,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11340,7 +11341,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I48" s="208">
         <f>Inputs!C82</f>
@@ -11350,7 +11351,7 @@
     </row>
     <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C49" s="61">
         <f>C28+C48</f>
@@ -11367,7 +11368,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11383,14 +11384,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11402,12 +11403,12 @@
       <c r="G52" s="87"/>
       <c r="I52" s="87"/>
       <c r="K52" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11437,7 +11438,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11448,7 +11449,7 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C56" s="87"/>
       <c r="D56" s="283">
@@ -11463,7 +11464,7 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C57" s="87"/>
       <c r="D57" s="282">
@@ -11474,12 +11475,12 @@
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C58" s="87"/>
       <c r="D58" s="282">
@@ -11503,11 +11504,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11517,7 +11518,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11538,7 +11539,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11559,7 +11560,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11580,7 +11581,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C64" s="209"/>
       <c r="D64" s="209"/>
@@ -11595,7 +11596,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11626,11 +11627,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11640,7 +11641,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11661,7 +11662,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C69" s="209"/>
       <c r="D69" s="209"/>
@@ -11676,7 +11677,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11698,7 +11699,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C72" s="270">
         <f>Data!C5</f>
@@ -11706,15 +11707,15 @@
       </c>
       <c r="D72" s="270"/>
       <c r="E72" s="284" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F72" s="284"/>
       <c r="H72" s="284" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I72" s="284"/>
       <c r="K72" s="50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11723,22 +11724,22 @@
         <v>(Numbers in 1000000CNY)</v>
       </c>
       <c r="C73" s="271" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D73" s="271"/>
       <c r="E73" s="285" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F73" s="271"/>
       <c r="H73" s="285" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I73" s="271"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11759,7 +11760,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11789,7 +11790,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C76" s="162">
         <f>C74-C75</f>
@@ -11810,7 +11811,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11840,7 +11841,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11870,7 +11871,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -11901,7 +11902,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -11928,12 +11929,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="182" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11963,7 +11964,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -11993,7 +11994,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C83" s="164">
         <f>C79-C81-C82-C80</f>
@@ -12023,7 +12024,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C84" s="212"/>
       <c r="D84" s="160">
@@ -12044,7 +12045,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="264" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C85" s="258">
         <f>C83*(1-I84)</f>
@@ -12075,7 +12076,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C86" s="168">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12096,28 +12097,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.15608254568986274</v>
+        <v>0.14936074514677219</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.15608254568986274</v>
+        <v>0.14936074514677219</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.15608254568986274</v>
+        <v>0.14936074514677219</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
@@ -12147,21 +12148,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.6103369778988687E-2</v>
+        <v>9.1964613069722687E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3893659896252494E-2</v>
+        <v>6.114203615836155E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.3893659896252494E-2</v>
+        <v>6.114203615836155E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12178,27 +12179,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C92" s="199" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E92" s="284" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F92" s="284"/>
       <c r="G92" s="87"/>
       <c r="H92" s="284" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I92" s="284"/>
       <c r="K92" s="24"/>
@@ -12217,24 +12218,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>17.369918895203391</v>
+        <v>16.851586731861467</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>17.369918895203391</v>
+        <v>16.851586731861467</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12242,18 +12243,18 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>4.692973466828688</v>
+        <v>4.6273251741930226</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>4.692973466828688</v>
+        <v>4.6273251741930226</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12272,51 +12273,51 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>3022425.3309414904</v>
+        <v>2932233.7606884507</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>8.6359195687132999</v>
+        <v>8.3782168759428615</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>8.6359195687132999</v>
+        <v>8.3782168759428615</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>12.269415213841432</v>
+        <v>11.903286127741502</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C98" s="91">
         <f>E53*Exchange_Rate</f>
@@ -12334,7 +12335,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12355,31 +12356,31 @@
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>3022425.3309414904</v>
+        <v>2932233.7606884507</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>7.3405316334063047</v>
+        <v>7.1214843445514324</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>8.6359195687132999</v>
+        <v>8.3782168759428615</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>8.6359195687132999</v>
+        <v>8.3782168759428615</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>8.6359195687132999</v>
+        <v>8.3782168759428615</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>12.269415213841432</v>
+        <v>11.903286127741502</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12389,58 +12390,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>816593.44347866869</v>
+        <v>805170.41589908209</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.9832516430174765</v>
+        <v>1.955508659778546</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.3332372270793842</v>
+        <v>2.3005984232688776</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.3332372270793842</v>
+        <v>2.3005984232688776</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.3332372270793842</v>
+        <v>2.3005984232688776</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.3149285497218122</v>
+        <v>3.2685572243698457</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12450,58 +12451,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>1919509.3872100797</v>
+        <v>1868702.0882937661</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>4.6618916382118902</v>
+        <v>4.538496502164989</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>5.4845783978963425</v>
+        <v>5.3394076496058691</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>5.4845783978963425</v>
+        <v>5.3394076496058691</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>5.4845783978963425</v>
+        <v>5.3394076496058691</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>7.7921718817816217</v>
+        <v>7.5859216760556745</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12510,7 +12511,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/1288.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1288.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64738E1B-541C-406D-9B27-4D0199FEA19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3837AD2-A2AC-45B7-BF93-D30F48A12CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4147,7 +4147,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.1964613069722687E-2</v>
+        <v>9.1961754159181716E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4791,7 +4791,7 @@
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
-      <formula1>"Tier 1, Superior Cycl. ,Cigar Butts, N"</formula1>
+      <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C11" xr:uid="{7C8576B4-3288-485C-91EB-6274925EDC41}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
@@ -4971,7 +4971,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724350214004517</v>
+        <v>1.0724016825358074</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5154,7 +5154,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.6951995922176932</v>
+        <v>6.6954077328394455</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5186,7 +5186,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.114203615836155E-2</v>
+        <v>6.1140135431485908E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5216,20 +5216,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.955508659778546</v>
+        <v>1.9554303557264952</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.7588408080253224</v>
+        <v>3.7586902934956061</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.3005984232688776</v>
+        <v>2.3005063008547002</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.2685572243698457</v>
+        <v>3.2684263421700925</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12101,17 +12101,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14936074514677219</v>
+        <v>0.14935610195854518</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14936074514677219</v>
+        <v>0.14935610195854518</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14936074514677219</v>
+        <v>0.14935610195854518</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12152,17 +12152,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.1964613069722687E-2</v>
+        <v>9.1961754159181716E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.114203615836155E-2</v>
+        <v>6.1140135431485908E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.114203615836155E-2</v>
+        <v>6.1140135431485908E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12222,14 +12222,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>16.851586731861467</v>
+        <v>16.850722493453468</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>16.851586731861467</v>
+        <v>16.850722493453468</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12247,14 +12247,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>4.6273251741930226</v>
+        <v>4.627139883113137</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>4.6273251741930226</v>
+        <v>4.627139883113137</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12297,21 +12297,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>2932233.7606884507</v>
+        <v>2932083.3802478705</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>8.3782168759428615</v>
+        <v>8.3777871967126547</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>8.3782168759428615</v>
+        <v>8.3777871967126547</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>11.903286127741502</v>
+        <v>11.902675664334305</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12360,27 +12360,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>2932233.7606884507</v>
+        <v>2932083.3802478705</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>7.1214843445514324</v>
+        <v>7.1211191172057564</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>8.3782168759428615</v>
+        <v>8.3777871967126547</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>8.3782168759428615</v>
+        <v>8.3777871967126547</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>8.3782168759428615</v>
+        <v>8.3777871967126547</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>11.903286127741502</v>
+        <v>11.902675664334305</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12421,27 +12421,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>805170.41589908209</v>
+        <v>805138.17461708048</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.955508659778546</v>
+        <v>1.9554303557264952</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.3005984232688776</v>
+        <v>2.3005063008547002</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.3005984232688776</v>
+        <v>2.3005063008547002</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.3005984232688776</v>
+        <v>2.3005063008547002</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.2685572243698457</v>
+        <v>3.2684263421700925</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12482,27 +12482,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>1868702.0882937661</v>
+        <v>1868610.7774324755</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>4.538496502164989</v>
+        <v>4.5382747364661258</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>5.3394076496058691</v>
+        <v>5.3391467487836772</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>5.3394076496058691</v>
+        <v>5.3391467487836772</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>5.3394076496058691</v>
+        <v>5.3391467487836772</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>7.5859216760556745</v>
+        <v>7.5855510032521991</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1288.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1288.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3837AD2-A2AC-45B7-BF93-D30F48A12CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F07FEAA-9583-40AD-A566-AD2CF851D6BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4147,7 +4147,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.1961754159181716E-2</v>
+        <v>9.1970330890804655E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4971,7 +4971,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724016825358074</v>
+        <v>1.0725016991297405</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5154,7 +5154,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.6954077328394455</v>
+        <v>6.694783349794668</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5186,7 +5186,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.1140135431485908E-2</v>
+        <v>6.1145837612112862E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5216,20 +5216,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.9554303557264952</v>
+        <v>1.9556652715257956</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.7586902934956061</v>
+        <v>3.7591418440875422</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.3005063008547002</v>
+        <v>2.3007826723832889</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.2684263421700925</v>
+        <v>3.2688189948587327</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12101,17 +12101,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14935610195854518</v>
+        <v>0.14937003152322628</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14935610195854518</v>
+        <v>0.14937003152322628</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14935610195854518</v>
+        <v>0.14937003152322628</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12152,17 +12152,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.1961754159181716E-2</v>
+        <v>9.1970330890804655E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1140135431485908E-2</v>
+        <v>6.1145837612112862E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1140135431485908E-2</v>
+        <v>6.1145837612112862E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12222,14 +12222,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>16.850722493453468</v>
+        <v>16.853315288668593</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>16.850722493453468</v>
+        <v>16.853315288668593</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12247,14 +12247,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>4.627139883113137</v>
+        <v>4.6276957649735841</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>4.627139883113137</v>
+        <v>4.6276957649735841</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12297,21 +12297,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>2932083.3802478705</v>
+        <v>2932534.5354883424</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>8.3777871967126547</v>
+        <v>8.3790762741730074</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>8.3777871967126547</v>
+        <v>8.3790762741730074</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>11.902675664334305</v>
+        <v>11.904507111058424</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12360,27 +12360,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>2932083.3802478705</v>
+        <v>2932534.5354883424</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>7.1211191172057564</v>
+        <v>7.1222148330470558</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>8.3777871967126547</v>
+        <v>8.3790762741730074</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>8.3777871967126547</v>
+        <v>8.3790762741730074</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>8.3777871967126547</v>
+        <v>8.3790762741730074</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>11.902675664334305</v>
+        <v>11.904507111058424</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12421,27 +12421,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>805138.17461708048</v>
+        <v>805234.89996313211</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.9554303557264952</v>
+        <v>1.9556652715257956</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.3005063008547002</v>
+        <v>2.3007826723832889</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.3005063008547002</v>
+        <v>2.3007826723832889</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.3005063008547002</v>
+        <v>2.3007826723832889</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.2684263421700925</v>
+        <v>3.2688189948587327</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12482,27 +12482,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>1868610.7774324755</v>
+        <v>1868884.717725737</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>4.5382747364661258</v>
+        <v>4.5389400522864261</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>5.3391467487836772</v>
+        <v>5.3399294732781479</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>5.3391467487836772</v>
+        <v>5.3399294732781479</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>5.3391467487836772</v>
+        <v>5.3399294732781479</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>7.5855510032521991</v>
+        <v>7.5866630529585777</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1288.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1288.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F07FEAA-9583-40AD-A566-AD2CF851D6BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCF7D8E2-AB6E-451F-A231-AE30EF0FC4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4147,7 +4147,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.1970330890804655E-2</v>
+        <v>9.1967471980263671E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4971,7 +4971,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0725016991297405</v>
+        <v>1.072468360265096</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5154,7 +5154,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.694783349794668</v>
+        <v>6.6949914645365034</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5186,7 +5186,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.1145837612112862E-2</v>
+        <v>6.1143936885237206E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5216,20 +5216,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.9556652715257956</v>
+        <v>1.9555869650449762</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.7591418440875422</v>
+        <v>3.758991324889295</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.3007826723832889</v>
+        <v>2.3006905471117367</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.2688189948587327</v>
+        <v>3.2686881085993873</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12101,17 +12101,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14937003152322628</v>
+        <v>0.14936538833499921</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14937003152322628</v>
+        <v>0.14936538833499921</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14937003152322628</v>
+        <v>0.14936538833499921</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12152,17 +12152,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.1970330890804655E-2</v>
+        <v>9.1967471980263671E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1145837612112862E-2</v>
+        <v>6.1143936885237206E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1145837612112862E-2</v>
+        <v>6.1143936885237206E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12222,14 +12222,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>16.853315288668593</v>
+        <v>16.852450996932987</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>16.853315288668593</v>
+        <v>16.852450996932987</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12247,14 +12247,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>4.6276957649735841</v>
+        <v>4.6275104681464976</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>4.6276957649735841</v>
+        <v>4.6275104681464976</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12297,21 +12297,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>2932534.5354883424</v>
+        <v>2932384.1457685758</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>8.3790762741730074</v>
+        <v>8.3786465684295539</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>8.3790762741730074</v>
+        <v>8.3786465684295539</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>11.904507111058424</v>
+        <v>11.903896609982741</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12360,27 +12360,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>2932534.5354883424</v>
+        <v>2932384.1457685758</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>7.1222148330470558</v>
+        <v>7.1218495831651207</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>8.3790762741730074</v>
+        <v>8.3786465684295539</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>8.3790762741730074</v>
+        <v>8.3786465684295539</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>8.3790762741730074</v>
+        <v>8.3786465684295539</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>11.904507111058424</v>
+        <v>11.903896609982741</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12421,27 +12421,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>805234.89996313211</v>
+        <v>805202.65768109786</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.9556652715257956</v>
+        <v>1.9555869650449762</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.3007826723832889</v>
+        <v>2.3006905471117367</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.3007826723832889</v>
+        <v>2.3006905471117367</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.3007826723832889</v>
+        <v>2.3006905471117367</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.2688189948587327</v>
+        <v>3.2686881085993873</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12482,27 +12482,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>1868884.717725737</v>
+        <v>1868793.401724837</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>4.5389400522864261</v>
+        <v>4.5387182741050482</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>5.3399294732781479</v>
+        <v>5.3396685577706453</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>5.3399294732781479</v>
+        <v>5.3396685577706453</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>5.3399294732781479</v>
+        <v>5.3396685577706453</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>7.5866630529585777</v>
+        <v>7.5862923592910647</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1288.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1288.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCF7D8E2-AB6E-451F-A231-AE30EF0FC4E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{24C0D997-199D-4DB5-A8F4-5AB7AD425586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4147,7 +4147,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.1967471980263671E-2</v>
+        <v>9.1964613069722687E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4584,7 +4584,7 @@
       <c r="E89" s="89" t="s">
         <v>206</v>
       </c>
-      <c r="F89" s="50" t="s">
+      <c r="F89" s="89" t="s">
         <v>205</v>
       </c>
       <c r="H89" s="31"/>
@@ -4971,7 +4971,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.072468360265096</v>
+        <v>1.0724350214004517</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5154,7 +5154,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.6949914645365034</v>
+        <v>6.6951995922176932</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5186,7 +5186,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.1143936885237206E-2</v>
+        <v>6.114203615836155E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5216,20 +5216,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.9555869650449762</v>
+        <v>1.955508659778546</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.758991324889295</v>
+        <v>3.7588408080253224</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.3006905471117367</v>
+        <v>2.3005984232688776</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.2686881085993873</v>
+        <v>3.2685572243698457</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12101,17 +12101,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14936538833499921</v>
+        <v>0.14936074514677219</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14936538833499921</v>
+        <v>0.14936074514677219</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14936538833499921</v>
+        <v>0.14936074514677219</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12152,17 +12152,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.1967471980263671E-2</v>
+        <v>9.1964613069722687E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1143936885237206E-2</v>
+        <v>6.114203615836155E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1143936885237206E-2</v>
+        <v>6.114203615836155E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12222,14 +12222,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>16.852450996932987</v>
+        <v>16.851586731861467</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>16.852450996932987</v>
+        <v>16.851586731861467</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12247,14 +12247,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>4.6275104681464976</v>
+        <v>4.6273251741930226</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>4.6275104681464976</v>
+        <v>4.6273251741930226</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12297,21 +12297,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>2932384.1457685758</v>
+        <v>2932233.7606884507</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>8.3786465684295539</v>
+        <v>8.3782168759428615</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>8.3786465684295539</v>
+        <v>8.3782168759428615</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>11.903896609982741</v>
+        <v>11.903286127741502</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12360,27 +12360,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>2932384.1457685758</v>
+        <v>2932233.7606884507</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>7.1218495831651207</v>
+        <v>7.1214843445514324</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>8.3786465684295539</v>
+        <v>8.3782168759428615</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>8.3786465684295539</v>
+        <v>8.3782168759428615</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>8.3786465684295539</v>
+        <v>8.3782168759428615</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>11.903896609982741</v>
+        <v>11.903286127741502</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12421,27 +12421,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>805202.65768109786</v>
+        <v>805170.41589908209</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.9555869650449762</v>
+        <v>1.955508659778546</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.3006905471117367</v>
+        <v>2.3005984232688776</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.3006905471117367</v>
+        <v>2.3005984232688776</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.3006905471117367</v>
+        <v>2.3005984232688776</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.2686881085993873</v>
+        <v>3.2685572243698457</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12482,27 +12482,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>1868793.401724837</v>
+        <v>1868702.0882937661</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>4.5387182741050482</v>
+        <v>4.538496502164989</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>5.3396685577706453</v>
+        <v>5.3394076496058691</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>5.3396685577706453</v>
+        <v>5.3394076496058691</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>5.3396685577706453</v>
+        <v>5.3394076496058691</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>7.5862923592910647</v>
+        <v>7.5859216760556745</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1288.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1288.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24C0D997-199D-4DB5-A8F4-5AB7AD425586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B46AC855-8B41-47F0-BBEE-F2FCA306A7E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4147,7 +4147,7 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.1964613069722687E-2</v>
+        <v>9.1961754159181716E-2</v>
       </c>
       <c r="D45" s="153" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4971,7 +4971,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724350214004517</v>
+        <v>1.0724016825358074</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5020,7 +5020,7 @@
         <v>0.06</v>
       </c>
       <c r="D12" s="173">
-        <v>6.6000000000000003E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5067,7 +5067,7 @@
         <v>253</v>
       </c>
       <c r="C17" s="176">
-        <v>7.1999999999999995E-2</v>
+        <v>6.8999999999999992E-2</v>
       </c>
       <c r="D17" s="177"/>
     </row>
@@ -5154,7 +5154,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.6951995922176932</v>
+        <v>6.6954077328394455</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5186,7 +5186,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.114203615836155E-2</v>
+        <v>6.1140135431485908E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5216,20 +5216,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.955508659778546</v>
+        <v>2.0404490668450381</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.7588408080253224</v>
+        <v>3.9774556779369252</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.3005984232688776</v>
+        <v>2.4005283139353391</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.2685572243698457</v>
+        <v>3.4586571112495004</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12101,17 +12101,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14936074514677219</v>
+        <v>0.14935610195854518</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14936074514677219</v>
+        <v>0.14935610195854518</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14936074514677219</v>
+        <v>0.14935610195854518</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12152,17 +12152,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.1964613069722687E-2</v>
+        <v>9.1961754159181716E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.114203615836155E-2</v>
+        <v>6.1140135431485908E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.114203615836155E-2</v>
+        <v>6.1140135431485908E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12211,7 +12211,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.1999999999999995E-2</v>
+        <v>6.8999999999999992E-2</v>
       </c>
       <c r="D93" s="240">
         <f>Inputs!C86</f>
@@ -12222,14 +12222,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>16.851586731861467</v>
+        <v>17.58336260186449</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>16.851586731861467</v>
+        <v>17.58336260186449</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12247,14 +12247,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>4.6273251741930226</v>
+        <v>4.828319878031099</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>4.6273251741930226</v>
+        <v>4.828319878031099</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12297,21 +12297,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>2932233.7606884507</v>
+        <v>3059565.2663456043</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>8.3782168759428615</v>
+        <v>8.742038813961031</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>8.3782168759428615</v>
+        <v>8.742038813961031</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>11.903286127741502</v>
+        <v>12.595441818038021</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12360,27 +12360,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>2932233.7606884507</v>
+        <v>3059565.2663456043</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>7.1214843445514324</v>
+        <v>7.4307329918668765</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>8.3782168759428615</v>
+        <v>8.742038813961031</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>8.3782168759428615</v>
+        <v>8.742038813961031</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>8.3782168759428615</v>
+        <v>8.742038813961031</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>11.903286127741502</v>
+        <v>12.595441818038021</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12421,27 +12421,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>805170.41589908209</v>
+        <v>840144.18220912735</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.955508659778546</v>
+        <v>2.0404490668450381</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.3005984232688776</v>
+        <v>2.4005283139353391</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.3005984232688776</v>
+        <v>2.4005283139353391</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.3005984232688776</v>
+        <v>2.4005283139353391</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.2685572243698457</v>
+        <v>3.4586571112495004</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12482,27 +12482,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>1868702.0882937661</v>
+        <v>1949854.724277366</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>4.538496502164989</v>
+        <v>4.7355910293559571</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>5.3394076496058691</v>
+        <v>5.5712835639481852</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>5.3394076496058691</v>
+        <v>5.5712835639481852</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>5.3394076496058691</v>
+        <v>5.5712835639481852</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>7.5859216760556745</v>
+        <v>8.0270494646437598</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1288.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1288.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B46AC855-8B41-47F0-BBEE-F2FCA306A7E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{10912347-A1FD-4F32-9705-DAEFC891C94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -967,7 +967,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="12">
+  <numFmts count="13">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
@@ -980,6 +980,7 @@
     <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="185" formatCode="#,##0.0000"/>
     <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="187" formatCode="&quot;g = &quot;0.00%"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1519,7 +1520,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1819,9 +1820,6 @@
     <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2156,6 +2154,12 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3593,7 +3597,7 @@
       <c r="B4" s="141" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="189" t="s">
+      <c r="C4" s="188" t="s">
         <v>258</v>
       </c>
     </row>
@@ -3601,7 +3605,7 @@
       <c r="B5" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="191" t="s">
         <v>259</v>
       </c>
     </row>
@@ -3609,7 +3613,7 @@
       <c r="B6" s="141" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="190">
+      <c r="C6" s="189">
         <v>45593</v>
       </c>
     </row>
@@ -3617,7 +3621,7 @@
       <c r="B7" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="191">
+      <c r="C7" s="190">
         <v>8</v>
       </c>
     </row>
@@ -3625,16 +3629,16 @@
       <c r="B8" s="140" t="s">
         <v>215</v>
       </c>
-      <c r="C8" s="192" t="s">
+      <c r="C8" s="191" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="268"/>
+      <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>216</v>
       </c>
-      <c r="C9" s="193" t="s">
+      <c r="C9" s="192" t="s">
         <v>260</v>
       </c>
     </row>
@@ -3642,7 +3646,7 @@
       <c r="B10" s="140" t="s">
         <v>217</v>
       </c>
-      <c r="C10" s="194">
+      <c r="C10" s="193">
         <v>349983033873</v>
       </c>
     </row>
@@ -3650,101 +3654,101 @@
       <c r="B11" s="140" t="s">
         <v>218</v>
       </c>
-      <c r="C11" s="193" t="s">
+      <c r="C11" s="192" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="219" t="s">
+      <c r="B12" s="218" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="220">
+      <c r="C12" s="219">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="219" t="s">
+      <c r="B13" s="218" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="221">
+      <c r="C13" s="220">
         <v>1000000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="219" t="s">
+      <c r="B14" s="218" t="s">
         <v>219</v>
       </c>
-      <c r="C14" s="220">
+      <c r="C14" s="219">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="219" t="s">
+      <c r="B15" s="218" t="s">
         <v>254</v>
       </c>
-      <c r="C15" s="177" t="s">
+      <c r="C15" s="176" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="223" t="s">
+      <c r="B16" s="222" t="s">
         <v>96</v>
       </c>
-      <c r="C16" s="224">
+      <c r="C16" s="223">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="241" t="s">
+      <c r="B17" s="240" t="s">
         <v>224</v>
       </c>
-      <c r="C17" s="243" t="s">
+      <c r="C17" s="242" t="s">
         <v>263</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="241" t="s">
+      <c r="B18" s="240" t="s">
         <v>238</v>
       </c>
-      <c r="C18" s="243" t="s">
+      <c r="C18" s="242" t="s">
         <v>264</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="241" t="s">
+      <c r="B19" s="240" t="s">
         <v>239</v>
       </c>
-      <c r="C19" s="243" t="s">
+      <c r="C19" s="242" t="s">
         <v>264</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="242" t="s">
+      <c r="B20" s="241" t="s">
         <v>228</v>
       </c>
-      <c r="C20" s="243" t="s">
+      <c r="C20" s="242" t="s">
         <v>264</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="225" t="s">
+      <c r="B21" s="224" t="s">
         <v>231</v>
       </c>
-      <c r="C21" s="243" t="s">
+      <c r="C21" s="242" t="s">
         <v>263</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="227" t="s">
+      <c r="B22" s="226" t="s">
         <v>230</v>
       </c>
-      <c r="C22" s="244" t="s">
+      <c r="C22" s="243" t="s">
         <v>265</v>
       </c>
       <c r="D22" s="24"/>
@@ -3802,390 +3806,390 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="150">
+      <c r="C25" s="149">
         <v>1318408</v>
       </c>
-      <c r="D25" s="150">
+      <c r="D25" s="149">
         <v>1203982</v>
       </c>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="150"/>
-      <c r="H25" s="150"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="150"/>
-      <c r="K25" s="150"/>
-      <c r="L25" s="150"/>
-      <c r="M25" s="150"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="149"/>
+      <c r="K25" s="149"/>
+      <c r="L25" s="149"/>
+      <c r="M25" s="149"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="151">
+      <c r="C26" s="150">
         <v>150324</v>
       </c>
-      <c r="D26" s="151">
+      <c r="D26" s="150">
         <v>159502</v>
       </c>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="151"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="151"/>
-      <c r="M26" s="151"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="150"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="150"/>
+      <c r="K26" s="150"/>
+      <c r="L26" s="150"/>
+      <c r="M26" s="150"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="151">
+      <c r="C27" s="150">
         <v>252305</v>
       </c>
-      <c r="D27" s="151">
+      <c r="D27" s="150">
         <v>243571</v>
       </c>
-      <c r="E27" s="151"/>
-      <c r="F27" s="151"/>
-      <c r="G27" s="151"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="151"/>
-      <c r="K27" s="151"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="151"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="150"/>
+      <c r="L27" s="150"/>
+      <c r="M27" s="150"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C28" s="151"/>
-      <c r="D28" s="151"/>
-      <c r="E28" s="151"/>
-      <c r="F28" s="151"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="151"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="151"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="150"/>
+      <c r="L28" s="150"/>
+      <c r="M28" s="150"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
         <v>255</v>
       </c>
-      <c r="C29" s="151">
+      <c r="C29" s="150">
         <v>651948</v>
       </c>
-      <c r="D29" s="151">
+      <c r="D29" s="150">
         <v>518581</v>
       </c>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="151"/>
-      <c r="M29" s="151"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="150"/>
+      <c r="K29" s="150"/>
+      <c r="L29" s="150"/>
+      <c r="M29" s="150"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="C30" s="151">
+      <c r="C30" s="150">
         <v>464</v>
       </c>
-      <c r="D30" s="151">
+      <c r="D30" s="150">
         <v>-366</v>
       </c>
-      <c r="E30" s="151"/>
-      <c r="F30" s="151"/>
-      <c r="G30" s="151"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="151"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="151"/>
-      <c r="M30" s="151"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="150"/>
+      <c r="G30" s="150"/>
+      <c r="H30" s="150"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="150"/>
+      <c r="K30" s="150"/>
+      <c r="L30" s="150"/>
+      <c r="M30" s="150"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="151"/>
-      <c r="D31" s="151"/>
-      <c r="E31" s="151"/>
-      <c r="F31" s="151"/>
-      <c r="G31" s="151"/>
-      <c r="H31" s="151"/>
-      <c r="I31" s="151"/>
-      <c r="J31" s="151"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="151"/>
-      <c r="M31" s="151"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="150"/>
+      <c r="L31" s="150"/>
+      <c r="M31" s="150"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="151"/>
-      <c r="D32" s="151"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="151"/>
-      <c r="K32" s="151"/>
-      <c r="L32" s="151"/>
-      <c r="M32" s="151"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="150"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="150"/>
+      <c r="J32" s="150"/>
+      <c r="K32" s="150"/>
+      <c r="L32" s="150"/>
+      <c r="M32" s="150"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="151"/>
-      <c r="D33" s="151"/>
-      <c r="E33" s="151"/>
-      <c r="F33" s="151"/>
-      <c r="G33" s="151"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="151"/>
-      <c r="J33" s="151"/>
-      <c r="K33" s="151"/>
-      <c r="L33" s="151"/>
-      <c r="M33" s="151"/>
+      <c r="C33" s="150"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="150"/>
+      <c r="K33" s="150"/>
+      <c r="L33" s="150"/>
+      <c r="M33" s="150"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="218"/>
-      <c r="D34" s="151"/>
-      <c r="E34" s="151"/>
-      <c r="F34" s="151"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="151"/>
-      <c r="M34" s="151"/>
+      <c r="C34" s="217"/>
+      <c r="D34" s="150"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="150"/>
+      <c r="K34" s="150"/>
+      <c r="L34" s="150"/>
+      <c r="M34" s="150"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C35" s="218"/>
-      <c r="D35" s="151"/>
-      <c r="E35" s="151"/>
-      <c r="F35" s="151"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="151"/>
-      <c r="K35" s="151"/>
-      <c r="L35" s="151"/>
-      <c r="M35" s="151"/>
+      <c r="C35" s="217"/>
+      <c r="D35" s="150"/>
+      <c r="E35" s="150"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="150"/>
+      <c r="H35" s="150"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="150"/>
+      <c r="K35" s="150"/>
+      <c r="L35" s="150"/>
+      <c r="M35" s="150"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>148</v>
       </c>
-      <c r="C36" s="218"/>
-      <c r="D36" s="151"/>
-      <c r="E36" s="151"/>
-      <c r="F36" s="151"/>
-      <c r="G36" s="151"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="151"/>
-      <c r="K36" s="151"/>
-      <c r="L36" s="151"/>
-      <c r="M36" s="151"/>
+      <c r="C36" s="217"/>
+      <c r="D36" s="150"/>
+      <c r="E36" s="150"/>
+      <c r="F36" s="150"/>
+      <c r="G36" s="150"/>
+      <c r="H36" s="150"/>
+      <c r="I36" s="150"/>
+      <c r="J36" s="150"/>
+      <c r="K36" s="150"/>
+      <c r="L36" s="150"/>
+      <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="218"/>
-      <c r="D37" s="151"/>
-      <c r="E37" s="151"/>
-      <c r="F37" s="151"/>
-      <c r="G37" s="151"/>
-      <c r="H37" s="151"/>
-      <c r="I37" s="151"/>
-      <c r="J37" s="151"/>
-      <c r="K37" s="151"/>
-      <c r="L37" s="151"/>
-      <c r="M37" s="151"/>
+      <c r="C37" s="217"/>
+      <c r="D37" s="150"/>
+      <c r="E37" s="150"/>
+      <c r="F37" s="150"/>
+      <c r="G37" s="150"/>
+      <c r="H37" s="150"/>
+      <c r="I37" s="150"/>
+      <c r="J37" s="150"/>
+      <c r="K37" s="150"/>
+      <c r="L37" s="150"/>
+      <c r="M37" s="150"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
         <v>115</v>
       </c>
-      <c r="C38" s="218"/>
-      <c r="D38" s="151"/>
-      <c r="E38" s="151"/>
-      <c r="F38" s="151"/>
-      <c r="G38" s="151"/>
-      <c r="H38" s="151"/>
-      <c r="I38" s="151"/>
-      <c r="J38" s="151"/>
-      <c r="K38" s="151"/>
-      <c r="L38" s="151"/>
-      <c r="M38" s="151"/>
+      <c r="C38" s="217"/>
+      <c r="D38" s="150"/>
+      <c r="E38" s="150"/>
+      <c r="F38" s="150"/>
+      <c r="G38" s="150"/>
+      <c r="H38" s="150"/>
+      <c r="I38" s="150"/>
+      <c r="J38" s="150"/>
+      <c r="K38" s="150"/>
+      <c r="L38" s="150"/>
+      <c r="M38" s="150"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="218"/>
-      <c r="D39" s="151"/>
-      <c r="E39" s="151"/>
-      <c r="F39" s="151"/>
-      <c r="G39" s="151"/>
-      <c r="H39" s="151"/>
-      <c r="I39" s="151"/>
-      <c r="J39" s="151"/>
-      <c r="K39" s="151"/>
-      <c r="L39" s="151"/>
-      <c r="M39" s="151"/>
+      <c r="C39" s="217"/>
+      <c r="D39" s="150"/>
+      <c r="E39" s="150"/>
+      <c r="F39" s="150"/>
+      <c r="G39" s="150"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="150"/>
+      <c r="K39" s="150"/>
+      <c r="L39" s="150"/>
+      <c r="M39" s="150"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="218"/>
-      <c r="D40" s="151"/>
-      <c r="E40" s="151"/>
-      <c r="F40" s="151"/>
-      <c r="G40" s="151"/>
-      <c r="H40" s="151"/>
-      <c r="I40" s="151"/>
-      <c r="J40" s="151"/>
-      <c r="K40" s="151"/>
-      <c r="L40" s="151"/>
-      <c r="M40" s="151"/>
+      <c r="C40" s="217"/>
+      <c r="D40" s="150"/>
+      <c r="E40" s="150"/>
+      <c r="F40" s="150"/>
+      <c r="G40" s="150"/>
+      <c r="H40" s="150"/>
+      <c r="I40" s="150"/>
+      <c r="J40" s="150"/>
+      <c r="K40" s="150"/>
+      <c r="L40" s="150"/>
+      <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="C41" s="218"/>
-      <c r="D41" s="151"/>
-      <c r="E41" s="151"/>
-      <c r="F41" s="151"/>
-      <c r="G41" s="151"/>
-      <c r="H41" s="151"/>
-      <c r="I41" s="151"/>
-      <c r="J41" s="151"/>
-      <c r="K41" s="151"/>
-      <c r="L41" s="151"/>
-      <c r="M41" s="151"/>
+      <c r="C41" s="217"/>
+      <c r="D41" s="150"/>
+      <c r="E41" s="150"/>
+      <c r="F41" s="150"/>
+      <c r="G41" s="150"/>
+      <c r="H41" s="150"/>
+      <c r="I41" s="150"/>
+      <c r="J41" s="150"/>
+      <c r="K41" s="150"/>
+      <c r="L41" s="150"/>
+      <c r="M41" s="150"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>138</v>
       </c>
-      <c r="C42" s="218"/>
-      <c r="D42" s="151"/>
-      <c r="E42" s="151"/>
-      <c r="F42" s="151"/>
-      <c r="G42" s="151"/>
-      <c r="H42" s="151"/>
-      <c r="I42" s="151"/>
-      <c r="J42" s="151"/>
-      <c r="K42" s="151"/>
-      <c r="L42" s="151"/>
-      <c r="M42" s="151"/>
+      <c r="C42" s="217"/>
+      <c r="D42" s="150"/>
+      <c r="E42" s="150"/>
+      <c r="F42" s="150"/>
+      <c r="G42" s="150"/>
+      <c r="H42" s="150"/>
+      <c r="I42" s="150"/>
+      <c r="J42" s="150"/>
+      <c r="K42" s="150"/>
+      <c r="L42" s="150"/>
+      <c r="M42" s="150"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>136</v>
       </c>
-      <c r="C43" s="218"/>
-      <c r="D43" s="151"/>
-      <c r="E43" s="151"/>
-      <c r="F43" s="151"/>
-      <c r="G43" s="151"/>
-      <c r="H43" s="151"/>
-      <c r="I43" s="151"/>
-      <c r="J43" s="151"/>
-      <c r="K43" s="151"/>
-      <c r="L43" s="151"/>
-      <c r="M43" s="151"/>
+      <c r="C43" s="217"/>
+      <c r="D43" s="150"/>
+      <c r="E43" s="150"/>
+      <c r="F43" s="150"/>
+      <c r="G43" s="150"/>
+      <c r="H43" s="150"/>
+      <c r="I43" s="150"/>
+      <c r="J43" s="150"/>
+      <c r="K43" s="150"/>
+      <c r="L43" s="150"/>
+      <c r="M43" s="150"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>207</v>
       </c>
-      <c r="C44" s="251">
+      <c r="C44" s="250">
         <f>0.2309+0.1164</f>
         <v>0.3473</v>
       </c>
-      <c r="D44" s="251"/>
-      <c r="E44" s="251"/>
-      <c r="F44" s="251"/>
-      <c r="G44" s="251"/>
-      <c r="H44" s="251"/>
-      <c r="I44" s="251"/>
-      <c r="J44" s="251"/>
-      <c r="K44" s="251"/>
-      <c r="L44" s="251"/>
-      <c r="M44" s="251"/>
+      <c r="D44" s="250"/>
+      <c r="E44" s="250"/>
+      <c r="F44" s="250"/>
+      <c r="G44" s="250"/>
+      <c r="H44" s="250"/>
+      <c r="I44" s="250"/>
+      <c r="J44" s="250"/>
+      <c r="K44" s="250"/>
+      <c r="L44" s="250"/>
+      <c r="M44" s="250"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
         <v>251</v>
       </c>
-      <c r="C45" s="153">
+      <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.1961754159181716E-2</v>
-      </c>
-      <c r="D45" s="153" t="str">
+        <v>9.1201777720178651E-2</v>
+      </c>
+      <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="153" t="str">
+      <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
@@ -4194,10 +4198,10 @@
       <c r="B47" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="C47" s="195" t="s">
+      <c r="C47" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="D47" s="195" t="s">
+      <c r="D47" s="194" t="s">
         <v>196</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -4296,7 +4300,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="222" t="s">
+      <c r="E56" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4308,7 +4312,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="222" t="s">
+      <c r="E57" s="221" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4328,7 +4332,7 @@
         <v>50</v>
       </c>
       <c r="C59" s="120"/>
-      <c r="D59" s="196">
+      <c r="D59" s="195">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -4396,7 +4400,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="222" t="s">
+      <c r="E65" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4408,7 +4412,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="222" t="s">
+      <c r="E66" s="221" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4421,7 +4425,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="222" t="s">
+      <c r="E67" s="221" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4469,14 +4473,14 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="247" t="s">
+      <c r="B72" s="246" t="s">
         <v>75</v>
       </c>
-      <c r="C72" s="248"/>
-      <c r="D72" s="249">
-        <v>0</v>
-      </c>
-      <c r="E72" s="250"/>
+      <c r="C72" s="247"/>
+      <c r="D72" s="248">
+        <v>0</v>
+      </c>
+      <c r="E72" s="249"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -4560,7 +4564,7 @@
       <c r="B86" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C86" s="198">
+      <c r="C86" s="197">
         <v>5</v>
       </c>
     </row>
@@ -4568,19 +4572,20 @@
       <c r="B87" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="C87" s="237" t="s">
+      <c r="C87" s="236" t="s">
         <v>266</v>
       </c>
+      <c r="D87" s="269"/>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C89" s="270">
+      <c r="C89" s="271">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="270"/>
+      <c r="D89" s="271"/>
       <c r="E89" s="89" t="s">
         <v>206</v>
       </c>
@@ -4594,14 +4599,14 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C90" s="271" t="s">
+      <c r="C90" s="272" t="s">
         <v>100</v>
       </c>
-      <c r="D90" s="271"/>
-      <c r="E90" s="236" t="s">
+      <c r="D90" s="272"/>
+      <c r="E90" s="235" t="s">
         <v>101</v>
       </c>
-      <c r="F90" s="256" t="s">
+      <c r="F90" s="255" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4613,12 +4618,12 @@
         <f>C25</f>
         <v>1318408</v>
       </c>
-      <c r="D91" s="210"/>
-      <c r="E91" s="252">
+      <c r="D91" s="209"/>
+      <c r="E91" s="251">
         <f>C91</f>
         <v>1318408</v>
       </c>
-      <c r="F91" s="252">
+      <c r="F91" s="251">
         <f>C91</f>
         <v>1318408</v>
       </c>
@@ -4631,15 +4636,15 @@
         <f>C26</f>
         <v>150324</v>
       </c>
-      <c r="D92" s="160">
+      <c r="D92" s="159">
         <f>C92/C91</f>
         <v>0.11401933240696355</v>
       </c>
-      <c r="E92" s="253">
+      <c r="E92" s="252">
         <f>E91*D92</f>
         <v>150324</v>
       </c>
-      <c r="F92" s="253">
+      <c r="F92" s="252">
         <f>F91*D92</f>
         <v>150324</v>
       </c>
@@ -4652,15 +4657,15 @@
         <f>C27+C28</f>
         <v>252305</v>
       </c>
-      <c r="D93" s="160">
+      <c r="D93" s="159">
         <f>C93/C91</f>
         <v>0.19137095648691452</v>
       </c>
-      <c r="E93" s="253">
+      <c r="E93" s="252">
         <f>E91*D93</f>
         <v>252305</v>
       </c>
-      <c r="F93" s="253">
+      <c r="F93" s="252">
         <f>F91*D93</f>
         <v>252305</v>
       </c>
@@ -4673,12 +4678,12 @@
         <f>C29</f>
         <v>651948</v>
       </c>
-      <c r="D94" s="160">
+      <c r="D94" s="159">
         <f>C94/C91</f>
         <v>0.49449639261897682</v>
       </c>
-      <c r="E94" s="254"/>
-      <c r="F94" s="253">
+      <c r="E94" s="253"/>
+      <c r="F94" s="252">
         <f>F91*D94</f>
         <v>651948</v>
       </c>
@@ -4691,15 +4696,15 @@
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="160">
+      <c r="D95" s="159">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="253">
+      <c r="E95" s="252">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="253">
+      <c r="F95" s="252">
         <f>F91*D95</f>
         <v>0</v>
       </c>
@@ -4712,12 +4717,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="160">
+      <c r="D96" s="159">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="254"/>
-      <c r="F96" s="253">
+      <c r="E96" s="253"/>
+      <c r="F96" s="252">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -4730,12 +4735,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>618.66666666666663</v>
       </c>
-      <c r="D97" s="160">
+      <c r="D97" s="159">
         <f>C97/C91</f>
         <v>4.6925281602255647E-4</v>
       </c>
-      <c r="E97" s="254"/>
-      <c r="F97" s="253">
+      <c r="E97" s="253"/>
+      <c r="F97" s="252">
         <f>F91*D97</f>
         <v>618.66666666666663</v>
       </c>
@@ -4744,16 +4749,16 @@
       <c r="B98" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="C98" s="238">
+      <c r="C98" s="237">
         <f>C44</f>
         <v>0.3473</v>
       </c>
-      <c r="D98" s="267"/>
-      <c r="E98" s="255">
+      <c r="D98" s="266"/>
+      <c r="E98" s="254">
         <f>F98</f>
         <v>0.23089999999999999</v>
       </c>
-      <c r="F98" s="255">
+      <c r="F98" s="254">
         <v>0.23089999999999999</v>
       </c>
       <c r="G98" s="1"/>
@@ -4871,17 +4876,17 @@
       <c r="B3" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="276" t="str">
+      <c r="C3" s="277" t="str">
         <f>Inputs!C4</f>
         <v>1288.HK</v>
       </c>
-      <c r="D3" s="277"/>
+      <c r="D3" s="278"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>4.05</v>
+        <v>4.08</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>267</v>
@@ -4891,40 +4896,40 @@
       <c r="B4" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="278" t="str">
+      <c r="C4" s="279" t="str">
         <f>Inputs!C5</f>
         <v>农业银行</v>
       </c>
-      <c r="D4" s="279"/>
+      <c r="D4" s="280"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="282">
+      <c r="G4" s="283">
         <f>Inputs!C10</f>
         <v>349983033873</v>
       </c>
-      <c r="H4" s="282"/>
+      <c r="H4" s="283"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="280">
+      <c r="C5" s="281">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="281"/>
+      <c r="D5" s="282"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="274">
+      <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>1417431.2871856499</v>
-      </c>
-      <c r="H5" s="274"/>
+        <v>1427930.7782018401</v>
+      </c>
+      <c r="H5" s="275"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4932,11 +4937,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="186">
+      <c r="C6" s="185">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="187">
+      <c r="D6" s="186">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4947,22 +4952,22 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="275" t="str">
+      <c r="G6" s="276" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="275"/>
+      <c r="H6" s="276"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="C7" s="188" t="str">
+      <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
         <v>Y</v>
       </c>
-      <c r="D7" s="188" t="str">
+      <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>
         <v>C0014</v>
       </c>
@@ -4971,7 +4976,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0724016825358074</v>
+        <v>1.0714173714319866</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4991,7 +4996,7 @@
       <c r="B10" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C10" s="173">
+      <c r="C10" s="172">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -5002,7 +5007,7 @@
       <c r="B11" s="122" t="s">
         <v>179</v>
       </c>
-      <c r="C11" s="174">
+      <c r="C11" s="173">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
@@ -5016,11 +5021,11 @@
       <c r="B12" s="87" t="s">
         <v>252</v>
       </c>
-      <c r="C12" s="175">
+      <c r="C12" s="174">
         <v>0.06</v>
       </c>
-      <c r="D12" s="173">
-        <v>6.4500000000000002E-2</v>
+      <c r="D12" s="172">
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5029,7 +5034,7 @@
       <c r="B14" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C14" s="173">
+      <c r="C14" s="172">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -5040,7 +5045,7 @@
       <c r="B15" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C15" s="173">
+      <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -5051,10 +5056,10 @@
       <c r="B16" s="122" t="s">
         <v>187</v>
       </c>
-      <c r="C16" s="174">
+      <c r="C16" s="173">
         <v>0.16</v>
       </c>
-      <c r="D16" s="266" t="str">
+      <c r="D16" s="265" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -5066,10 +5071,10 @@
       <c r="B17" s="87" t="s">
         <v>253</v>
       </c>
-      <c r="C17" s="176">
-        <v>6.8999999999999992E-2</v>
-      </c>
-      <c r="D17" s="177"/>
+      <c r="C17" s="175">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5091,14 +5096,14 @@
       <c r="B20" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="C20" s="172">
+      <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.11401933240696355</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="G20" s="173">
+      <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
@@ -5106,7 +5111,7 @@
       <c r="B21" s="137" t="s">
         <v>244</v>
       </c>
-      <c r="C21" s="172">
+      <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
         <v>0.19137095648691452</v>
       </c>
@@ -5117,7 +5122,7 @@
       <c r="B22" s="137" t="s">
         <v>191</v>
       </c>
-      <c r="C22" s="172">
+      <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>4.6925281602255647E-4</v>
       </c>
@@ -5129,14 +5134,14 @@
       <c r="B23" s="137" t="s">
         <v>171</v>
       </c>
-      <c r="C23" s="172">
+      <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
         <v>188</v>
       </c>
-      <c r="G23" s="178" t="e">
+      <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5145,30 +5150,30 @@
       <c r="B24" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="C24" s="172">
+      <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>0.49449639261897682</v>
       </c>
       <c r="F24" s="140" t="s">
         <v>257</v>
       </c>
-      <c r="G24" s="269">
+      <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.6954077328394455</v>
+        <v>6.7511999800266507</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
         <v>243</v>
       </c>
-      <c r="C25" s="172">
+      <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
         <v>174</v>
       </c>
-      <c r="G25" s="172">
+      <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
         <v>0.40935813555482176</v>
       </c>
@@ -5177,16 +5182,16 @@
       <c r="B26" s="138" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="172">
+      <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>0.19964406567112258</v>
       </c>
       <c r="F26" s="141" t="s">
         <v>193</v>
       </c>
-      <c r="G26" s="179">
+      <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.1140135431485908E-2</v>
+        <v>6.0634870358736687E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5205,10 +5210,10 @@
       <c r="F28" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="G28" s="272" t="s">
+      <c r="G28" s="273" t="s">
         <v>256</v>
       </c>
-      <c r="H28" s="272"/>
+      <c r="H28" s="273"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5216,22 +5221,22 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.0404490668450381</v>
+        <v>1.9489888307478431</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.9774556779369252</v>
+        <v>3.7463085191502987</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.4005283139353391</v>
-      </c>
-      <c r="G29" s="273">
+        <v>2.292928036173933</v>
+      </c>
+      <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.4586571112495004</v>
-      </c>
-      <c r="H29" s="273"/>
+        <v>3.2576595818698251</v>
+      </c>
+      <c r="H29" s="274"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5243,17 +5248,17 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="197" t="s">
+      <c r="B32" s="196" t="s">
         <v>223</v>
       </c>
-      <c r="C32" s="225"/>
+      <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="C33" s="246" t="str">
+      <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
         <v>Strongly agree</v>
       </c>
@@ -5263,7 +5268,7 @@
       <c r="B34" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="C34" s="226" t="e">
+      <c r="C34" s="225" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -5271,17 +5276,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="197" t="s">
+      <c r="B35" s="196" t="s">
         <v>226</v>
       </c>
-      <c r="C35" s="225"/>
+      <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="C36" s="246" t="str">
+      <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
         <v>agree</v>
       </c>
@@ -5291,24 +5296,24 @@
       <c r="B37" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="C37" s="246" t="str">
+      <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="197" t="s">
+      <c r="B38" s="196" t="s">
         <v>227</v>
       </c>
-      <c r="C38" s="225"/>
+      <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="C39" s="246" t="str">
+      <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -5318,7 +5323,7 @@
       <c r="B40" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C40" s="246" t="str">
+      <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
         <v>Strongly agree</v>
       </c>
@@ -5337,10 +5342,10 @@
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="227" t="s">
+      <c r="B43" s="226" t="s">
         <v>230</v>
       </c>
-      <c r="C43" s="245" t="str">
+      <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -6322,16 +6327,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="149" t="s">
+      <c r="E2" s="148" t="s">
         <v>199</v>
       </c>
       <c r="F2" s="119" t="s">
         <v>202</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="G2" s="148" t="s">
         <v>203</v>
       </c>
-      <c r="H2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>204</v>
       </c>
       <c r="I2" s="7"/>
@@ -6345,11 +6350,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="202">
+      <c r="C3" s="201">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="147" t="s">
+      <c r="E3" s="146" t="s">
         <v>200</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -6382,7 +6387,7 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="147" t="s">
+      <c r="E4" s="146" t="s">
         <v>201</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -6446,47 +6451,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="201">
+      <c r="C6" s="200">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>1318408</v>
       </c>
-      <c r="D6" s="201">
+      <c r="D6" s="200">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>1203982</v>
       </c>
-      <c r="E6" s="201" t="str">
+      <c r="E6" s="200" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="201" t="str">
+      <c r="F6" s="200" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="201" t="str">
+      <c r="G6" s="200" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="201" t="str">
+      <c r="H6" s="200" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="201" t="str">
+      <c r="I6" s="200" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="201" t="str">
+      <c r="J6" s="200" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="201" t="str">
+      <c r="K6" s="200" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="201" t="str">
+      <c r="L6" s="200" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="201" t="str">
+      <c r="M6" s="200" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -6548,47 +6553,47 @@
       <c r="B8" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="200">
+      <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>150324</v>
       </c>
-      <c r="D8" s="200">
+      <c r="D8" s="199">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>159502</v>
       </c>
-      <c r="E8" s="200" t="str">
+      <c r="E8" s="199" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="200" t="str">
+      <c r="F8" s="199" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="200" t="str">
+      <c r="G8" s="199" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="200" t="str">
+      <c r="H8" s="199" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="200" t="str">
+      <c r="I8" s="199" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="200" t="str">
+      <c r="J8" s="199" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="200" t="str">
+      <c r="K8" s="199" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="200" t="str">
+      <c r="L8" s="199" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="200" t="str">
+      <c r="M8" s="199" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -6599,47 +6604,47 @@
       <c r="B9" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="152">
+      <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>1168084</v>
       </c>
-      <c r="D9" s="152">
+      <c r="D9" s="151">
         <f t="shared" si="2"/>
         <v>1044480</v>
       </c>
-      <c r="E9" s="152" t="str">
+      <c r="E9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="152" t="str">
+      <c r="F9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="152" t="str">
+      <c r="G9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="152" t="str">
+      <c r="H9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="152" t="str">
+      <c r="I9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="152" t="str">
+      <c r="J9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="152" t="str">
+      <c r="K9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="152" t="str">
+      <c r="L9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="152" t="str">
+      <c r="M9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6650,47 +6655,47 @@
       <c r="B10" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="200">
+      <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>252305</v>
       </c>
-      <c r="D10" s="200">
+      <c r="D10" s="199">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>243571</v>
       </c>
-      <c r="E10" s="200" t="str">
+      <c r="E10" s="199" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="200" t="str">
+      <c r="F10" s="199" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="200" t="str">
+      <c r="G10" s="199" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="200" t="str">
+      <c r="H10" s="199" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="200" t="str">
+      <c r="I10" s="199" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="200" t="str">
+      <c r="J10" s="199" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="200" t="str">
+      <c r="K10" s="199" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="200" t="str">
+      <c r="L10" s="199" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="200" t="str">
+      <c r="M10" s="199" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -6701,47 +6706,47 @@
       <c r="B11" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="200" t="str">
+      <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="200" t="str">
+      <c r="D11" s="199" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="200" t="str">
+      <c r="E11" s="199" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="200" t="str">
+      <c r="F11" s="199" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="200" t="str">
+      <c r="G11" s="199" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="200" t="str">
+      <c r="H11" s="199" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="200" t="str">
+      <c r="I11" s="199" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="200" t="str">
+      <c r="J11" s="199" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="200" t="str">
+      <c r="K11" s="199" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="200" t="str">
+      <c r="L11" s="199" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="200" t="str">
+      <c r="M11" s="199" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6752,47 +6757,47 @@
       <c r="B12" s="99" t="s">
         <v>240</v>
       </c>
-      <c r="C12" s="200">
+      <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>618.66666666666663</v>
       </c>
-      <c r="D12" s="200">
+      <c r="D12" s="199">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="E12" s="200" t="str">
+      <c r="E12" s="199" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="200" t="str">
+      <c r="F12" s="199" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="200" t="str">
+      <c r="G12" s="199" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="200" t="str">
+      <c r="H12" s="199" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="200" t="str">
+      <c r="I12" s="199" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="200" t="str">
+      <c r="J12" s="199" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="200" t="str">
+      <c r="K12" s="199" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="200" t="str">
+      <c r="L12" s="199" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="200" t="str">
+      <c r="M12" s="199" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6800,50 +6805,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="229" t="s">
+      <c r="B13" s="228" t="s">
         <v>241</v>
       </c>
-      <c r="C13" s="230">
+      <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.6941404582900994</v>
       </c>
-      <c r="D13" s="230">
+      <c r="D13" s="229">
         <f t="shared" si="3"/>
         <v>0.6652167557322286</v>
       </c>
-      <c r="E13" s="230" t="str">
+      <c r="E13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="230" t="str">
+      <c r="F13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="230" t="str">
+      <c r="G13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="230" t="str">
+      <c r="H13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="230" t="str">
+      <c r="I13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="230" t="str">
+      <c r="J13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="230" t="str">
+      <c r="K13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="230" t="str">
+      <c r="L13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="230" t="str">
+      <c r="M13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6851,50 +6856,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="229" t="s">
+      <c r="B14" s="228" t="s">
         <v>233</v>
       </c>
-      <c r="C14" s="231">
+      <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>915160.33333333337</v>
       </c>
-      <c r="D14" s="231">
+      <c r="D14" s="230">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>800909</v>
       </c>
-      <c r="E14" s="231" t="str">
+      <c r="E14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="231" t="str">
+      <c r="F14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="231" t="str">
+      <c r="G14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="231" t="str">
+      <c r="H14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="231" t="str">
+      <c r="I14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="231" t="str">
+      <c r="J14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="231" t="str">
+      <c r="K14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="231" t="str">
+      <c r="L14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="231" t="str">
+      <c r="M14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6902,50 +6907,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="232" t="s">
+      <c r="B15" s="231" t="s">
         <v>242</v>
       </c>
-      <c r="C15" s="233">
+      <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>0.14265207824276338</v>
       </c>
-      <c r="D15" s="233" t="str">
+      <c r="D15" s="232" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="233" t="str">
+      <c r="E15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="233" t="str">
+      <c r="F15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="233" t="str">
+      <c r="G15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="233" t="str">
+      <c r="H15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="233" t="str">
+      <c r="I15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="233" t="str">
+      <c r="J15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="233" t="str">
+      <c r="K15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="233" t="str">
+      <c r="L15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="233" t="str">
+      <c r="M15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6956,47 +6961,47 @@
       <c r="B16" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="200" t="str">
+      <c r="C16" s="199" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="200" t="str">
+      <c r="D16" s="199" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="200" t="str">
+      <c r="E16" s="199" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="200" t="str">
+      <c r="F16" s="199" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="200" t="str">
+      <c r="G16" s="199" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="200" t="str">
+      <c r="H16" s="199" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="200" t="str">
+      <c r="I16" s="199" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="200" t="str">
+      <c r="J16" s="199" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="200" t="str">
+      <c r="K16" s="199" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="200" t="str">
+      <c r="L16" s="199" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="200" t="str">
+      <c r="M16" s="199" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -7007,47 +7012,47 @@
       <c r="B17" s="97" t="s">
         <v>255</v>
       </c>
-      <c r="C17" s="200">
+      <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>651948</v>
       </c>
-      <c r="D17" s="200">
+      <c r="D17" s="199">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>518581</v>
       </c>
-      <c r="E17" s="200" t="str">
+      <c r="E17" s="199" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="200" t="str">
+      <c r="F17" s="199" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="200" t="str">
+      <c r="G17" s="199" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="200" t="str">
+      <c r="H17" s="199" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="200" t="str">
+      <c r="I17" s="199" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="200" t="str">
+      <c r="J17" s="199" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="200" t="str">
+      <c r="K17" s="199" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="200" t="str">
+      <c r="L17" s="199" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="200" t="str">
+      <c r="M17" s="199" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -7058,47 +7063,47 @@
       <c r="B18" s="94" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="153" t="str">
+      <c r="C18" s="152" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="153" t="str">
+      <c r="D18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="153" t="str">
+      <c r="E18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="153" t="str">
+      <c r="F18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="153" t="str">
+      <c r="G18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="153" t="str">
+      <c r="H18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="153" t="str">
+      <c r="I18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="153" t="str">
+      <c r="J18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="153" t="str">
+      <c r="K18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="153" t="str">
+      <c r="L18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="153" t="str">
+      <c r="M18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -7109,47 +7114,47 @@
       <c r="B19" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="200" t="str">
+      <c r="C19" s="199" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="200" t="str">
+      <c r="D19" s="199" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="200" t="str">
+      <c r="E19" s="199" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="200" t="str">
+      <c r="F19" s="199" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="200" t="str">
+      <c r="G19" s="199" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="200" t="str">
+      <c r="H19" s="199" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="200" t="str">
+      <c r="I19" s="199" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="200" t="str">
+      <c r="J19" s="199" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="200" t="str">
+      <c r="K19" s="199" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="200" t="str">
+      <c r="L19" s="199" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="200" t="str">
+      <c r="M19" s="199" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -7160,47 +7165,47 @@
       <c r="B20" s="97" t="s">
         <v>235</v>
       </c>
-      <c r="C20" s="153">
+      <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="153">
+      <c r="D20" s="152">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="153" t="str">
+      <c r="E20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="153" t="str">
+      <c r="F20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="153" t="str">
+      <c r="G20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="153" t="str">
+      <c r="H20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="153" t="str">
+      <c r="I20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="153" t="str">
+      <c r="J20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="153" t="str">
+      <c r="K20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="153" t="str">
+      <c r="L20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="153" t="str">
+      <c r="M20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -7211,47 +7216,47 @@
       <c r="B21" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C21" s="200" t="str">
+      <c r="C21" s="199" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="200" t="str">
+      <c r="D21" s="199" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="200" t="str">
+      <c r="E21" s="199" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="200" t="str">
+      <c r="F21" s="199" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="200" t="str">
+      <c r="G21" s="199" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="200" t="str">
+      <c r="H21" s="199" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="200" t="str">
+      <c r="I21" s="199" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="200" t="str">
+      <c r="J21" s="199" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="200" t="str">
+      <c r="K21" s="199" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="200" t="str">
+      <c r="L21" s="199" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="200" t="str">
+      <c r="M21" s="199" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -7262,47 +7267,47 @@
       <c r="B22" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="162">
+      <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>263212.33333333337</v>
       </c>
-      <c r="D22" s="162">
+      <c r="D22" s="161">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>282328</v>
       </c>
-      <c r="E22" s="162" t="str">
+      <c r="E22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="162" t="str">
+      <c r="F22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="162" t="str">
+      <c r="G22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="162" t="str">
+      <c r="H22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="162" t="str">
+      <c r="I22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="162" t="str">
+      <c r="J22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="162" t="str">
+      <c r="K22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="162" t="str">
+      <c r="L22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="162" t="str">
+      <c r="M22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7313,47 +7318,47 @@
       <c r="B23" s="100" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="154">
+      <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>0.14973304925334194</v>
       </c>
-      <c r="D23" s="154">
+      <c r="D23" s="153">
         <f t="shared" si="9"/>
         <v>0.17587140007076518</v>
       </c>
-      <c r="E23" s="154" t="str">
+      <c r="E23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="154" t="str">
+      <c r="F23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="154" t="str">
+      <c r="G23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="154" t="str">
+      <c r="H23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="154" t="str">
+      <c r="I23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="154" t="str">
+      <c r="J23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="154" t="str">
+      <c r="K23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="154" t="str">
+      <c r="L23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="154" t="str">
+      <c r="M23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7364,7 +7369,7 @@
       <c r="B24" s="101" t="s">
         <v>113</v>
       </c>
-      <c r="C24" s="155">
+      <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>197409.25000000003</v>
       </c>
@@ -7412,50 +7417,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="235" t="s">
+      <c r="B25" s="234" t="s">
         <v>128</v>
       </c>
-      <c r="C25" s="234">
+      <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>-6.7707300255966912E-2</v>
       </c>
-      <c r="D25" s="234" t="str">
+      <c r="D25" s="233" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="234" t="str">
+      <c r="E25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="234" t="str">
+      <c r="F25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="234" t="str">
+      <c r="G25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="234" t="str">
+      <c r="H25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="234" t="str">
+      <c r="I25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="234" t="str">
+      <c r="J25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="234" t="str">
+      <c r="K25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="234" t="str">
+      <c r="L25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="234" t="str">
+      <c r="M25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7572,43 +7577,43 @@
         <f>Fin_Analysis!C28</f>
         <v>0</v>
       </c>
-      <c r="D28" s="200" t="str">
+      <c r="D28" s="199" t="str">
         <f>IF(Inputs!D34="","",Inputs!D34)</f>
         <v/>
       </c>
-      <c r="E28" s="200" t="str">
+      <c r="E28" s="199" t="str">
         <f>IF(Inputs!E34="","",Inputs!E34)</f>
         <v/>
       </c>
-      <c r="F28" s="200" t="str">
+      <c r="F28" s="199" t="str">
         <f>IF(Inputs!F34="","",Inputs!F34)</f>
         <v/>
       </c>
-      <c r="G28" s="200" t="str">
+      <c r="G28" s="199" t="str">
         <f>IF(Inputs!G34="","",Inputs!G34)</f>
         <v/>
       </c>
-      <c r="H28" s="200" t="str">
+      <c r="H28" s="199" t="str">
         <f>IF(Inputs!H34="","",Inputs!H34)</f>
         <v/>
       </c>
-      <c r="I28" s="200" t="str">
+      <c r="I28" s="199" t="str">
         <f>IF(Inputs!I34="","",Inputs!I34)</f>
         <v/>
       </c>
-      <c r="J28" s="200" t="str">
+      <c r="J28" s="199" t="str">
         <f>IF(Inputs!J34="","",Inputs!J34)</f>
         <v/>
       </c>
-      <c r="K28" s="200" t="str">
+      <c r="K28" s="199" t="str">
         <f>IF(Inputs!K34="","",Inputs!K34)</f>
         <v/>
       </c>
-      <c r="L28" s="200" t="str">
+      <c r="L28" s="199" t="str">
         <f>IF(Inputs!L34="","",Inputs!L34)</f>
         <v/>
       </c>
-      <c r="M28" s="200" t="str">
+      <c r="M28" s="199" t="str">
         <f>IF(Inputs!M34="","",Inputs!M34)</f>
         <v/>
       </c>
@@ -7623,43 +7628,43 @@
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D29" s="200" t="str">
+      <c r="D29" s="199" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E29" s="200" t="str">
+      <c r="E29" s="199" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F29" s="200" t="str">
+      <c r="F29" s="199" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G29" s="200" t="str">
+      <c r="G29" s="199" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H29" s="200" t="str">
+      <c r="H29" s="199" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I29" s="200" t="str">
+      <c r="I29" s="199" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J29" s="200" t="str">
+      <c r="J29" s="199" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K29" s="200" t="str">
+      <c r="K29" s="199" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L29" s="200" t="str">
+      <c r="L29" s="199" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M29" s="200" t="str">
+      <c r="M29" s="199" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -7674,43 +7679,43 @@
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D30" s="200" t="str">
+      <c r="D30" s="199" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E30" s="200" t="str">
+      <c r="E30" s="199" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F30" s="200" t="str">
+      <c r="F30" s="199" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G30" s="200" t="str">
+      <c r="G30" s="199" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H30" s="200" t="str">
+      <c r="H30" s="199" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I30" s="200" t="str">
+      <c r="I30" s="199" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J30" s="200" t="str">
+      <c r="J30" s="199" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K30" s="200" t="str">
+      <c r="K30" s="199" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L30" s="200" t="str">
+      <c r="L30" s="199" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M30" s="200" t="str">
+      <c r="M30" s="199" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -7725,43 +7730,43 @@
         <f>Fin_Analysis!I28</f>
         <v>0</v>
       </c>
-      <c r="D31" s="200" t="str">
+      <c r="D31" s="199" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E31" s="200" t="str">
+      <c r="E31" s="199" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F31" s="200" t="str">
+      <c r="F31" s="199" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G31" s="200" t="str">
+      <c r="G31" s="199" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H31" s="200" t="str">
+      <c r="H31" s="199" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I31" s="200" t="str">
+      <c r="I31" s="199" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J31" s="200" t="str">
+      <c r="J31" s="199" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K31" s="200" t="str">
+      <c r="K31" s="199" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L31" s="200" t="str">
+      <c r="L31" s="199" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M31" s="200" t="str">
+      <c r="M31" s="199" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7776,43 +7781,43 @@
         <f>Fin_Analysis!I48</f>
         <v>0</v>
       </c>
-      <c r="D32" s="200" t="str">
+      <c r="D32" s="199" t="str">
         <f>IF(Inputs!D38="","",Inputs!D38)</f>
         <v/>
       </c>
-      <c r="E32" s="200" t="str">
+      <c r="E32" s="199" t="str">
         <f>IF(Inputs!E38="","",Inputs!E38)</f>
         <v/>
       </c>
-      <c r="F32" s="200" t="str">
+      <c r="F32" s="199" t="str">
         <f>IF(Inputs!F38="","",Inputs!F38)</f>
         <v/>
       </c>
-      <c r="G32" s="200" t="str">
+      <c r="G32" s="199" t="str">
         <f>IF(Inputs!G38="","",Inputs!G38)</f>
         <v/>
       </c>
-      <c r="H32" s="200" t="str">
+      <c r="H32" s="199" t="str">
         <f>IF(Inputs!H38="","",Inputs!H38)</f>
         <v/>
       </c>
-      <c r="I32" s="200" t="str">
+      <c r="I32" s="199" t="str">
         <f>IF(Inputs!I38="","",Inputs!I38)</f>
         <v/>
       </c>
-      <c r="J32" s="200" t="str">
+      <c r="J32" s="199" t="str">
         <f>IF(Inputs!J38="","",Inputs!J38)</f>
         <v/>
       </c>
-      <c r="K32" s="200" t="str">
+      <c r="K32" s="199" t="str">
         <f>IF(Inputs!K38="","",Inputs!K38)</f>
         <v/>
       </c>
-      <c r="L32" s="200" t="str">
+      <c r="L32" s="199" t="str">
         <f>IF(Inputs!L38="","",Inputs!L38)</f>
         <v/>
       </c>
-      <c r="M32" s="200" t="str">
+      <c r="M32" s="199" t="str">
         <f>IF(Inputs!M38="","",Inputs!M38)</f>
         <v/>
       </c>
@@ -7827,43 +7832,43 @@
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D33" s="200" t="str">
+      <c r="D33" s="199" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E33" s="200" t="str">
+      <c r="E33" s="199" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F33" s="200" t="str">
+      <c r="F33" s="199" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G33" s="200" t="str">
+      <c r="G33" s="199" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H33" s="200" t="str">
+      <c r="H33" s="199" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I33" s="200" t="str">
+      <c r="I33" s="199" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J33" s="200" t="str">
+      <c r="J33" s="199" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K33" s="200" t="str">
+      <c r="K33" s="199" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L33" s="200" t="str">
+      <c r="L33" s="199" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M33" s="200" t="str">
+      <c r="M33" s="199" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7878,43 +7883,43 @@
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D34" s="200" t="str">
+      <c r="D34" s="199" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E34" s="200" t="str">
+      <c r="E34" s="199" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F34" s="200" t="str">
+      <c r="F34" s="199" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G34" s="200" t="str">
+      <c r="G34" s="199" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H34" s="200" t="str">
+      <c r="H34" s="199" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I34" s="200" t="str">
+      <c r="I34" s="199" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J34" s="200" t="str">
+      <c r="J34" s="199" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K34" s="200" t="str">
+      <c r="K34" s="199" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L34" s="200" t="str">
+      <c r="L34" s="199" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M34" s="200" t="str">
+      <c r="M34" s="199" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7980,43 +7985,43 @@
         <f>Fin_Analysis!D3</f>
         <v>0</v>
       </c>
-      <c r="D36" s="200" t="str">
+      <c r="D36" s="199" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E36" s="200" t="str">
+      <c r="E36" s="199" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F36" s="200" t="str">
+      <c r="F36" s="199" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G36" s="200" t="str">
+      <c r="G36" s="199" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H36" s="200" t="str">
+      <c r="H36" s="199" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I36" s="200" t="str">
+      <c r="I36" s="199" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J36" s="200" t="str">
+      <c r="J36" s="199" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K36" s="200" t="str">
+      <c r="K36" s="199" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L36" s="200" t="str">
+      <c r="L36" s="199" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M36" s="200" t="str">
+      <c r="M36" s="199" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -8031,43 +8036,43 @@
         <f>Fin_Analysis!D4</f>
         <v>0</v>
       </c>
-      <c r="D37" s="200" t="str">
+      <c r="D37" s="199" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E37" s="200" t="str">
+      <c r="E37" s="199" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F37" s="200" t="str">
+      <c r="F37" s="199" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G37" s="200" t="str">
+      <c r="G37" s="199" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H37" s="200" t="str">
+      <c r="H37" s="199" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I37" s="200" t="str">
+      <c r="I37" s="199" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J37" s="200" t="str">
+      <c r="J37" s="199" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K37" s="200" t="str">
+      <c r="K37" s="199" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L37" s="200" t="str">
+      <c r="L37" s="199" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M37" s="200" t="str">
+      <c r="M37" s="199" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -8082,43 +8087,43 @@
         <f>Fin_Analysis!C63</f>
         <v>0</v>
       </c>
-      <c r="D38" s="200" t="str">
+      <c r="D38" s="199" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E38" s="200" t="str">
+      <c r="E38" s="199" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F38" s="200" t="str">
+      <c r="F38" s="199" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G38" s="200" t="str">
+      <c r="G38" s="199" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H38" s="200" t="str">
+      <c r="H38" s="199" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I38" s="200" t="str">
+      <c r="I38" s="199" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J38" s="200" t="str">
+      <c r="J38" s="199" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K38" s="200" t="str">
+      <c r="K38" s="199" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L38" s="200" t="str">
+      <c r="L38" s="199" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M38" s="200" t="str">
+      <c r="M38" s="199" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -8180,47 +8185,47 @@
       <c r="B40" s="98" t="s">
         <v>157</v>
       </c>
-      <c r="C40" s="156" t="e">
+      <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D40" s="156" t="e">
+      <c r="D40" s="155" t="e">
         <f>IF(D6="","",D14/MAX(D39,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="156" t="str">
+      <c r="E40" s="155" t="str">
         <f>IF(E6="","",E14/MAX(E39,0))</f>
         <v/>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -8249,47 +8254,47 @@
       <c r="B42" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="157">
+      <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
         <v>0.11401933240696355</v>
       </c>
-      <c r="D42" s="157">
+      <c r="D42" s="156">
         <f t="shared" si="34"/>
         <v>0.13247872476498818</v>
       </c>
-      <c r="E42" s="157" t="str">
+      <c r="E42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F42" s="157" t="str">
+      <c r="F42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G42" s="157" t="str">
+      <c r="G42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H42" s="157" t="str">
+      <c r="H42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I42" s="157" t="str">
+      <c r="I42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J42" s="157" t="str">
+      <c r="J42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K42" s="157" t="str">
+      <c r="K42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L42" s="157" t="str">
+      <c r="L42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M42" s="157" t="str">
+      <c r="M42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -8300,47 +8305,47 @@
       <c r="B43" s="94" t="s">
         <v>234</v>
       </c>
-      <c r="C43" s="154">
+      <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.19137095648691452</v>
       </c>
-      <c r="D43" s="154">
+      <c r="D43" s="153">
         <f t="shared" si="35"/>
         <v>0.20230451950278328</v>
       </c>
-      <c r="E43" s="154" t="str">
+      <c r="E43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F43" s="154" t="str">
+      <c r="F43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G43" s="154" t="str">
+      <c r="G43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H43" s="154" t="str">
+      <c r="H43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I43" s="154" t="str">
+      <c r="I43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J43" s="154" t="str">
+      <c r="J43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K43" s="154" t="str">
+      <c r="K43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L43" s="154" t="str">
+      <c r="L43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M43" s="154" t="str">
+      <c r="M43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -8351,47 +8356,47 @@
       <c r="B44" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="154">
+      <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="154">
+      <c r="D44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E44" s="154" t="str">
+      <c r="E44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F44" s="154" t="str">
+      <c r="F44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G44" s="154" t="str">
+      <c r="G44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H44" s="154" t="str">
+      <c r="H44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I44" s="154" t="str">
+      <c r="I44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J44" s="154" t="str">
+      <c r="J44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K44" s="154" t="str">
+      <c r="K44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L44" s="154" t="str">
+      <c r="L44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M44" s="154" t="str">
+      <c r="M44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -8402,47 +8407,47 @@
       <c r="B45" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="C45" s="154">
+      <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>0.49449639261897682</v>
       </c>
-      <c r="D45" s="154">
+      <c r="D45" s="153">
         <f t="shared" si="37"/>
         <v>0.43072155563787501</v>
       </c>
-      <c r="E45" s="154" t="str">
+      <c r="E45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F45" s="154" t="str">
+      <c r="F45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G45" s="154" t="str">
+      <c r="G45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H45" s="154" t="str">
+      <c r="H45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I45" s="154" t="str">
+      <c r="I45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J45" s="154" t="str">
+      <c r="J45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K45" s="154" t="str">
+      <c r="K45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L45" s="154" t="str">
+      <c r="L45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M45" s="154" t="str">
+      <c r="M45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -8453,47 +8458,47 @@
       <c r="B46" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="154">
+      <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
         <v>4.6925281602255647E-4</v>
       </c>
-      <c r="D46" s="154">
+      <c r="D46" s="153">
         <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="154" t="str">
+      <c r="E46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F46" s="154" t="str">
+      <c r="F46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G46" s="154" t="str">
+      <c r="G46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H46" s="154" t="str">
+      <c r="H46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I46" s="154" t="str">
+      <c r="I46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J46" s="154" t="str">
+      <c r="J46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K46" s="154" t="str">
+      <c r="K46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L46" s="154" t="str">
+      <c r="L46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M46" s="154" t="str">
+      <c r="M46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -8504,47 +8509,47 @@
       <c r="B47" s="94" t="s">
         <v>236</v>
       </c>
-      <c r="C47" s="154">
+      <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D47" s="154">
+      <c r="D47" s="153">
         <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="154" t="str">
+      <c r="E47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F47" s="154" t="str">
+      <c r="F47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G47" s="154" t="str">
+      <c r="G47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H47" s="154" t="str">
+      <c r="H47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I47" s="154" t="str">
+      <c r="I47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J47" s="154" t="str">
+      <c r="J47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K47" s="154" t="str">
+      <c r="K47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L47" s="154" t="str">
+      <c r="L47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M47" s="154" t="str">
+      <c r="M47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -8555,47 +8560,47 @@
       <c r="B48" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="C48" s="154">
+      <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
         <v>0.19964406567112258</v>
       </c>
-      <c r="D48" s="154">
+      <c r="D48" s="153">
         <f t="shared" si="40"/>
         <v>0.23449520009435357</v>
       </c>
-      <c r="E48" s="154" t="str">
+      <c r="E48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F48" s="154" t="str">
+      <c r="F48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G48" s="154" t="str">
+      <c r="G48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H48" s="154" t="str">
+      <c r="H48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I48" s="154" t="str">
+      <c r="I48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J48" s="154" t="str">
+      <c r="J48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K48" s="154" t="str">
+      <c r="K48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L48" s="154" t="str">
+      <c r="L48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M48" s="154" t="str">
+      <c r="M48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -8624,47 +8629,47 @@
       <c r="B50" s="95" t="s">
         <v>146</v>
       </c>
-      <c r="C50" s="157">
+      <c r="C50" s="156">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="157" t="str">
+      <c r="D50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E50" s="157" t="str">
+      <c r="E50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="157" t="str">
+      <c r="F50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="157" t="str">
+      <c r="G50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="157" t="str">
+      <c r="H50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="157" t="str">
+      <c r="I50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="157" t="str">
+      <c r="J50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="157" t="str">
+      <c r="K50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="157" t="str">
+      <c r="L50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M50" s="157" t="str">
+      <c r="M50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8675,47 +8680,47 @@
       <c r="B51" s="94" t="s">
         <v>147</v>
       </c>
-      <c r="C51" s="154">
+      <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
         <v>0</v>
       </c>
-      <c r="D51" s="154" t="str">
+      <c r="D51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E51" s="154" t="str">
+      <c r="E51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F51" s="154" t="str">
+      <c r="F51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G51" s="154" t="str">
+      <c r="G51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H51" s="154" t="str">
+      <c r="H51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I51" s="154" t="str">
+      <c r="I51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J51" s="154" t="str">
+      <c r="J51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K51" s="154" t="str">
+      <c r="K51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L51" s="154" t="str">
+      <c r="L51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M51" s="154" t="str">
+      <c r="M51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -8743,47 +8748,47 @@
       <c r="B53" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="157" t="e">
+      <c r="C53" s="156" t="e">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="157" t="str">
+      <c r="D53" s="156" t="str">
         <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
         <v/>
       </c>
-      <c r="E53" s="157" t="str">
+      <c r="E53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F53" s="157" t="str">
+      <c r="F53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G53" s="157" t="str">
+      <c r="G53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H53" s="157" t="str">
+      <c r="H53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I53" s="157" t="str">
+      <c r="I53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J53" s="157" t="str">
+      <c r="J53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K53" s="157" t="str">
+      <c r="K53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L53" s="157" t="str">
+      <c r="L53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M53" s="157" t="str">
+      <c r="M53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -8793,47 +8798,47 @@
       <c r="B54" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="C54" s="158" t="str">
+      <c r="C54" s="157" t="str">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="158" t="str">
+      <c r="D54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E54" s="158" t="str">
+      <c r="E54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="158" t="str">
+      <c r="F54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="158" t="str">
+      <c r="G54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="158" t="str">
+      <c r="H54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="158" t="str">
+      <c r="I54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="158" t="str">
+      <c r="J54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="158" t="str">
+      <c r="K54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="158" t="str">
+      <c r="L54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M54" s="158" t="str">
+      <c r="M54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8843,47 +8848,47 @@
       <c r="B55" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="C55" s="154">
+      <c r="C55" s="153">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>2.4768900140190997</v>
       </c>
-      <c r="D55" s="154">
+      <c r="D55" s="153">
         <f t="shared" si="45"/>
         <v>1.8368032926241817</v>
       </c>
-      <c r="E55" s="154" t="str">
+      <c r="E55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="154" t="str">
+      <c r="F55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="154" t="str">
+      <c r="G55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="154" t="str">
+      <c r="H55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="154" t="str">
+      <c r="I55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="154" t="str">
+      <c r="J55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="154" t="str">
+      <c r="K55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="154" t="str">
+      <c r="L55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="154" t="str">
+      <c r="M55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8893,47 +8898,47 @@
       <c r="B56" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="159" t="e">
+      <c r="C56" s="158" t="e">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D56" s="159" t="str">
+      <c r="D56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E56" s="159" t="str">
+      <c r="E56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F56" s="159" t="str">
+      <c r="F56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="159" t="str">
+      <c r="G56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="159" t="str">
+      <c r="H56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="159" t="str">
+      <c r="I56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="159" t="str">
+      <c r="J56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="159" t="str">
+      <c r="K56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="159" t="str">
+      <c r="L56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="159" t="str">
+      <c r="M56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -10231,8 +10236,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10281,7 +10286,7 @@
       <c r="H3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="205">
+      <c r="I3" s="204">
         <f>Inputs!C83</f>
         <v>0</v>
       </c>
@@ -10378,7 +10383,7 @@
         <v>31</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="204">
+      <c r="D9" s="203">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
@@ -10425,7 +10430,7 @@
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="199">
+      <c r="D11" s="198">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -10453,7 +10458,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -10481,7 +10486,7 @@
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="199">
+      <c r="D13" s="198">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -10509,7 +10514,7 @@
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="199">
+      <c r="D14" s="198">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -10522,7 +10527,7 @@
       <c r="H14" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="206">
+      <c r="I14" s="205">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -10537,7 +10542,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="199">
+      <c r="D15" s="198">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -10564,7 +10569,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="199">
+      <c r="D16" s="198">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10586,7 +10591,7 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10608,7 +10613,7 @@
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="199">
+      <c r="D18" s="198">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10629,7 +10634,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="199">
+      <c r="D19" s="198">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10654,7 +10659,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="199">
+      <c r="D20" s="198">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10681,7 +10686,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="199">
+      <c r="D21" s="198">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10702,7 +10707,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="199">
+      <c r="D22" s="198">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10867,7 +10872,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="207">
+      <c r="I28" s="206">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10896,7 +10901,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="199">
+      <c r="D30" s="198">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10922,7 +10927,7 @@
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="199">
+      <c r="D31" s="198">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10949,7 +10954,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="199">
+      <c r="D32" s="198">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10976,7 +10981,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="199">
+      <c r="D33" s="198">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -10992,7 +10997,7 @@
       <c r="H33" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="I33" s="206">
+      <c r="I33" s="205">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -11006,7 +11011,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="199">
+      <c r="D34" s="198">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -11033,7 +11038,7 @@
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="199">
+      <c r="D35" s="198">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -11059,7 +11064,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199">
+      <c r="D36" s="198">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -11086,7 +11091,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="199">
+      <c r="D37" s="198">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -11113,7 +11118,7 @@
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="199">
+      <c r="D38" s="198">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -11134,7 +11139,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="199">
+      <c r="D39" s="198">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -11155,7 +11160,7 @@
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="199">
+      <c r="D40" s="198">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -11176,7 +11181,7 @@
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="199">
+      <c r="D41" s="198">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -11197,7 +11202,7 @@
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="199">
+      <c r="D42" s="198">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -11343,7 +11348,7 @@
       <c r="H48" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="I48" s="208">
+      <c r="I48" s="207">
         <f>Inputs!C82</f>
         <v>0</v>
       </c>
@@ -11452,11 +11457,11 @@
         <v>89</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="283">
+      <c r="D56" s="284">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="281"/>
+      <c r="E56" s="282"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11467,11 +11472,11 @@
         <v>90</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="282">
+      <c r="D57" s="283">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="281"/>
+      <c r="E57" s="282"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11483,11 +11488,11 @@
         <v>92</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="282">
+      <c r="D58" s="283">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="281"/>
+      <c r="E58" s="282"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11583,8 +11588,8 @@
       <c r="B64" s="121" t="s">
         <v>151</v>
       </c>
-      <c r="C64" s="209"/>
-      <c r="D64" s="209"/>
+      <c r="C64" s="208"/>
+      <c r="D64" s="208"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
@@ -11664,8 +11669,8 @@
       <c r="B69" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="C69" s="209"/>
-      <c r="D69" s="209"/>
+      <c r="C69" s="208"/>
+      <c r="D69" s="208"/>
       <c r="E69" s="126">
         <f>I49-E64</f>
         <v>0</v>
@@ -11701,19 +11706,19 @@
       <c r="B72" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C72" s="270">
+      <c r="C72" s="271">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="270"/>
-      <c r="E72" s="284" t="s">
+      <c r="D72" s="271"/>
+      <c r="E72" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="F72" s="284"/>
-      <c r="H72" s="284" t="s">
+      <c r="F72" s="285"/>
+      <c r="H72" s="285" t="s">
         <v>205</v>
       </c>
-      <c r="I72" s="284"/>
+      <c r="I72" s="285"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11723,18 +11728,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C73" s="271" t="s">
+      <c r="C73" s="272" t="s">
         <v>100</v>
       </c>
-      <c r="D73" s="271"/>
-      <c r="E73" s="285" t="s">
+      <c r="D73" s="272"/>
+      <c r="E73" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="F73" s="271"/>
-      <c r="H73" s="285" t="s">
+      <c r="F73" s="272"/>
+      <c r="H73" s="286" t="s">
         <v>101</v>
       </c>
-      <c r="I73" s="271"/>
+      <c r="I73" s="272"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11745,17 +11750,17 @@
         <f>Data!C6</f>
         <v>1318408</v>
       </c>
-      <c r="D74" s="210"/>
-      <c r="E74" s="239">
+      <c r="D74" s="209"/>
+      <c r="E74" s="238">
         <f>Inputs!E91</f>
         <v>1318408</v>
       </c>
-      <c r="F74" s="210"/>
-      <c r="H74" s="239">
+      <c r="F74" s="209"/>
+      <c r="H74" s="238">
         <f>Inputs!F91</f>
         <v>1318408</v>
       </c>
-      <c r="I74" s="210"/>
+      <c r="I74" s="209"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11766,23 +11771,23 @@
         <f>Data!C8</f>
         <v>150324</v>
       </c>
-      <c r="D75" s="160">
+      <c r="D75" s="159">
         <f>C75/$C$74</f>
         <v>0.11401933240696355</v>
       </c>
-      <c r="E75" s="239">
+      <c r="E75" s="238">
         <f>Inputs!E92</f>
         <v>150324</v>
       </c>
-      <c r="F75" s="161">
+      <c r="F75" s="160">
         <f>E75/E74</f>
         <v>0.11401933240696355</v>
       </c>
-      <c r="H75" s="239">
+      <c r="H75" s="238">
         <f>Inputs!F92</f>
         <v>150324</v>
       </c>
-      <c r="I75" s="161">
+      <c r="I75" s="160">
         <f>H75/$H$74</f>
         <v>0.11401933240696355</v>
       </c>
@@ -11792,21 +11797,21 @@
       <c r="B76" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C76" s="162">
+      <c r="C76" s="161">
         <f>C74-C75</f>
         <v>1168084</v>
       </c>
-      <c r="D76" s="211"/>
-      <c r="E76" s="163">
+      <c r="D76" s="210"/>
+      <c r="E76" s="162">
         <f>E74-E75</f>
         <v>1168084</v>
       </c>
-      <c r="F76" s="211"/>
-      <c r="H76" s="163">
+      <c r="F76" s="210"/>
+      <c r="H76" s="162">
         <f>H74-H75</f>
         <v>1168084</v>
       </c>
-      <c r="I76" s="211"/>
+      <c r="I76" s="210"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11817,23 +11822,23 @@
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>252305</v>
       </c>
-      <c r="D77" s="160">
+      <c r="D77" s="159">
         <f>C77/$C$74</f>
         <v>0.19137095648691452</v>
       </c>
-      <c r="E77" s="239">
+      <c r="E77" s="238">
         <f>Inputs!E93</f>
         <v>252305</v>
       </c>
-      <c r="F77" s="161">
+      <c r="F77" s="160">
         <f>E77/E74</f>
         <v>0.19137095648691452</v>
       </c>
-      <c r="H77" s="239">
+      <c r="H77" s="238">
         <f>Inputs!F93</f>
         <v>252305</v>
       </c>
-      <c r="I77" s="161">
+      <c r="I77" s="160">
         <f>H77/$H$74</f>
         <v>0.19137095648691452</v>
       </c>
@@ -11847,54 +11852,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>618.66666666666663</v>
       </c>
-      <c r="D78" s="160">
+      <c r="D78" s="159">
         <f>C78/$C$74</f>
         <v>4.6925281602255647E-4</v>
       </c>
-      <c r="E78" s="181">
+      <c r="E78" s="180">
         <f>E74*F78</f>
         <v>618.66666666666663</v>
       </c>
-      <c r="F78" s="161">
+      <c r="F78" s="160">
         <f>I78</f>
         <v>4.6925281602255647E-4</v>
       </c>
-      <c r="H78" s="239">
+      <c r="H78" s="238">
         <f>Inputs!F97</f>
         <v>618.66666666666663</v>
       </c>
-      <c r="I78" s="161">
+      <c r="I78" s="160">
         <f>H78/$H$74</f>
         <v>4.6925281602255647E-4</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="257" t="s">
+      <c r="B79" s="256" t="s">
         <v>232</v>
       </c>
-      <c r="C79" s="258">
+      <c r="C79" s="257">
         <f>C76-C77-C78</f>
         <v>915160.33333333337</v>
       </c>
-      <c r="D79" s="259">
+      <c r="D79" s="258">
         <f>C79/C74</f>
         <v>0.6941404582900994</v>
       </c>
-      <c r="E79" s="260">
+      <c r="E79" s="259">
         <f>E76-E77-E78</f>
         <v>915160.33333333337</v>
       </c>
-      <c r="F79" s="259">
+      <c r="F79" s="258">
         <f>E79/E74</f>
         <v>0.6941404582900994</v>
       </c>
-      <c r="G79" s="261"/>
-      <c r="H79" s="260">
+      <c r="G79" s="260"/>
+      <c r="H79" s="259">
         <f>H76-H77-H78</f>
         <v>915160.33333333337</v>
       </c>
-      <c r="I79" s="259">
+      <c r="I79" s="258">
         <f>H79/H74</f>
         <v>0.6941404582900994</v>
       </c>
@@ -11908,27 +11913,27 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="160">
+      <c r="D80" s="159">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="181">
+      <c r="E80" s="180">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="161">
+      <c r="F80" s="160">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="239">
+      <c r="H80" s="238">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="161">
+      <c r="I80" s="160">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="182" t="s">
+      <c r="K80" s="181" t="s">
         <v>131</v>
       </c>
     </row>
@@ -11940,23 +11945,23 @@
         <f>MAX(Data!C17,0)</f>
         <v>651948</v>
       </c>
-      <c r="D81" s="160">
+      <c r="D81" s="159">
         <f>C81/$C$74</f>
         <v>0.49449639261897682</v>
       </c>
-      <c r="E81" s="181">
+      <c r="E81" s="180">
         <f>E74*F81</f>
         <v>651948</v>
       </c>
-      <c r="F81" s="161">
+      <c r="F81" s="160">
         <f>I81</f>
         <v>0.49449639261897682</v>
       </c>
-      <c r="H81" s="239">
+      <c r="H81" s="238">
         <f>Inputs!F94</f>
         <v>651948</v>
       </c>
-      <c r="I81" s="161">
+      <c r="I81" s="160">
         <f>H81/$H$74</f>
         <v>0.49449639261897682</v>
       </c>
@@ -11970,23 +11975,23 @@
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="160">
+      <c r="D82" s="159">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="239">
+      <c r="E82" s="238">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="161">
+      <c r="F82" s="160">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="239">
+      <c r="H82" s="238">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="161">
+      <c r="I82" s="160">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
@@ -11996,27 +12001,27 @@
       <c r="B83" s="105" t="s">
         <v>125</v>
       </c>
-      <c r="C83" s="164">
+      <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
         <v>263212.33333333337</v>
       </c>
-      <c r="D83" s="165">
+      <c r="D83" s="164">
         <f>C83/$C$74</f>
         <v>0.19964406567112258</v>
       </c>
-      <c r="E83" s="166">
+      <c r="E83" s="165">
         <f>E79-E81-E82-E80</f>
         <v>263212.33333333337</v>
       </c>
-      <c r="F83" s="165">
+      <c r="F83" s="164">
         <f>E83/E74</f>
         <v>0.19964406567112258</v>
       </c>
-      <c r="H83" s="166">
+      <c r="H83" s="165">
         <f>H79-H81-H82-H80</f>
         <v>263212.33333333337</v>
       </c>
-      <c r="I83" s="165">
+      <c r="I83" s="164">
         <f>H83/$H$74</f>
         <v>0.19964406567112258</v>
       </c>
@@ -12026,49 +12031,49 @@
       <c r="B84" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="C84" s="212"/>
-      <c r="D84" s="160">
+      <c r="C84" s="211"/>
+      <c r="D84" s="159">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="213"/>
-      <c r="F84" s="180">
+      <c r="E84" s="212"/>
+      <c r="F84" s="179">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="213"/>
-      <c r="I84" s="203">
+      <c r="H84" s="212"/>
+      <c r="I84" s="202">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="264" t="s">
+      <c r="B85" s="263" t="s">
         <v>164</v>
       </c>
-      <c r="C85" s="258">
+      <c r="C85" s="257">
         <f>C83*(1-I84)</f>
         <v>197409.25000000003</v>
       </c>
-      <c r="D85" s="259">
+      <c r="D85" s="258">
         <f>C85/$C$74</f>
         <v>0.14973304925334194</v>
       </c>
-      <c r="E85" s="265">
+      <c r="E85" s="264">
         <f>E83*(1-F84)</f>
         <v>197409.25000000003</v>
       </c>
-      <c r="F85" s="259">
+      <c r="F85" s="258">
         <f>E85/E74</f>
         <v>0.14973304925334194</v>
       </c>
-      <c r="G85" s="261"/>
-      <c r="H85" s="265">
+      <c r="G85" s="260"/>
+      <c r="H85" s="264">
         <f>H83*(1-I84)</f>
         <v>197409.25000000003</v>
       </c>
-      <c r="I85" s="259">
+      <c r="I85" s="258">
         <f>H85/$H$74</f>
         <v>0.14973304925334194</v>
       </c>
@@ -12078,69 +12083,69 @@
       <c r="B86" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C86" s="168">
+      <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0.5640537708797474</v>
       </c>
-      <c r="D86" s="210"/>
-      <c r="E86" s="169">
+      <c r="D86" s="209"/>
+      <c r="E86" s="168">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.5640537708797474</v>
       </c>
-      <c r="F86" s="210"/>
-      <c r="H86" s="169">
+      <c r="F86" s="209"/>
+      <c r="H86" s="168">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.5640537708797474</v>
       </c>
-      <c r="I86" s="210"/>
+      <c r="I86" s="209"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="C87" s="262">
+      <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14935610195854518</v>
-      </c>
-      <c r="D87" s="210"/>
-      <c r="E87" s="263">
+        <v>0.14812181581918604</v>
+      </c>
+      <c r="D87" s="209"/>
+      <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14935610195854518</v>
-      </c>
-      <c r="F87" s="210"/>
-      <c r="H87" s="263">
+        <v>0.14812181581918604</v>
+      </c>
+      <c r="F87" s="209"/>
+      <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14935610195854518</v>
-      </c>
-      <c r="I87" s="210"/>
+        <v>0.14812181581918604</v>
+      </c>
+      <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="C88" s="170">
+      <c r="C88" s="169">
         <f>Inputs!C44</f>
         <v>0.3473</v>
       </c>
-      <c r="D88" s="167">
+      <c r="D88" s="166">
         <f>C88/C86</f>
         <v>0.61572143992286532</v>
       </c>
-      <c r="E88" s="171">
+      <c r="E88" s="170">
         <f>Inputs!E98</f>
         <v>0.23089999999999999</v>
       </c>
-      <c r="F88" s="167">
+      <c r="F88" s="166">
         <f>E88/E86</f>
         <v>0.40935813555482176</v>
       </c>
-      <c r="H88" s="171">
+      <c r="H88" s="170">
         <f>Inputs!F98</f>
         <v>0.23089999999999999</v>
       </c>
-      <c r="I88" s="167">
+      <c r="I88" s="166">
         <f>H88/H86</f>
         <v>0.40935813555482176</v>
       </c>
@@ -12150,21 +12155,21 @@
       <c r="B89" s="87" t="s">
         <v>221</v>
       </c>
-      <c r="C89" s="262">
+      <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.1961754159181716E-2</v>
-      </c>
-      <c r="D89" s="210"/>
-      <c r="E89" s="262">
+        <v>9.1201777720178651E-2</v>
+      </c>
+      <c r="D89" s="209"/>
+      <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1140135431485908E-2</v>
-      </c>
-      <c r="F89" s="210"/>
-      <c r="H89" s="262">
+        <v>6.0634870358736687E-2</v>
+      </c>
+      <c r="F89" s="209"/>
+      <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.1140135431485908E-2</v>
-      </c>
-      <c r="I89" s="210"/>
+        <v>6.0634870358736687E-2</v>
+      </c>
+      <c r="I89" s="209"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12186,22 +12191,22 @@
       <c r="B92" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C92" s="199" t="str">
+      <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E92" s="284" t="s">
+      <c r="E92" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="F92" s="284"/>
+      <c r="F92" s="285"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="284" t="s">
+      <c r="H92" s="285" t="s">
         <v>205</v>
       </c>
-      <c r="I92" s="284"/>
+      <c r="I92" s="285"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12211,9 +12216,9 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>6.8999999999999992E-2</v>
-      </c>
-      <c r="D93" s="240">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D93" s="239">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
@@ -12221,15 +12226,15 @@
         <v>209</v>
       </c>
       <c r="F93" s="144">
-        <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>17.58336260186449</v>
+        <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
+        <v>16.745053521734661</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
-        <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>17.58336260186449</v>
+        <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
+        <v>16.745053521734661</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12237,24 +12242,27 @@
       <c r="B94" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C94" s="183">
+      <c r="C94" s="182">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="145"/>
+      <c r="D94" s="270">
+        <f>Inputs!D87</f>
+        <v>0</v>
+      </c>
       <c r="E94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="F94" s="144">
-        <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>4.828319878031099</v>
+        <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
+        <v>4.6118972859786984</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
-        <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>4.828319878031099</v>
+        <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
+        <v>4.6118972859786984</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12275,14 +12283,14 @@
       <c r="D96" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E96" s="184" t="str">
+      <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="228" t="s">
+      <c r="F96" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H96" s="184" t="str">
+      <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
@@ -12297,21 +12305,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>3059565.2663456043</v>
-      </c>
-      <c r="D97" s="214"/>
+        <v>2913696.6175494189</v>
+      </c>
+      <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>8.742038813961031</v>
-      </c>
-      <c r="F97" s="214"/>
+        <v>8.3252510423311712</v>
+      </c>
+      <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>8.742038813961031</v>
+        <v>8.3252510423311712</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>12.595441818038021</v>
+        <v>11.828035333711016</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12323,14 +12331,14 @@
         <f>E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D98" s="214"/>
-      <c r="E98" s="214"/>
-      <c r="F98" s="214"/>
+      <c r="D98" s="213"/>
+      <c r="E98" s="213"/>
+      <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I98" s="216"/>
+      <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -12341,17 +12349,17 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="215"/>
-      <c r="E99" s="146">
+      <c r="D99" s="214"/>
+      <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="215"/>
-      <c r="H99" s="146">
+      <c r="F99" s="214"/>
+      <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="217"/>
+      <c r="I99" s="216"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -12360,27 +12368,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>3059565.2663456043</v>
+        <v>2913696.6175494189</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>7.4307329918668765</v>
+        <v>7.0764633859814952</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>8.742038813961031</v>
+        <v>8.3252510423311712</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>8.742038813961031</v>
+        <v>8.3252510423311712</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>8.742038813961031</v>
+        <v>8.3252510423311712</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>12.595441818038021</v>
+        <v>11.828035333711016</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12399,14 +12407,14 @@
       <c r="D102" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E102" s="184" t="str">
+      <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="228" t="s">
+      <c r="F102" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H102" s="184" t="str">
+      <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12421,27 +12429,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>840144.18220912735</v>
+        <v>802485.91055261297</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.0404490668450381</v>
+        <v>1.9489888307478431</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.4005283139353391</v>
+        <v>2.292928036173933</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.4005283139353391</v>
+        <v>2.292928036173933</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.4005283139353391</v>
+        <v>2.292928036173933</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.4586571112495004</v>
+        <v>3.2576595818698251</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12460,14 +12468,14 @@
       <c r="D105" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="E105" s="185" t="str">
+      <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="228" t="s">
+      <c r="F105" s="227" t="s">
         <v>237</v>
       </c>
-      <c r="H105" s="185" t="str">
+      <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12482,27 +12490,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>1949854.724277366</v>
+        <v>1858091.264051016</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>4.7355910293559571</v>
+        <v>4.512726108364669</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>5.5712835639481852</v>
+        <v>5.3090895392525521</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>5.5712835639481852</v>
+        <v>5.3090895392525521</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>5.5712835639481852</v>
+        <v>5.3090895392525521</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>8.0270494646437598</v>
+        <v>7.5428474577904208</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1288.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1288.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10912347-A1FD-4F32-9705-DAEFC891C94A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBEFE2B3-2C6D-478D-BB9E-D2CFB660D637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="269">
   <si>
     <t>Company Info:</t>
   </si>
@@ -936,6 +936,9 @@
   </si>
   <si>
     <t>农业银行</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superior Cycl. </t>
   </si>
   <si>
     <t>C0014</t>
@@ -3577,7 +3580,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:F98"/>
+      <selection activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3630,7 +3633,7 @@
         <v>215</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>45</v>
+        <v>260</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3639,7 +3642,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3655,7 +3658,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3687,7 +3690,7 @@
         <v>254</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3704,7 +3707,7 @@
         <v>224</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3713,7 +3716,7 @@
         <v>238</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D18" s="24"/>
     </row>
@@ -3722,7 +3725,7 @@
         <v>239</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3731,7 +3734,7 @@
         <v>228</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3740,7 +3743,7 @@
         <v>231</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3749,7 +3752,7 @@
         <v>230</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4151,7 +4154,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.1201777720178651E-2</v>
+        <v>9.0565165555574062E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4573,9 +4576,11 @@
         <v>247</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>266</v>
-      </c>
-      <c r="D87" s="269"/>
+        <v>267</v>
+      </c>
+      <c r="D87" s="269">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
@@ -4886,10 +4891,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>4.08</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4927,7 +4932,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>1427930.7782018401</v>
+        <v>1434930.4388792999</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4965,7 +4970,7 @@
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
-        <v>Y</v>
+        <v xml:space="preserve">Superior Cycl. </v>
       </c>
       <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>
@@ -4976,7 +4981,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0714173714319866</v>
+        <v>1.0691539843877156</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5022,10 +5027,10 @@
         <v>252</v>
       </c>
       <c r="C12" s="174">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="D12" s="172">
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5072,7 +5077,7 @@
         <v>253</v>
       </c>
       <c r="C17" s="175">
-        <v>7.1999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5159,7 +5164,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.7511999800266507</v>
+        <v>6.7986563724110489</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5191,7 +5196,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.0634870358736687E-2</v>
+        <v>6.021162316954233E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5221,20 +5226,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.9489888307478431</v>
+        <v>1.9409941424667465</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.7463085191502987</v>
+        <v>3.4015679378958228</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.292928036173933</v>
+        <v>2.2835225205491136</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.2576595818698251</v>
+        <v>2.9578851633876724</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12106,17 +12111,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14812181581918604</v>
+        <v>0.14708788696219455</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14812181581918604</v>
+        <v>0.14708788696219455</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14812181581918604</v>
+        <v>0.14708788696219455</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12157,17 +12162,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.1201777720178651E-2</v>
+        <v>9.0565165555574062E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0634870358736687E-2</v>
+        <v>6.021162316954233E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0634870358736687E-2</v>
+        <v>6.021162316954233E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12216,7 +12221,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.1999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12227,14 +12232,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>16.745053521734661</v>
+        <v>16.6345760883944</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>16.745053521734661</v>
+        <v>16.6345760883944</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12248,21 +12253,21 @@
       </c>
       <c r="D94" s="270">
         <f>Inputs!D87</f>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.6118972859786984</v>
+        <v>4.5929794345245751</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.6118972859786984</v>
+        <v>4.5929794345245751</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12305,21 +12310,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>2913696.6175494189</v>
+        <v>2894473.1660733609</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>8.3252510423311712</v>
+        <v>8.2703242326989255</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>8.3252510423311712</v>
+        <v>8.2703242326989255</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>11.828035333711016</v>
+        <v>10.712690207418317</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12368,27 +12373,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>2913696.6175494189</v>
+        <v>2894473.1660733609</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>7.0764633859814952</v>
+        <v>7.0297755977940861</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>8.3252510423311712</v>
+        <v>8.2703242326989255</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>8.3252510423311712</v>
+        <v>8.2703242326989255</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>8.3252510423311712</v>
+        <v>8.2703242326989255</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>11.828035333711016</v>
+        <v>10.712690207418317</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12429,27 +12434,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>802485.91055261297</v>
+        <v>799194.1396590987</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.9489888307478431</v>
+        <v>1.9409941424667465</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.292928036173933</v>
+        <v>2.2835225205491136</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.292928036173933</v>
+        <v>2.2835225205491136</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.292928036173933</v>
+        <v>2.2835225205491136</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.2576595818698251</v>
+        <v>2.9578851633876724</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12490,27 +12495,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>1858091.264051016</v>
+        <v>1846833.6528662296</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>4.512726108364669</v>
+        <v>4.4853848701304164</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>5.3090895392525521</v>
+        <v>5.2769233766240191</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>5.3090895392525521</v>
+        <v>5.2769233766240191</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>5.3090895392525521</v>
+        <v>5.2769233766240191</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>7.5428474577904208</v>
+        <v>6.8352876854029949</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1288.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1288.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBEFE2B3-2C6D-478D-BB9E-D2CFB660D637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{027D1477-4A66-4E52-8DE8-CA6CBF76CA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4154,7 +4154,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.0565165555574062E-2</v>
+        <v>9.1132342454070342E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4891,7 +4891,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>4.0999999999999996</v>
+        <v>4.08</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>268</v>
@@ -4932,7 +4932,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>1434930.4388792999</v>
+        <v>1427930.7782018401</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4981,7 +4981,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691539843877156</v>
+        <v>1.0706016620000203</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5164,7 +5164,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.7986563724110489</v>
+        <v>6.7563438329611873</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5196,7 +5196,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.021162316954233E-2</v>
+        <v>6.0588706802893307E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5226,20 +5226,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.9409941424667465</v>
+        <v>1.9470812103164421</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.4015679378958228</v>
+        <v>3.4122354481063408</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.2835225205491136</v>
+        <v>2.2906837768428732</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.9578851633876724</v>
+        <v>2.9671612592229053</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12111,17 +12111,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14708788696219455</v>
+        <v>0.1480090452355971</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14708788696219455</v>
+        <v>0.1480090452355971</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14708788696219455</v>
+        <v>0.1480090452355971</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12162,17 +12162,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.0565165555574062E-2</v>
+        <v>9.1132342454070342E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.021162316954233E-2</v>
+        <v>6.0588706802893307E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.021162316954233E-2</v>
+        <v>6.0588706802893307E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12232,14 +12232,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>16.6345760883944</v>
+        <v>16.724089126047705</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>16.6345760883944</v>
+        <v>16.724089126047705</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12260,14 +12260,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.5929794345245751</v>
+        <v>4.6073832788425575</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.5929794345245751</v>
+        <v>4.6073832788425575</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12310,21 +12310,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>2894473.1660733609</v>
+        <v>2910048.7409557272</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>8.2703242326989255</v>
+        <v>8.3148280325260284</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>8.2703242326989255</v>
+        <v>8.3148280325260284</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>10.712690207418317</v>
+        <v>10.770336728544505</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12373,27 +12373,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>2894473.1660733609</v>
+        <v>2910048.7409557272</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>7.0297755977940861</v>
+        <v>7.0676038276471242</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>8.2703242326989255</v>
+        <v>8.3148280325260284</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>8.2703242326989255</v>
+        <v>8.3148280325260284</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>8.2703242326989255</v>
+        <v>8.3148280325260284</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>10.712690207418317</v>
+        <v>10.770336728544505</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12434,27 +12434,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>799194.1396590987</v>
+        <v>801700.45786313084</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.9409941424667465</v>
+        <v>1.9470812103164421</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.2835225205491136</v>
+        <v>2.2906837768428732</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.2835225205491136</v>
+        <v>2.2906837768428732</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.2835225205491136</v>
+        <v>2.2906837768428732</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.9578851633876724</v>
+        <v>2.9671612592229053</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12495,27 +12495,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>1846833.6528662296</v>
+        <v>1855874.5994094289</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>4.4853848701304164</v>
+        <v>4.5073425189817833</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>5.2769233766240191</v>
+        <v>5.3027559046844512</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>5.2769233766240191</v>
+        <v>5.3027559046844512</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>5.2769233766240191</v>
+        <v>5.3027559046844512</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>6.8352876854029949</v>
+        <v>6.8687489938837052</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1288.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1288.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{027D1477-4A66-4E52-8DE8-CA6CBF76CA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F18EBC44-CA45-4DB3-A0A9-2C059A1439F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="271">
   <si>
     <t>Company Info:</t>
   </si>
@@ -932,6 +932,17 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>LT AR or Prepayments</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>1288.HK</t>
   </si>
   <si>
@@ -945,9 +956,6 @@
   </si>
   <si>
     <t>CNY</t>
-  </si>
-  <si>
-    <t>CN</t>
   </si>
   <si>
     <t>Strongly agree</t>
@@ -3580,7 +3588,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G88" sqref="G88"/>
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3601,7 +3609,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3609,7 +3617,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3633,7 +3641,7 @@
         <v>215</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3642,7 +3650,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3658,7 +3666,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3690,7 +3698,7 @@
         <v>254</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3707,7 +3715,7 @@
         <v>224</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3716,7 +3724,7 @@
         <v>238</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D18" s="24"/>
     </row>
@@ -3725,7 +3733,7 @@
         <v>239</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3734,7 +3742,7 @@
         <v>228</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3743,7 +3751,7 @@
         <v>231</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3752,7 +3760,7 @@
         <v>230</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4154,7 +4162,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.1132342454070342E-2</v>
+        <v>8.9637652558016478E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4275,7 +4283,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>117</v>
+        <v>260</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4387,7 +4395,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>67</v>
+        <v>259</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4576,7 +4584,7 @@
         <v>247</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4891,10 +4899,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>4.08</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4932,7 +4940,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>1427930.7782018401</v>
+        <v>1452429.5905729502</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4981,7 +4989,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0706016620000203</v>
+        <v>1.0711092948913574</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5027,10 +5035,10 @@
         <v>252</v>
       </c>
       <c r="C12" s="174">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>8.5999999999999993E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5077,7 +5085,7 @@
         <v>253</v>
       </c>
       <c r="C17" s="175">
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5164,7 +5172,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.7563438329611873</v>
+        <v>6.8690045126332357</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5196,7 +5204,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.0588706802893307E-2</v>
+        <v>5.959497257600347E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5226,20 +5234,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>1.9470812103164421</v>
+        <v>2.3074458367008366</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.4122354481063408</v>
+        <v>4.2635933466241989</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.2906837768428732</v>
+        <v>2.7146421608245137</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>2.9671612592229053</v>
+        <v>3.7074724753253903</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12111,17 +12119,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1480090452355971</v>
+        <v>0.1455815028452572</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1480090452355971</v>
+        <v>0.1455815028452572</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1480090452355971</v>
+        <v>0.1455815028452572</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12162,17 +12170,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.1132342454070342E-2</v>
+        <v>8.9637652558016478E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0588706802893307E-2</v>
+        <v>5.959497257600347E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0588706802893307E-2</v>
+        <v>5.959497257600347E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12221,7 +12229,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12232,14 +12240,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>16.724089126047705</v>
+        <v>19.702842411283875</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>16.724089126047705</v>
+        <v>19.702842411283875</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12260,14 +12268,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.6073832788425575</v>
+        <v>5.4601150216649152</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.6073832788425575</v>
+        <v>5.4601150216649152</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12310,21 +12318,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>2910048.7409557272</v>
+        <v>3428362.006448816</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>8.3148280325260284</v>
+        <v>9.7957948661388023</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>8.3148280325260284</v>
+        <v>9.7957948661388023</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>10.770336728544505</v>
+        <v>13.378426211841004</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12373,27 +12381,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>2910048.7409557272</v>
+        <v>3428362.006448816</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>7.0676038276471242</v>
+        <v>8.3264256362179818</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>8.3148280325260284</v>
+        <v>9.7957948661388023</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>8.3148280325260284</v>
+        <v>9.7957948661388023</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>8.3148280325260284</v>
+        <v>9.7957948661388023</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>10.770336728544505</v>
+        <v>13.378426211841004</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12434,27 +12442,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>801700.45786313084</v>
+        <v>950078.69932491973</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>1.9470812103164421</v>
+        <v>2.3074458367008366</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.2906837768428732</v>
+        <v>2.7146421608245137</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.2906837768428732</v>
+        <v>2.7146421608245137</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.2906837768428732</v>
+        <v>2.7146421608245137</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>2.9671612592229053</v>
+        <v>3.7074724753253903</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12495,27 +12503,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>1855874.5994094289</v>
+        <v>2189220.3528868677</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>4.5073425189817833</v>
+        <v>5.316935736459409</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>5.3027559046844512</v>
+        <v>6.2552185134816582</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>5.3027559046844512</v>
+        <v>6.2552185134816582</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>5.3027559046844512</v>
+        <v>6.2552185134816582</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>6.8687489938837052</v>
+        <v>8.5429493435831976</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1288.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1288.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F18EBC44-CA45-4DB3-A0A9-2C059A1439F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4D4D242-1ECD-412D-9DCF-6F6E121A4695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="272">
   <si>
     <t>Company Info:</t>
   </si>
@@ -940,6 +940,10 @@
   </si>
   <si>
     <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ΔWC/Δsales</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -3587,7 +3591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3609,7 +3613,7 @@
         <v>194</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3617,7 +3621,7 @@
         <v>195</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3641,7 +3645,7 @@
         <v>215</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -3650,7 +3654,7 @@
         <v>216</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3666,7 +3670,7 @@
         <v>218</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3715,7 +3719,7 @@
         <v>224</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3724,7 +3728,7 @@
         <v>238</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D18" s="24"/>
     </row>
@@ -3733,7 +3737,7 @@
         <v>239</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -3742,7 +3746,7 @@
         <v>228</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -3751,7 +3755,7 @@
         <v>231</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -3760,7 +3764,7 @@
         <v>230</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4162,7 +4166,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.9637652558016478E-2</v>
+        <v>9.0222915876837603E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4584,7 +4588,7 @@
         <v>247</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4899,10 +4903,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>4.1500000000000004</v>
+        <v>4.12</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4940,7 +4944,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>1452429.5905729502</v>
+        <v>1441930.0995567599</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4989,7 +4993,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0711092948913574</v>
+        <v>1.0703092813491821</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5010,7 +5014,7 @@
         <v>175</v>
       </c>
       <c r="C10" s="172">
-        <v>4.2099999999999999E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
         <v>182</v>
@@ -5021,7 +5025,7 @@
         <v>179</v>
       </c>
       <c r="C11" s="173">
-        <v>5.3099999999999994E-2</v>
+        <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
         <v>189</v>
@@ -5048,7 +5052,7 @@
         <v>176</v>
       </c>
       <c r="C14" s="172">
-        <v>2.1309999999999999E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
         <v>181</v>
@@ -5172,7 +5176,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.8690045126332357</v>
+        <v>6.82444625003453</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5204,7 +5208,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.959497257600347E-2</v>
+        <v>5.9984080840661688E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5234,20 +5238,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.3074458367008366</v>
+        <v>2.3099590897899769</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>4.2635933466241989</v>
+        <v>4.2682372212403683</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.7146421608245137</v>
+        <v>2.7175989291646787</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.7074724753253903</v>
+        <v>3.7115106271655378</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -5282,8 +5286,8 @@
         <v>225</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6309,12 +6313,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N930"/>
+  <dimension ref="A1:N931"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="B19" sqref="B19"/>
+      <selection pane="topRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8740,118 +8744,119 @@
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
+      <c r="A52" s="4"/>
+      <c r="B52" s="94" t="s">
+        <v>261</v>
+      </c>
+      <c r="C52" s="153" t="e">
+        <f>IF(D6="","",C16/(C6-D6))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="16"/>
+      <c r="B53" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="4"/>
+      <c r="B54" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="156" t="e">
+      <c r="C54" s="156" t="e">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="156" t="str">
-        <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C54" s="157" t="str">
-        <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
+        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
+        <v/>
+      </c>
+      <c r="E54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8859,107 +8864,154 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C55" s="153">
-        <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>2.4768900140190997</v>
-      </c>
-      <c r="D55" s="153">
+        <v>120</v>
+      </c>
+      <c r="C55" s="157" t="str">
+        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>-</v>
+      </c>
+      <c r="D55" s="157" t="str">
         <f t="shared" si="45"/>
-        <v>1.8368032926241817</v>
-      </c>
-      <c r="E55" s="153" t="str">
+        <v/>
+      </c>
+      <c r="E55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="153" t="str">
+      <c r="F55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
+      <c r="B56" s="94" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="153">
+        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>2.4768900140190997</v>
+      </c>
+      <c r="D56" s="153">
+        <f t="shared" si="46"/>
+        <v>1.8368032926241817</v>
+      </c>
+      <c r="E56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="4"/>
+      <c r="B57" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="158" t="e">
-        <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
+      <c r="C57" s="158" t="e">
+        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="4"/>
-    </row>
+      <c r="D57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="E57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
@@ -9527,7 +9579,9 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A248" s="4"/>
+    </row>
     <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10210,6 +10264,7 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -12119,17 +12174,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1455815028452572</v>
+        <v>0.1465320354739317</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1455815028452572</v>
+        <v>0.1465320354739317</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1455815028452572</v>
+        <v>0.1465320354739317</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12170,17 +12225,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.9637652558016478E-2</v>
+        <v>9.0222915876837603E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.959497257600347E-2</v>
+        <v>5.9984080840661688E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.959497257600347E-2</v>
+        <v>5.9984080840661688E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12240,14 +12295,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>19.702842411283875</v>
+        <v>19.769941923169078</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>19.702842411283875</v>
+        <v>19.769941923169078</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12268,14 +12323,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.4601150216649152</v>
+        <v>5.4660621389176782</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.4601150216649152</v>
+        <v>5.4660621389176782</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12318,21 +12373,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>3428362.006448816</v>
+        <v>3440037.551144172</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>9.7957948661388023</v>
+        <v>9.8291551823979972</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>9.7957948661388023</v>
+        <v>9.8291551823979972</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>13.378426211841004</v>
+        <v>13.423987448634566</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12381,27 +12436,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>3428362.006448816</v>
+        <v>3440037.551144172</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>8.3264256362179818</v>
+        <v>8.3547819050382977</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>9.7957948661388023</v>
+        <v>9.8291551823979972</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>9.7957948661388023</v>
+        <v>9.8291551823979972</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>9.7957948661388023</v>
+        <v>9.8291551823979972</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>13.378426211841004</v>
+        <v>13.423987448634566</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12442,27 +12497,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>950078.69932491973</v>
+        <v>951113.51807907026</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.3074458367008366</v>
+        <v>2.3099590897899769</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.7146421608245137</v>
+        <v>2.7175989291646787</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.7146421608245137</v>
+        <v>2.7175989291646787</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.7146421608245137</v>
+        <v>2.7175989291646787</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.7074724753253903</v>
+        <v>3.7115106271655378</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12503,27 +12558,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2189220.3528868677</v>
+        <v>2195575.5346116209</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>5.316935736459409</v>
+        <v>5.3323704974141375</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>6.2552185134816582</v>
+        <v>6.2733770557813378</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>6.2552185134816582</v>
+        <v>6.2733770557813378</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>6.2552185134816582</v>
+        <v>6.2733770557813378</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>8.5429493435831976</v>
+        <v>8.567749037900052</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1288.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1288.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4D4D242-1ECD-412D-9DCF-6F6E121A4695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD701539-DBE1-4484-9D2F-7622FF7DF512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4166,7 +4166,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.0222915876837603E-2</v>
+        <v>9.0189198534272624E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4993,7 +4993,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0703092813491821</v>
+        <v>1.0699092944463093</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5176,7 +5176,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.82444625003453</v>
+        <v>6.8269975776410314</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5208,7 +5208,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.9984080840661688E-2</v>
+        <v>5.9961664098944857E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5238,20 +5238,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.3099590897899769</v>
+        <v>2.308851675852496</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>4.2682372212403683</v>
+        <v>4.2661909921932102</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.7175989291646787</v>
+        <v>2.7162960892382308</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.7115106271655378</v>
+        <v>3.7097312975593133</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -10304,8 +10304,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -12174,17 +12174,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1465320354739317</v>
+        <v>0.14647727476498318</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1465320354739317</v>
+        <v>0.14647727476498318</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1465320354739317</v>
+        <v>0.14647727476498318</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12225,17 +12225,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.0222915876837603E-2</v>
+        <v>9.0189198534272624E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9984080840661688E-2</v>
+        <v>5.9961664098944857E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9984080840661688E-2</v>
+        <v>5.9961664098944857E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12295,14 +12295,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>19.769941923169078</v>
+        <v>19.757834619634327</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>19.769941923169078</v>
+        <v>19.757834619634327</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12323,14 +12323,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.4660621389176782</v>
+        <v>5.4634416624674556</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.4660621389176782</v>
+        <v>5.4634416624674556</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12373,21 +12373,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>3440037.551144172</v>
+        <v>3437930.8388956226</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>9.8291551823979972</v>
+        <v>9.8231357127533236</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>9.8291551823979972</v>
+        <v>9.8231357127533236</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>13.423987448634566</v>
+        <v>13.415766468961538</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12396,7 +12396,7 @@
         <v>144</v>
       </c>
       <c r="C98" s="91">
-        <f>E53*Exchange_Rate</f>
+        <f>-E53*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="D98" s="213"/>
@@ -12435,28 +12435,28 @@
         <v>114</v>
       </c>
       <c r="C100" s="91">
-        <f>C97-C98+$C$99</f>
-        <v>3440037.551144172</v>
+        <f>C97+C98+$C$99</f>
+        <v>3437930.8388956226</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>8.3547819050382977</v>
+        <v>8.3496653558403242</v>
       </c>
       <c r="E100" s="109">
-        <f>MAX(E97-H98+E99,0)</f>
-        <v>9.8291551823979972</v>
+        <f>MAX(E97+H98+E99,0)</f>
+        <v>9.8231357127533236</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>9.8291551823979972</v>
+        <v>9.8231357127533236</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>9.8291551823979972</v>
+        <v>9.8231357127533236</v>
       </c>
       <c r="I100" s="109">
-        <f>MAX(I97-H98+H99,0)</f>
-        <v>13.423987448634566</v>
+        <f>MAX(I97+H98+H99,0)</f>
+        <v>13.415766468961538</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12497,27 +12497,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>951113.51807907026</v>
+        <v>950657.54620896117</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.3099590897899769</v>
+        <v>2.308851675852496</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.7175989291646787</v>
+        <v>2.7162960892382308</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.7175989291646787</v>
+        <v>2.7162960892382308</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.7175989291646787</v>
+        <v>2.7162960892382308</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.7115106271655378</v>
+        <v>3.7097312975593133</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12558,27 +12558,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2195575.5346116209</v>
+        <v>2194294.1925522918</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>5.3323704974141375</v>
+        <v>5.3292585158464103</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>6.2733770557813378</v>
+        <v>6.2697159009957772</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>6.2733770557813378</v>
+        <v>6.2697159009957772</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>6.2733770557813378</v>
+        <v>6.2697159009957772</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>8.567749037900052</v>
+        <v>8.5627488832604257</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1288.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1288.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD701539-DBE1-4484-9D2F-7622FF7DF512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{11F08A49-36DF-41C1-99C2-E4D9E414BC3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4166,7 +4166,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.0189198534272624E-2</v>
+        <v>9.1327158586594237E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4903,7 +4903,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>4.12</v>
+        <v>4.07</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -4944,7 +4944,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>1441930.0995567599</v>
+        <v>1424430.9478631101</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4993,7 +4993,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0699092944463093</v>
+        <v>1.0702606836954753</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5176,7 +5176,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.8269975776410314</v>
+        <v>6.741931419436999</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5208,7 +5208,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.9961664098944857E-2</v>
+        <v>6.0718228959529545E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5238,20 +5238,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.308851675852496</v>
+        <v>2.3178643529311711</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>4.2661909921932102</v>
+        <v>4.2828442065034755</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.7162960892382308</v>
+        <v>2.7268992387425541</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.7097312975593133</v>
+        <v>3.7242123534812834</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12174,17 +12174,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14647727476498318</v>
+        <v>0.1483254482709507</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14647727476498318</v>
+        <v>0.1483254482709507</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14647727476498318</v>
+        <v>0.1483254482709507</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12225,17 +12225,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.0189198534272624E-2</v>
+        <v>9.1327158586594237E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9961664098944857E-2</v>
+        <v>6.0718228959529545E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9961664098944857E-2</v>
+        <v>6.0718228959529545E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12295,14 +12295,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>19.757834619634327</v>
+        <v>19.924143050854102</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>19.757834619634327</v>
+        <v>19.924143050854102</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12323,14 +12323,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.4634416624674556</v>
+        <v>5.4847683834331127</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.4634416624674556</v>
+        <v>5.4847683834331127</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12373,21 +12373,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>3437930.8388956226</v>
+        <v>3466869.0750670414</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>9.8231357127533236</v>
+        <v>9.9058203956397524</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>9.8231357127533236</v>
+        <v>9.9058203956397524</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>13.415766468961538</v>
+        <v>13.528691549974548</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12436,27 +12436,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>3437930.8388956226</v>
+        <v>3466869.0750670414</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>8.3496653558403242</v>
+        <v>8.4199473362937898</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>9.8231357127533236</v>
+        <v>9.9058203956397524</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>9.8231357127533236</v>
+        <v>9.9058203956397524</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>9.8231357127533236</v>
+        <v>9.9058203956397524</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>13.415766468961538</v>
+        <v>13.528691549974548</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12497,27 +12497,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>950657.54620896117</v>
+        <v>954368.46864109323</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.308851675852496</v>
+        <v>2.3178643529311711</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.7162960892382308</v>
+        <v>2.7268992387425541</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.7162960892382308</v>
+        <v>2.7268992387425541</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.7162960892382308</v>
+        <v>2.7268992387425541</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.7097312975593133</v>
+        <v>3.7242123534812834</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12558,27 +12558,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2194294.1925522918</v>
+        <v>2210618.7718540672</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>5.3292585158464103</v>
+        <v>5.3689058446124802</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>6.2697159009957772</v>
+        <v>6.3163598171911532</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>6.2697159009957772</v>
+        <v>6.3163598171911532</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>6.2697159009957772</v>
+        <v>6.3163598171911532</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>8.5627488832604257</v>
+        <v>8.6264519517279155</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1288.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1288.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11F08A49-36DF-41C1-99C2-E4D9E414BC3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5DCB9B6-221E-4990-9B28-A3DFED9DDA09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4166,7 +4166,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.1327158586594237E-2</v>
+        <v>9.1094807226673444E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4903,7 +4903,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>4.07</v>
+        <v>4.08</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -4944,7 +4944,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>1424430.9478631101</v>
+        <v>1427930.7782018401</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4993,7 +4993,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0702606836954753</v>
+        <v>1.0701607068379719</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5039,10 +5039,10 @@
         <v>252</v>
       </c>
       <c r="C12" s="174">
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>7.5250000000000011E-2</v>
+        <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5089,7 +5089,7 @@
         <v>253</v>
       </c>
       <c r="C17" s="175">
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5176,7 +5176,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.741931419436999</v>
+        <v>6.7591277556661442</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5208,7 +5208,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.0718228959529545E-2</v>
+        <v>6.0563751766884243E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5238,20 +5238,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.3178643529311711</v>
+        <v>2.1149527689923033</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>4.2828442065034755</v>
+        <v>3.8055711172368363</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.7268992387425541</v>
+        <v>2.4881797282262395</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.7242123534812834</v>
+        <v>3.3091922758581189</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12174,17 +12174,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1483254482709507</v>
+        <v>0.14794808385767008</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1483254482709507</v>
+        <v>0.14794808385767008</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1483254482709507</v>
+        <v>0.14794808385767008</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12225,17 +12225,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.1327158586594237E-2</v>
+        <v>9.1094807226673444E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0718228959529545E-2</v>
+        <v>6.0563751766884243E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0718228959529545E-2</v>
+        <v>6.0563751766884243E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12284,7 +12284,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12295,14 +12295,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>19.924143050854102</v>
+        <v>18.163304451359259</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>19.924143050854102</v>
+        <v>18.163304451359259</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12323,14 +12323,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.4847683834331127</v>
+        <v>5.0046181801596417</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.4847683834331127</v>
+        <v>5.0046181801596417</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12373,21 +12373,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>3466869.0750670414</v>
+        <v>3160477.1328293378</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>9.9058203956397524</v>
+        <v>9.0303724093556923</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>9.9058203956397524</v>
+        <v>9.0303724093556923</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>13.528691549974548</v>
+        <v>12.010080415881026</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12436,27 +12436,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>3466869.0750670414</v>
+        <v>3160477.1328293378</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>8.4199473362937898</v>
+        <v>7.6758165479523379</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>9.9058203956397524</v>
+        <v>9.0303724093556923</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>9.9058203956397524</v>
+        <v>9.0303724093556923</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>9.9058203956397524</v>
+        <v>9.0303724093556923</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>13.528691549974548</v>
+        <v>12.010080415881026</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12497,27 +12497,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>954368.46864109323</v>
+        <v>870820.69010591588</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.3178643529311711</v>
+        <v>2.1149527689923033</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.7268992387425541</v>
+        <v>2.4881797282262395</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.7268992387425541</v>
+        <v>2.4881797282262395</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.7268992387425541</v>
+        <v>2.4881797282262395</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.7242123534812834</v>
+        <v>3.3091922758581189</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12558,27 +12558,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2210618.7718540672</v>
+        <v>2015648.9114676267</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>5.3689058446124802</v>
+        <v>4.8953846584723202</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>6.3163598171911532</v>
+        <v>5.7592760687909657</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>6.3163598171911532</v>
+        <v>5.7592760687909657</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>6.3163598171911532</v>
+        <v>5.7592760687909657</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>8.6264519517279155</v>
+        <v>7.659636345869572</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1288.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1288.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5DCB9B6-221E-4990-9B28-A3DFED9DDA09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F448E8B-D76D-4EA8-ABBE-699C03C9009D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,6 +26,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -4166,7 +4177,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>9.1094807226673444E-2</v>
+        <v>8.9910588579085501E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4903,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>4.08</v>
+        <v>4.13</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>271</v>
@@ -4944,7 +4955,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>1427930.7782018401</v>
+        <v>1445429.9298954899</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -4993,7 +5004,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0701607068379719</v>
+        <v>1.0691930055618286</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5176,7 +5187,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.7591277556661442</v>
+        <v>6.8481526998488693</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5208,7 +5219,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>6.0563751766884243E-2</v>
+        <v>5.9776432199570517E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5238,20 +5249,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.1149527689923033</v>
+        <v>2.1052087648758846</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.8055711172368363</v>
+        <v>3.7880381012871007</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.4881797282262395</v>
+        <v>2.4767161939716291</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.3091922758581189</v>
+        <v>3.2939461750322616</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12174,17 +12185,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14794808385767008</v>
+        <v>0.14602478125554483</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14794808385767008</v>
+        <v>0.14602478125554483</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14794808385767008</v>
+        <v>0.14602478125554483</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12225,17 +12236,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>9.1094807226673444E-2</v>
+        <v>8.9910588579085501E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0563751766884243E-2</v>
+        <v>5.9776432199570517E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>6.0563751766884243E-2</v>
+        <v>5.9776432199570517E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12295,14 +12306,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>18.163304451359259</v>
+        <v>17.995369863360793</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>18.163304451359259</v>
+        <v>17.995369863360793</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12323,14 +12334,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.0046181801596417</v>
+        <v>4.9815609181424785</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.0046181801596417</v>
+        <v>4.9815609181424785</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12373,21 +12384,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>3160477.1328293378</v>
+        <v>3131255.9398134081</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>9.0303724093556923</v>
+        <v>8.9468792391509524</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>9.0303724093556923</v>
+        <v>8.9468792391509524</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>12.010080415881026</v>
+        <v>11.899037410910722</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12436,27 +12447,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>3160477.1328293378</v>
+        <v>3131255.9398134081</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>7.6758165479523379</v>
+        <v>7.6048473532783092</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>9.0303724093556923</v>
+        <v>8.9468792391509524</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>9.0303724093556923</v>
+        <v>8.9468792391509524</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>9.0303724093556923</v>
+        <v>8.9468792391509524</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>12.010080415881026</v>
+        <v>11.899037410910722</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12497,27 +12508,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>870820.69010591588</v>
+        <v>866808.6476085803</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.1149527689923033</v>
+        <v>2.1052087648758846</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.4881797282262395</v>
+        <v>2.4767161939716291</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.4881797282262395</v>
+        <v>2.4767161939716291</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.4881797282262395</v>
+        <v>2.4767161939716291</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.3091922758581189</v>
+        <v>3.2939461750322616</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12558,27 +12569,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>2015648.9114676267</v>
+        <v>1999032.2937109943</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>4.8953846584723202</v>
+        <v>4.8550280590770969</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>5.7592760687909657</v>
+        <v>5.711797716561291</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>5.7592760687909657</v>
+        <v>5.711797716561291</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>5.7592760687909657</v>
+        <v>5.711797716561291</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>7.659636345869572</v>
+        <v>7.5964917929714915</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1288.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1288.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F448E8B-D76D-4EA8-ABBE-699C03C9009D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{23DF5D21-4842-49E3-B36D-6D496CFE53EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Total Liabilities / Total Assets</t>
-  </si>
-  <si>
     <t>Current Ratio</t>
   </si>
   <si>
@@ -126,15 +123,9 @@
     <t>Discount</t>
   </si>
   <si>
-    <t>Orderly Liquidation Values =</t>
-  </si>
-  <si>
     <t>Book Current Ratio</t>
   </si>
   <si>
-    <t>Orderly Liquidation Value per Shares =</t>
-  </si>
-  <si>
     <t>Book Quick Ratio</t>
   </si>
   <si>
@@ -449,10 +440,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Solvency Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Pre-tax Profit =</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -549,10 +536,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Profibility Qaulity Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>2. Total Debt + PS + Options</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -911,10 +894,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Cost Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -955,6 +934,42 @@
   </si>
   <si>
     <t>ΔWC/Δsales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minority interests</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profibility Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Op_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common_Equity / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-tax ROE</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1546,7 +1561,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="287">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2186,6 +2201,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3602,7 +3627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3616,28 +3641,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C6" s="189">
         <v>45593</v>
@@ -3653,24 +3678,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C10" s="193">
         <v>349983033873</v>
@@ -3678,10 +3703,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3702,7 +3727,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3710,15 +3735,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="222" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C16" s="223">
         <v>0.25</v>
@@ -3727,61 +3752,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3850,7 +3875,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C26" s="150">
         <v>150324</v>
@@ -3870,7 +3895,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C27" s="150">
         <v>252305</v>
@@ -3890,7 +3915,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C28" s="150"/>
       <c r="D28" s="150"/>
@@ -3906,7 +3931,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C29" s="150">
         <v>651948</v>
@@ -3926,7 +3951,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C30" s="150">
         <v>464</v>
@@ -3946,7 +3971,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C31" s="150"/>
       <c r="D31" s="150"/>
@@ -3962,7 +3987,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C32" s="150"/>
       <c r="D32" s="150"/>
@@ -3978,7 +4003,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C33" s="150"/>
       <c r="D33" s="150"/>
@@ -4010,7 +4035,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -4026,7 +4051,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4058,7 +4083,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -4106,7 +4131,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C41" s="217"/>
       <c r="D41" s="150"/>
@@ -4122,7 +4147,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>138</v>
+        <v>256</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4138,7 +4163,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -4154,7 +4179,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C44" s="250">
         <f>0.2309+0.1164</f>
@@ -4173,11 +4198,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.9910588579085501E-2</v>
+        <v>8.9267761540145443E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4222,21 +4247,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C47" s="194" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
@@ -4246,7 +4271,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -4256,7 +4281,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -4267,7 +4292,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
@@ -4277,7 +4302,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
@@ -4287,7 +4312,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4298,7 +4323,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4308,7 +4333,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
@@ -4319,7 +4344,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4327,24 +4352,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
@@ -4355,7 +4380,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="195">
@@ -4366,7 +4391,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
@@ -4377,7 +4402,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
@@ -4388,7 +4413,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
@@ -4399,7 +4424,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4410,7 +4435,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4420,31 +4445,31 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
       <c r="E65" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
       <c r="E66" s="221" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
@@ -4452,12 +4477,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -4468,7 +4493,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4479,7 +4504,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
@@ -4489,7 +4514,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
@@ -4500,7 +4525,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="246" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C72" s="247"/>
       <c r="D72" s="248">
@@ -4510,25 +4535,25 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C76" s="120"/>
     </row>
@@ -4540,55 +4565,55 @@
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C82" s="83"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C83" s="59"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4596,10 +4621,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4607,18 +4632,18 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C89" s="271">
+        <v>123</v>
+      </c>
+      <c r="C89" s="275">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="271"/>
+      <c r="D89" s="275"/>
       <c r="E89" s="89" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4627,20 +4652,20 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C90" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D90" s="272"/>
+      <c r="C90" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" s="276"/>
       <c r="E90" s="235" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F90" s="255" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4658,7 +4683,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4679,7 +4704,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4700,7 +4725,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4718,7 +4743,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4739,7 +4764,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4757,7 +4782,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4775,7 +4800,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4902,62 +4927,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="277" t="str">
+        <v>189</v>
+      </c>
+      <c r="C3" s="281" t="str">
         <f>Inputs!C4</f>
         <v>1288.HK</v>
       </c>
-      <c r="D3" s="278"/>
+      <c r="D3" s="282"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>4.13</v>
+        <v>4.16</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="279" t="str">
+        <v>190</v>
+      </c>
+      <c r="C4" s="283" t="str">
         <f>Inputs!C5</f>
         <v>农业银行</v>
       </c>
-      <c r="D4" s="280"/>
+      <c r="D4" s="284"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="283">
+      <c r="G4" s="287">
         <f>Inputs!C10</f>
         <v>349983033873</v>
       </c>
-      <c r="H4" s="283"/>
+      <c r="H4" s="287"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="281">
+        <v>158</v>
+      </c>
+      <c r="C5" s="285">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="282"/>
+      <c r="D5" s="286"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="275">
+        <v>96</v>
+      </c>
+      <c r="G5" s="279">
         <f>G3*G4/1000000</f>
-        <v>1445429.9298954899</v>
-      </c>
-      <c r="H5" s="275"/>
+        <v>1455929.42091168</v>
+      </c>
+      <c r="H5" s="279"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4980,16 +5005,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="276" t="str">
+      <c r="G6" s="280" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="276"/>
+      <c r="H6" s="280"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5004,7 +5029,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691930055618286</v>
+        <v>1.0692596832911174</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5014,40 +5039,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5060,29 +5085,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5092,12 +5117,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5107,29 +5132,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.11401933240696355</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -5137,7 +5162,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
@@ -5148,26 +5173,26 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>4.6925281602255647E-4</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5176,30 +5201,30 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>0.49449639261897682</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.8481526998488693</v>
+        <v>6.8974670060026471</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5208,18 +5233,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>0.19964406567112258</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.9776432199570517E-2</v>
+        <v>5.9349053094211297E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5229,62 +5254,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="G28" s="273" t="s">
-        <v>256</v>
-      </c>
-      <c r="H28" s="273"/>
+        <v>232</v>
+      </c>
+      <c r="G28" s="277" t="s">
+        <v>250</v>
+      </c>
+      <c r="H28" s="277"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.1052087648758846</v>
+        <v>2.101098340983846</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.7880381012871007</v>
+        <v>3.7806419500952249</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.4767161939716291</v>
-      </c>
-      <c r="G29" s="274">
+        <v>2.471880401157466</v>
+      </c>
+      <c r="G29" s="278">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.2939461750322616</v>
-      </c>
-      <c r="H29" s="274"/>
+        <v>3.2875147392132393</v>
+      </c>
+      <c r="H29" s="278"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5294,25 +5319,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5322,7 +5347,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5332,14 +5357,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5349,7 +5374,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5364,14 +5389,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6324,12 +6349,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N931"/>
+  <dimension ref="A1:N932"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D52" sqref="D52"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6356,16 +6381,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
+        <v>194</v>
+      </c>
+      <c r="F2" s="119" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" s="148" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" s="147" t="s">
         <v>199</v>
-      </c>
-      <c r="F2" s="119" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" s="148" t="s">
-        <v>203</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>204</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6383,7 +6408,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6416,7 +6441,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6427,7 +6452,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6579,7 +6604,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6630,7 +6655,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6681,7 +6706,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6732,7 +6757,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6783,7 +6808,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6834,7 +6859,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6885,7 +6910,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6936,7 +6961,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6987,7 +7012,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C16" s="199" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7038,7 +7063,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7089,7 +7114,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C18" s="152" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7140,7 +7165,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C19" s="199" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7191,7 +7216,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7242,7 +7267,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C21" s="199" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7293,7 +7318,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7344,7 +7369,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7395,7 +7420,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7446,7 +7471,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7497,7 +7522,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7650,7 +7675,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7701,7 +7726,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7803,7 +7828,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -8007,7 +8032,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8058,7 +8083,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8109,7 +8134,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8160,7 +8185,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8211,7 +8236,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8262,7 +8287,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8280,7 +8305,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8331,7 +8356,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8382,7 +8407,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8433,7 +8458,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8484,7 +8509,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8535,7 +8560,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8586,7 +8611,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8637,7 +8662,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>149</v>
+        <v>258</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8654,50 +8679,50 @@
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="95" t="s">
-        <v>146</v>
-      </c>
-      <c r="C50" s="156">
-        <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D50" s="156" t="str">
+      <c r="B50" s="271" t="s">
+        <v>260</v>
+      </c>
+      <c r="C50" s="272" t="e">
+        <f>IF(C6="","",C6/C39)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D50" s="272" t="e">
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E50" s="156" t="str">
+      <c r="F50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="156" t="str">
+      <c r="G50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="156" t="str">
+      <c r="H50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="156" t="str">
+      <c r="I50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="156" t="str">
+      <c r="J50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="156" t="str">
+      <c r="K50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="156" t="str">
+      <c r="L50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="156" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="156" t="str">
+      <c r="M50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8706,10 +8731,10 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
+        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
       <c r="D51" s="153" t="str">
@@ -8757,167 +8782,168 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>261</v>
-      </c>
-      <c r="C52" s="153" t="e">
+        <v>143</v>
+      </c>
+      <c r="C52" s="153">
+        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="4"/>
+      <c r="B53" s="94" t="s">
+        <v>255</v>
+      </c>
+      <c r="C53" s="153" t="e">
         <f>IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="16"/>
-      <c r="B53" s="102" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
+      <c r="D53" s="153" t="str">
+        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
+        <v/>
+      </c>
+      <c r="E53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="F53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="G53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="H53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="I53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="J53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="K53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="L53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="M53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="N53" s="87"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="95" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="156" t="e">
-        <f>IF(C36="","",(C27-C36)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D54" s="156" t="str">
-        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
+      <c r="A54" s="16"/>
+      <c r="B54" s="102" t="s">
+        <v>259</v>
+      </c>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C55" s="157" t="str">
-        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D55" s="157" t="str">
+      <c r="B55" s="95" t="s">
+        <v>261</v>
+      </c>
+      <c r="C55" s="156" t="e">
+        <f>IF(C36="","",(C36-C37)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D55" s="156" t="str">
+        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
+        <v/>
+      </c>
+      <c r="E55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E55" s="157" t="str">
+      <c r="F55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="157" t="str">
+      <c r="G55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="157" t="str">
+      <c r="H55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="157" t="str">
+      <c r="I55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="157" t="str">
+      <c r="J55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="157" t="str">
+      <c r="K55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="157" t="str">
+      <c r="L55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="157" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="157" t="str">
+      <c r="M55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8925,112 +8951,302 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" s="153">
-        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>2.4768900140190997</v>
-      </c>
-      <c r="D56" s="153">
+        <v>117</v>
+      </c>
+      <c r="C56" s="157" t="str">
+        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>-</v>
+      </c>
+      <c r="D56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>1.8368032926241817</v>
-      </c>
-      <c r="E56" s="153" t="str">
+        <v/>
+      </c>
+      <c r="E56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F56" s="153" t="str">
+      <c r="F56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="153" t="str">
+      <c r="G56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="153" t="str">
+      <c r="H56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="153" t="str">
+      <c r="I56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="153" t="str">
+      <c r="J56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="153" t="str">
+      <c r="K56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="153" t="str">
+      <c r="L56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="153" t="str">
+      <c r="M56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
-      <c r="B57" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="158" t="e">
-        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
+      <c r="B57" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="153">
+        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>2.4768900140190997</v>
+      </c>
+      <c r="D57" s="153">
+        <f t="shared" si="47"/>
+        <v>1.8368032926241817</v>
+      </c>
+      <c r="E57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="4"/>
+      <c r="B58" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="158" t="e">
+        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="E57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="D58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="4"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="102" t="s">
+        <v>262</v>
+      </c>
+      <c r="C59" s="273" t="str">
+        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D59" s="273" t="str">
+        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="E59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
+      <c r="B60" s="271" t="s">
+        <v>263</v>
+      </c>
+      <c r="C60" s="274" t="e">
+        <f>IF(C14="","",C14/(C36-C37))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D60" s="274" t="e">
+        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="F60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="G60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
+      <c r="B61" s="271" t="s">
+        <v>264</v>
+      </c>
+      <c r="C61" s="274" t="e">
+        <f>IF(C22="","",C22/(C36-C37))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D61" s="274" t="e">
+        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="F61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="G61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="H61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="I61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="J61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="K61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="L61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="M61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9593,7 +9809,9 @@
     <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="4"/>
     </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A249" s="4"/>
+    </row>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10276,6 +10494,7 @@
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10315,8 +10534,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10334,7 +10553,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10349,7 +10568,7 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10363,7 +10582,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="204">
         <f>Inputs!C83</f>
@@ -10373,7 +10592,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10391,10 +10610,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -10403,12 +10622,13 @@
       <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="20" t="s">
-        <v>26</v>
+      <c r="B6" s="20" t="str">
+        <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
+        <v>Adj. Net Asset in CNY</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
-        <f>(E49-I49-E53)*Exchange_Rate</f>
+        <f>(E49-I49-E53)</f>
         <v>0</v>
       </c>
       <c r="E6" s="56" t="e">
@@ -10418,7 +10638,7 @@
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
@@ -10428,8 +10648,9 @@
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="19" t="s">
-        <v>28</v>
+      <c r="B7" s="19" t="str">
+        <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
+        <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10441,7 +10662,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
@@ -10459,7 +10680,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="203">
@@ -10478,32 +10699,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="111" t="s">
         <v>32</v>
-      </c>
-      <c r="C10" s="74" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>35</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10520,7 +10741,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10531,7 +10752,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10548,7 +10769,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10559,7 +10780,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10576,7 +10797,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10587,7 +10808,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10604,7 +10825,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I14" s="205">
         <f>Inputs!C76</f>
@@ -10615,7 +10836,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10632,7 +10853,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10642,7 +10863,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10664,7 +10885,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10686,7 +10907,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10707,7 +10928,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10732,7 +10953,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10759,7 +10980,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10780,7 +11001,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10797,7 +11018,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10809,13 +11030,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10837,7 +11058,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10857,7 +11078,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -10866,7 +11087,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10886,7 +11107,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10899,7 +11120,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10919,7 +11140,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -10965,7 +11186,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -10974,7 +11195,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -10990,7 +11211,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -11000,7 +11221,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -11017,7 +11238,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -11027,7 +11248,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -11044,7 +11265,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -11054,7 +11275,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11074,7 +11295,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I33" s="205">
         <f>Inputs!C81</f>
@@ -11084,7 +11305,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11101,7 +11322,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11111,7 +11332,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11137,7 +11358,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11164,7 +11385,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11191,7 +11412,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11212,7 +11433,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11233,7 +11454,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11254,7 +11475,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11275,7 +11496,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11292,7 +11513,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11310,7 +11531,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11329,7 +11550,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11348,7 +11569,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11365,7 +11586,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -11378,7 +11599,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11395,7 +11616,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11408,7 +11629,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11425,7 +11646,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I48" s="207">
         <f>Inputs!C82</f>
@@ -11452,7 +11673,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11468,14 +11689,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11492,7 +11713,7 @@
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11522,7 +11743,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11533,14 +11754,14 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="284">
+      <c r="D56" s="288">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="282"/>
+      <c r="E56" s="286"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11548,30 +11769,30 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="283">
+      <c r="D57" s="287">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="282"/>
+      <c r="E57" s="286"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="283">
+      <c r="D58" s="287">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="282"/>
+      <c r="E58" s="286"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11588,11 +11809,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11602,7 +11823,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11623,7 +11844,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11644,7 +11865,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11665,7 +11886,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11680,7 +11901,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11711,11 +11932,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11725,7 +11946,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11746,7 +11967,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11761,7 +11982,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11783,21 +12004,21 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C72" s="271">
+        <v>123</v>
+      </c>
+      <c r="C72" s="275">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="271"/>
-      <c r="E72" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F72" s="285"/>
-      <c r="H72" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I72" s="285"/>
+      <c r="D72" s="275"/>
+      <c r="E72" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F72" s="289"/>
+      <c r="H72" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I72" s="289"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11807,23 +12028,23 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C73" s="272" t="s">
-        <v>100</v>
-      </c>
-      <c r="D73" s="272"/>
-      <c r="E73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="F73" s="272"/>
-      <c r="H73" s="286" t="s">
-        <v>101</v>
-      </c>
-      <c r="I73" s="272"/>
+      <c r="C73" s="276" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="276"/>
+      <c r="E73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="F73" s="276"/>
+      <c r="H73" s="290" t="s">
+        <v>98</v>
+      </c>
+      <c r="I73" s="276"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11844,7 +12065,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11874,7 +12095,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C76" s="161">
         <f>C74-C75</f>
@@ -11895,7 +12116,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11925,7 +12146,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11955,7 +12176,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11986,7 +12207,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -12013,12 +12234,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12048,7 +12269,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12078,7 +12299,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -12108,7 +12329,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C84" s="211"/>
       <c r="D84" s="159">
@@ -12129,7 +12350,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12160,7 +12381,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12181,28 +12402,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14602478125554483</v>
+        <v>0.14498075875241329</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14602478125554483</v>
+        <v>0.14498075875241329</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14602478125554483</v>
+        <v>0.14498075875241329</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12232,21 +12453,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.9910588579085501E-2</v>
+        <v>8.9267761540145443E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9776432199570517E-2</v>
+        <v>5.9349053094211297E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9776432199570517E-2</v>
+        <v>5.9349053094211297E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12263,29 +12484,29 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E92" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="F92" s="285"/>
+        <v>151</v>
+      </c>
+      <c r="E92" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="F92" s="289"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="285" t="s">
-        <v>205</v>
-      </c>
-      <c r="I92" s="285"/>
+      <c r="H92" s="289" t="s">
+        <v>200</v>
+      </c>
+      <c r="I92" s="289"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12302,24 +12523,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>17.995369863360793</v>
+        <v>17.914667776856007</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>17.995369863360793</v>
+        <v>17.914667776856007</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12330,18 +12551,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.9815609181424785</v>
+        <v>4.9718344115084507</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.9815609181424785</v>
+        <v>4.9718344115084507</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12360,51 +12581,51 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>3131255.9398134081</v>
+        <v>3117213.5005836403</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>8.9468792391509524</v>
+        <v>8.9067560392507428</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>8.9468792391509524</v>
+        <v>8.9067560392507428</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>11.899037410910722</v>
+        <v>11.845674954137095</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
@@ -12422,7 +12643,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12443,31 +12664,31 @@
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>3131255.9398134081</v>
+        <v>3117213.5005836403</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>7.6048473532783092</v>
+        <v>7.5707426333631309</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>8.9468792391509524</v>
+        <v>8.9067560392507428</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>8.9468792391509524</v>
+        <v>8.9067560392507428</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>8.9468792391509524</v>
+        <v>8.9067560392507428</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>11.899037410910722</v>
+        <v>11.845674954137095</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12477,58 +12698,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>866808.6476085803</v>
+        <v>865116.20216829819</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.1052087648758846</v>
+        <v>2.101098340983846</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.4767161939716291</v>
+        <v>2.471880401157466</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.4767161939716291</v>
+        <v>2.471880401157466</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.4767161939716291</v>
+        <v>2.471880401157466</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.2939461750322616</v>
+        <v>3.2875147392132393</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12538,58 +12759,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>1999032.2937109943</v>
+        <v>1991164.8513759689</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>4.8550280590770969</v>
+        <v>4.8359204871734889</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>5.711797716561291</v>
+        <v>5.6893182202041039</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>5.711797716561291</v>
+        <v>5.6893182202041039</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>5.711797716561291</v>
+        <v>5.6893182202041039</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>7.5964917929714915</v>
+        <v>7.5665948466751676</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12598,7 +12819,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>
@@ -12607,6 +12828,7 @@
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/1288.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1288.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23DF5D21-4842-49E3-B36D-6D496CFE53EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98033A9F-B854-4A7D-A0CA-E1F69156C9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="273">
   <si>
     <t>Company Info:</t>
   </si>
@@ -524,14 +524,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>ST AR / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST Inventory / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST Inventory</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -598,21 +590,9 @@
     <t>Value Range</t>
   </si>
   <si>
-    <t>COGS</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>ΔWC</t>
-  </si>
-  <si>
     <t>- Non-controling Interests</t>
   </si>
   <si>
-    <t xml:space="preserve">Pre-tax Profit </t>
-  </si>
-  <si>
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
@@ -640,9 +620,6 @@
     <t>https://fred.stlouisfed.org/series/DGS10</t>
   </si>
   <si>
-    <t>Normalized Cost Structure</t>
-  </si>
-  <si>
     <t>Price Indicators</t>
   </si>
   <si>
@@ -664,9 +641,6 @@
     <t>Market Yields</t>
   </si>
   <si>
-    <t>Non-controlling Interests</t>
-  </si>
-  <si>
     <t>Watchlist &amp; Comp_Group:</t>
   </si>
   <si>
@@ -866,14 +840,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>CAPX-D&amp;A</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPEX+R&amp;D</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>- (CAPX - D&amp;A)</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -953,10 +919,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales/Op_Assets</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Common_Equity / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -970,6 +932,42 @@
   </si>
   <si>
     <t>Pre-tax ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Total_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_AR / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_Inventory / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT Margin</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized ΔWC</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized CAPX-D&amp;A</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE &amp; Cost Structure</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1297,7 +1295,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1555,13 +1553,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2211,6 +2325,30 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2450,981 +2588,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Normalized Cost Structure</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$B$20:$B$26</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>COGS</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>OPEX+R&amp;D</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Non-controlling Interests</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ΔWC</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Interest</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CAPX-D&amp;A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Pre-tax Profit </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Dashboard!$C$20:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.11401933240696355</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.19137095648691452</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.6925281602255647E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.49449639261897682</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.19964406567112258</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0A50-CA42-B693-027654020280}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{773B95BE-F378-2977-0A32-CF810A38528E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3627,7 +2790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3641,28 +2804,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C6" s="189">
         <v>45593</v>
@@ -3678,24 +2841,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C10" s="193">
         <v>349983033873</v>
@@ -3703,10 +2866,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3727,7 +2890,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3735,10 +2898,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3752,55 +2915,55 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3931,7 +3094,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C29" s="150">
         <v>651948</v>
@@ -4051,7 +3214,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4147,7 +3310,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4179,7 +3342,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C44" s="250">
         <f>0.2309+0.1164</f>
@@ -4198,11 +3361,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.9267761540145443E-2</v>
+        <v>8.8620322731248716E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4247,13 +3410,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -4312,7 +3475,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4323,7 +3486,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4424,7 +3587,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4435,7 +3598,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4595,7 +3758,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -4613,7 +3776,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4621,10 +3784,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4634,16 +3797,16 @@
       <c r="B89" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C89" s="275">
+      <c r="C89" s="283">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="275"/>
+      <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4652,10 +3815,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C90" s="276" t="s">
+      <c r="C90" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="276"/>
+      <c r="D90" s="284"/>
       <c r="E90" s="235" t="s">
         <v>98</v>
       </c>
@@ -4704,7 +3867,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4725,7 +3888,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4743,7 +3906,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4782,7 +3945,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4800,7 +3963,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4885,8 +4048,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4927,62 +4090,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C3" s="281" t="str">
+        <v>181</v>
+      </c>
+      <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
         <v>1288.HK</v>
       </c>
-      <c r="D3" s="282"/>
+      <c r="D3" s="290"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>4.16</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>190</v>
-      </c>
-      <c r="C4" s="283" t="str">
+        <v>182</v>
+      </c>
+      <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
         <v>农业银行</v>
       </c>
-      <c r="D4" s="284"/>
+      <c r="D4" s="292"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="287">
+      <c r="G4" s="295">
         <f>Inputs!C10</f>
         <v>349983033873</v>
       </c>
-      <c r="H4" s="287"/>
+      <c r="H4" s="295"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="285">
+        <v>156</v>
+      </c>
+      <c r="C5" s="293">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="286"/>
+      <c r="D5" s="294"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="279">
+      <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>1455929.42091168</v>
-      </c>
-      <c r="H5" s="279"/>
+        <v>1466428.91192787</v>
+      </c>
+      <c r="H5" s="287"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5005,16 +4168,16 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="280" t="str">
+      <c r="G6" s="288" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="280"/>
+      <c r="H6" s="288"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5029,7 +4192,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0692596832911174</v>
+        <v>1.0691596666971843</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -5039,40 +4202,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5085,29 +4248,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5117,12 +4280,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5130,9 +4293,9 @@
       <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>178</v>
+        <v>262</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -5140,59 +4303,59 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="137" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="171">
-        <f>Fin_Analysis!I75</f>
-        <v>0.11401933240696355</v>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="275" t="s">
+        <v>252</v>
+      </c>
+      <c r="C20" s="276" t="e">
+        <f>C23*C22*(1/C21)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="137" t="s">
-        <v>239</v>
-      </c>
-      <c r="C21" s="171">
-        <f>Fin_Analysis!I77</f>
-        <v>0.19137095648691452</v>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="277" t="s">
+        <v>250</v>
+      </c>
+      <c r="C21" s="278" t="e">
+        <f>Data!C55</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="137" t="s">
-        <v>186</v>
-      </c>
-      <c r="C22" s="171">
-        <f>Fin_Analysis!I78</f>
-        <v>4.6925281602255647E-4</v>
+      <c r="B22" s="279" t="s">
+        <v>257</v>
+      </c>
+      <c r="C22" s="280" t="e">
+        <f>Data!C50</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="137" t="s">
-        <v>166</v>
-      </c>
-      <c r="C23" s="171">
-        <f>Fin_Analysis!I80</f>
-        <v>0</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="281" t="s">
+        <v>258</v>
+      </c>
+      <c r="C23" s="282">
+        <f>Data!C13</f>
+        <v>0.6941404582900994</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="G23" s="177" t="e">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
@@ -5201,30 +4364,30 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>165</v>
+        <v>259</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>0.49449639261897682</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.8974670060026471</v>
+        <v>6.9478582445486134</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="C25" s="171">
-        <f>Fin_Analysis!I82</f>
+        <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5233,18 +4396,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>168</v>
+        <v>261</v>
       </c>
       <c r="C26" s="171">
-        <f>Fin_Analysis!I83</f>
-        <v>0.19964406567112258</v>
+        <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
+        <v>0</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.9349053094211297E-2</v>
+        <v>5.891860788553218E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5254,62 +4417,62 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="G28" s="277" t="s">
-        <v>250</v>
-      </c>
-      <c r="H28" s="277"/>
+        <v>224</v>
+      </c>
+      <c r="G28" s="285" t="s">
+        <v>240</v>
+      </c>
+      <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.101098340983846</v>
+        <v>2.0966369791084825</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.7806419500952249</v>
+        <v>3.7726143335236673</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.471880401157466</v>
-      </c>
-      <c r="G29" s="278">
+        <v>2.4666317401276263</v>
+      </c>
+      <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.2875147392132393</v>
-      </c>
-      <c r="H29" s="278"/>
+        <v>3.2805342030640587</v>
+      </c>
+      <c r="H29" s="286"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5319,7 +4482,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C34" s="225" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
@@ -5330,14 +4493,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5347,7 +4510,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5357,14 +4520,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5374,7 +4537,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5389,14 +4552,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6340,7 +5503,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="99" orientation="landscape" r:id="rId6"/>
-  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -6354,7 +5516,7 @@
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6381,16 +5543,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F2" s="119" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G2" s="148" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="H2" s="147" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6408,7 +5570,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6441,7 +5603,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6808,7 +5970,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6859,7 +6021,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6910,7 +6072,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6961,7 +6123,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7063,7 +6225,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7216,7 +6378,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7726,7 +6888,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -8236,7 +7398,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C40" s="155" t="e">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8287,7 +7449,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8356,7 +7518,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8560,7 +7722,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8662,7 +7824,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8680,14 +7842,14 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="271" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C50" s="272" t="e">
-        <f>IF(C6="","",C6/C39)</f>
+        <f>IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E50" s="272" t="str">
@@ -8731,7 +7893,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>142</v>
+        <v>255</v>
       </c>
       <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
@@ -8782,7 +7944,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>143</v>
+        <v>256</v>
       </c>
       <c r="C52" s="153">
         <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
@@ -8833,7 +7995,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="94" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C53" s="153" t="e">
         <f>IF(D6="","",C16/(C6-D6))</f>
@@ -8884,7 +8046,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="16"/>
       <c r="B54" s="102" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
@@ -8901,7 +8063,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="95" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C55" s="156" t="e">
         <f>IF(C36="","",(C36-C37)/C27)</f>
@@ -9101,7 +8263,7 @@
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="16"/>
       <c r="B59" s="102" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C59" s="273" t="str">
         <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
@@ -9151,7 +8313,7 @@
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
       <c r="B60" s="271" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C60" s="274" t="e">
         <f>IF(C14="","",C14/(C36-C37))</f>
@@ -9201,7 +8363,7 @@
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
       <c r="B61" s="271" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C61" s="274" t="e">
         <f>IF(C22="","",C22/(C36-C37))</f>
@@ -10705,7 +9867,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -10863,7 +10025,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -11275,7 +10437,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11743,7 +10905,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11757,11 +10919,11 @@
         <v>86</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="288">
+      <c r="D56" s="296">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="286"/>
+      <c r="E56" s="294"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11772,11 +10934,11 @@
         <v>87</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="287">
+      <c r="D57" s="295">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="286"/>
+      <c r="E57" s="294"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11788,11 +10950,11 @@
         <v>89</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="287">
+      <c r="D58" s="295">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="286"/>
+      <c r="E58" s="294"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11809,7 +10971,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11886,7 +11048,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11932,7 +11094,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11967,7 +11129,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -12006,19 +11168,19 @@
       <c r="B72" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="C72" s="275">
+      <c r="C72" s="283">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="275"/>
-      <c r="E72" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F72" s="289"/>
-      <c r="H72" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I72" s="289"/>
+      <c r="D72" s="283"/>
+      <c r="E72" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F72" s="297"/>
+      <c r="H72" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -12028,18 +11190,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C73" s="276" t="s">
+      <c r="C73" s="284" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="276"/>
-      <c r="E73" s="290" t="s">
+      <c r="D73" s="284"/>
+      <c r="E73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="F73" s="276"/>
-      <c r="H73" s="290" t="s">
+      <c r="F73" s="284"/>
+      <c r="H73" s="298" t="s">
         <v>98</v>
       </c>
-      <c r="I73" s="276"/>
+      <c r="I73" s="284"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12116,7 +11278,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12146,7 +11308,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12176,7 +11338,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12239,7 +11401,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12269,7 +11431,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12350,7 +11512,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12381,7 +11543,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12402,28 +11564,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14498075875241329</v>
+        <v>0.14392924622269229</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14498075875241329</v>
+        <v>0.14392924622269229</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14498075875241329</v>
+        <v>0.14392924622269229</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12453,21 +11615,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.9267761540145443E-2</v>
+        <v>8.8620322731248716E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9349053094211297E-2</v>
+        <v>5.891860788553218E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9349053094211297E-2</v>
+        <v>5.891860788553218E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12489,24 +11651,24 @@
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E92" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="F92" s="289"/>
+        <v>149</v>
+      </c>
+      <c r="E92" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="F92" s="297"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="289" t="s">
-        <v>200</v>
-      </c>
-      <c r="I92" s="289"/>
+      <c r="H92" s="297" t="s">
+        <v>192</v>
+      </c>
+      <c r="I92" s="297"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12523,24 +11685,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>17.914667776856007</v>
+        <v>17.830889507944327</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>17.914667776856007</v>
+        <v>17.830889507944327</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12551,18 +11713,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.9718344115084507</v>
+        <v>4.9612774794213319</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.9718344115084507</v>
+        <v>4.9612774794213319</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12581,14 +11743,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -12605,21 +11767,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>3117213.5005836403</v>
+        <v>3102635.7950877892</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>8.9067560392507428</v>
+        <v>8.8651034330242915</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>8.9067560392507428</v>
+        <v>8.8651034330242915</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>11.845674954137095</v>
+        <v>11.790278440279879</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12668,27 +11830,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>3117213.5005836403</v>
+        <v>3102635.7950877892</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>7.5707426333631309</v>
+        <v>7.5353379180706472</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>8.9067560392507428</v>
+        <v>8.8651034330242915</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>8.9067560392507428</v>
+        <v>8.8651034330242915</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>8.9067560392507428</v>
+        <v>8.8651034330242915</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>11.845674954137095</v>
+        <v>11.790278440279879</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12698,21 +11860,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -12725,31 +11887,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>865116.20216829819</v>
+        <v>863279.25985730393</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.101098340983846</v>
+        <v>2.0966369791084825</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.471880401157466</v>
+        <v>2.4666317401276263</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.471880401157466</v>
+        <v>2.4666317401276263</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.471880401157466</v>
+        <v>2.4666317401276263</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.2875147392132393</v>
+        <v>3.2805342030640587</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12759,21 +11921,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12786,31 +11948,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>1991164.8513759689</v>
+        <v>1982957.5274725466</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>4.8359204871734889</v>
+        <v>4.8159874485895653</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>5.6893182202041039</v>
+        <v>5.6658675865759589</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>5.6893182202041039</v>
+        <v>5.6658675865759589</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>5.6893182202041039</v>
+        <v>5.6658675865759589</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>7.5665948466751676</v>
+        <v>7.5354063216719691</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12819,7 +11981,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/1288.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1288.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98033A9F-B854-4A7D-A0CA-E1F69156C9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EE71C07-2BD3-483A-A10A-DC55F1FCDDC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="274">
   <si>
     <t>Company Info:</t>
   </si>
@@ -404,10 +404,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Noncurrent Liabilities</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST AR</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -903,10 +899,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Minority interests</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Profibility Analysis</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -968,6 +960,18 @@
   </si>
   <si>
     <t>ROE &amp; Cost Structure</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -2399,7 +2403,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2496,12 +2500,28 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2790,7 +2810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2804,28 +2824,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="189">
         <v>45593</v>
@@ -2841,24 +2861,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" s="193">
         <v>349983033873</v>
@@ -2866,10 +2886,10 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2890,7 +2910,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -2898,10 +2918,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2915,61 +2935,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3094,7 +3114,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C29" s="150">
         <v>651948</v>
@@ -3180,9 +3200,9 @@
       <c r="L33" s="150"/>
       <c r="M33" s="150"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B34" s="94" t="s">
-        <v>14</v>
+    <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="97" t="s">
+        <v>263</v>
       </c>
       <c r="C34" s="217"/>
       <c r="D34" s="150"/>
@@ -3198,7 +3218,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -3214,7 +3234,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -3229,10 +3249,11 @@
       <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="217"/>
+      <c r="B37" s="94" t="str">
+        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
+        <v>Total Liabilities</v>
+      </c>
+      <c r="C37" s="150"/>
       <c r="D37" s="150"/>
       <c r="E37" s="150"/>
       <c r="F37" s="150"/>
@@ -3244,9 +3265,9 @@
       <c r="L37" s="150"/>
       <c r="M37" s="150"/>
     </row>
-    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>112</v>
+        <v>262</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -3293,10 +3314,11 @@
       <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" s="217"/>
+      <c r="B41" s="94" t="str">
+        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
+        <v>Total Equity</v>
+      </c>
+      <c r="C41" s="150"/>
       <c r="D41" s="150"/>
       <c r="E41" s="150"/>
       <c r="F41" s="150"/>
@@ -3310,9 +3332,9 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>246</v>
-      </c>
-      <c r="C42" s="217"/>
+        <v>133</v>
+      </c>
+      <c r="C42" s="150"/>
       <c r="D42" s="150"/>
       <c r="E42" s="150"/>
       <c r="F42" s="150"/>
@@ -3326,7 +3348,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -3342,7 +3364,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C44" s="250">
         <f>0.2309+0.1164</f>
@@ -3361,11 +3383,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.8620322731248716E-2</v>
+        <v>8.8614795959081158E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3410,13 +3432,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>30</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>32</v>
@@ -3434,7 +3456,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -3444,7 +3466,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
@@ -3475,7 +3497,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -3486,7 +3508,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3520,7 +3542,7 @@
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
@@ -3587,7 +3609,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -3598,7 +3620,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3645,7 +3667,7 @@
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
@@ -3758,7 +3780,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C83" s="59"/>
     </row>
@@ -3776,7 +3798,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -3784,10 +3806,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -3795,7 +3817,7 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C89" s="283">
         <f>C24</f>
@@ -3803,10 +3825,10 @@
       </c>
       <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3828,7 +3850,7 @@
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -3867,7 +3889,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -3888,7 +3910,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -3906,7 +3928,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -3945,7 +3967,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -3963,7 +3985,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -3985,28 +4007,33 @@
     <mergeCell ref="C90:D90"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C16 C25:M33 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="20" priority="11">
+  <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
+    <cfRule type="containsBlanks" dxfId="22" priority="14">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="containsBlanks" dxfId="21" priority="3">
+      <formula>LEN(TRIM(C37))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:C42">
+    <cfRule type="containsBlanks" dxfId="20" priority="1">
+      <formula>LEN(TRIM(C41))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="4">
+    <cfRule type="containsBlanks" dxfId="19" priority="7">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="3">
+    <cfRule type="containsBlanks" dxfId="18" priority="6">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:M43">
-    <cfRule type="containsBlanks" dxfId="17" priority="17">
-      <formula>LEN(TRIM(D34))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="16" priority="1">
+    <cfRule type="containsBlanks" dxfId="17" priority="4">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4048,8 +4075,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4090,7 +4117,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
@@ -4105,12 +4132,12 @@
         <v>4.1900000000000004</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
@@ -4130,7 +4157,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" s="293">
         <f>Inputs!C6</f>
@@ -4177,7 +4204,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -4192,7 +4219,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="133">
-        <v>1.0691596666971843</v>
+        <v>1.0690929889678955</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4202,40 +4229,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -4248,29 +4275,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -4280,12 +4307,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -4295,7 +4322,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>48</v>
@@ -4303,21 +4330,21 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="275" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C20" s="276" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -4325,10 +4352,10 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="277" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C21" s="278" t="e">
-        <f>Data!C55</f>
+        <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
@@ -4336,58 +4363,58 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="279" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C22" s="280" t="e">
-        <f>Data!C50</f>
+        <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="281" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C23" s="282">
         <f>Data!C13</f>
         <v>0.6941404582900994</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G23" s="177" t="e">
-        <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
+        <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>0.49449639261897682</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.9478582445486134</v>
+        <v>6.9482915720663767</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -4396,18 +4423,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.891860788553218E-2</v>
+        <v>5.8914933449328653E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4417,40 +4444,40 @@
         <v>6</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>159</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.0966369791084825</v>
+        <v>2.0964698491357927</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>3.7726143335236673</v>
+        <v>3.7723136057692614</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.4666317401276263</v>
+        <v>2.4664351166303442</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.2805342030640587</v>
+        <v>3.2802727006689234</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4458,21 +4485,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -4482,25 +4509,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C34" s="225" t="e">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -4510,7 +4537,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -4520,14 +4547,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -4537,7 +4564,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -4552,14 +4579,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -5459,27 +5486,27 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
-    <cfRule type="containsBlanks" dxfId="15" priority="5">
+    <cfRule type="containsBlanks" dxfId="16" priority="5">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsBlanks" dxfId="14" priority="3">
+    <cfRule type="containsBlanks" dxfId="15" priority="3">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsBlanks" dxfId="13" priority="2">
+    <cfRule type="containsBlanks" dxfId="14" priority="2">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="12" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="41" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsBlanks" dxfId="11" priority="1">
+    <cfRule type="containsBlanks" dxfId="12" priority="1">
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5511,12 +5538,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N932"/>
+  <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C60" sqref="C60"/>
+      <selection pane="topRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5543,16 +5570,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="148" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>190</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>191</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -5570,7 +5597,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -5603,7 +5630,7 @@
         <v>CNY</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -5614,7 +5641,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5970,7 +5997,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6021,7 +6048,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6072,7 +6099,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6123,7 +6150,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6225,7 +6252,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -6378,7 +6405,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -6633,7 +6660,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -6684,7 +6711,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6738,15 +6765,15 @@
         <v>13</v>
       </c>
       <c r="C27" s="65">
-        <f>IF(C36="","",C36+C31+C32)</f>
+        <f>IF(C34="","",C34+C30)</f>
         <v>0</v>
       </c>
       <c r="D27" s="65" t="str">
-        <f t="shared" ref="D27:M27" si="20">IF(D36="","",D36+D31+D32)</f>
+        <f>IF(D34="","",D34+D30)</f>
         <v/>
       </c>
       <c r="E27" s="65" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="E27:M27" si="20">IF(E34="","",E34+E30)</f>
         <v/>
       </c>
       <c r="F27" s="65" t="str">
@@ -6786,50 +6813,50 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="C28" s="65">
-        <f>Fin_Analysis!C28</f>
+        <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
       <c r="D28" s="199" t="str">
-        <f>IF(Inputs!D34="","",Inputs!D34)</f>
+        <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
       <c r="E28" s="199" t="str">
-        <f>IF(Inputs!E34="","",Inputs!E34)</f>
+        <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
       <c r="F28" s="199" t="str">
-        <f>IF(Inputs!F34="","",Inputs!F34)</f>
+        <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
       <c r="G28" s="199" t="str">
-        <f>IF(Inputs!G34="","",Inputs!G34)</f>
+        <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
       <c r="H28" s="199" t="str">
-        <f>IF(Inputs!H34="","",Inputs!H34)</f>
+        <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
       <c r="I28" s="199" t="str">
-        <f>IF(Inputs!I34="","",Inputs!I34)</f>
+        <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
       <c r="J28" s="199" t="str">
-        <f>IF(Inputs!J34="","",Inputs!J34)</f>
+        <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
       <c r="K28" s="199" t="str">
-        <f>IF(Inputs!K34="","",Inputs!K34)</f>
+        <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
       <c r="L28" s="199" t="str">
-        <f>IF(Inputs!L34="","",Inputs!L34)</f>
+        <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
       <c r="M28" s="199" t="str">
-        <f>IF(Inputs!M34="","",Inputs!M34)</f>
+        <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
       <c r="N28" s="87"/>
@@ -6837,50 +6864,50 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="C29" s="65">
-        <f>Fin_Analysis!C13</f>
+        <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
       <c r="D29" s="199" t="str">
-        <f>IF(Inputs!D35="","",Inputs!D35)</f>
+        <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
       <c r="E29" s="199" t="str">
-        <f>IF(Inputs!E35="","",Inputs!E35)</f>
+        <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
       <c r="F29" s="199" t="str">
-        <f>IF(Inputs!F35="","",Inputs!F35)</f>
+        <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
       <c r="G29" s="199" t="str">
-        <f>IF(Inputs!G35="","",Inputs!G35)</f>
+        <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
       <c r="H29" s="199" t="str">
-        <f>IF(Inputs!H35="","",Inputs!H35)</f>
+        <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
       <c r="I29" s="199" t="str">
-        <f>IF(Inputs!I35="","",Inputs!I35)</f>
+        <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
       <c r="J29" s="199" t="str">
-        <f>IF(Inputs!J35="","",Inputs!J35)</f>
+        <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
       <c r="K29" s="199" t="str">
-        <f>IF(Inputs!K35="","",Inputs!K35)</f>
+        <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
       <c r="L29" s="199" t="str">
-        <f>IF(Inputs!L35="","",Inputs!L35)</f>
+        <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
       <c r="M29" s="199" t="str">
-        <f>IF(Inputs!M35="","",Inputs!M35)</f>
+        <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
       <c r="N29" s="87"/>
@@ -6888,101 +6915,101 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>142</v>
+        <v>261</v>
       </c>
       <c r="C30" s="65">
-        <f>Fin_Analysis!C18</f>
+        <f>Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="D30" s="199" t="str">
-        <f>IF(Inputs!D36="","",Inputs!D36)</f>
+        <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
       <c r="E30" s="199" t="str">
-        <f>IF(Inputs!E36="","",Inputs!E36)</f>
+        <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
       <c r="F30" s="199" t="str">
-        <f>IF(Inputs!F36="","",Inputs!F36)</f>
+        <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
       <c r="G30" s="199" t="str">
-        <f>IF(Inputs!G36="","",Inputs!G36)</f>
+        <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
       <c r="H30" s="199" t="str">
-        <f>IF(Inputs!H36="","",Inputs!H36)</f>
+        <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
       <c r="I30" s="199" t="str">
-        <f>IF(Inputs!I36="","",Inputs!I36)</f>
+        <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
       <c r="J30" s="199" t="str">
-        <f>IF(Inputs!J36="","",Inputs!J36)</f>
+        <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
       <c r="K30" s="199" t="str">
-        <f>IF(Inputs!K36="","",Inputs!K36)</f>
+        <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
       <c r="L30" s="199" t="str">
-        <f>IF(Inputs!L36="","",Inputs!L36)</f>
+        <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
       <c r="M30" s="199" t="str">
-        <f>IF(Inputs!M36="","",Inputs!M36)</f>
+        <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C31" s="65">
-        <f>Fin_Analysis!I28</f>
+        <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
       <c r="D31" s="199" t="str">
-        <f>IF(Inputs!D37="","",Inputs!D37)</f>
+        <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
       <c r="E31" s="199" t="str">
-        <f>IF(Inputs!E37="","",Inputs!E37)</f>
+        <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
       <c r="F31" s="199" t="str">
-        <f>IF(Inputs!F37="","",Inputs!F37)</f>
+        <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
       <c r="G31" s="199" t="str">
-        <f>IF(Inputs!G37="","",Inputs!G37)</f>
+        <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
       <c r="H31" s="199" t="str">
-        <f>IF(Inputs!H37="","",Inputs!H37)</f>
+        <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
       <c r="I31" s="199" t="str">
-        <f>IF(Inputs!I37="","",Inputs!I37)</f>
+        <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
       <c r="J31" s="199" t="str">
-        <f>IF(Inputs!J37="","",Inputs!J37)</f>
+        <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
       <c r="K31" s="199" t="str">
-        <f>IF(Inputs!K37="","",Inputs!K37)</f>
+        <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
       <c r="L31" s="199" t="str">
-        <f>IF(Inputs!L37="","",Inputs!L37)</f>
+        <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
       <c r="M31" s="199" t="str">
-        <f>IF(Inputs!M37="","",Inputs!M37)</f>
+        <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
       <c r="N31" s="87"/>
@@ -6990,101 +7017,101 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="C32" s="65">
-        <f>Fin_Analysis!I48</f>
+        <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
       <c r="D32" s="199" t="str">
-        <f>IF(Inputs!D38="","",Inputs!D38)</f>
+        <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
       <c r="E32" s="199" t="str">
-        <f>IF(Inputs!E38="","",Inputs!E38)</f>
+        <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
       <c r="F32" s="199" t="str">
-        <f>IF(Inputs!F38="","",Inputs!F38)</f>
+        <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
       <c r="G32" s="199" t="str">
-        <f>IF(Inputs!G38="","",Inputs!G38)</f>
+        <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
       <c r="H32" s="199" t="str">
-        <f>IF(Inputs!H38="","",Inputs!H38)</f>
+        <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
       <c r="I32" s="199" t="str">
-        <f>IF(Inputs!I38="","",Inputs!I38)</f>
+        <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
       <c r="J32" s="199" t="str">
-        <f>IF(Inputs!J38="","",Inputs!J38)</f>
+        <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
       <c r="K32" s="199" t="str">
-        <f>IF(Inputs!K38="","",Inputs!K38)</f>
+        <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
       <c r="L32" s="199" t="str">
-        <f>IF(Inputs!L38="","",Inputs!L38)</f>
+        <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
       <c r="M32" s="199" t="str">
-        <f>IF(Inputs!M38="","",Inputs!M38)</f>
+        <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="65">
-        <f>Fin_Analysis!I15</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="199" t="str">
-        <f>IF(Inputs!D39="","",Inputs!D39)</f>
-        <v/>
-      </c>
-      <c r="E33" s="199" t="str">
-        <f>IF(Inputs!E39="","",Inputs!E39)</f>
-        <v/>
-      </c>
-      <c r="F33" s="199" t="str">
-        <f>IF(Inputs!F39="","",Inputs!F39)</f>
-        <v/>
-      </c>
-      <c r="G33" s="199" t="str">
-        <f>IF(Inputs!G39="","",Inputs!G39)</f>
-        <v/>
-      </c>
-      <c r="H33" s="199" t="str">
-        <f>IF(Inputs!H39="","",Inputs!H39)</f>
-        <v/>
-      </c>
-      <c r="I33" s="199" t="str">
-        <f>IF(Inputs!I39="","",Inputs!I39)</f>
-        <v/>
-      </c>
-      <c r="J33" s="199" t="str">
-        <f>IF(Inputs!J39="","",Inputs!J39)</f>
-        <v/>
-      </c>
-      <c r="K33" s="199" t="str">
-        <f>IF(Inputs!K39="","",Inputs!K39)</f>
-        <v/>
-      </c>
-      <c r="L33" s="199" t="str">
-        <f>IF(Inputs!L39="","",Inputs!L39)</f>
-        <v/>
-      </c>
-      <c r="M33" s="199" t="str">
-        <f>IF(Inputs!M39="","",Inputs!M39)</f>
+        <v>18</v>
+      </c>
+      <c r="C33" s="77">
+        <f t="shared" ref="C33" si="21">IF(OR(C31="",C32=""),"",C31+C32)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="77" t="str">
+        <f t="shared" ref="D33" si="22">IF(OR(D31="",D32=""),"",D31+D32)</f>
+        <v/>
+      </c>
+      <c r="E33" s="77" t="str">
+        <f t="shared" ref="E33" si="23">IF(OR(E31="",E32=""),"",E31+E32)</f>
+        <v/>
+      </c>
+      <c r="F33" s="77" t="str">
+        <f t="shared" ref="F33" si="24">IF(OR(F31="",F32=""),"",F31+F32)</f>
+        <v/>
+      </c>
+      <c r="G33" s="77" t="str">
+        <f t="shared" ref="G33" si="25">IF(OR(G31="",G32=""),"",G31+G32)</f>
+        <v/>
+      </c>
+      <c r="H33" s="77" t="str">
+        <f t="shared" ref="H33" si="26">IF(OR(H31="",H32=""),"",H31+H32)</f>
+        <v/>
+      </c>
+      <c r="I33" s="77" t="str">
+        <f t="shared" ref="I33" si="27">IF(OR(I31="",I32=""),"",I31+I32)</f>
+        <v/>
+      </c>
+      <c r="J33" s="77" t="str">
+        <f t="shared" ref="J33" si="28">IF(OR(J31="",J32=""),"",J31+J32)</f>
+        <v/>
+      </c>
+      <c r="K33" s="77" t="str">
+        <f t="shared" ref="K33" si="29">IF(OR(K31="",K32=""),"",K31+K32)</f>
+        <v/>
+      </c>
+      <c r="L33" s="77" t="str">
+        <f t="shared" ref="L33" si="30">IF(OR(L31="",L32=""),"",L31+L32)</f>
+        <v/>
+      </c>
+      <c r="M33" s="77" t="str">
+        <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
       <c r="N33" s="87"/>
@@ -7092,50 +7119,50 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="C34" s="65">
-        <f>Fin_Analysis!I34</f>
+        <f>Inputs!C41</f>
         <v>0</v>
       </c>
       <c r="D34" s="199" t="str">
-        <f>IF(Inputs!D40="","",Inputs!D40)</f>
+        <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
       <c r="E34" s="199" t="str">
-        <f>IF(Inputs!E40="","",Inputs!E40)</f>
+        <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
       <c r="F34" s="199" t="str">
-        <f>IF(Inputs!F40="","",Inputs!F40)</f>
+        <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
       <c r="G34" s="199" t="str">
-        <f>IF(Inputs!G40="","",Inputs!G40)</f>
+        <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
       <c r="H34" s="199" t="str">
-        <f>IF(Inputs!H40="","",Inputs!H40)</f>
+        <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
       <c r="I34" s="199" t="str">
-        <f>IF(Inputs!I40="","",Inputs!I40)</f>
+        <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
       <c r="J34" s="199" t="str">
-        <f>IF(Inputs!J40="","",Inputs!J40)</f>
+        <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
       <c r="K34" s="199" t="str">
-        <f>IF(Inputs!K40="","",Inputs!K40)</f>
+        <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
       <c r="L34" s="199" t="str">
-        <f>IF(Inputs!L40="","",Inputs!L40)</f>
+        <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
       <c r="M34" s="199" t="str">
-        <f>IF(Inputs!M40="","",Inputs!M40)</f>
+        <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
       <c r="N34" s="87"/>
@@ -7143,50 +7170,50 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" s="77">
-        <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="77" t="str">
-        <f t="shared" ref="D35" si="22">IF(OR(D33="",D34=""),"",D33+D34)</f>
-        <v/>
-      </c>
-      <c r="E35" s="77" t="str">
-        <f t="shared" ref="E35" si="23">IF(OR(E33="",E34=""),"",E33+E34)</f>
-        <v/>
-      </c>
-      <c r="F35" s="77" t="str">
-        <f t="shared" ref="F35" si="24">IF(OR(F33="",F34=""),"",F33+F34)</f>
-        <v/>
-      </c>
-      <c r="G35" s="77" t="str">
-        <f t="shared" ref="G35" si="25">IF(OR(G33="",G34=""),"",G33+G34)</f>
-        <v/>
-      </c>
-      <c r="H35" s="77" t="str">
-        <f t="shared" ref="H35" si="26">IF(OR(H33="",H34=""),"",H33+H34)</f>
-        <v/>
-      </c>
-      <c r="I35" s="77" t="str">
-        <f t="shared" ref="I35" si="27">IF(OR(I33="",I34=""),"",I33+I34)</f>
-        <v/>
-      </c>
-      <c r="J35" s="77" t="str">
-        <f t="shared" ref="J35" si="28">IF(OR(J33="",J34=""),"",J33+J34)</f>
-        <v/>
-      </c>
-      <c r="K35" s="77" t="str">
-        <f t="shared" ref="K35" si="29">IF(OR(K33="",K34=""),"",K33+K34)</f>
-        <v/>
-      </c>
-      <c r="L35" s="77" t="str">
-        <f t="shared" ref="L35" si="30">IF(OR(L33="",L34=""),"",L33+L34)</f>
-        <v/>
-      </c>
-      <c r="M35" s="77" t="str">
-        <f t="shared" ref="M35" si="31">IF(OR(M33="",M34=""),"",M33+M34)</f>
+        <v>133</v>
+      </c>
+      <c r="C35" s="65">
+        <f>Inputs!C42</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="199" t="str">
+        <f>IF(Inputs!D42="","",Inputs!D42)</f>
+        <v/>
+      </c>
+      <c r="E35" s="199" t="str">
+        <f>IF(Inputs!E42="","",Inputs!E42)</f>
+        <v/>
+      </c>
+      <c r="F35" s="199" t="str">
+        <f>IF(Inputs!F42="","",Inputs!F42)</f>
+        <v/>
+      </c>
+      <c r="G35" s="199" t="str">
+        <f>IF(Inputs!G42="","",Inputs!G42)</f>
+        <v/>
+      </c>
+      <c r="H35" s="199" t="str">
+        <f>IF(Inputs!H42="","",Inputs!H42)</f>
+        <v/>
+      </c>
+      <c r="I35" s="199" t="str">
+        <f>IF(Inputs!I42="","",Inputs!I42)</f>
+        <v/>
+      </c>
+      <c r="J35" s="199" t="str">
+        <f>IF(Inputs!J42="","",Inputs!J42)</f>
+        <v/>
+      </c>
+      <c r="K35" s="199" t="str">
+        <f>IF(Inputs!K42="","",Inputs!K42)</f>
+        <v/>
+      </c>
+      <c r="L35" s="199" t="str">
+        <f>IF(Inputs!L42="","",Inputs!L42)</f>
+        <v/>
+      </c>
+      <c r="M35" s="199" t="str">
+        <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
       <c r="N35" s="87"/>
@@ -7194,50 +7221,50 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C36" s="65">
-        <f>Fin_Analysis!D3</f>
+        <f>Inputs!C40</f>
         <v>0</v>
       </c>
       <c r="D36" s="199" t="str">
-        <f>IF(Inputs!D41="","",Inputs!D41)</f>
+        <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
       <c r="E36" s="199" t="str">
-        <f>IF(Inputs!E41="","",Inputs!E41)</f>
+        <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
       <c r="F36" s="199" t="str">
-        <f>IF(Inputs!F41="","",Inputs!F41)</f>
+        <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
       <c r="G36" s="199" t="str">
-        <f>IF(Inputs!G41="","",Inputs!G41)</f>
+        <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
       <c r="H36" s="199" t="str">
-        <f>IF(Inputs!H41="","",Inputs!H41)</f>
+        <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
       <c r="I36" s="199" t="str">
-        <f>IF(Inputs!I41="","",Inputs!I41)</f>
+        <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
       <c r="J36" s="199" t="str">
-        <f>IF(Inputs!J41="","",Inputs!J41)</f>
+        <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
       <c r="K36" s="199" t="str">
-        <f>IF(Inputs!K41="","",Inputs!K41)</f>
+        <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
       <c r="L36" s="199" t="str">
-        <f>IF(Inputs!L41="","",Inputs!L41)</f>
+        <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
       <c r="M36" s="199" t="str">
-        <f>IF(Inputs!M41="","",Inputs!M41)</f>
+        <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
       <c r="N36" s="87"/>
@@ -7245,272 +7272,272 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C37" s="65">
-        <f>Fin_Analysis!D4</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="199" t="str">
-        <f>IF(Inputs!D42="","",Inputs!D42)</f>
-        <v/>
-      </c>
-      <c r="E37" s="199" t="str">
-        <f>IF(Inputs!E42="","",Inputs!E42)</f>
-        <v/>
-      </c>
-      <c r="F37" s="199" t="str">
-        <f>IF(Inputs!F42="","",Inputs!F42)</f>
-        <v/>
-      </c>
-      <c r="G37" s="199" t="str">
-        <f>IF(Inputs!G42="","",Inputs!G42)</f>
-        <v/>
-      </c>
-      <c r="H37" s="199" t="str">
-        <f>IF(Inputs!H42="","",Inputs!H42)</f>
-        <v/>
-      </c>
-      <c r="I37" s="199" t="str">
-        <f>IF(Inputs!I42="","",Inputs!I42)</f>
-        <v/>
-      </c>
-      <c r="J37" s="199" t="str">
-        <f>IF(Inputs!J42="","",Inputs!J42)</f>
-        <v/>
-      </c>
-      <c r="K37" s="199" t="str">
-        <f>IF(Inputs!K42="","",Inputs!K42)</f>
-        <v/>
-      </c>
-      <c r="L37" s="199" t="str">
-        <f>IF(Inputs!L42="","",Inputs!L42)</f>
-        <v/>
-      </c>
-      <c r="M37" s="199" t="str">
-        <f>IF(Inputs!M42="","",Inputs!M42)</f>
+        <f>Fin_Analysis!C68</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="65" t="str">
+        <f t="shared" ref="D37:M37" si="32">IF(D36="","",D27-D36)</f>
+        <v/>
+      </c>
+      <c r="E37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="F37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="G37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="H37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="I37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="J37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="K37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="L37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="M37" s="65" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N37" s="87"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" s="65">
-        <f>Fin_Analysis!C63</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="199" t="str">
-        <f>IF(Inputs!D43="","",Inputs!D43)</f>
-        <v/>
-      </c>
-      <c r="E38" s="199" t="str">
-        <f>IF(Inputs!E43="","",Inputs!E43)</f>
-        <v/>
-      </c>
-      <c r="F38" s="199" t="str">
-        <f>IF(Inputs!F43="","",Inputs!F43)</f>
-        <v/>
-      </c>
-      <c r="G38" s="199" t="str">
-        <f>IF(Inputs!G43="","",Inputs!G43)</f>
-        <v/>
-      </c>
-      <c r="H38" s="199" t="str">
-        <f>IF(Inputs!H43="","",Inputs!H43)</f>
-        <v/>
-      </c>
-      <c r="I38" s="199" t="str">
-        <f>IF(Inputs!I43="","",Inputs!I43)</f>
-        <v/>
-      </c>
-      <c r="J38" s="199" t="str">
-        <f>IF(Inputs!J43="","",Inputs!J43)</f>
-        <v/>
-      </c>
-      <c r="K38" s="199" t="str">
-        <f>IF(Inputs!K43="","",Inputs!K43)</f>
-        <v/>
-      </c>
-      <c r="L38" s="199" t="str">
-        <f>IF(Inputs!L43="","",Inputs!L43)</f>
-        <v/>
-      </c>
-      <c r="M38" s="199" t="str">
-        <f>IF(Inputs!M43="","",Inputs!M43)</f>
+      <c r="B38" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="155" t="e">
+        <f>IF(C6="","",C14/MAX(C37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D38" s="155" t="e">
+        <f>IF(D6="","",D14/MAX(D37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E38" s="155" t="str">
+        <f>IF(E6="","",E14/MAX(E37,0))</f>
+        <v/>
+      </c>
+      <c r="F38" s="155" t="str">
+        <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
+        <v/>
+      </c>
+      <c r="G38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="H38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="M38" s="155" t="str">
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N38" s="87"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="4"/>
-      <c r="B39" s="94" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="65">
-        <f>Fin_Analysis!C68</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="65" t="str">
-        <f>IF(D38="","",D27-D38)</f>
-        <v/>
-      </c>
-      <c r="E39" s="65" t="str">
-        <f t="shared" ref="E39:M39" si="32">IF(E38="","",E27-E38)</f>
-        <v/>
-      </c>
-      <c r="F39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="G39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="H39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="I39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="J39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="K39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="L39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="M39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
+      <c r="A39" s="16"/>
+      <c r="B39" s="55" t="s">
+        <v>245</v>
+      </c>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
       <c r="N39" s="87"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="C40" s="155" t="e">
-        <f>IF(C6="","",C14/MAX(C39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D40" s="155" t="e">
-        <f>IF(D6="","",D14/MAX(D39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E40" s="155" t="str">
-        <f>IF(E6="","",E14/MAX(E39,0))</f>
-        <v/>
-      </c>
-      <c r="F40" s="155" t="str">
-        <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
-        <v/>
-      </c>
-      <c r="G40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="H40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="I40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="J40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="K40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="L40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="M40" s="155" t="str">
-        <f t="shared" si="33"/>
+      <c r="B40" s="95" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="156">
+        <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
+        <v>0.11401933240696355</v>
+      </c>
+      <c r="D40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.13247872476498818</v>
+      </c>
+      <c r="E40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="F40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="G40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="H40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="I40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="J40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="K40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="L40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="M40" s="156" t="str">
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="N40" s="87"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="16"/>
-      <c r="B41" s="55" t="s">
-        <v>247</v>
-      </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="94" t="s">
+        <v>220</v>
+      </c>
+      <c r="C41" s="153">
+        <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
+        <v>0.19137095648691452</v>
+      </c>
+      <c r="D41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.20230451950278328</v>
+      </c>
+      <c r="E41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="F41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="H41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="I41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="J41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="K41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="L41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="M41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
       <c r="N41" s="87"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="156">
-        <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
-        <v>0.11401933240696355</v>
-      </c>
-      <c r="D42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.13247872476498818</v>
-      </c>
-      <c r="E42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="F42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="G42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="H42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="I42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="J42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="K42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="L42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="M42" s="156" t="str">
-        <f t="shared" si="34"/>
+      <c r="B42" s="94" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="153">
+        <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="F42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="G42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="H42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="I42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="K42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="L42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="M42" s="153" t="str">
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="N42" s="87"/>
@@ -7518,50 +7545,50 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>221</v>
+        <v>117</v>
       </c>
       <c r="C43" s="153">
-        <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
-        <v>0.19137095648691452</v>
+        <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
+        <v>0.49449639261897682</v>
       </c>
       <c r="D43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.20230451950278328</v>
+        <f t="shared" si="37"/>
+        <v>0.43072155563787501</v>
       </c>
       <c r="E43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="F43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="G43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="H43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N43" s="87"/>
@@ -7569,50 +7596,50 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C44" s="153">
-        <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
-        <v>0</v>
+        <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
+        <v>4.6925281602255647E-4</v>
       </c>
       <c r="D44" s="153">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="E44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="F44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="G44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="H44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="I44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="J44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="K44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N44" s="87"/>
@@ -7620,50 +7647,50 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>118</v>
+        <v>222</v>
       </c>
       <c r="C45" s="153">
-        <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
-        <v>0.49449639261897682</v>
+        <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
+        <v>0</v>
       </c>
       <c r="D45" s="153">
-        <f t="shared" si="37"/>
-        <v>0.43072155563787501</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="E45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="F45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="G45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="H45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="J45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="K45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="L45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="M45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="N45" s="87"/>
@@ -7671,221 +7698,221 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C46" s="153">
-        <f>IF(C6="","",MAX(C12,0)/C6)</f>
-        <v>4.6925281602255647E-4</v>
+        <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
+        <v>0.19964406567112258</v>
       </c>
       <c r="D46" s="153">
-        <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>0.23449520009435357</v>
       </c>
       <c r="E46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="F46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="G46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="H46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="J46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="K46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="L46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="M46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N46" s="87"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="4"/>
-      <c r="B47" s="94" t="s">
-        <v>223</v>
-      </c>
-      <c r="C47" s="153">
-        <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D47" s="153">
-        <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
-        <v>0</v>
-      </c>
-      <c r="E47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="F47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="G47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="H47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="I47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="J47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="K47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="L47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="M47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
+      <c r="A47" s="16"/>
+      <c r="B47" s="102" t="s">
+        <v>246</v>
+      </c>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
       <c r="N47" s="87"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="153">
-        <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
-        <v>0.19964406567112258</v>
-      </c>
-      <c r="D48" s="153">
-        <f t="shared" si="40"/>
-        <v>0.23449520009435357</v>
-      </c>
-      <c r="E48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="F48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="G48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="H48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="I48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="J48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="K48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="L48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="M48" s="153" t="str">
-        <f t="shared" si="40"/>
+      <c r="B48" s="271" t="s">
+        <v>252</v>
+      </c>
+      <c r="C48" s="272" t="e">
+        <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="F48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="G48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="H48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="I48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="J48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="K48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="L48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="M48" s="272" t="str">
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="N48" s="87"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="16"/>
-      <c r="B49" s="102" t="s">
-        <v>248</v>
-      </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="94" t="s">
+        <v>253</v>
+      </c>
+      <c r="C49" s="153">
+        <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="F49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="G49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="H49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="I49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="J49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="K49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="L49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="M49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
       <c r="N49" s="87"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="271" t="s">
+      <c r="B50" s="94" t="s">
         <v>254</v>
       </c>
-      <c r="C50" s="272" t="e">
-        <f>IF(C6="","",C6/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="F50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="G50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="H50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="I50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="J50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="K50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="L50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="272" t="str">
-        <f t="shared" si="41"/>
+      <c r="C50" s="153">
+        <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M50" s="153" t="str">
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="N50" s="87"/>
@@ -7893,522 +7920,426 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
-        <v>0</v>
+        <v>244</v>
+      </c>
+      <c r="C51" s="153" t="e">
+        <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="D51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="E51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="F51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="G51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="H51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="K51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="L51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="M51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="4"/>
-      <c r="B52" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="C52" s="153">
-        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="102" t="s">
+        <v>247</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="94" t="s">
-        <v>245</v>
-      </c>
-      <c r="C53" s="153" t="e">
-        <f>IF(D6="","",C16/(C6-D6))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D53" s="153" t="str">
-        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
-        <v/>
-      </c>
-      <c r="E53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="N53" s="87"/>
+      <c r="B53" s="95" t="s">
+        <v>248</v>
+      </c>
+      <c r="C53" s="156" t="e">
+        <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="E53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="F53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="G53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="H53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="I53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="J53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="K53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="L53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="M53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="16"/>
-      <c r="B54" s="102" t="s">
-        <v>249</v>
-      </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="94" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="157" t="str">
+        <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
+        <v>-</v>
+      </c>
+      <c r="D54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="95" t="s">
-        <v>250</v>
-      </c>
-      <c r="C55" s="156" t="e">
-        <f>IF(C36="","",(C36-C37)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D55" s="156" t="str">
-        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
-        <v/>
-      </c>
-      <c r="E55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="F55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="G55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="H55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="J55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="K55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="L55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="156" t="str">
-        <f t="shared" si="45"/>
+      <c r="B55" s="94" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="153">
+        <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>2.4768900140190997</v>
+      </c>
+      <c r="D55" s="153">
+        <f t="shared" si="47"/>
+        <v>1.8368032926241817</v>
+      </c>
+      <c r="E55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M55" s="153" t="str">
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C56" s="157" t="str">
-        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
-      </c>
-      <c r="D56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
+      <c r="B56" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/C30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/D30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/E30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/F30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/G30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/H30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/I30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/J30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/K30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/L30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/M30)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="4"/>
-      <c r="B57" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" s="153">
-        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>2.4768900140190997</v>
-      </c>
-      <c r="D57" s="153">
-        <f t="shared" si="47"/>
-        <v>1.8368032926241817</v>
-      </c>
-      <c r="E57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="153" t="str">
-        <f t="shared" si="47"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="102" t="s">
+        <v>249</v>
+      </c>
+      <c r="C57" s="273" t="str">
+        <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M57" s="273" t="str">
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="158" t="e">
-        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
+      <c r="B58" s="271" t="s">
+        <v>250</v>
+      </c>
+      <c r="C58" s="274" t="e">
+        <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="E58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="F58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="G58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="H58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="I58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="J58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="K58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="L58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="M58" s="158" t="str">
-        <f t="shared" si="48"/>
+      <c r="D58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M58" s="274" t="str">
+        <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="16"/>
-      <c r="B59" s="102" t="s">
+      <c r="A59" s="4"/>
+      <c r="B59" s="271" t="s">
         <v>251</v>
       </c>
-      <c r="C59" s="273" t="str">
-        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="D59" s="273" t="str">
-        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="E59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="F59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="G59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="H59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="I59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="J59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="K59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="L59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="M59" s="273" t="str">
-        <f t="shared" si="49"/>
+      <c r="C59" s="274" t="e">
+        <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="F59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="G59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M59" s="274" t="str">
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
-      <c r="B60" s="271" t="s">
-        <v>252</v>
-      </c>
-      <c r="C60" s="274" t="e">
-        <f>IF(C14="","",C14/(C36-C37))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D60" s="274" t="e">
-        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="F60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="G60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="H60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="I60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="J60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="K60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="L60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="M60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
-      <c r="B61" s="271" t="s">
-        <v>253</v>
-      </c>
-      <c r="C61" s="274" t="e">
-        <f>IF(C22="","",C22/(C36-C37))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D61" s="274" t="e">
-        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="F61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="G61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="H61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="I61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="J61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="K61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="L61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="M61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -8968,12 +8899,8 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="4"/>
-    </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="4"/>
-    </row>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9655,27 +9582,30 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C6:M23 C27:M40">
-    <cfRule type="containsBlanks" dxfId="10" priority="4">
+  <conditionalFormatting sqref="C6:M23">
+    <cfRule type="containsBlanks" dxfId="11" priority="5">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:M25">
-    <cfRule type="containsBlanks" dxfId="9" priority="3">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(C25))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C27:M38">
+    <cfRule type="containsBlanks" dxfId="9" priority="1">
+      <formula>LEN(TRIM(C27))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D24:M24">
-    <cfRule type="containsBlanks" dxfId="8" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="3">
       <formula>LEN(TRIM(D24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsBlanks" dxfId="7" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9867,7 +9797,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>31</v>
@@ -9914,7 +9844,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -9942,7 +9872,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10025,7 +9955,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10047,7 +9977,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10115,7 +10045,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10437,7 +10367,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -10574,7 +10504,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -10905,7 +10835,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -10971,7 +10901,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11006,7 +10936,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11027,7 +10957,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11048,7 +10978,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11063,7 +10993,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11094,7 +11024,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11108,7 +11038,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11129,7 +11059,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11144,7 +11074,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11166,7 +11096,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C72" s="283">
         <f>Data!C5</f>
@@ -11174,11 +11104,11 @@
       </c>
       <c r="D72" s="283"/>
       <c r="E72" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F72" s="297"/>
       <c r="H72" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
@@ -11206,7 +11136,7 @@
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11278,7 +11208,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11308,7 +11238,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11338,7 +11268,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11396,12 +11326,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11431,7 +11361,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -11461,7 +11391,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -11512,7 +11442,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -11543,7 +11473,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -11564,28 +11494,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14392924622269229</v>
+        <v>0.14392027013089298</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14392924622269229</v>
+        <v>0.14392027013089298</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14392924622269229</v>
+        <v>0.14392027013089298</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -11615,21 +11545,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.8620322731248716E-2</v>
+        <v>8.8614795959081158E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.891860788553218E-2</v>
+        <v>5.8914933449328653E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.891860788553218E-2</v>
+        <v>5.8914933449328653E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -11646,27 +11576,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E92" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F92" s="297"/>
       <c r="G92" s="87"/>
       <c r="H92" s="297" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I92" s="297"/>
       <c r="K92" s="24"/>
@@ -11685,24 +11615,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>17.830889507944327</v>
+        <v>17.829077976087305</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>17.830889507944327</v>
+        <v>17.829077976087305</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -11713,18 +11643,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.9612774794213319</v>
+        <v>4.9608819993368423</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.9612774794213319</v>
+        <v>4.9608819993368423</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11743,14 +11673,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -11763,31 +11693,31 @@
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>3102635.7950877892</v>
+        <v>3102320.5823452598</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>8.8651034330242915</v>
+        <v>8.8642027815297286</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>8.8651034330242915</v>
+        <v>8.8642027815297286</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>11.790278440279879</v>
+        <v>11.789080605197775</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
@@ -11805,7 +11735,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -11830,27 +11760,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>3102635.7950877892</v>
+        <v>3102320.5823452598</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>7.5353379180706472</v>
+        <v>7.5345723643002689</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>8.8651034330242915</v>
+        <v>8.8642027815297286</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>8.8651034330242915</v>
+        <v>8.8642027815297286</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>8.8651034330242915</v>
+        <v>8.8642027815297286</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>11.790278440279879</v>
+        <v>11.789080605197775</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11860,21 +11790,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -11887,31 +11817,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>863279.25985730393</v>
+        <v>863210.44496919448</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.0966369791084825</v>
+        <v>2.0964698491357927</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.4666317401276263</v>
+        <v>2.4664351166303442</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.4666317401276263</v>
+        <v>2.4664351166303442</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.4666317401276263</v>
+        <v>2.4664351166303442</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.2805342030640587</v>
+        <v>3.2802727006689234</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11921,21 +11851,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -11948,31 +11878,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>1982957.5274725466</v>
+        <v>1982765.5136572274</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>4.8159874485895653</v>
+        <v>4.8155211067180304</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>5.6658675865759589</v>
+        <v>5.6653189490800369</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>5.6658675865759589</v>
+        <v>5.6653189490800369</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>5.6658675865759589</v>
+        <v>5.6653189490800369</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>7.5354063216719691</v>
+        <v>7.5346766529333493</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11981,7 +11911,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/1288.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1288.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0EE71C07-2BD3-483A-A10A-DC55F1FCDDC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{897BFB0A-C6B3-42C1-9F4D-55A1DDFB1722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="276">
   <si>
     <t>Company Info:</t>
   </si>
@@ -745,10 +745,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Common Equity =</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>D/P Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -939,10 +935,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales Turnover</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>EBIT Margin</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -972,6 +964,22 @@
   </si>
   <si>
     <t>PlaceHolder_1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t># In general, the higher the accounts receivable, the higher the inventory, and the lower the fixed assets, the lower the asset turnover ratio.</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_4</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1914,7 +1922,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2150,12 +2157,8 @@
     <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2354,6 +2357,11 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2593,8 +2601,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFB6D7A8"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
@@ -2810,7 +2818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2828,162 +2836,162 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="188" t="s">
-        <v>264</v>
+      <c r="C4" s="187" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="140" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="191" t="s">
-        <v>265</v>
+      <c r="C5" s="190" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="140" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="189">
+      <c r="C6" s="188">
         <v>45593</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="190">
+      <c r="C7" s="189">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="139" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="191" t="s">
-        <v>266</v>
-      </c>
-      <c r="E8" s="267"/>
+      <c r="C8" s="190" t="s">
+        <v>268</v>
+      </c>
+      <c r="E8" s="264"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="139" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="192" t="s">
-        <v>267</v>
+      <c r="C9" s="191" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="139" t="s">
         <v>203</v>
       </c>
-      <c r="C10" s="193">
+      <c r="C10" s="192">
         <v>349983033873</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="140" t="s">
+      <c r="B11" s="139" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="192" t="s">
-        <v>268</v>
+      <c r="C11" s="191" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="218" t="s">
+      <c r="B12" s="215" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="219">
+      <c r="C12" s="216">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="218" t="s">
+      <c r="B13" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="220">
+      <c r="C13" s="217">
         <v>1000000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="218" t="s">
+      <c r="B14" s="215" t="s">
         <v>205</v>
       </c>
-      <c r="C14" s="219">
+      <c r="C14" s="216">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="218" t="s">
-        <v>237</v>
-      </c>
-      <c r="C15" s="176" t="s">
-        <v>241</v>
+      <c r="B15" s="215" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" s="175" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="222" t="s">
+      <c r="B16" s="219" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="223">
+      <c r="C16" s="220">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="240" t="s">
-        <v>210</v>
-      </c>
-      <c r="C17" s="242" t="s">
-        <v>269</v>
+      <c r="B17" s="237" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="239" t="s">
+        <v>271</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="240" t="s">
+      <c r="B18" s="237" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="239" t="s">
+        <v>272</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="237" t="s">
         <v>224</v>
       </c>
-      <c r="C18" s="242" t="s">
-        <v>270</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="240" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="242" t="s">
-        <v>270</v>
+      <c r="C19" s="239" t="s">
+        <v>272</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="241" t="s">
-        <v>214</v>
-      </c>
-      <c r="C20" s="242" t="s">
-        <v>270</v>
+      <c r="B20" s="238" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="239" t="s">
+        <v>272</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="224" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" s="242" t="s">
-        <v>269</v>
+      <c r="B21" s="221" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="239" t="s">
+        <v>271</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C22" s="243" t="s">
-        <v>271</v>
+      <c r="B22" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="240" t="s">
+        <v>273</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3040,404 +3048,408 @@
       <c r="B25" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="149">
+      <c r="C25" s="148">
         <v>1318408</v>
       </c>
-      <c r="D25" s="149">
+      <c r="D25" s="148">
         <v>1203982</v>
       </c>
-      <c r="E25" s="149"/>
-      <c r="F25" s="149"/>
-      <c r="G25" s="149"/>
-      <c r="H25" s="149"/>
-      <c r="I25" s="149"/>
-      <c r="J25" s="149"/>
-      <c r="K25" s="149"/>
-      <c r="L25" s="149"/>
-      <c r="M25" s="149"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="148"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="150">
+      <c r="C26" s="149">
         <v>150324</v>
       </c>
-      <c r="D26" s="150">
+      <c r="D26" s="149">
         <v>159502</v>
       </c>
-      <c r="E26" s="150"/>
-      <c r="F26" s="150"/>
-      <c r="G26" s="150"/>
-      <c r="H26" s="150"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="150"/>
-      <c r="M26" s="150"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="149"/>
+      <c r="K26" s="149"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="149"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="150">
+      <c r="C27" s="149">
         <v>252305</v>
       </c>
-      <c r="D27" s="150">
+      <c r="D27" s="149">
         <v>243571</v>
       </c>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="150"/>
-      <c r="L27" s="150"/>
-      <c r="M27" s="150"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="149"/>
+      <c r="M27" s="149"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="150"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="149"/>
+      <c r="K28" s="149"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="149"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>238</v>
-      </c>
-      <c r="C29" s="150">
+        <v>237</v>
+      </c>
+      <c r="C29" s="149">
         <v>651948</v>
       </c>
-      <c r="D29" s="150">
+      <c r="D29" s="149">
         <v>518581</v>
       </c>
-      <c r="E29" s="150"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="150"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="149"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="149"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="149"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="150">
+      <c r="C30" s="149">
         <v>464</v>
       </c>
-      <c r="D30" s="150">
+      <c r="D30" s="149">
         <v>-366</v>
       </c>
-      <c r="E30" s="150"/>
-      <c r="F30" s="150"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="150"/>
-      <c r="L30" s="150"/>
-      <c r="M30" s="150"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="149"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="150"/>
-      <c r="L31" s="150"/>
-      <c r="M31" s="150"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="149"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="149"/>
+      <c r="K31" s="149"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="149"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="150"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="150"/>
-      <c r="L32" s="150"/>
-      <c r="M32" s="150"/>
+      <c r="C32" s="149"/>
+      <c r="D32" s="149"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="149"/>
+      <c r="K32" s="149"/>
+      <c r="L32" s="149"/>
+      <c r="M32" s="149"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="150"/>
-      <c r="D33" s="150"/>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="150"/>
-      <c r="M33" s="150"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="149"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B34" s="97" t="s">
-        <v>263</v>
-      </c>
-      <c r="C34" s="217"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="150"/>
-      <c r="L34" s="150"/>
-      <c r="M34" s="150"/>
+        <v>261</v>
+      </c>
+      <c r="C34" s="214"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="149"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="217"/>
-      <c r="D35" s="150"/>
-      <c r="E35" s="150"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="150"/>
-      <c r="K35" s="150"/>
-      <c r="L35" s="150"/>
-      <c r="M35" s="150"/>
+      <c r="C35" s="214"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="149"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="217"/>
-      <c r="D36" s="150"/>
-      <c r="E36" s="150"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="150"/>
-      <c r="L36" s="150"/>
-      <c r="M36" s="150"/>
+      <c r="C36" s="214"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="149"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="str">
-        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
-        <v>Total Liabilities</v>
-      </c>
-      <c r="C37" s="150"/>
-      <c r="D37" s="150"/>
-      <c r="E37" s="150"/>
-      <c r="F37" s="150"/>
-      <c r="G37" s="150"/>
-      <c r="H37" s="150"/>
-      <c r="I37" s="150"/>
-      <c r="J37" s="150"/>
-      <c r="K37" s="150"/>
-      <c r="L37" s="150"/>
-      <c r="M37" s="150"/>
+      <c r="B37" s="94" t="s">
+        <v>259</v>
+      </c>
+      <c r="C37" s="149">
+        <v>0</v>
+      </c>
+      <c r="D37" s="149"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>262</v>
-      </c>
-      <c r="C38" s="217"/>
-      <c r="D38" s="150"/>
-      <c r="E38" s="150"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="150"/>
-      <c r="K38" s="150"/>
-      <c r="L38" s="150"/>
-      <c r="M38" s="150"/>
+        <v>260</v>
+      </c>
+      <c r="C38" s="214"/>
+      <c r="D38" s="149"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="149"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="149"/>
+      <c r="J38" s="149"/>
+      <c r="K38" s="149"/>
+      <c r="L38" s="149"/>
+      <c r="M38" s="149"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="217"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="150"/>
-      <c r="K39" s="150"/>
-      <c r="L39" s="150"/>
-      <c r="M39" s="150"/>
+      <c r="C39" s="214"/>
+      <c r="D39" s="149"/>
+      <c r="E39" s="149"/>
+      <c r="F39" s="149"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="149"/>
+      <c r="K39" s="149"/>
+      <c r="L39" s="149"/>
+      <c r="M39" s="149"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="217"/>
-      <c r="D40" s="150"/>
-      <c r="E40" s="150"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="150"/>
-      <c r="K40" s="150"/>
-      <c r="L40" s="150"/>
-      <c r="M40" s="150"/>
+      <c r="C40" s="214"/>
+      <c r="D40" s="149"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="149"/>
+      <c r="K40" s="149"/>
+      <c r="L40" s="149"/>
+      <c r="M40" s="149"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="str">
-        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
-        <v>Total Equity</v>
-      </c>
-      <c r="C41" s="150"/>
-      <c r="D41" s="150"/>
-      <c r="E41" s="150"/>
-      <c r="F41" s="150"/>
-      <c r="G41" s="150"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="150"/>
-      <c r="J41" s="150"/>
-      <c r="K41" s="150"/>
-      <c r="L41" s="150"/>
-      <c r="M41" s="150"/>
+      <c r="B41" s="94" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="149">
+        <v>0</v>
+      </c>
+      <c r="D41" s="149"/>
+      <c r="E41" s="149"/>
+      <c r="F41" s="149"/>
+      <c r="G41" s="149"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="149"/>
+      <c r="J41" s="149"/>
+      <c r="K41" s="149"/>
+      <c r="L41" s="149"/>
+      <c r="M41" s="149"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="150"/>
-      <c r="D42" s="150"/>
-      <c r="E42" s="150"/>
-      <c r="F42" s="150"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="150"/>
-      <c r="J42" s="150"/>
-      <c r="K42" s="150"/>
-      <c r="L42" s="150"/>
-      <c r="M42" s="150"/>
+      <c r="C42" s="149">
+        <v>0</v>
+      </c>
+      <c r="D42" s="149"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="149"/>
+      <c r="L42" s="149"/>
+      <c r="M42" s="149"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="217"/>
-      <c r="D43" s="150"/>
-      <c r="E43" s="150"/>
-      <c r="F43" s="150"/>
-      <c r="G43" s="150"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="150"/>
-      <c r="J43" s="150"/>
-      <c r="K43" s="150"/>
-      <c r="L43" s="150"/>
-      <c r="M43" s="150"/>
+      <c r="C43" s="214"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="149"/>
+      <c r="F43" s="149"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="149"/>
+      <c r="J43" s="149"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="149"/>
+      <c r="M43" s="149"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>193</v>
       </c>
-      <c r="C44" s="250">
+      <c r="C44" s="247">
         <f>0.2309+0.1164</f>
         <v>0.3473</v>
       </c>
-      <c r="D44" s="250"/>
-      <c r="E44" s="250"/>
-      <c r="F44" s="250"/>
-      <c r="G44" s="250"/>
-      <c r="H44" s="250"/>
-      <c r="I44" s="250"/>
-      <c r="J44" s="250"/>
-      <c r="K44" s="250"/>
-      <c r="L44" s="250"/>
-      <c r="M44" s="250"/>
+      <c r="D44" s="247"/>
+      <c r="E44" s="247"/>
+      <c r="F44" s="247"/>
+      <c r="G44" s="247"/>
+      <c r="H44" s="247"/>
+      <c r="I44" s="247"/>
+      <c r="J44" s="247"/>
+      <c r="K44" s="247"/>
+      <c r="L44" s="247"/>
+      <c r="M44" s="247"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>234</v>
-      </c>
-      <c r="C45" s="152">
+        <v>233</v>
+      </c>
+      <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.8614795959081158E-2</v>
-      </c>
-      <c r="D45" s="152" t="str">
+        <v>8.8332722826609533E-2</v>
+      </c>
+      <c r="D45" s="151" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="152" t="str">
+      <c r="E45" s="151" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C47" s="194" t="s">
+        <v>231</v>
+      </c>
+      <c r="C47" s="193" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="194" t="s">
+      <c r="D47" s="193" t="s">
         <v>182</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -3508,7 +3520,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3536,7 +3548,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="221" t="s">
+      <c r="E56" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3548,7 +3560,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="221" t="s">
+      <c r="E57" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3567,8 +3579,8 @@
       <c r="B59" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="120"/>
-      <c r="D59" s="195">
+      <c r="C59" s="119"/>
+      <c r="D59" s="194">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -3620,7 +3632,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3636,7 +3648,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="221" t="s">
+      <c r="E65" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3648,7 +3660,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="221" t="s">
+      <c r="E66" s="218" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3661,7 +3673,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="221" t="s">
+      <c r="E67" s="218" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3709,14 +3721,14 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="246" t="s">
+      <c r="B72" s="243" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="247"/>
-      <c r="D72" s="248">
-        <v>0</v>
-      </c>
-      <c r="E72" s="249"/>
+      <c r="C72" s="244"/>
+      <c r="D72" s="245">
+        <v>0</v>
+      </c>
+      <c r="E72" s="246"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -3740,7 +3752,7 @@
       <c r="B76" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="C76" s="120"/>
+      <c r="C76" s="119"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
@@ -3770,19 +3782,19 @@
       <c r="B81" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="C81" s="120"/>
-    </row>
-    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C81" s="119"/>
+    </row>
+    <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="C82" s="83"/>
-    </row>
-    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+        <v>264</v>
+      </c>
+      <c r="C82" s="214"/>
+    </row>
+    <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>206</v>
-      </c>
-      <c r="C83" s="59"/>
+        <v>265</v>
+      </c>
+      <c r="C83" s="214"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
@@ -3798,20 +3810,20 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C86" s="197">
+        <v>232</v>
+      </c>
+      <c r="C86" s="196">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C87" s="236" t="s">
-        <v>272</v>
-      </c>
-      <c r="D87" s="269">
+        <v>230</v>
+      </c>
+      <c r="C87" s="233" t="s">
+        <v>274</v>
+      </c>
+      <c r="D87" s="266">
         <v>0.02</v>
       </c>
     </row>
@@ -3841,10 +3853,10 @@
         <v>97</v>
       </c>
       <c r="D90" s="284"/>
-      <c r="E90" s="235" t="s">
+      <c r="E90" s="232" t="s">
         <v>98</v>
       </c>
-      <c r="F90" s="255" t="s">
+      <c r="F90" s="252" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3856,12 +3868,12 @@
         <f>C25</f>
         <v>1318408</v>
       </c>
-      <c r="D91" s="209"/>
-      <c r="E91" s="251">
+      <c r="D91" s="206"/>
+      <c r="E91" s="248">
         <f>C91</f>
         <v>1318408</v>
       </c>
-      <c r="F91" s="251">
+      <c r="F91" s="248">
         <f>C91</f>
         <v>1318408</v>
       </c>
@@ -3874,75 +3886,75 @@
         <f>C26</f>
         <v>150324</v>
       </c>
-      <c r="D92" s="159">
+      <c r="D92" s="158">
         <f>C92/C91</f>
         <v>0.11401933240696355</v>
       </c>
-      <c r="E92" s="252">
+      <c r="E92" s="249">
         <f>E91*D92</f>
         <v>150324</v>
       </c>
-      <c r="F92" s="252">
+      <c r="F92" s="249">
         <f>F91*D92</f>
         <v>150324</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>252305</v>
       </c>
-      <c r="D93" s="159">
+      <c r="D93" s="158">
         <f>C93/C91</f>
         <v>0.19137095648691452</v>
       </c>
-      <c r="E93" s="252">
+      <c r="E93" s="249">
         <f>E91*D93</f>
         <v>252305</v>
       </c>
-      <c r="F93" s="252">
+      <c r="F93" s="249">
         <f>F91*D93</f>
         <v>252305</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>651948</v>
       </c>
-      <c r="D94" s="159">
+      <c r="D94" s="158">
         <f>C94/C91</f>
         <v>0.49449639261897682</v>
       </c>
-      <c r="E94" s="253"/>
-      <c r="F94" s="252">
+      <c r="E94" s="250"/>
+      <c r="F94" s="249">
         <f>F91*D94</f>
         <v>651948</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="159">
+      <c r="D95" s="158">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="252">
+      <c r="E95" s="249">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="252">
+      <c r="F95" s="249">
         <f>F91*D95</f>
         <v>0</v>
       </c>
@@ -3955,12 +3967,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="159">
+      <c r="D96" s="158">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="253"/>
-      <c r="F96" s="252">
+      <c r="E96" s="250"/>
+      <c r="F96" s="249">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -3973,12 +3985,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>618.66666666666663</v>
       </c>
-      <c r="D97" s="159">
+      <c r="D97" s="158">
         <f>C97/C91</f>
         <v>4.6925281602255647E-4</v>
       </c>
-      <c r="E97" s="253"/>
-      <c r="F97" s="252">
+      <c r="E97" s="250"/>
+      <c r="F97" s="249">
         <f>F91*D97</f>
         <v>618.66666666666663</v>
       </c>
@@ -3987,16 +3999,16 @@
       <c r="B98" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C98" s="237">
+      <c r="C98" s="234">
         <f>C44</f>
         <v>0.3473</v>
       </c>
-      <c r="D98" s="266"/>
-      <c r="E98" s="254">
+      <c r="D98" s="263"/>
+      <c r="E98" s="251">
         <f>F98</f>
         <v>0.23089999999999999</v>
       </c>
-      <c r="F98" s="254">
+      <c r="F98" s="251">
         <v>0.23089999999999999</v>
       </c>
       <c r="G98" s="1"/>
@@ -4076,7 +4088,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4128,11 +4140,11 @@
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="132">
-        <v>4.1900000000000004</v>
-      </c>
-      <c r="H3" s="134" t="s">
-        <v>273</v>
+      <c r="G3" s="131">
+        <v>4.2</v>
+      </c>
+      <c r="H3" s="133" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4170,7 +4182,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>1466428.91192787</v>
+        <v>1469928.7422666</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4180,11 +4192,11 @@
       <c r="B6" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="185">
+      <c r="C6" s="184">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="186">
+      <c r="D6" s="185">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4206,11 +4218,11 @@
       <c r="B7" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="C7" s="187" t="str">
+      <c r="C7" s="186" t="str">
         <f>Inputs!C8</f>
         <v xml:space="preserve">Superior Cycl. </v>
       </c>
-      <c r="D7" s="187" t="str">
+      <c r="D7" s="186" t="str">
         <f>Inputs!C9</f>
         <v>C0014</v>
       </c>
@@ -4218,8 +4230,8 @@
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="133">
-        <v>1.0690929889678955</v>
+      <c r="G7" s="132">
+        <v>1.0682333310445149</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4228,10 +4240,10 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="138" t="s">
         <v>177</v>
       </c>
-      <c r="F9" s="143" t="s">
+      <c r="F9" s="142" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4239,7 +4251,7 @@
       <c r="B10" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="172">
+      <c r="C10" s="171">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -4247,13 +4259,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="173">
+      <c r="C11" s="172">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="136" t="s">
         <v>176</v>
       </c>
       <c r="F11" s="110" t="s">
@@ -4262,12 +4274,12 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>235</v>
-      </c>
-      <c r="C12" s="174">
+        <v>234</v>
+      </c>
+      <c r="C12" s="173">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="172">
+      <c r="D12" s="171">
         <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
@@ -4277,7 +4289,7 @@
       <c r="B14" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="172">
+      <c r="C14" s="171">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -4288,7 +4300,7 @@
       <c r="B15" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="172">
+      <c r="C15" s="171">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -4296,13 +4308,13 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="121" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="173">
+      <c r="C16" s="172">
         <v>0.16</v>
       </c>
-      <c r="D16" s="265" t="str">
+      <c r="D16" s="262" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -4312,49 +4324,49 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>236</v>
-      </c>
-      <c r="C17" s="175">
+        <v>235</v>
+      </c>
+      <c r="C17" s="174">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="176"/>
+      <c r="D17" s="175"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="142" t="s">
-        <v>260</v>
-      </c>
-      <c r="C19" s="135" t="s">
+      <c r="B19" s="141" t="s">
+        <v>258</v>
+      </c>
+      <c r="C19" s="134" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
-      <c r="F19" s="142" t="s">
+      <c r="F19" s="141" t="s">
         <v>198</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="275" t="s">
-        <v>250</v>
-      </c>
-      <c r="C20" s="276" t="e">
+      <c r="B20" s="272" t="s">
+        <v>249</v>
+      </c>
+      <c r="C20" s="273" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="G20" s="172">
+      <c r="G20" s="171">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="277" t="s">
-        <v>248</v>
-      </c>
-      <c r="C21" s="278" t="e">
+      <c r="B21" s="274" t="s">
+        <v>247</v>
+      </c>
+      <c r="C21" s="275" t="e">
         <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
@@ -4362,79 +4374,79 @@
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="279" t="s">
-        <v>255</v>
-      </c>
-      <c r="C22" s="280" t="e">
+      <c r="B22" s="276" t="s">
+        <v>262</v>
+      </c>
+      <c r="C22" s="277" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="142" t="s">
+      <c r="F22" s="141" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="281" t="s">
-        <v>256</v>
-      </c>
-      <c r="C23" s="282">
+      <c r="B23" s="278" t="s">
+        <v>254</v>
+      </c>
+      <c r="C23" s="279">
         <f>Data!C13</f>
         <v>0.6941404582900994</v>
       </c>
-      <c r="F23" s="140" t="s">
+      <c r="F23" s="139" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="177" t="e">
+      <c r="G23" s="176" t="e">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="137" t="s">
-        <v>257</v>
-      </c>
-      <c r="C24" s="171">
+      <c r="B24" s="136" t="s">
+        <v>255</v>
+      </c>
+      <c r="C24" s="170">
         <f>Fin_Analysis!I81</f>
         <v>0.49449639261897682</v>
       </c>
-      <c r="F24" s="140" t="s">
-        <v>240</v>
-      </c>
-      <c r="G24" s="268">
+      <c r="F24" s="139" t="s">
+        <v>239</v>
+      </c>
+      <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.9482915720663767</v>
+        <v>6.9704795711039056</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="137" t="s">
-        <v>258</v>
-      </c>
-      <c r="C25" s="171">
+      <c r="B25" s="136" t="s">
+        <v>256</v>
+      </c>
+      <c r="C25" s="170">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="140" t="s">
+      <c r="F25" s="139" t="s">
         <v>162</v>
       </c>
-      <c r="G25" s="171">
+      <c r="G25" s="170">
         <f>Fin_Analysis!I88</f>
         <v>0.40935813555482176</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="138" t="s">
-        <v>259</v>
-      </c>
-      <c r="C26" s="171">
+      <c r="B26" s="137" t="s">
+        <v>257</v>
+      </c>
+      <c r="C26" s="170">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
-      <c r="F26" s="141" t="s">
+      <c r="F26" s="140" t="s">
         <v>179</v>
       </c>
-      <c r="G26" s="178">
+      <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.8914933449328653E-2</v>
+        <v>5.8727399080518689E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4451,10 +4463,10 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H28" s="285"/>
     </row>
@@ -4462,22 +4474,22 @@
       <c r="B29" s="87" t="s">
         <v>160</v>
       </c>
-      <c r="C29" s="130">
+      <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.0964698491357927</v>
-      </c>
-      <c r="D29" s="129">
+        <v>2.0929297975588166</v>
+      </c>
+      <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>3.7723136057692614</v>
+        <v>3.7659437623229288</v>
       </c>
       <c r="E29" s="87"/>
-      <c r="F29" s="131">
+      <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.4664351166303442</v>
+        <v>2.462270350069196</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.2802727006689234</v>
+        <v>3.2747337063677646</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4485,23 +4497,23 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="196" t="s">
-        <v>209</v>
-      </c>
-      <c r="C32" s="224"/>
+      <c r="B32" s="195" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="221"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C33" s="245" t="str">
+        <v>209</v>
+      </c>
+      <c r="C33" s="242" t="str">
         <f>Inputs!C17</f>
         <v>Strongly agree</v>
       </c>
@@ -4509,9 +4521,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C34" s="225" t="e">
+        <v>210</v>
+      </c>
+      <c r="C34" s="222" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -4519,17 +4531,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="196" t="s">
-        <v>212</v>
-      </c>
-      <c r="C35" s="224"/>
+      <c r="B35" s="195" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="221"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C36" s="245" t="str">
+        <v>223</v>
+      </c>
+      <c r="C36" s="242" t="str">
         <f>Inputs!C18</f>
         <v>agree</v>
       </c>
@@ -4537,26 +4549,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C37" s="245" t="str">
+        <v>224</v>
+      </c>
+      <c r="C37" s="242" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="196" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" s="224"/>
+      <c r="B38" s="195" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" s="221"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C39" s="245" t="str">
+        <v>213</v>
+      </c>
+      <c r="C39" s="242" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -4564,9 +4576,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C40" s="245" t="str">
+        <v>216</v>
+      </c>
+      <c r="C40" s="242" t="str">
         <f>Inputs!C21</f>
         <v>Strongly agree</v>
       </c>
@@ -4579,16 +4591,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="226" t="s">
-        <v>216</v>
-      </c>
-      <c r="C43" s="244" t="str">
+      <c r="B43" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="241" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -5540,10 +5552,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D36" sqref="D36"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5569,16 +5581,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="148" t="s">
+      <c r="E2" s="147" t="s">
         <v>185</v>
       </c>
-      <c r="F2" s="119" t="s">
+      <c r="F2" s="118" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="G2" s="147" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="147" t="s">
+      <c r="H2" s="146" t="s">
         <v>190</v>
       </c>
       <c r="I2" s="7"/>
@@ -5592,11 +5604,11 @@
       <c r="B3" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="201">
+      <c r="C3" s="200">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="146" t="s">
+      <c r="E3" s="145" t="s">
         <v>186</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -5621,7 +5633,7 @@
       <c r="B4" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="128">
+      <c r="C4" s="127">
         <f>Inputs!C13</f>
         <v>1000000</v>
       </c>
@@ -5629,7 +5641,7 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="146" t="s">
+      <c r="E4" s="145" t="s">
         <v>187</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -5693,47 +5705,47 @@
       <c r="B6" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="200">
+      <c r="C6" s="199">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>1318408</v>
       </c>
-      <c r="D6" s="200">
+      <c r="D6" s="199">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>1203982</v>
       </c>
-      <c r="E6" s="200" t="str">
+      <c r="E6" s="199" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="200" t="str">
+      <c r="F6" s="199" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="200" t="str">
+      <c r="G6" s="199" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="200" t="str">
+      <c r="H6" s="199" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="200" t="str">
+      <c r="I6" s="199" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="200" t="str">
+      <c r="J6" s="199" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="200" t="str">
+      <c r="K6" s="199" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="200" t="str">
+      <c r="L6" s="199" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="200" t="str">
+      <c r="M6" s="199" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -5795,47 +5807,47 @@
       <c r="B8" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="199">
+      <c r="C8" s="198">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>150324</v>
       </c>
-      <c r="D8" s="199">
+      <c r="D8" s="198">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>159502</v>
       </c>
-      <c r="E8" s="199" t="str">
+      <c r="E8" s="198" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="199" t="str">
+      <c r="F8" s="198" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="199" t="str">
+      <c r="G8" s="198" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="199" t="str">
+      <c r="H8" s="198" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="199" t="str">
+      <c r="I8" s="198" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="199" t="str">
+      <c r="J8" s="198" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="199" t="str">
+      <c r="K8" s="198" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="199" t="str">
+      <c r="L8" s="198" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="199" t="str">
+      <c r="M8" s="198" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -5846,47 +5858,47 @@
       <c r="B9" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="151">
+      <c r="C9" s="150">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>1168084</v>
       </c>
-      <c r="D9" s="151">
+      <c r="D9" s="150">
         <f t="shared" si="2"/>
         <v>1044480</v>
       </c>
-      <c r="E9" s="151" t="str">
+      <c r="E9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="151" t="str">
+      <c r="F9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="151" t="str">
+      <c r="G9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="151" t="str">
+      <c r="H9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="151" t="str">
+      <c r="I9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="151" t="str">
+      <c r="J9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="151" t="str">
+      <c r="K9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="151" t="str">
+      <c r="L9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="151" t="str">
+      <c r="M9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5897,47 +5909,47 @@
       <c r="B10" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="199">
+      <c r="C10" s="198">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>252305</v>
       </c>
-      <c r="D10" s="199">
+      <c r="D10" s="198">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>243571</v>
       </c>
-      <c r="E10" s="199" t="str">
+      <c r="E10" s="198" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="199" t="str">
+      <c r="F10" s="198" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="199" t="str">
+      <c r="G10" s="198" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="199" t="str">
+      <c r="H10" s="198" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="199" t="str">
+      <c r="I10" s="198" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="199" t="str">
+      <c r="J10" s="198" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="199" t="str">
+      <c r="K10" s="198" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="199" t="str">
+      <c r="L10" s="198" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="199" t="str">
+      <c r="M10" s="198" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -5948,47 +5960,47 @@
       <c r="B11" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="199" t="str">
+      <c r="C11" s="198" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="199" t="str">
+      <c r="D11" s="198" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="199" t="str">
+      <c r="E11" s="198" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="199" t="str">
+      <c r="F11" s="198" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="199" t="str">
+      <c r="G11" s="198" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="199" t="str">
+      <c r="H11" s="198" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="199" t="str">
+      <c r="I11" s="198" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="199" t="str">
+      <c r="J11" s="198" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="199" t="str">
+      <c r="K11" s="198" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="199" t="str">
+      <c r="L11" s="198" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="199" t="str">
+      <c r="M11" s="198" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -5997,49 +6009,49 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="199">
+        <v>225</v>
+      </c>
+      <c r="C12" s="198">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>618.66666666666663</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="E12" s="199" t="str">
+      <c r="E12" s="198" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="199" t="str">
+      <c r="F12" s="198" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="199" t="str">
+      <c r="G12" s="198" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="199" t="str">
+      <c r="H12" s="198" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="199" t="str">
+      <c r="I12" s="198" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="199" t="str">
+      <c r="J12" s="198" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="199" t="str">
+      <c r="K12" s="198" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="199" t="str">
+      <c r="L12" s="198" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="199" t="str">
+      <c r="M12" s="198" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6047,50 +6059,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" s="229">
+      <c r="B13" s="225" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="226">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.6941404582900994</v>
       </c>
-      <c r="D13" s="229">
+      <c r="D13" s="226">
         <f t="shared" si="3"/>
         <v>0.6652167557322286</v>
       </c>
-      <c r="E13" s="229" t="str">
+      <c r="E13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="229" t="str">
+      <c r="F13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="229" t="str">
+      <c r="G13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="229" t="str">
+      <c r="H13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="229" t="str">
+      <c r="I13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="229" t="str">
+      <c r="J13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="229" t="str">
+      <c r="K13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="229" t="str">
+      <c r="L13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="229" t="str">
+      <c r="M13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6098,50 +6110,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="228" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="230">
+      <c r="B14" s="225" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="227">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>915160.33333333337</v>
       </c>
-      <c r="D14" s="230">
+      <c r="D14" s="227">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>800909</v>
       </c>
-      <c r="E14" s="230" t="str">
+      <c r="E14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="230" t="str">
+      <c r="F14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="230" t="str">
+      <c r="G14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="230" t="str">
+      <c r="H14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="230" t="str">
+      <c r="I14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="230" t="str">
+      <c r="J14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="230" t="str">
+      <c r="K14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="230" t="str">
+      <c r="L14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="230" t="str">
+      <c r="M14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6149,50 +6161,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="231" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="232">
+      <c r="B15" s="228" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="229">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>0.14265207824276338</v>
       </c>
-      <c r="D15" s="232" t="str">
+      <c r="D15" s="229" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="232" t="str">
+      <c r="E15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="232" t="str">
+      <c r="F15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="232" t="str">
+      <c r="G15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="232" t="str">
+      <c r="H15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="232" t="str">
+      <c r="I15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="232" t="str">
+      <c r="J15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="232" t="str">
+      <c r="K15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="232" t="str">
+      <c r="L15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="232" t="str">
+      <c r="M15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6203,47 +6215,47 @@
       <c r="B16" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="199" t="str">
+      <c r="C16" s="198" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="199" t="str">
+      <c r="D16" s="198" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="199" t="str">
+      <c r="E16" s="198" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="199" t="str">
+      <c r="F16" s="198" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="199" t="str">
+      <c r="G16" s="198" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="199" t="str">
+      <c r="H16" s="198" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="199" t="str">
+      <c r="I16" s="198" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="199" t="str">
+      <c r="J16" s="198" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="199" t="str">
+      <c r="K16" s="198" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="199" t="str">
+      <c r="L16" s="198" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="199" t="str">
+      <c r="M16" s="198" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -6252,49 +6264,49 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>238</v>
-      </c>
-      <c r="C17" s="199">
+        <v>237</v>
+      </c>
+      <c r="C17" s="198">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>651948</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>518581</v>
       </c>
-      <c r="E17" s="199" t="str">
+      <c r="E17" s="198" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="199" t="str">
+      <c r="F17" s="198" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="199" t="str">
+      <c r="G17" s="198" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="199" t="str">
+      <c r="H17" s="198" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="199" t="str">
+      <c r="I17" s="198" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="199" t="str">
+      <c r="J17" s="198" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="199" t="str">
+      <c r="K17" s="198" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="199" t="str">
+      <c r="L17" s="198" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="199" t="str">
+      <c r="M17" s="198" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -6305,47 +6317,47 @@
       <c r="B18" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="152" t="str">
+      <c r="C18" s="151" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="152" t="str">
+      <c r="D18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="152" t="str">
+      <c r="E18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="152" t="str">
+      <c r="F18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="152" t="str">
+      <c r="G18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="152" t="str">
+      <c r="H18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="152" t="str">
+      <c r="I18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="152" t="str">
+      <c r="J18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="152" t="str">
+      <c r="K18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="152" t="str">
+      <c r="L18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="152" t="str">
+      <c r="M18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6356,47 +6368,47 @@
       <c r="B19" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C19" s="199" t="str">
+      <c r="C19" s="198" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="199" t="str">
+      <c r="D19" s="198" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="199" t="str">
+      <c r="E19" s="198" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="199" t="str">
+      <c r="F19" s="198" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="199" t="str">
+      <c r="G19" s="198" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="199" t="str">
+      <c r="H19" s="198" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="199" t="str">
+      <c r="I19" s="198" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="199" t="str">
+      <c r="J19" s="198" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="199" t="str">
+      <c r="K19" s="198" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="199" t="str">
+      <c r="L19" s="198" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="199" t="str">
+      <c r="M19" s="198" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -6405,49 +6417,49 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" s="152">
+        <v>220</v>
+      </c>
+      <c r="C20" s="151">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="152">
+      <c r="D20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="152" t="str">
+      <c r="E20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="152" t="str">
+      <c r="F20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="152" t="str">
+      <c r="G20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="152" t="str">
+      <c r="H20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="152" t="str">
+      <c r="I20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="152" t="str">
+      <c r="J20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="152" t="str">
+      <c r="K20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="152" t="str">
+      <c r="L20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="152" t="str">
+      <c r="M20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6458,47 +6470,47 @@
       <c r="B21" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="199" t="str">
+      <c r="C21" s="198" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="199" t="str">
+      <c r="D21" s="198" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="199" t="str">
+      <c r="E21" s="198" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="199" t="str">
+      <c r="F21" s="198" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="199" t="str">
+      <c r="G21" s="198" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="199" t="str">
+      <c r="H21" s="198" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="199" t="str">
+      <c r="I21" s="198" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="199" t="str">
+      <c r="J21" s="198" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="199" t="str">
+      <c r="K21" s="198" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="199" t="str">
+      <c r="L21" s="198" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="199" t="str">
+      <c r="M21" s="198" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -6509,47 +6521,47 @@
       <c r="B22" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="161">
+      <c r="C22" s="160">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>263212.33333333337</v>
       </c>
-      <c r="D22" s="161">
+      <c r="D22" s="160">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>282328</v>
       </c>
-      <c r="E22" s="161" t="str">
+      <c r="E22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="161" t="str">
+      <c r="F22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="161" t="str">
+      <c r="G22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="161" t="str">
+      <c r="H22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="161" t="str">
+      <c r="I22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="161" t="str">
+      <c r="J22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="161" t="str">
+      <c r="K22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="161" t="str">
+      <c r="L22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="161" t="str">
+      <c r="M22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6560,47 +6572,47 @@
       <c r="B23" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="153">
+      <c r="C23" s="152">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>0.14973304925334194</v>
       </c>
-      <c r="D23" s="153">
+      <c r="D23" s="152">
         <f t="shared" si="9"/>
         <v>0.17587140007076518</v>
       </c>
-      <c r="E23" s="153" t="str">
+      <c r="E23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="153" t="str">
+      <c r="F23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="153" t="str">
+      <c r="G23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="153" t="str">
+      <c r="H23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="153" t="str">
+      <c r="I23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="153" t="str">
+      <c r="J23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="153" t="str">
+      <c r="K23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="153" t="str">
+      <c r="L23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="153" t="str">
+      <c r="M23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -6611,7 +6623,7 @@
       <c r="B24" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="154">
+      <c r="C24" s="153">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>197409.25000000003</v>
       </c>
@@ -6659,50 +6671,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="234" t="s">
+      <c r="B25" s="231" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="233">
+      <c r="C25" s="230">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>-6.7707300255966912E-2</v>
       </c>
-      <c r="D25" s="233" t="str">
+      <c r="D25" s="230" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="233" t="str">
+      <c r="E25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="233" t="str">
+      <c r="F25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="233" t="str">
+      <c r="G25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="233" t="str">
+      <c r="H25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="233" t="str">
+      <c r="I25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="233" t="str">
+      <c r="J25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="233" t="str">
+      <c r="K25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="233" t="str">
+      <c r="L25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="233" t="str">
+      <c r="M25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -6819,43 +6831,43 @@
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D28" s="199" t="str">
+      <c r="D28" s="198" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="199" t="str">
+      <c r="E28" s="198" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="199" t="str">
+      <c r="F28" s="198" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="199" t="str">
+      <c r="G28" s="198" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="199" t="str">
+      <c r="H28" s="198" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="199" t="str">
+      <c r="I28" s="198" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="199" t="str">
+      <c r="J28" s="198" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="199" t="str">
+      <c r="K28" s="198" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="199" t="str">
+      <c r="L28" s="198" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="199" t="str">
+      <c r="M28" s="198" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -6870,43 +6882,43 @@
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D29" s="199" t="str">
+      <c r="D29" s="198" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="199" t="str">
+      <c r="E29" s="198" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="199" t="str">
+      <c r="F29" s="198" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="199" t="str">
+      <c r="G29" s="198" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="199" t="str">
+      <c r="H29" s="198" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="199" t="str">
+      <c r="I29" s="198" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="199" t="str">
+      <c r="J29" s="198" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="199" t="str">
+      <c r="K29" s="198" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="199" t="str">
+      <c r="L29" s="198" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="199" t="str">
+      <c r="M29" s="198" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -6915,49 +6927,49 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="D30" s="199" t="str">
+      <c r="D30" s="198" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E30" s="199" t="str">
+      <c r="E30" s="198" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="199" t="str">
+      <c r="F30" s="198" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="199" t="str">
+      <c r="G30" s="198" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="199" t="str">
+      <c r="H30" s="198" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="199" t="str">
+      <c r="I30" s="198" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="199" t="str">
+      <c r="J30" s="198" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="199" t="str">
+      <c r="K30" s="198" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="199" t="str">
+      <c r="L30" s="198" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="199" t="str">
+      <c r="M30" s="198" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -6972,43 +6984,43 @@
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D31" s="199" t="str">
+      <c r="D31" s="198" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="199" t="str">
+      <c r="E31" s="198" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="199" t="str">
+      <c r="F31" s="198" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="199" t="str">
+      <c r="G31" s="198" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="199" t="str">
+      <c r="H31" s="198" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="199" t="str">
+      <c r="I31" s="198" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="199" t="str">
+      <c r="J31" s="198" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="199" t="str">
+      <c r="K31" s="198" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="199" t="str">
+      <c r="L31" s="198" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="199" t="str">
+      <c r="M31" s="198" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7023,43 +7035,43 @@
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D32" s="199" t="str">
+      <c r="D32" s="198" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="199" t="str">
+      <c r="E32" s="198" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="199" t="str">
+      <c r="F32" s="198" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="199" t="str">
+      <c r="G32" s="198" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="199" t="str">
+      <c r="H32" s="198" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="199" t="str">
+      <c r="I32" s="198" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="199" t="str">
+      <c r="J32" s="198" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="199" t="str">
+      <c r="K32" s="198" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="199" t="str">
+      <c r="L32" s="198" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="199" t="str">
+      <c r="M32" s="198" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7125,43 +7137,43 @@
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
-      <c r="D34" s="199" t="str">
+      <c r="D34" s="198" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E34" s="199" t="str">
+      <c r="E34" s="198" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="199" t="str">
+      <c r="F34" s="198" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="199" t="str">
+      <c r="G34" s="198" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="199" t="str">
+      <c r="H34" s="198" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="199" t="str">
+      <c r="I34" s="198" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="199" t="str">
+      <c r="J34" s="198" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="199" t="str">
+      <c r="K34" s="198" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="199" t="str">
+      <c r="L34" s="198" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="199" t="str">
+      <c r="M34" s="198" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -7176,43 +7188,43 @@
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
-      <c r="D35" s="199" t="str">
+      <c r="D35" s="198" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E35" s="199" t="str">
+      <c r="E35" s="198" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="199" t="str">
+      <c r="F35" s="198" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="199" t="str">
+      <c r="G35" s="198" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="199" t="str">
+      <c r="H35" s="198" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="199" t="str">
+      <c r="I35" s="198" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="199" t="str">
+      <c r="J35" s="198" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="199" t="str">
+      <c r="K35" s="198" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="199" t="str">
+      <c r="L35" s="198" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="199" t="str">
+      <c r="M35" s="198" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -7227,43 +7239,43 @@
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199" t="str">
+      <c r="D36" s="198" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="199" t="str">
+      <c r="E36" s="198" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="199" t="str">
+      <c r="F36" s="198" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="199" t="str">
+      <c r="G36" s="198" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="199" t="str">
+      <c r="H36" s="198" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="199" t="str">
+      <c r="I36" s="198" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="199" t="str">
+      <c r="J36" s="198" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="199" t="str">
+      <c r="K36" s="198" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="199" t="str">
+      <c r="L36" s="198" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="199" t="str">
+      <c r="M36" s="198" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -7325,47 +7337,47 @@
       <c r="B38" s="98" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="155" t="e">
+      <c r="C38" s="154" t="e">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D38" s="155" t="e">
+      <c r="D38" s="154" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="155" t="str">
+      <c r="E38" s="154" t="str">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v/>
       </c>
-      <c r="F38" s="155" t="str">
+      <c r="F38" s="154" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="155" t="str">
+      <c r="G38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="155" t="str">
+      <c r="H38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="155" t="str">
+      <c r="I38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="155" t="str">
+      <c r="J38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="155" t="str">
+      <c r="K38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="155" t="str">
+      <c r="L38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="155" t="str">
+      <c r="M38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -7374,7 +7386,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7394,47 +7406,47 @@
       <c r="B40" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="156">
+      <c r="C40" s="155">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.11401933240696355</v>
       </c>
-      <c r="D40" s="156">
+      <c r="D40" s="155">
         <f t="shared" si="34"/>
         <v>0.13247872476498818</v>
       </c>
-      <c r="E40" s="156" t="str">
+      <c r="E40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -7443,49 +7455,49 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="C41" s="153">
+        <v>219</v>
+      </c>
+      <c r="C41" s="152">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.19137095648691452</v>
       </c>
-      <c r="D41" s="153">
+      <c r="D41" s="152">
         <f t="shared" si="35"/>
         <v>0.20230451950278328</v>
       </c>
-      <c r="E41" s="153" t="str">
+      <c r="E41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F41" s="153" t="str">
+      <c r="F41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G41" s="153" t="str">
+      <c r="G41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="153" t="str">
+      <c r="H41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="153" t="str">
+      <c r="I41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="153" t="str">
+      <c r="J41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="153" t="str">
+      <c r="K41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="153" t="str">
+      <c r="L41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="153" t="str">
+      <c r="M41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -7496,47 +7508,47 @@
       <c r="B42" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="153">
+      <c r="C42" s="152">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="153">
+      <c r="D42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="153" t="str">
+      <c r="E42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F42" s="153" t="str">
+      <c r="F42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G42" s="153" t="str">
+      <c r="G42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="153" t="str">
+      <c r="H42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="153" t="str">
+      <c r="I42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="153" t="str">
+      <c r="J42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="153" t="str">
+      <c r="K42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="153" t="str">
+      <c r="L42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="153" t="str">
+      <c r="M42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -7547,47 +7559,47 @@
       <c r="B43" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="153">
+      <c r="C43" s="152">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>0.49449639261897682</v>
       </c>
-      <c r="D43" s="153">
+      <c r="D43" s="152">
         <f t="shared" si="37"/>
         <v>0.43072155563787501</v>
       </c>
-      <c r="E43" s="153" t="str">
+      <c r="E43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F43" s="153" t="str">
+      <c r="F43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G43" s="153" t="str">
+      <c r="G43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="153" t="str">
+      <c r="H43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="153" t="str">
+      <c r="I43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="153" t="str">
+      <c r="J43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="153" t="str">
+      <c r="K43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="153" t="str">
+      <c r="L43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="153" t="str">
+      <c r="M43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -7598,47 +7610,47 @@
       <c r="B44" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="153">
+      <c r="C44" s="152">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>4.6925281602255647E-4</v>
       </c>
-      <c r="D44" s="153">
+      <c r="D44" s="152">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="E44" s="153" t="str">
+      <c r="E44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F44" s="153" t="str">
+      <c r="F44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G44" s="153" t="str">
+      <c r="G44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="153" t="str">
+      <c r="H44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="153" t="str">
+      <c r="I44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="153" t="str">
+      <c r="J44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="153" t="str">
+      <c r="K44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="153" t="str">
+      <c r="L44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="153" t="str">
+      <c r="M44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -7647,49 +7659,49 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>222</v>
-      </c>
-      <c r="C45" s="153">
+        <v>221</v>
+      </c>
+      <c r="C45" s="152">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="153">
+      <c r="D45" s="152">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="E45" s="153" t="str">
+      <c r="E45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -7700,47 +7712,47 @@
       <c r="B46" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="C46" s="153">
+      <c r="C46" s="152">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>0.19964406567112258</v>
       </c>
-      <c r="D46" s="153">
+      <c r="D46" s="152">
         <f t="shared" si="40"/>
         <v>0.23449520009435357</v>
       </c>
-      <c r="E46" s="153" t="str">
+      <c r="E46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F46" s="153" t="str">
+      <c r="F46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G46" s="153" t="str">
+      <c r="G46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="153" t="str">
+      <c r="H46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="153" t="str">
+      <c r="I46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="153" t="str">
+      <c r="J46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="153" t="str">
+      <c r="K46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="153" t="str">
+      <c r="L46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="153" t="str">
+      <c r="M46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -7749,9 +7761,11 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="102" t="s">
-        <v>246</v>
-      </c>
-      <c r="C47" s="36"/>
+        <v>245</v>
+      </c>
+      <c r="C47" s="280" t="s">
+        <v>263</v>
+      </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
@@ -7766,50 +7780,50 @@
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="271" t="s">
-        <v>252</v>
-      </c>
-      <c r="C48" s="272" t="e">
+      <c r="B48" s="268" t="s">
+        <v>251</v>
+      </c>
+      <c r="C48" s="269" t="e">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D48" s="272" t="e">
+      <c r="D48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="272" t="str">
+      <c r="E48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F48" s="272" t="str">
+      <c r="F48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G48" s="272" t="str">
+      <c r="G48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="272" t="str">
+      <c r="H48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="272" t="str">
+      <c r="I48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="272" t="str">
+      <c r="J48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="272" t="str">
+      <c r="K48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="272" t="str">
+      <c r="L48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="272" t="str">
+      <c r="M48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -7818,49 +7832,49 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="94" t="s">
-        <v>253</v>
-      </c>
-      <c r="C49" s="153">
+        <v>252</v>
+      </c>
+      <c r="C49" s="152">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="153" t="str">
+      <c r="D49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="153" t="str">
+      <c r="E49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="153" t="str">
+      <c r="F49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="153" t="str">
+      <c r="G49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="153" t="str">
+      <c r="H49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="153" t="str">
+      <c r="I49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="153" t="str">
+      <c r="J49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="153" t="str">
+      <c r="K49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="153" t="str">
+      <c r="L49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="153" t="str">
+      <c r="M49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -7869,49 +7883,49 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="94" t="s">
-        <v>254</v>
-      </c>
-      <c r="C50" s="153">
+        <v>253</v>
+      </c>
+      <c r="C50" s="152">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="153" t="str">
+      <c r="D50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="153" t="str">
+      <c r="E50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="153" t="str">
+      <c r="F50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="153" t="str">
+      <c r="G50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="153" t="str">
+      <c r="H50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="153" t="str">
+      <c r="I50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="153" t="str">
+      <c r="J50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="153" t="str">
+      <c r="K50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="153" t="str">
+      <c r="L50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="153" t="str">
+      <c r="M50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -7920,49 +7934,49 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>244</v>
-      </c>
-      <c r="C51" s="153" t="e">
+        <v>243</v>
+      </c>
+      <c r="C51" s="152" t="e">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D51" s="153" t="str">
+      <c r="D51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E51" s="153" t="str">
+      <c r="E51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F51" s="153" t="str">
+      <c r="F51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="153" t="str">
+      <c r="G51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="153" t="str">
+      <c r="H51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="153" t="str">
+      <c r="I51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="153" t="str">
+      <c r="J51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="153" t="str">
+      <c r="K51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="153" t="str">
+      <c r="L51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="153" t="str">
+      <c r="M51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -7971,7 +7985,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -7988,49 +8002,49 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>248</v>
-      </c>
-      <c r="C53" s="156" t="e">
+        <v>247</v>
+      </c>
+      <c r="C53" s="155" t="e">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="156" t="str">
+      <c r="D53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E53" s="156" t="str">
+      <c r="E53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="156" t="str">
+      <c r="F53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="156" t="str">
+      <c r="G53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="156" t="str">
+      <c r="H53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="156" t="str">
+      <c r="I53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="156" t="str">
+      <c r="J53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="156" t="str">
+      <c r="K53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="156" t="str">
+      <c r="L53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="156" t="str">
+      <c r="M53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8040,47 +8054,47 @@
       <c r="B54" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="157" t="str">
+      <c r="C54" s="156" t="str">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="E54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -8090,47 +8104,47 @@
       <c r="B55" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="153">
+      <c r="C55" s="152">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>2.4768900140190997</v>
       </c>
-      <c r="D55" s="153">
+      <c r="D55" s="152">
         <f t="shared" si="47"/>
         <v>1.8368032926241817</v>
       </c>
-      <c r="E55" s="153" t="str">
+      <c r="E55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="F55" s="153" t="str">
+      <c r="F55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
@@ -8140,47 +8154,47 @@
       <c r="B56" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="158" t="e">
+      <c r="C56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/C30)</f>
         <v>#REF!</v>
       </c>
-      <c r="D56" s="158" t="e">
+      <c r="D56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/D30)</f>
         <v>#REF!</v>
       </c>
-      <c r="E56" s="158" t="e">
+      <c r="E56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/E30)</f>
         <v>#REF!</v>
       </c>
-      <c r="F56" s="158" t="e">
+      <c r="F56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G56" s="158" t="e">
+      <c r="G56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/G30)</f>
         <v>#REF!</v>
       </c>
-      <c r="H56" s="158" t="e">
+      <c r="H56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/H30)</f>
         <v>#REF!</v>
       </c>
-      <c r="I56" s="158" t="e">
+      <c r="I56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/I30)</f>
         <v>#REF!</v>
       </c>
-      <c r="J56" s="158" t="e">
+      <c r="J56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/J30)</f>
         <v>#REF!</v>
       </c>
-      <c r="K56" s="158" t="e">
+      <c r="K56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/K30)</f>
         <v>#REF!</v>
       </c>
-      <c r="L56" s="158" t="e">
+      <c r="L56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/L30)</f>
         <v>#REF!</v>
       </c>
-      <c r="M56" s="158" t="e">
+      <c r="M56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/M30)</f>
         <v>#REF!</v>
       </c>
@@ -8188,149 +8202,149 @@
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
       <c r="B57" s="102" t="s">
-        <v>249</v>
-      </c>
-      <c r="C57" s="273" t="str">
+        <v>248</v>
+      </c>
+      <c r="C57" s="270" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="273" t="str">
+      <c r="D57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="273" t="str">
+      <c r="E57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="273" t="str">
+      <c r="F57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="273" t="str">
+      <c r="G57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="273" t="str">
+      <c r="H57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="273" t="str">
+      <c r="I57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="273" t="str">
+      <c r="J57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="273" t="str">
+      <c r="K57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="273" t="str">
+      <c r="L57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="273" t="str">
+      <c r="M57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="271" t="s">
-        <v>250</v>
-      </c>
-      <c r="C58" s="274" t="e">
+      <c r="B58" s="268" t="s">
+        <v>249</v>
+      </c>
+      <c r="C58" s="271" t="e">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="274" t="e">
+      <c r="D58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="274" t="str">
+      <c r="E58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="F58" s="274" t="str">
+      <c r="F58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="G58" s="274" t="str">
+      <c r="G58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="274" t="str">
+      <c r="H58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="274" t="str">
+      <c r="I58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="274" t="str">
+      <c r="J58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="274" t="str">
+      <c r="K58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="274" t="str">
+      <c r="L58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="274" t="str">
+      <c r="M58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="271" t="s">
-        <v>251</v>
-      </c>
-      <c r="C59" s="274" t="e">
+      <c r="B59" s="268" t="s">
+        <v>250</v>
+      </c>
+      <c r="C59" s="271" t="e">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D59" s="274" t="e">
+      <c r="D59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="274" t="str">
+      <c r="E59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="F59" s="274" t="str">
+      <c r="F59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="G59" s="274" t="str">
+      <c r="G59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="274" t="str">
+      <c r="H59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="274" t="str">
+      <c r="I59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="274" t="str">
+      <c r="J59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="274" t="str">
+      <c r="K59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="274" t="str">
+      <c r="L59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="274" t="str">
+      <c r="M59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9626,8 +9640,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9663,8 +9677,8 @@
         <v>21</v>
       </c>
       <c r="C3" s="87"/>
-      <c r="D3" s="116">
-        <f>C49-I49</f>
+      <c r="D3" s="204">
+        <f>Inputs!C41</f>
         <v>0</v>
       </c>
       <c r="E3" s="67" t="str">
@@ -9676,8 +9690,8 @@
       <c r="H3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="204">
-        <f>Inputs!C83</f>
+      <c r="I3" s="282">
+        <f>D3-D4</f>
         <v>0</v>
       </c>
       <c r="K3" s="24"/>
@@ -9687,8 +9701,8 @@
         <v>23</v>
       </c>
       <c r="C4" s="87"/>
-      <c r="D4" s="65">
-        <f>D3-I3</f>
+      <c r="D4" s="198">
+        <f>Inputs!C42</f>
         <v>0</v>
       </c>
       <c r="E4" s="37"/>
@@ -9775,11 +9789,11 @@
         <v>28</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="203">
+      <c r="D9" s="202">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="119" t="str">
+      <c r="E9" s="118" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
@@ -9822,7 +9836,7 @@
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="198">
+      <c r="D11" s="197">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -9850,7 +9864,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="197">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -9878,7 +9892,7 @@
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="198">
+      <c r="D13" s="197">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -9906,7 +9920,7 @@
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="198">
+      <c r="D14" s="197">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -9919,7 +9933,7 @@
       <c r="H14" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="I14" s="205">
+      <c r="I14" s="203">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -9934,7 +9948,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="198">
+      <c r="D15" s="197">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -9961,7 +9975,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="197">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -9983,7 +9997,7 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="197">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10005,7 +10019,7 @@
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="198">
+      <c r="D18" s="197">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10026,7 +10040,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="197">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10034,7 +10048,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="134" t="str">
+      <c r="F19" s="133" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10051,7 +10065,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="198">
+      <c r="D20" s="197">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10059,7 +10073,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="134" t="str">
+      <c r="F20" s="133" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10078,7 +10092,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="197">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10099,7 +10113,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="198">
+      <c r="D22" s="197">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10264,7 +10278,7 @@
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="206">
+      <c r="I28" s="204">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10293,7 +10307,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="198">
+      <c r="D30" s="197">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10319,7 +10333,7 @@
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="198">
+      <c r="D31" s="197">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10346,7 +10360,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198">
+      <c r="D32" s="197">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10373,7 +10387,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="198">
+      <c r="D33" s="197">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -10389,7 +10403,7 @@
       <c r="H33" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="I33" s="205">
+      <c r="I33" s="203">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -10403,7 +10417,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="198">
+      <c r="D34" s="197">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -10430,7 +10444,7 @@
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="198">
+      <c r="D35" s="197">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -10438,7 +10452,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="134" t="str">
+      <c r="F35" s="133" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10456,7 +10470,7 @@
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198">
+      <c r="D36" s="197">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -10464,7 +10478,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="134" t="str">
+      <c r="F36" s="133" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10483,7 +10497,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="198">
+      <c r="D37" s="197">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -10491,7 +10505,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="134" t="str">
+      <c r="F37" s="133" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10510,7 +10524,7 @@
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="198">
+      <c r="D38" s="197">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -10531,7 +10545,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="198">
+      <c r="D39" s="197">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -10552,7 +10566,7 @@
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="198">
+      <c r="D40" s="197">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -10573,7 +10587,7 @@
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="198">
+      <c r="D41" s="197">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -10594,7 +10608,7 @@
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="198">
+      <c r="D42" s="197">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -10740,8 +10754,8 @@
       <c r="H48" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="I48" s="207">
-        <f>Inputs!C82</f>
+      <c r="I48" s="281">
+        <f>I49-I28</f>
         <v>0</v>
       </c>
       <c r="J48" s="8"/>
@@ -10767,8 +10781,8 @@
       <c r="H49" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I49" s="52">
-        <f>I28+I48</f>
+      <c r="I49" s="40">
+        <f>Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="J49" s="87"/>
@@ -10838,7 +10852,7 @@
         <v>142</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="125"/>
+      <c r="E55" s="124"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="I55" s="87"/>
@@ -10938,7 +10952,7 @@
       <c r="B62" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="C62" s="117">
+      <c r="C62" s="116">
         <f>C11+C30</f>
         <v>0</v>
       </c>
@@ -10946,7 +10960,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E62" s="118">
+      <c r="E62" s="117">
         <f>E11+E30</f>
         <v>0</v>
       </c>
@@ -10977,11 +10991,11 @@
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="121" t="s">
+      <c r="B64" s="120" t="s">
         <v>143</v>
       </c>
-      <c r="C64" s="208"/>
-      <c r="D64" s="208"/>
+      <c r="C64" s="205"/>
+      <c r="D64" s="205"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
@@ -11058,12 +11072,12 @@
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="121" t="s">
+      <c r="B69" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="C69" s="208"/>
-      <c r="D69" s="208"/>
-      <c r="E69" s="126">
+      <c r="C69" s="205"/>
+      <c r="D69" s="205"/>
+      <c r="E69" s="125">
         <f>I49-E64</f>
         <v>0</v>
       </c>
@@ -11142,17 +11156,17 @@
         <f>Data!C6</f>
         <v>1318408</v>
       </c>
-      <c r="D74" s="209"/>
-      <c r="E74" s="238">
+      <c r="D74" s="206"/>
+      <c r="E74" s="235">
         <f>Inputs!E91</f>
         <v>1318408</v>
       </c>
-      <c r="F74" s="209"/>
-      <c r="H74" s="238">
+      <c r="F74" s="206"/>
+      <c r="H74" s="235">
         <f>Inputs!F91</f>
         <v>1318408</v>
       </c>
-      <c r="I74" s="209"/>
+      <c r="I74" s="206"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11163,23 +11177,23 @@
         <f>Data!C8</f>
         <v>150324</v>
       </c>
-      <c r="D75" s="159">
+      <c r="D75" s="158">
         <f>C75/$C$74</f>
         <v>0.11401933240696355</v>
       </c>
-      <c r="E75" s="238">
+      <c r="E75" s="235">
         <f>Inputs!E92</f>
         <v>150324</v>
       </c>
-      <c r="F75" s="160">
+      <c r="F75" s="159">
         <f>E75/E74</f>
         <v>0.11401933240696355</v>
       </c>
-      <c r="H75" s="238">
+      <c r="H75" s="235">
         <f>Inputs!F92</f>
         <v>150324</v>
       </c>
-      <c r="I75" s="160">
+      <c r="I75" s="159">
         <f>H75/$H$74</f>
         <v>0.11401933240696355</v>
       </c>
@@ -11189,48 +11203,48 @@
       <c r="B76" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="C76" s="161">
+      <c r="C76" s="160">
         <f>C74-C75</f>
         <v>1168084</v>
       </c>
-      <c r="D76" s="210"/>
-      <c r="E76" s="162">
+      <c r="D76" s="207"/>
+      <c r="E76" s="161">
         <f>E74-E75</f>
         <v>1168084</v>
       </c>
-      <c r="F76" s="210"/>
-      <c r="H76" s="162">
+      <c r="F76" s="207"/>
+      <c r="H76" s="161">
         <f>H74-H75</f>
         <v>1168084</v>
       </c>
-      <c r="I76" s="210"/>
+      <c r="I76" s="207"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>252305</v>
       </c>
-      <c r="D77" s="159">
+      <c r="D77" s="158">
         <f>C77/$C$74</f>
         <v>0.19137095648691452</v>
       </c>
-      <c r="E77" s="238">
+      <c r="E77" s="235">
         <f>Inputs!E93</f>
         <v>252305</v>
       </c>
-      <c r="F77" s="160">
+      <c r="F77" s="159">
         <f>E77/E74</f>
         <v>0.19137095648691452</v>
       </c>
-      <c r="H77" s="238">
+      <c r="H77" s="235">
         <f>Inputs!F93</f>
         <v>252305</v>
       </c>
-      <c r="I77" s="160">
+      <c r="I77" s="159">
         <f>H77/$H$74</f>
         <v>0.19137095648691452</v>
       </c>
@@ -11244,54 +11258,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>618.66666666666663</v>
       </c>
-      <c r="D78" s="159">
+      <c r="D78" s="158">
         <f>C78/$C$74</f>
         <v>4.6925281602255647E-4</v>
       </c>
-      <c r="E78" s="180">
+      <c r="E78" s="179">
         <f>E74*F78</f>
         <v>618.66666666666663</v>
       </c>
-      <c r="F78" s="160">
+      <c r="F78" s="159">
         <f>I78</f>
         <v>4.6925281602255647E-4</v>
       </c>
-      <c r="H78" s="238">
+      <c r="H78" s="235">
         <f>Inputs!F97</f>
         <v>618.66666666666663</v>
       </c>
-      <c r="I78" s="160">
+      <c r="I78" s="159">
         <f>H78/$H$74</f>
         <v>4.6925281602255647E-4</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="256" t="s">
-        <v>218</v>
-      </c>
-      <c r="C79" s="257">
+      <c r="B79" s="253" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" s="254">
         <f>C76-C77-C78</f>
         <v>915160.33333333337</v>
       </c>
-      <c r="D79" s="258">
+      <c r="D79" s="255">
         <f>C79/C74</f>
         <v>0.6941404582900994</v>
       </c>
-      <c r="E79" s="259">
+      <c r="E79" s="256">
         <f>E76-E77-E78</f>
         <v>915160.33333333337</v>
       </c>
-      <c r="F79" s="258">
+      <c r="F79" s="255">
         <f>E79/E74</f>
         <v>0.6941404582900994</v>
       </c>
-      <c r="G79" s="260"/>
-      <c r="H79" s="259">
+      <c r="G79" s="257"/>
+      <c r="H79" s="256">
         <f>H76-H77-H78</f>
         <v>915160.33333333337</v>
       </c>
-      <c r="I79" s="258">
+      <c r="I79" s="255">
         <f>H79/H74</f>
         <v>0.6941404582900994</v>
       </c>
@@ -11305,55 +11319,55 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="159">
+      <c r="D80" s="158">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="180">
+      <c r="E80" s="179">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="160">
+      <c r="F80" s="159">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="238">
+      <c r="H80" s="235">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="160">
+      <c r="I80" s="159">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="181" t="s">
+      <c r="K80" s="180" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>651948</v>
       </c>
-      <c r="D81" s="159">
+      <c r="D81" s="158">
         <f>C81/$C$74</f>
         <v>0.49449639261897682</v>
       </c>
-      <c r="E81" s="180">
+      <c r="E81" s="179">
         <f>E74*F81</f>
         <v>651948</v>
       </c>
-      <c r="F81" s="160">
+      <c r="F81" s="159">
         <f>I81</f>
         <v>0.49449639261897682</v>
       </c>
-      <c r="H81" s="238">
+      <c r="H81" s="235">
         <f>Inputs!F94</f>
         <v>651948</v>
       </c>
-      <c r="I81" s="160">
+      <c r="I81" s="159">
         <f>H81/$H$74</f>
         <v>0.49449639261897682</v>
       </c>
@@ -11361,29 +11375,29 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="159">
+      <c r="D82" s="158">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="238">
+      <c r="E82" s="235">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="160">
+      <c r="F82" s="159">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="238">
+      <c r="H82" s="235">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="160">
+      <c r="I82" s="159">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
@@ -11393,27 +11407,27 @@
       <c r="B83" s="105" t="s">
         <v>120</v>
       </c>
-      <c r="C83" s="163">
+      <c r="C83" s="162">
         <f>C79-C81-C82-C80</f>
         <v>263212.33333333337</v>
       </c>
-      <c r="D83" s="164">
+      <c r="D83" s="163">
         <f>C83/$C$74</f>
         <v>0.19964406567112258</v>
       </c>
-      <c r="E83" s="165">
+      <c r="E83" s="164">
         <f>E79-E81-E82-E80</f>
         <v>263212.33333333337</v>
       </c>
-      <c r="F83" s="164">
+      <c r="F83" s="163">
         <f>E83/E74</f>
         <v>0.19964406567112258</v>
       </c>
-      <c r="H83" s="165">
+      <c r="H83" s="164">
         <f>H79-H81-H82-H80</f>
         <v>263212.33333333337</v>
       </c>
-      <c r="I83" s="164">
+      <c r="I83" s="163">
         <f>H83/$H$74</f>
         <v>0.19964406567112258</v>
       </c>
@@ -11423,49 +11437,49 @@
       <c r="B84" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C84" s="211"/>
-      <c r="D84" s="159">
+      <c r="C84" s="208"/>
+      <c r="D84" s="158">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="212"/>
-      <c r="F84" s="179">
+      <c r="E84" s="209"/>
+      <c r="F84" s="178">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="212"/>
-      <c r="I84" s="202">
+      <c r="H84" s="209"/>
+      <c r="I84" s="201">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="263" t="s">
+      <c r="B85" s="260" t="s">
         <v>156</v>
       </c>
-      <c r="C85" s="257">
+      <c r="C85" s="254">
         <f>C83*(1-I84)</f>
         <v>197409.25000000003</v>
       </c>
-      <c r="D85" s="258">
+      <c r="D85" s="255">
         <f>C85/$C$74</f>
         <v>0.14973304925334194</v>
       </c>
-      <c r="E85" s="264">
+      <c r="E85" s="261">
         <f>E83*(1-F84)</f>
         <v>197409.25000000003</v>
       </c>
-      <c r="F85" s="258">
+      <c r="F85" s="255">
         <f>E85/E74</f>
         <v>0.14973304925334194</v>
       </c>
-      <c r="G85" s="260"/>
-      <c r="H85" s="264">
+      <c r="G85" s="257"/>
+      <c r="H85" s="261">
         <f>H83*(1-I84)</f>
         <v>197409.25000000003</v>
       </c>
-      <c r="I85" s="258">
+      <c r="I85" s="255">
         <f>H85/$H$74</f>
         <v>0.14973304925334194</v>
       </c>
@@ -11475,69 +11489,69 @@
       <c r="B86" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="C86" s="167">
+      <c r="C86" s="166">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0.5640537708797474</v>
       </c>
-      <c r="D86" s="209"/>
-      <c r="E86" s="168">
+      <c r="D86" s="206"/>
+      <c r="E86" s="167">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.5640537708797474</v>
       </c>
-      <c r="F86" s="209"/>
-      <c r="H86" s="168">
+      <c r="F86" s="206"/>
+      <c r="H86" s="167">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.5640537708797474</v>
       </c>
-      <c r="I86" s="209"/>
+      <c r="I86" s="206"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>194</v>
       </c>
-      <c r="C87" s="261">
+      <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14392027013089298</v>
-      </c>
-      <c r="D87" s="209"/>
-      <c r="E87" s="262">
+        <v>0.14346215203692669</v>
+      </c>
+      <c r="D87" s="206"/>
+      <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14392027013089298</v>
-      </c>
-      <c r="F87" s="209"/>
-      <c r="H87" s="262">
+        <v>0.14346215203692669</v>
+      </c>
+      <c r="F87" s="206"/>
+      <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14392027013089298</v>
-      </c>
-      <c r="I87" s="209"/>
+        <v>0.14346215203692669</v>
+      </c>
+      <c r="I87" s="206"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C88" s="169">
+      <c r="C88" s="168">
         <f>Inputs!C44</f>
         <v>0.3473</v>
       </c>
-      <c r="D88" s="166">
+      <c r="D88" s="165">
         <f>C88/C86</f>
         <v>0.61572143992286532</v>
       </c>
-      <c r="E88" s="170">
+      <c r="E88" s="169">
         <f>Inputs!E98</f>
         <v>0.23089999999999999</v>
       </c>
-      <c r="F88" s="166">
+      <c r="F88" s="165">
         <f>E88/E86</f>
         <v>0.40935813555482176</v>
       </c>
-      <c r="H88" s="170">
+      <c r="H88" s="169">
         <f>Inputs!F98</f>
         <v>0.23089999999999999</v>
       </c>
-      <c r="I88" s="166">
+      <c r="I88" s="165">
         <f>H88/H86</f>
         <v>0.40935813555482176</v>
       </c>
@@ -11545,23 +11559,23 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="C89" s="261">
+        <v>206</v>
+      </c>
+      <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.8614795959081158E-2</v>
-      </c>
-      <c r="D89" s="209"/>
-      <c r="E89" s="261">
+        <v>8.8332722826609533E-2</v>
+      </c>
+      <c r="D89" s="206"/>
+      <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8914933449328653E-2</v>
-      </c>
-      <c r="F89" s="209"/>
-      <c r="H89" s="261">
+        <v>5.8727399080518689E-2</v>
+      </c>
+      <c r="F89" s="206"/>
+      <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8914933449328653E-2</v>
-      </c>
-      <c r="I89" s="209"/>
+        <v>5.8727399080518689E-2</v>
+      </c>
+      <c r="I89" s="206"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11583,7 +11597,7 @@
       <c r="B92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C92" s="198" t="str">
+      <c r="C92" s="197" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -11606,27 +11620,27 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="136">
+      <c r="C93" s="135">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="239">
+      <c r="D93" s="236">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="F93" s="144">
+      <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>17.829077976087305</v>
+        <v>17.779097862003713</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="I93" s="144">
+      <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>17.829077976087305</v>
+        <v>17.779097862003713</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11634,27 +11648,27 @@
       <c r="B94" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C94" s="182">
+      <c r="C94" s="181">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="270">
+      <c r="D94" s="267">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="F94" s="144">
+      <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.9608819993368423</v>
+        <v>4.952505166179817</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="I94" s="144">
+      <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.9608819993368423</v>
+        <v>4.952505166179817</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11668,25 +11682,25 @@
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="127" t="str">
+      <c r="C96" s="126" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="124" t="s">
+      <c r="D96" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E96" s="183" t="str">
+      <c r="E96" s="182" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H96" s="183" t="str">
+      <c r="F96" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H96" s="182" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="124" t="s">
+      <c r="I96" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K96" s="24"/>
@@ -11697,21 +11711,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>3102320.5823452598</v>
-      </c>
-      <c r="D97" s="213"/>
-      <c r="E97" s="123">
+        <v>3093623.8714532293</v>
+      </c>
+      <c r="D97" s="210"/>
+      <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>8.8642027815297286</v>
-      </c>
-      <c r="F97" s="213"/>
-      <c r="H97" s="123">
+        <v>8.8393538315798121</v>
+      </c>
+      <c r="F97" s="210"/>
+      <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>8.8642027815297286</v>
-      </c>
-      <c r="I97" s="123">
+        <v>8.8393538315798121</v>
+      </c>
+      <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>11.789080605197775</v>
+        <v>11.75603236824583</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11723,14 +11737,14 @@
         <f>-E53*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D98" s="213"/>
-      <c r="E98" s="213"/>
-      <c r="F98" s="213"/>
-      <c r="H98" s="123">
+      <c r="D98" s="210"/>
+      <c r="E98" s="210"/>
+      <c r="F98" s="210"/>
+      <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I98" s="215"/>
+      <c r="I98" s="212"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -11741,17 +11755,17 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="214"/>
-      <c r="E99" s="145">
+      <c r="D99" s="211"/>
+      <c r="E99" s="144">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="214"/>
-      <c r="H99" s="145">
+      <c r="F99" s="211"/>
+      <c r="H99" s="144">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="216"/>
+      <c r="I99" s="213"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -11760,27 +11774,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>3102320.5823452598</v>
+        <v>3093623.8714532293</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>7.5345723643002689</v>
+        <v>7.5134507568428397</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>8.8642027815297286</v>
+        <v>8.8393538315798121</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>8.8642027815297286</v>
+        <v>8.8393538315798121</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>8.8642027815297286</v>
+        <v>8.8393538315798121</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>11.789080605197775</v>
+        <v>11.75603236824583</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11792,25 +11806,25 @@
       <c r="B102" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C102" s="127" t="str">
+      <c r="C102" s="126" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="124" t="s">
+      <c r="D102" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E102" s="183" t="str">
+      <c r="E102" s="182" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H102" s="183" t="str">
+      <c r="F102" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H102" s="182" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="124" t="s">
+      <c r="I102" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K102" s="24"/>
@@ -11821,27 +11835,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>863210.44496919448</v>
+        <v>861752.84733275103</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.0964698491357927</v>
-      </c>
-      <c r="E103" s="123">
+        <v>2.0929297975588166</v>
+      </c>
+      <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.4664351166303442</v>
+        <v>2.462270350069196</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.4664351166303442</v>
-      </c>
-      <c r="H103" s="123">
+        <v>2.462270350069196</v>
+      </c>
+      <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.4664351166303442</v>
+        <v>2.462270350069196</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.2802727006689234</v>
+        <v>3.2747337063677646</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11853,25 +11867,25 @@
       <c r="B105" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C105" s="127" t="str">
+      <c r="C105" s="126" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="124" t="s">
+      <c r="D105" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="E105" s="184" t="str">
+      <c r="E105" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="227" t="s">
-        <v>223</v>
-      </c>
-      <c r="H105" s="184" t="str">
+      <c r="F105" s="224" t="s">
+        <v>222</v>
+      </c>
+      <c r="H105" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="124" t="s">
+      <c r="I105" s="123" t="s">
         <v>111</v>
       </c>
       <c r="K105" s="24"/>
@@ -11882,27 +11896,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>1982765.5136572274</v>
+        <v>1977688.3593929901</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>4.8155211067180304</v>
-      </c>
-      <c r="E106" s="123">
+        <v>4.8031902772008284</v>
+      </c>
+      <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>5.6653189490800369</v>
+        <v>5.6508120908245036</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>5.6653189490800369</v>
-      </c>
-      <c r="H106" s="123">
+        <v>5.6508120908245036</v>
+      </c>
+      <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>5.6653189490800369</v>
-      </c>
-      <c r="I106" s="123">
+        <v>5.6508120908245036</v>
+      </c>
+      <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>7.5346766529333493</v>
+        <v>7.5153830373067976</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11913,14 +11927,13 @@
       <c r="B108" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C108" s="128" t="str">
+      <c r="C108" s="127" t="str">
         <f>Inputs!C87</f>
         <v>Dividend</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/1288.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1288.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{897BFB0A-C6B3-42C1-9F4D-55A1DDFB1722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF569A18-BDF9-4956-80D1-7B30A2FAD099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3260,9 +3260,7 @@
       <c r="B37" s="94" t="s">
         <v>259</v>
       </c>
-      <c r="C37" s="149">
-        <v>0</v>
-      </c>
+      <c r="C37" s="149"/>
       <c r="D37" s="149"/>
       <c r="E37" s="149"/>
       <c r="F37" s="149"/>
@@ -3326,9 +3324,7 @@
       <c r="B41" s="94" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="149">
-        <v>0</v>
-      </c>
+      <c r="C41" s="149"/>
       <c r="D41" s="149"/>
       <c r="E41" s="149"/>
       <c r="F41" s="149"/>
@@ -3344,9 +3340,7 @@
       <c r="B42" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C42" s="149">
-        <v>0</v>
-      </c>
+      <c r="C42" s="149"/>
       <c r="D42" s="149"/>
       <c r="E42" s="149"/>
       <c r="F42" s="149"/>
@@ -3399,7 +3393,7 @@
       </c>
       <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.8332722826609533E-2</v>
+        <v>8.8965433401455421E-2</v>
       </c>
       <c r="D45" s="151" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4141,7 +4135,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="131">
-        <v>4.2</v>
+        <v>4.17</v>
       </c>
       <c r="H3" s="133" t="s">
         <v>275</v>
@@ -4182,7 +4176,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>1469928.7422666</v>
+        <v>1459429.25125041</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4231,7 +4225,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="132">
-        <v>1.0682333310445149</v>
+        <v>1.0681999921798706</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4414,7 +4408,7 @@
       </c>
       <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.9704795711039056</v>
+        <v>6.9209064282801833</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4446,7 +4440,7 @@
       </c>
       <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.8727399080518689E-2</v>
+        <v>5.9148052324779883E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4476,20 +4470,20 @@
       </c>
       <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.0929297975588166</v>
+        <v>2.0970254651085325</v>
       </c>
       <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>3.7659437623229288</v>
+        <v>3.7733133614749841</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.462270350069196</v>
+        <v>2.4670887824806265</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.2747337063677646</v>
+        <v>3.2811420534565081</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -11512,17 +11506,17 @@
       </c>
       <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14346215203692669</v>
+        <v>0.14448974427884237</v>
       </c>
       <c r="D87" s="206"/>
       <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14346215203692669</v>
+        <v>0.14448974427884237</v>
       </c>
       <c r="F87" s="206"/>
       <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14346215203692669</v>
+        <v>0.14448974427884237</v>
       </c>
       <c r="I87" s="206"/>
       <c r="K87" s="24"/>
@@ -11563,17 +11557,17 @@
       </c>
       <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.8332722826609533E-2</v>
+        <v>8.8965433401455421E-2</v>
       </c>
       <c r="D89" s="206"/>
       <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8727399080518689E-2</v>
+        <v>5.9148052324779883E-2</v>
       </c>
       <c r="F89" s="206"/>
       <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8727399080518689E-2</v>
+        <v>5.9148052324779883E-2</v>
       </c>
       <c r="I89" s="206"/>
       <c r="K89" s="24"/>
@@ -11633,14 +11627,14 @@
       </c>
       <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>17.779097862003713</v>
+        <v>17.858571688592281</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>195</v>
       </c>
       <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>17.779097862003713</v>
+        <v>17.858571688592281</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11661,14 +11655,14 @@
       </c>
       <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.952505166179817</v>
+        <v>4.9621967548430304</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>196</v>
       </c>
       <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.952505166179817</v>
+        <v>4.9621967548430304</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11711,21 +11705,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>3093623.8714532293</v>
+        <v>3107452.5892542363</v>
       </c>
       <c r="D97" s="210"/>
       <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>8.8393538315798121</v>
+        <v>8.8788663692247791</v>
       </c>
       <c r="F97" s="210"/>
       <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>8.8393538315798121</v>
+        <v>8.8788663692247791</v>
       </c>
       <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>11.75603236824583</v>
+        <v>11.80858266551374</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11774,27 +11768,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>3093623.8714532293</v>
+        <v>3107452.5892542363</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>7.5134507568428397</v>
+        <v>7.5470364138410622</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>8.8393538315798121</v>
+        <v>8.8788663692247791</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>8.8393538315798121</v>
+        <v>8.8788663692247791</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>8.8393538315798121</v>
+        <v>8.8788663692247791</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>11.75603236824583</v>
+        <v>11.80858266551374</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11835,27 +11829,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>861752.84733275103</v>
+        <v>863439.21692661545</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.0929297975588166</v>
+        <v>2.0970254651085325</v>
       </c>
       <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.462270350069196</v>
+        <v>2.4670887824806265</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>2.462270350069196</v>
+        <v>2.4670887824806265</v>
       </c>
       <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.462270350069196</v>
+        <v>2.4670887824806265</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.2747337063677646</v>
+        <v>3.2811420534565081</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11896,27 +11890,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>1977688.3593929901</v>
+        <v>1985445.903090426</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>4.8031902772008284</v>
+        <v>4.8220309394747973</v>
       </c>
       <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>5.6508120908245036</v>
+        <v>5.6729775758527028</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>5.6508120908245036</v>
+        <v>5.6729775758527028</v>
       </c>
       <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>5.6508120908245036</v>
+        <v>5.6729775758527028</v>
       </c>
       <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>7.5153830373067976</v>
+        <v>7.5448623594851236</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1288.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1288.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF569A18-BDF9-4956-80D1-7B30A2FAD099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEB37063-0005-4B7B-8731-ED6C9F39303E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Current Ratio</t>
-  </si>
-  <si>
     <t>Output</t>
   </si>
   <si>
@@ -844,10 +841,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Balance Sheet</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Years of Projection</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -959,10 +952,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>PlaceHolder_2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -980,6 +969,14 @@
   </si>
   <si>
     <t>PlaceHolder_4</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contingent Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contin. Liabilities / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1687,7 +1684,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1835,7 +1832,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2025,9 +2021,6 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2363,6 +2356,7 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2818,7 +2812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2832,172 +2826,172 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B4" s="139" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="185" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B5" s="139" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="188" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B6" s="139" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="186">
+        <v>45593</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B7" s="138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="187">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B8" s="138" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="140" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="187" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="140" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="190" t="s">
+      <c r="C8" s="188" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="140" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="188">
-        <v>45593</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="139" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="189">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="139" t="s">
+      <c r="E8" s="262"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B9" s="138" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="190" t="s">
+      <c r="C9" s="189" t="s">
         <v>268</v>
       </c>
-      <c r="E8" s="264"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B10" s="138" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="191" t="s">
+      <c r="C10" s="190">
+        <v>349983033873</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B11" s="138" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="189" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="139" t="s">
-        <v>203</v>
-      </c>
-      <c r="C10" s="192">
-        <v>349983033873</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="139" t="s">
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B12" s="213" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="214">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B13" s="213" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="215">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B14" s="213" t="s">
         <v>204</v>
       </c>
-      <c r="C11" s="191" t="s">
+      <c r="C14" s="214">
+        <v>45473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B15" s="213" t="s">
+        <v>234</v>
+      </c>
+      <c r="C15" s="173" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B16" s="217" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="218">
+        <v>0.25</v>
+      </c>
+      <c r="D16" s="24"/>
+    </row>
+    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B17" s="235" t="s">
+        <v>208</v>
+      </c>
+      <c r="C17" s="237" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="215" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="216">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="215" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="217">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="215" t="s">
-        <v>205</v>
-      </c>
-      <c r="C14" s="216">
-        <v>45473</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="215" t="s">
-        <v>236</v>
-      </c>
-      <c r="C15" s="175" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="219" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" s="220">
-        <v>0.25</v>
-      </c>
-      <c r="D16" s="24"/>
-    </row>
-    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="237" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" s="239" t="s">
+      <c r="D17" s="24"/>
+    </row>
+    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B18" s="235" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" s="237" t="s">
         <v>271</v>
       </c>
-      <c r="D17" s="24"/>
-    </row>
-    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="237" t="s">
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="235" t="s">
         <v>223</v>
       </c>
-      <c r="C18" s="239" t="s">
+      <c r="C19" s="237" t="s">
+        <v>271</v>
+      </c>
+      <c r="D19" s="24"/>
+    </row>
+    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B20" s="236" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="237" t="s">
+        <v>271</v>
+      </c>
+      <c r="D20" s="24"/>
+    </row>
+    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B21" s="219" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="237" t="s">
+        <v>270</v>
+      </c>
+      <c r="D21" s="24"/>
+    </row>
+    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
+      <c r="B22" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="238" t="s">
         <v>272</v>
       </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="237" t="s">
-        <v>224</v>
-      </c>
-      <c r="C19" s="239" t="s">
-        <v>272</v>
-      </c>
-      <c r="D19" s="24"/>
-    </row>
-    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="238" t="s">
-        <v>213</v>
-      </c>
-      <c r="C20" s="239" t="s">
-        <v>272</v>
-      </c>
-      <c r="D20" s="24"/>
-    </row>
-    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="221" t="s">
-        <v>216</v>
-      </c>
-      <c r="C21" s="239" t="s">
-        <v>271</v>
-      </c>
-      <c r="D21" s="24"/>
-    </row>
-    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C22" s="240" t="s">
-        <v>273</v>
-      </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B24" s="115" t="s">
-        <v>128</v>
+      <c r="B24" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3045,796 +3039,797 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="148">
+      <c r="C25" s="147">
         <v>1318408</v>
       </c>
-      <c r="D25" s="148">
+      <c r="D25" s="147">
         <v>1203982</v>
       </c>
-      <c r="E25" s="148"/>
-      <c r="F25" s="148"/>
-      <c r="G25" s="148"/>
-      <c r="H25" s="148"/>
-      <c r="I25" s="148"/>
-      <c r="J25" s="148"/>
-      <c r="K25" s="148"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="148"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="147"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B26" s="97" t="s">
+      <c r="B26" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="148">
+        <v>150324</v>
+      </c>
+      <c r="D26" s="148">
+        <v>159502</v>
+      </c>
+      <c r="E26" s="148"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="148"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="148"/>
+    </row>
+    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B27" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="148">
+        <v>252305</v>
+      </c>
+      <c r="D27" s="148">
+        <v>243571</v>
+      </c>
+      <c r="E27" s="148"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="148"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="148"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="148"/>
+    </row>
+    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B28" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="149">
-        <v>150324</v>
-      </c>
-      <c r="D26" s="149">
-        <v>159502</v>
-      </c>
-      <c r="E26" s="149"/>
-      <c r="F26" s="149"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="149"/>
-      <c r="L26" s="149"/>
-      <c r="M26" s="149"/>
-    </row>
-    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B27" s="97" t="s">
+      <c r="C28" s="148"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="148"/>
+    </row>
+    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B29" s="96" t="s">
+        <v>235</v>
+      </c>
+      <c r="C29" s="148">
+        <v>651948</v>
+      </c>
+      <c r="D29" s="148">
+        <v>518581</v>
+      </c>
+      <c r="E29" s="148"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="148"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="148"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="148"/>
+    </row>
+    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B30" s="98" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="148">
+        <v>464</v>
+      </c>
+      <c r="D30" s="148">
+        <v>-366</v>
+      </c>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="148"/>
+      <c r="L30" s="148"/>
+      <c r="M30" s="148"/>
+    </row>
+    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B31" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="148"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="148"/>
+      <c r="K31" s="148"/>
+      <c r="L31" s="148"/>
+      <c r="M31" s="148"/>
+    </row>
+    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B32" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="149">
-        <v>252305</v>
-      </c>
-      <c r="D27" s="149">
-        <v>243571</v>
-      </c>
-      <c r="E27" s="149"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="149"/>
-      <c r="J27" s="149"/>
-      <c r="K27" s="149"/>
-      <c r="L27" s="149"/>
-      <c r="M27" s="149"/>
-    </row>
-    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B28" s="97" t="s">
+      <c r="C32" s="148"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="148"/>
+    </row>
+    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B33" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="149"/>
-      <c r="D28" s="149"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="149"/>
-      <c r="J28" s="149"/>
-      <c r="K28" s="149"/>
-      <c r="L28" s="149"/>
-      <c r="M28" s="149"/>
-    </row>
-    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B29" s="97" t="s">
-        <v>237</v>
-      </c>
-      <c r="C29" s="149">
-        <v>651948</v>
-      </c>
-      <c r="D29" s="149">
-        <v>518581</v>
-      </c>
-      <c r="E29" s="149"/>
-      <c r="F29" s="149"/>
-      <c r="G29" s="149"/>
-      <c r="H29" s="149"/>
-      <c r="I29" s="149"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="149"/>
-      <c r="L29" s="149"/>
-      <c r="M29" s="149"/>
-    </row>
-    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B30" s="99" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="149">
-        <v>464</v>
-      </c>
-      <c r="D30" s="149">
-        <v>-366</v>
-      </c>
-      <c r="E30" s="149"/>
-      <c r="F30" s="149"/>
-      <c r="G30" s="149"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="149"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="149"/>
-      <c r="L30" s="149"/>
-      <c r="M30" s="149"/>
-    </row>
-    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B31" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="149"/>
-      <c r="D31" s="149"/>
-      <c r="E31" s="149"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="149"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="149"/>
-      <c r="J31" s="149"/>
-      <c r="K31" s="149"/>
-      <c r="L31" s="149"/>
-      <c r="M31" s="149"/>
-    </row>
-    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B32" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="149"/>
-      <c r="D32" s="149"/>
-      <c r="E32" s="149"/>
-      <c r="F32" s="149"/>
-      <c r="G32" s="149"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="149"/>
-      <c r="J32" s="149"/>
-      <c r="K32" s="149"/>
-      <c r="L32" s="149"/>
-      <c r="M32" s="149"/>
-    </row>
-    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B33" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="149"/>
-      <c r="D33" s="149"/>
-      <c r="E33" s="149"/>
-      <c r="F33" s="149"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="149"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="149"/>
-      <c r="L33" s="149"/>
-      <c r="M33" s="149"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="148"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="97" t="s">
-        <v>261</v>
-      </c>
-      <c r="C34" s="214"/>
-      <c r="D34" s="149"/>
-      <c r="E34" s="149"/>
-      <c r="F34" s="149"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="149"/>
-      <c r="M34" s="149"/>
+      <c r="B34" s="96" t="s">
+        <v>258</v>
+      </c>
+      <c r="C34" s="212"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="148"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B35" s="94" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="214"/>
-      <c r="D35" s="149"/>
-      <c r="E35" s="149"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="149"/>
-      <c r="K35" s="149"/>
-      <c r="L35" s="149"/>
-      <c r="M35" s="149"/>
+      <c r="B35" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="212"/>
+      <c r="D35" s="148"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="148"/>
+      <c r="L35" s="148"/>
+      <c r="M35" s="148"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B36" s="94" t="s">
-        <v>141</v>
-      </c>
-      <c r="C36" s="214"/>
-      <c r="D36" s="149"/>
-      <c r="E36" s="149"/>
-      <c r="F36" s="149"/>
-      <c r="G36" s="149"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="149"/>
-      <c r="J36" s="149"/>
-      <c r="K36" s="149"/>
-      <c r="L36" s="149"/>
-      <c r="M36" s="149"/>
+      <c r="B36" s="93" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="212"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="148"/>
+      <c r="L36" s="148"/>
+      <c r="M36" s="148"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>259</v>
-      </c>
-      <c r="C37" s="149"/>
-      <c r="D37" s="149"/>
-      <c r="E37" s="149"/>
-      <c r="F37" s="149"/>
-      <c r="G37" s="149"/>
-      <c r="H37" s="149"/>
-      <c r="I37" s="149"/>
-      <c r="J37" s="149"/>
-      <c r="K37" s="149"/>
-      <c r="L37" s="149"/>
-      <c r="M37" s="149"/>
-    </row>
-    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="94" t="s">
-        <v>260</v>
-      </c>
-      <c r="C38" s="214"/>
-      <c r="D38" s="149"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="149"/>
-      <c r="G38" s="149"/>
-      <c r="H38" s="149"/>
-      <c r="I38" s="149"/>
-      <c r="J38" s="149"/>
-      <c r="K38" s="149"/>
-      <c r="L38" s="149"/>
-      <c r="M38" s="149"/>
+      <c r="B37" s="93" t="s">
+        <v>257</v>
+      </c>
+      <c r="C37" s="148"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="148"/>
+      <c r="L37" s="148"/>
+      <c r="M37" s="148"/>
+    </row>
+    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B38" s="93" t="s">
+        <v>263</v>
+      </c>
+      <c r="C38" s="148"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="148"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="148"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="148"/>
+      <c r="M38" s="148"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B39" s="94" t="s">
+      <c r="B39" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="214"/>
-      <c r="D39" s="149"/>
-      <c r="E39" s="149"/>
-      <c r="F39" s="149"/>
-      <c r="G39" s="149"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="149"/>
-      <c r="K39" s="149"/>
-      <c r="L39" s="149"/>
-      <c r="M39" s="149"/>
+      <c r="C39" s="212"/>
+      <c r="D39" s="148"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="148"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="148"/>
+      <c r="J39" s="148"/>
+      <c r="K39" s="148"/>
+      <c r="L39" s="148"/>
+      <c r="M39" s="148"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B40" s="94" t="s">
+      <c r="B40" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="214"/>
-      <c r="D40" s="149"/>
-      <c r="E40" s="149"/>
-      <c r="F40" s="149"/>
-      <c r="G40" s="149"/>
-      <c r="H40" s="149"/>
-      <c r="I40" s="149"/>
-      <c r="J40" s="149"/>
-      <c r="K40" s="149"/>
-      <c r="L40" s="149"/>
-      <c r="M40" s="149"/>
+      <c r="C40" s="212"/>
+      <c r="D40" s="148"/>
+      <c r="E40" s="148"/>
+      <c r="F40" s="148"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="148"/>
+      <c r="K40" s="148"/>
+      <c r="L40" s="148"/>
+      <c r="M40" s="148"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
+      <c r="B41" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="148"/>
+      <c r="D41" s="148"/>
+      <c r="E41" s="148"/>
+      <c r="F41" s="148"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="148"/>
+      <c r="K41" s="148"/>
+      <c r="L41" s="148"/>
+      <c r="M41" s="148"/>
+    </row>
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B42" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="C41" s="149"/>
-      <c r="D41" s="149"/>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="149"/>
-      <c r="H41" s="149"/>
-      <c r="I41" s="149"/>
-      <c r="J41" s="149"/>
-      <c r="K41" s="149"/>
-      <c r="L41" s="149"/>
-      <c r="M41" s="149"/>
-    </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B42" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C42" s="149"/>
-      <c r="D42" s="149"/>
-      <c r="E42" s="149"/>
-      <c r="F42" s="149"/>
-      <c r="G42" s="149"/>
-      <c r="H42" s="149"/>
-      <c r="I42" s="149"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="149"/>
-      <c r="L42" s="149"/>
-      <c r="M42" s="149"/>
+      <c r="C42" s="148"/>
+      <c r="D42" s="148"/>
+      <c r="E42" s="148"/>
+      <c r="F42" s="148"/>
+      <c r="G42" s="148"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="148"/>
+      <c r="J42" s="148"/>
+      <c r="K42" s="148"/>
+      <c r="L42" s="148"/>
+      <c r="M42" s="148"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B43" s="94" t="s">
-        <v>131</v>
-      </c>
-      <c r="C43" s="214"/>
-      <c r="D43" s="149"/>
-      <c r="E43" s="149"/>
-      <c r="F43" s="149"/>
-      <c r="G43" s="149"/>
-      <c r="H43" s="149"/>
-      <c r="I43" s="149"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="149"/>
-      <c r="L43" s="149"/>
-      <c r="M43" s="149"/>
+      <c r="B43" s="93" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="212"/>
+      <c r="D43" s="148"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="148"/>
+      <c r="G43" s="148"/>
+      <c r="H43" s="148"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="148"/>
+      <c r="K43" s="148"/>
+      <c r="L43" s="148"/>
+      <c r="M43" s="148"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>193</v>
-      </c>
-      <c r="C44" s="247">
+        <v>192</v>
+      </c>
+      <c r="C44" s="245">
         <f>0.2309+0.1164</f>
         <v>0.3473</v>
       </c>
-      <c r="D44" s="247"/>
-      <c r="E44" s="247"/>
-      <c r="F44" s="247"/>
-      <c r="G44" s="247"/>
-      <c r="H44" s="247"/>
-      <c r="I44" s="247"/>
-      <c r="J44" s="247"/>
-      <c r="K44" s="247"/>
-      <c r="L44" s="247"/>
-      <c r="M44" s="247"/>
+      <c r="D44" s="245"/>
+      <c r="E44" s="245"/>
+      <c r="F44" s="245"/>
+      <c r="G44" s="245"/>
+      <c r="H44" s="245"/>
+      <c r="I44" s="245"/>
+      <c r="J44" s="245"/>
+      <c r="K44" s="245"/>
+      <c r="L44" s="245"/>
+      <c r="M44" s="245"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>233</v>
-      </c>
-      <c r="C45" s="151">
+        <v>231</v>
+      </c>
+      <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.8965433401455421E-2</v>
-      </c>
-      <c r="D45" s="151" t="str">
+        <v>8.8733210758539294E-2</v>
+      </c>
+      <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="151" t="str">
+      <c r="E45" s="150" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="151" t="str">
+      <c r="F45" s="150" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="151" t="str">
+      <c r="G45" s="150" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="151" t="str">
+      <c r="H45" s="150" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="151" t="str">
+      <c r="I45" s="150" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="151" t="str">
+      <c r="J45" s="150" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="151" t="str">
+      <c r="K45" s="150" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="151" t="str">
+      <c r="L45" s="150" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="151" t="str">
+      <c r="M45" s="150" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B47" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C47" s="193" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="193" t="s">
-        <v>182</v>
-      </c>
-      <c r="E47" s="111" t="s">
-        <v>32</v>
+      <c r="B47" s="10" t="str">
+        <f>"Balance Sheet"&amp;IF(SUM(C48:C72)=C37+C41,"","- Error")</f>
+        <v>Balance Sheet</v>
+      </c>
+      <c r="C47" s="191" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="191" t="s">
+        <v>181</v>
+      </c>
+      <c r="E47" s="110" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C48" s="59"/>
       <c r="D48" s="60">
         <v>0.9</v>
       </c>
-      <c r="E48" s="112"/>
+      <c r="E48" s="111"/>
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
         <v>0.8</v>
       </c>
-      <c r="E49" s="112"/>
+      <c r="E49" s="111"/>
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C50" s="59"/>
       <c r="D50" s="60">
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E50" s="112"/>
+      <c r="E50" s="111"/>
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
         <v>0.6</v>
       </c>
-      <c r="E51" s="112"/>
+      <c r="E51" s="111"/>
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
         <v>0.5</v>
       </c>
-      <c r="E52" s="112"/>
+      <c r="E52" s="111"/>
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E53" s="112"/>
+      <c r="E53" s="111"/>
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
         <v>0.1</v>
       </c>
-      <c r="E54" s="112"/>
+      <c r="E54" s="111"/>
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C55" s="59"/>
       <c r="D55" s="60">
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E55" s="112"/>
+      <c r="E55" s="111"/>
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="218" t="s">
-        <v>67</v>
+      <c r="E56" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="218" t="s">
-        <v>42</v>
+      <c r="E57" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
         <f>D48</f>
         <v>0.9</v>
       </c>
-      <c r="E58" s="112"/>
+      <c r="E58" s="111"/>
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" s="119"/>
-      <c r="D59" s="194">
+        <v>46</v>
+      </c>
+      <c r="C59" s="118"/>
+      <c r="D59" s="192">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E59" s="112"/>
+      <c r="E59" s="111"/>
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
         <f>D49</f>
         <v>0.8</v>
       </c>
-      <c r="E60" s="112"/>
+      <c r="E60" s="111"/>
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E61" s="112"/>
+      <c r="E61" s="111"/>
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E62" s="112"/>
+      <c r="E62" s="111"/>
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
         <f>D62</f>
         <v>0.5</v>
       </c>
-      <c r="E63" s="112"/>
+      <c r="E63" s="111"/>
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
         <v>0.4</v>
       </c>
-      <c r="E64" s="112"/>
+      <c r="E64" s="111"/>
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C65" s="59"/>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="218" t="s">
-        <v>67</v>
+      <c r="E65" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66" s="59"/>
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="218" t="s">
-        <v>67</v>
+      <c r="E66" s="216" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="218" t="s">
-        <v>42</v>
+      <c r="E67" s="216" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="60">
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E68" s="112"/>
+      <c r="E68" s="111"/>
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E69" s="112"/>
+      <c r="E69" s="111"/>
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C70" s="59"/>
       <c r="D70" s="60">
         <v>0.05</v>
       </c>
-      <c r="E70" s="112"/>
+      <c r="E70" s="111"/>
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
         <f>D58</f>
         <v>0.9</v>
       </c>
-      <c r="E71" s="112"/>
+      <c r="E71" s="111"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="243" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72" s="244"/>
-      <c r="D72" s="245">
-        <v>0</v>
-      </c>
-      <c r="E72" s="246"/>
+      <c r="B72" s="241" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="242"/>
+      <c r="D72" s="243">
+        <v>0</v>
+      </c>
+      <c r="E72" s="244"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C73" s="59"/>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B76" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="C76" s="119"/>
+      <c r="B76" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" s="118"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="83"/>
+      <c r="C77" s="82"/>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C78" s="59"/>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80" s="59"/>
+    </row>
+    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B81" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="C80" s="59"/>
-    </row>
-    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B81" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="C81" s="119"/>
+      <c r="C81" s="118"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>264</v>
-      </c>
-      <c r="C82" s="214"/>
+        <v>261</v>
+      </c>
+      <c r="C82" s="212"/>
     </row>
     <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>265</v>
-      </c>
-      <c r="C83" s="214"/>
+        <v>262</v>
+      </c>
+      <c r="C83" s="212"/>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C86" s="196">
+        <v>230</v>
+      </c>
+      <c r="C86" s="194">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="C87" s="233" t="s">
-        <v>274</v>
-      </c>
-      <c r="D87" s="266">
+        <v>229</v>
+      </c>
+      <c r="C87" s="231" t="s">
+        <v>273</v>
+      </c>
+      <c r="D87" s="264">
         <v>0.02</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B89" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C89" s="283">
+      <c r="B89" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C89" s="282">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="283"/>
-      <c r="E89" s="89" t="s">
-        <v>192</v>
-      </c>
-      <c r="F89" s="89" t="s">
+      <c r="D89" s="282"/>
+      <c r="E89" s="88" t="s">
         <v>191</v>
+      </c>
+      <c r="F89" s="88" t="s">
+        <v>190</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3843,166 +3838,166 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C90" s="284" t="s">
+      <c r="C90" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D90" s="283"/>
+      <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="284"/>
-      <c r="E90" s="232" t="s">
-        <v>98</v>
-      </c>
-      <c r="F90" s="252" t="s">
-        <v>98</v>
+      <c r="F90" s="250" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
         <v>1318408</v>
       </c>
-      <c r="D91" s="206"/>
-      <c r="E91" s="248">
+      <c r="D91" s="204"/>
+      <c r="E91" s="246">
         <f>C91</f>
         <v>1318408</v>
       </c>
-      <c r="F91" s="248">
+      <c r="F91" s="246">
         <f>C91</f>
         <v>1318408</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B92" s="104" t="s">
-        <v>102</v>
+      <c r="B92" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
         <v>150324</v>
       </c>
-      <c r="D92" s="158">
+      <c r="D92" s="156">
         <f>C92/C91</f>
         <v>0.11401933240696355</v>
       </c>
-      <c r="E92" s="249">
+      <c r="E92" s="247">
         <f>E91*D92</f>
         <v>150324</v>
       </c>
-      <c r="F92" s="249">
+      <c r="F92" s="247">
         <f>F91*D92</f>
         <v>150324</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B93" s="104" t="s">
-        <v>229</v>
+      <c r="B93" s="103" t="s">
+        <v>228</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>252305</v>
       </c>
-      <c r="D93" s="158">
+      <c r="D93" s="156">
         <f>C93/C91</f>
         <v>0.19137095648691452</v>
       </c>
-      <c r="E93" s="249">
+      <c r="E93" s="247">
         <f>E91*D93</f>
         <v>252305</v>
       </c>
-      <c r="F93" s="249">
+      <c r="F93" s="247">
         <f>F91*D93</f>
         <v>252305</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B94" s="104" t="s">
-        <v>237</v>
+      <c r="B94" s="103" t="s">
+        <v>235</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>651948</v>
       </c>
-      <c r="D94" s="158">
+      <c r="D94" s="156">
         <f>C94/C91</f>
         <v>0.49449639261897682</v>
       </c>
-      <c r="E94" s="250"/>
-      <c r="F94" s="249">
+      <c r="E94" s="248"/>
+      <c r="F94" s="247">
         <f>F91*D94</f>
         <v>651948</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="158">
+      <c r="D95" s="156">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="249">
+      <c r="E95" s="247">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="249">
+      <c r="F95" s="247">
         <f>F91*D95</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="158">
+      <c r="D96" s="156">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="250"/>
-      <c r="F96" s="249">
+      <c r="E96" s="248"/>
+      <c r="F96" s="247">
         <f>F91*D96</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
         <v>618.66666666666663</v>
       </c>
-      <c r="D97" s="158">
+      <c r="D97" s="156">
         <f>C97/C91</f>
         <v>4.6925281602255647E-4</v>
       </c>
-      <c r="E97" s="250"/>
-      <c r="F97" s="249">
+      <c r="E97" s="248"/>
+      <c r="F97" s="247">
         <f>F91*D97</f>
         <v>618.66666666666663</v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B98" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C98" s="234">
+      <c r="B98" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C98" s="232">
         <f>C44</f>
         <v>0.3473</v>
       </c>
-      <c r="D98" s="263"/>
-      <c r="E98" s="251">
+      <c r="D98" s="261"/>
+      <c r="E98" s="249">
         <f>F98</f>
         <v>0.23089999999999999</v>
       </c>
-      <c r="F98" s="251">
+      <c r="F98" s="249">
         <v>0.23089999999999999</v>
       </c>
       <c r="G98" s="1"/>
@@ -4014,32 +4009,32 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="22" priority="14">
+    <cfRule type="containsBlanks" dxfId="22" priority="15">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="containsBlanks" dxfId="21" priority="3">
+  <conditionalFormatting sqref="C37:C38">
+    <cfRule type="containsBlanks" dxfId="21" priority="1">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C42">
-    <cfRule type="containsBlanks" dxfId="20" priority="1">
+    <cfRule type="containsBlanks" dxfId="20" priority="2">
       <formula>LEN(TRIM(C41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="7">
+    <cfRule type="containsBlanks" dxfId="19" priority="8">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="6">
+    <cfRule type="containsBlanks" dxfId="18" priority="7">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="17" priority="4">
+    <cfRule type="containsBlanks" dxfId="17" priority="5">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4098,13 +4093,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
@@ -4115,82 +4110,82 @@
         <f>C3&amp;" : "&amp;C4</f>
         <v>1288.HK : 农业银行</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="289" t="str">
+        <v>179</v>
+      </c>
+      <c r="C3" s="288" t="str">
         <f>Inputs!C4</f>
         <v>1288.HK</v>
       </c>
-      <c r="D3" s="290"/>
-      <c r="E3" s="87"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="131">
-        <v>4.17</v>
-      </c>
-      <c r="H3" s="133" t="s">
-        <v>275</v>
+      <c r="G3" s="130">
+        <v>4.18</v>
+      </c>
+      <c r="H3" s="132" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="291" t="str">
+        <v>180</v>
+      </c>
+      <c r="C4" s="290" t="str">
         <f>Inputs!C5</f>
         <v>农业银行</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="87"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="295">
+      <c r="G4" s="294">
         <f>Inputs!C10</f>
         <v>349983033873</v>
       </c>
-      <c r="H4" s="295"/>
+      <c r="H4" s="294"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="293">
+        <v>154</v>
+      </c>
+      <c r="C5" s="292">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="294"/>
+      <c r="D5" s="293"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="287">
+        <v>95</v>
+      </c>
+      <c r="G5" s="286">
         <f>G3*G4/1000000</f>
-        <v>1459429.25125041</v>
-      </c>
-      <c r="H5" s="287"/>
+        <v>1462929.08158914</v>
+      </c>
+      <c r="H5" s="286"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="184">
+      <c r="C6" s="182">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="185">
+      <c r="D6" s="183">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4201,31 +4196,31 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="288" t="str">
+      <c r="G6" s="287" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="288"/>
+      <c r="H6" s="287"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="86" t="s">
-        <v>178</v>
-      </c>
-      <c r="C7" s="186" t="str">
+      <c r="B7" s="85" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="184" t="str">
         <f>Inputs!C8</f>
         <v xml:space="preserve">Superior Cycl. </v>
       </c>
-      <c r="D7" s="186" t="str">
+      <c r="D7" s="184" t="str">
         <f>Inputs!C9</f>
         <v>C0014</v>
       </c>
-      <c r="E7" s="87"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="132">
-        <v>1.0681999921798706</v>
+      <c r="G7" s="131">
+        <v>1.0679666598637898</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4234,280 +4229,280 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="138" t="s">
-        <v>177</v>
-      </c>
-      <c r="F9" s="142" t="s">
-        <v>172</v>
+      <c r="B9" s="137" t="s">
+        <v>176</v>
+      </c>
+      <c r="F9" s="141" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="171">
+        <v>162</v>
+      </c>
+      <c r="C10" s="169">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F10" s="110" t="s">
-        <v>170</v>
+      <c r="F10" s="109" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="121" t="s">
-        <v>167</v>
-      </c>
-      <c r="C11" s="172">
+      <c r="B11" s="120" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="170">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="136" t="s">
-        <v>176</v>
-      </c>
-      <c r="F11" s="110" t="s">
-        <v>165</v>
+      <c r="D11" s="135" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="109" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="87" t="s">
-        <v>234</v>
-      </c>
-      <c r="C12" s="173">
+      <c r="B12" s="86" t="s">
+        <v>232</v>
+      </c>
+      <c r="C12" s="171">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="171">
+      <c r="D12" s="169">
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="F12" s="110"/>
+      <c r="F12" s="109"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="171">
+        <v>163</v>
+      </c>
+      <c r="C14" s="169">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="F14" s="110" t="s">
-        <v>169</v>
+      <c r="F14" s="109" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="169">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F15" s="109" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="120" t="s">
         <v>173</v>
       </c>
-      <c r="C15" s="171">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F15" s="110" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="121" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" s="172">
+      <c r="C16" s="170">
         <v>0.16</v>
       </c>
-      <c r="D16" s="262" t="str">
+      <c r="D16" s="260" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
-      <c r="F16" s="110" t="s">
-        <v>166</v>
+      <c r="F16" s="109" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="87" t="s">
-        <v>235</v>
-      </c>
-      <c r="C17" s="174">
+      <c r="B17" s="86" t="s">
+        <v>233</v>
+      </c>
+      <c r="C17" s="172">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="175"/>
+      <c r="D17" s="173"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="141" t="s">
-        <v>258</v>
-      </c>
-      <c r="C19" s="134" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="141" t="s">
-        <v>198</v>
-      </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
+      <c r="B19" s="140" t="s">
+        <v>256</v>
+      </c>
+      <c r="C19" s="133" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="140" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="272" t="s">
-        <v>249</v>
-      </c>
-      <c r="C20" s="273" t="e">
+      <c r="B20" s="270" t="s">
+        <v>247</v>
+      </c>
+      <c r="C20" s="271" t="e">
         <f>C23*C22*(1/C21)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F20" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="G20" s="171">
+      <c r="F20" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" s="169">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="274" t="s">
-        <v>247</v>
-      </c>
-      <c r="C21" s="275" t="e">
+      <c r="B21" s="272" t="s">
+        <v>245</v>
+      </c>
+      <c r="C21" s="273" t="e">
         <f>Data!C53</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F21" s="87"/>
+      <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="276" t="s">
-        <v>262</v>
-      </c>
-      <c r="C22" s="277" t="e">
+      <c r="B22" s="274" t="s">
+        <v>259</v>
+      </c>
+      <c r="C22" s="275" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="141" t="s">
-        <v>171</v>
+      <c r="F22" s="140" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="278" t="s">
-        <v>254</v>
-      </c>
-      <c r="C23" s="279">
+      <c r="B23" s="276" t="s">
+        <v>252</v>
+      </c>
+      <c r="C23" s="277">
         <f>Data!C13</f>
         <v>0.6941404582900994</v>
       </c>
-      <c r="F23" s="139" t="s">
-        <v>175</v>
-      </c>
-      <c r="G23" s="176" t="e">
+      <c r="F23" s="138" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" s="174" t="e">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="136" t="s">
-        <v>255</v>
-      </c>
-      <c r="C24" s="170">
+      <c r="B24" s="135" t="s">
+        <v>253</v>
+      </c>
+      <c r="C24" s="168">
         <f>Fin_Analysis!I81</f>
         <v>0.49449639261897682</v>
       </c>
-      <c r="F24" s="139" t="s">
-        <v>239</v>
-      </c>
-      <c r="G24" s="265">
+      <c r="F24" s="138" t="s">
+        <v>237</v>
+      </c>
+      <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.9209064282801833</v>
+        <v>6.9390190511460892</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="136" t="s">
-        <v>256</v>
-      </c>
-      <c r="C25" s="170">
+      <c r="B25" s="135" t="s">
+        <v>254</v>
+      </c>
+      <c r="C25" s="168">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="139" t="s">
-        <v>162</v>
-      </c>
-      <c r="G25" s="170">
+      <c r="F25" s="138" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" s="168">
         <f>Fin_Analysis!I88</f>
         <v>0.40935813555482176</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="137" t="s">
-        <v>257</v>
-      </c>
-      <c r="C26" s="170">
+      <c r="B26" s="136" t="s">
+        <v>255</v>
+      </c>
+      <c r="C26" s="168">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
-      <c r="F26" s="140" t="s">
-        <v>179</v>
-      </c>
-      <c r="G26" s="177">
+      <c r="F26" s="139" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.9148052324779883E-2</v>
+        <v>5.8993660708743803E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>158</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>159</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>222</v>
-      </c>
-      <c r="G28" s="285" t="s">
-        <v>238</v>
-      </c>
-      <c r="H28" s="285"/>
+        <v>221</v>
+      </c>
+      <c r="G28" s="284" t="s">
+        <v>236</v>
+      </c>
+      <c r="H28" s="284"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="87" t="s">
-        <v>160</v>
-      </c>
-      <c r="C29" s="129">
+      <c r="B29" s="86" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.0970254651085325</v>
-      </c>
-      <c r="D29" s="128">
+        <v>2.0950397674460373</v>
+      </c>
+      <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>3.7733133614749841</v>
-      </c>
-      <c r="E29" s="87"/>
-      <c r="F29" s="130">
+        <v>3.769740367419161</v>
+      </c>
+      <c r="E29" s="86"/>
+      <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.4670887824806265</v>
-      </c>
-      <c r="G29" s="286">
+        <v>2.4647526675835731</v>
+      </c>
+      <c r="G29" s="285">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.2811420534565081</v>
-      </c>
-      <c r="H29" s="286"/>
+        <v>3.2780351021036185</v>
+      </c>
+      <c r="H29" s="285"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="195" t="s">
-        <v>208</v>
-      </c>
-      <c r="C32" s="221"/>
+      <c r="B32" s="193" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" s="219"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="C33" s="242" t="str">
+        <v>208</v>
+      </c>
+      <c r="C33" s="240" t="str">
         <f>Inputs!C17</f>
         <v>Strongly agree</v>
       </c>
@@ -4515,9 +4510,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="C34" s="222" t="e">
+        <v>209</v>
+      </c>
+      <c r="C34" s="220" t="e">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>#DIV/0!</v>
@@ -4525,17 +4520,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="195" t="s">
-        <v>211</v>
-      </c>
-      <c r="C35" s="221"/>
+      <c r="B35" s="193" t="s">
+        <v>210</v>
+      </c>
+      <c r="C35" s="219"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="C36" s="242" t="str">
+        <v>222</v>
+      </c>
+      <c r="C36" s="240" t="str">
         <f>Inputs!C18</f>
         <v>agree</v>
       </c>
@@ -4543,26 +4538,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C37" s="242" t="str">
+        <v>223</v>
+      </c>
+      <c r="C37" s="240" t="str">
         <f>Inputs!C19</f>
         <v>agree</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="195" t="s">
-        <v>212</v>
-      </c>
-      <c r="C38" s="221"/>
+      <c r="B38" s="193" t="s">
+        <v>211</v>
+      </c>
+      <c r="C38" s="219"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="C39" s="242" t="str">
+        <v>212</v>
+      </c>
+      <c r="C39" s="240" t="str">
         <f>Inputs!C20</f>
         <v>agree</v>
       </c>
@@ -4570,9 +4565,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C40" s="242" t="str">
+        <v>215</v>
+      </c>
+      <c r="C40" s="240" t="str">
         <f>Inputs!C21</f>
         <v>Strongly agree</v>
       </c>
@@ -4585,16 +4580,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="223" t="s">
-        <v>215</v>
-      </c>
-      <c r="C43" s="241" t="str">
+      <c r="B43" s="221" t="s">
+        <v>214</v>
+      </c>
+      <c r="C43" s="239" t="str">
         <f>Inputs!C22</f>
         <v>Consumer Monopoly</v>
       </c>
@@ -5546,10 +5541,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5575,59 +5570,59 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="147" t="s">
-        <v>185</v>
-      </c>
-      <c r="F2" s="118" t="s">
+      <c r="E2" s="146" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="117" t="s">
+        <v>187</v>
+      </c>
+      <c r="G2" s="146" t="s">
         <v>188</v>
       </c>
-      <c r="G2" s="147" t="s">
+      <c r="H2" s="145" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="146" t="s">
-        <v>190</v>
-      </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="87"/>
+      <c r="J2" s="86"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="200">
+      <c r="C3" s="198">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="145" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" s="85" t="str">
+      <c r="E3" s="144" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="84" t="str">
         <f>H14</f>
         <v/>
       </c>
-      <c r="G3" s="85">
+      <c r="G3" s="84">
         <f>C14</f>
         <v>915160.33333333337</v>
       </c>
-      <c r="H3" s="85">
+      <c r="H3" s="84">
         <v>6</v>
       </c>
-      <c r="I3" s="87"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="42"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="127">
+      <c r="C4" s="126">
         <f>Inputs!C13</f>
         <v>1000000</v>
       </c>
@@ -5635,19 +5630,19 @@
         <f>Dashboard!G6</f>
         <v>CNY</v>
       </c>
-      <c r="E4" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" s="93" t="e">
+      <c r="E4" s="144" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="92" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J4" s="87"/>
+      <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
-      <c r="B5" s="115" t="s">
-        <v>128</v>
+      <c r="B5" s="114" t="s">
+        <v>127</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5696,928 +5691,928 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="199">
+      <c r="C6" s="197">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>1318408</v>
       </c>
-      <c r="D6" s="199">
+      <c r="D6" s="197">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>1203982</v>
       </c>
-      <c r="E6" s="199" t="str">
+      <c r="E6" s="197" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="199" t="str">
+      <c r="F6" s="197" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="199" t="str">
+      <c r="G6" s="197" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="199" t="str">
+      <c r="H6" s="197" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="199" t="str">
+      <c r="I6" s="197" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="199" t="str">
+      <c r="J6" s="197" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="199" t="str">
+      <c r="K6" s="197" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="199" t="str">
+      <c r="L6" s="197" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="199" t="str">
+      <c r="M6" s="197" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
-      <c r="N6" s="87"/>
+      <c r="N6" s="86"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="92">
+      <c r="C7" s="91">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
         <v>9.5039626838274938E-2</v>
       </c>
-      <c r="D7" s="92" t="str">
+      <c r="D7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E7" s="92" t="str">
+      <c r="E7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F7" s="92" t="str">
+      <c r="F7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G7" s="92" t="str">
+      <c r="G7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H7" s="92" t="str">
+      <c r="H7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I7" s="92" t="str">
+      <c r="I7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J7" s="92" t="str">
+      <c r="J7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K7" s="92" t="str">
+      <c r="K7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L7" s="92" t="str">
+      <c r="L7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M7" s="92" t="str">
+      <c r="M7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N7" s="87"/>
+      <c r="N7" s="86"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="198">
+      <c r="B8" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="196">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>150324</v>
       </c>
-      <c r="D8" s="198">
+      <c r="D8" s="196">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>159502</v>
       </c>
-      <c r="E8" s="198" t="str">
+      <c r="E8" s="196" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="198" t="str">
+      <c r="F8" s="196" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="198" t="str">
+      <c r="G8" s="196" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="198" t="str">
+      <c r="H8" s="196" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="198" t="str">
+      <c r="I8" s="196" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="198" t="str">
+      <c r="J8" s="196" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="198" t="str">
+      <c r="K8" s="196" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="198" t="str">
+      <c r="L8" s="196" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="198" t="str">
+      <c r="M8" s="196" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
-      <c r="N8" s="87"/>
+      <c r="N8" s="86"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="98" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="150">
+      <c r="B9" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="149">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>1168084</v>
       </c>
-      <c r="D9" s="150">
+      <c r="D9" s="149">
         <f t="shared" si="2"/>
         <v>1044480</v>
       </c>
-      <c r="E9" s="150" t="str">
+      <c r="E9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="150" t="str">
+      <c r="F9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="150" t="str">
+      <c r="G9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="150" t="str">
+      <c r="H9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="150" t="str">
+      <c r="I9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="150" t="str">
+      <c r="J9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="150" t="str">
+      <c r="K9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="150" t="str">
+      <c r="L9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="150" t="str">
+      <c r="M9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N9" s="87"/>
+      <c r="N9" s="86"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="198">
+      <c r="B10" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="196">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>252305</v>
       </c>
-      <c r="D10" s="198">
+      <c r="D10" s="196">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>243571</v>
       </c>
-      <c r="E10" s="198" t="str">
+      <c r="E10" s="196" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="198" t="str">
+      <c r="F10" s="196" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="198" t="str">
+      <c r="G10" s="196" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="198" t="str">
+      <c r="H10" s="196" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="198" t="str">
+      <c r="I10" s="196" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="198" t="str">
+      <c r="J10" s="196" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="198" t="str">
+      <c r="K10" s="196" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="198" t="str">
+      <c r="L10" s="196" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="198" t="str">
+      <c r="M10" s="196" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
-      <c r="N10" s="87"/>
+      <c r="N10" s="86"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="198" t="str">
+      <c r="B11" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="196" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="198" t="str">
+      <c r="D11" s="196" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="198" t="str">
+      <c r="E11" s="196" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="198" t="str">
+      <c r="F11" s="196" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="198" t="str">
+      <c r="G11" s="196" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="198" t="str">
+      <c r="H11" s="196" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="198" t="str">
+      <c r="I11" s="196" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="198" t="str">
+      <c r="J11" s="196" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="198" t="str">
+      <c r="K11" s="196" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="198" t="str">
+      <c r="L11" s="196" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="198" t="str">
+      <c r="M11" s="196" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
-      <c r="N11" s="87"/>
+      <c r="N11" s="86"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="99" t="s">
-        <v>225</v>
-      </c>
-      <c r="C12" s="198">
+      <c r="B12" s="98" t="s">
+        <v>224</v>
+      </c>
+      <c r="C12" s="196">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>618.66666666666663</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="196">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>0</v>
       </c>
-      <c r="E12" s="198" t="str">
+      <c r="E12" s="196" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="198" t="str">
+      <c r="F12" s="196" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="198" t="str">
+      <c r="G12" s="196" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="198" t="str">
+      <c r="H12" s="196" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="198" t="str">
+      <c r="I12" s="196" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="198" t="str">
+      <c r="J12" s="196" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="198" t="str">
+      <c r="K12" s="196" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="198" t="str">
+      <c r="L12" s="196" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="198" t="str">
+      <c r="M12" s="196" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N12" s="87"/>
+      <c r="N12" s="86"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="225" t="s">
-        <v>226</v>
-      </c>
-      <c r="C13" s="226">
+      <c r="B13" s="223" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" s="224">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.6941404582900994</v>
       </c>
-      <c r="D13" s="226">
+      <c r="D13" s="224">
         <f t="shared" si="3"/>
         <v>0.6652167557322286</v>
       </c>
-      <c r="E13" s="226" t="str">
+      <c r="E13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="226" t="str">
+      <c r="F13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="226" t="str">
+      <c r="G13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="226" t="str">
+      <c r="H13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="226" t="str">
+      <c r="I13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="226" t="str">
+      <c r="J13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="226" t="str">
+      <c r="K13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="226" t="str">
+      <c r="L13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="226" t="str">
+      <c r="M13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N13" s="87"/>
+      <c r="N13" s="86"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="225" t="s">
-        <v>218</v>
-      </c>
-      <c r="C14" s="227">
+      <c r="B14" s="223" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="225">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>915160.33333333337</v>
       </c>
-      <c r="D14" s="227">
+      <c r="D14" s="225">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>800909</v>
       </c>
-      <c r="E14" s="227" t="str">
+      <c r="E14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="227" t="str">
+      <c r="F14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="227" t="str">
+      <c r="G14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="227" t="str">
+      <c r="H14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="227" t="str">
+      <c r="I14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="227" t="str">
+      <c r="J14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="227" t="str">
+      <c r="K14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="227" t="str">
+      <c r="L14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="227" t="str">
+      <c r="M14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N14" s="87"/>
+      <c r="N14" s="86"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="228" t="s">
-        <v>227</v>
-      </c>
-      <c r="C15" s="229">
+      <c r="B15" s="226" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="227">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>0.14265207824276338</v>
       </c>
-      <c r="D15" s="229" t="str">
+      <c r="D15" s="227" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="229" t="str">
+      <c r="E15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="229" t="str">
+      <c r="F15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="229" t="str">
+      <c r="G15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="229" t="str">
+      <c r="H15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="229" t="str">
+      <c r="I15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="229" t="str">
+      <c r="J15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="229" t="str">
+      <c r="K15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="229" t="str">
+      <c r="L15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="229" t="str">
+      <c r="M15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N15" s="87"/>
+      <c r="N15" s="86"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="198" t="str">
+      <c r="B16" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="196" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="198" t="str">
+      <c r="D16" s="196" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="198" t="str">
+      <c r="E16" s="196" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="198" t="str">
+      <c r="F16" s="196" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="198" t="str">
+      <c r="G16" s="196" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="198" t="str">
+      <c r="H16" s="196" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="198" t="str">
+      <c r="I16" s="196" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="198" t="str">
+      <c r="J16" s="196" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="198" t="str">
+      <c r="K16" s="196" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="198" t="str">
+      <c r="L16" s="196" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="198" t="str">
+      <c r="M16" s="196" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
-      <c r="N16" s="87"/>
+      <c r="N16" s="86"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="97" t="s">
-        <v>237</v>
-      </c>
-      <c r="C17" s="198">
+      <c r="B17" s="96" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="196">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>651948</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="196">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>518581</v>
       </c>
-      <c r="E17" s="198" t="str">
+      <c r="E17" s="196" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="198" t="str">
+      <c r="F17" s="196" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="198" t="str">
+      <c r="G17" s="196" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="198" t="str">
+      <c r="H17" s="196" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="198" t="str">
+      <c r="I17" s="196" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="198" t="str">
+      <c r="J17" s="196" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="198" t="str">
+      <c r="K17" s="196" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="198" t="str">
+      <c r="L17" s="196" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="198" t="str">
+      <c r="M17" s="196" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
-      <c r="N17" s="87"/>
+      <c r="N17" s="86"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="94" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="151" t="str">
+      <c r="B18" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="150" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="151" t="str">
+      <c r="D18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="151" t="str">
+      <c r="E18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="151" t="str">
+      <c r="F18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="151" t="str">
+      <c r="G18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="151" t="str">
+      <c r="H18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="151" t="str">
+      <c r="I18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="151" t="str">
+      <c r="J18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="151" t="str">
+      <c r="K18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="151" t="str">
+      <c r="L18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="151" t="str">
+      <c r="M18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N18" s="87"/>
+      <c r="N18" s="86"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C19" s="198" t="str">
+      <c r="B19" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="196" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="198" t="str">
+      <c r="D19" s="196" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="198" t="str">
+      <c r="E19" s="196" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="198" t="str">
+      <c r="F19" s="196" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="198" t="str">
+      <c r="G19" s="196" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="198" t="str">
+      <c r="H19" s="196" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="198" t="str">
+      <c r="I19" s="196" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="198" t="str">
+      <c r="J19" s="196" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="198" t="str">
+      <c r="K19" s="196" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="198" t="str">
+      <c r="L19" s="196" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="198" t="str">
+      <c r="M19" s="196" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
-      <c r="N19" s="87"/>
+      <c r="N19" s="86"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="97" t="s">
-        <v>220</v>
-      </c>
-      <c r="C20" s="151">
+      <c r="B20" s="96" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" s="150">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="151">
+      <c r="D20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="151" t="str">
+      <c r="E20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="151" t="str">
+      <c r="F20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="151" t="str">
+      <c r="G20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="151" t="str">
+      <c r="H20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="151" t="str">
+      <c r="I20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="151" t="str">
+      <c r="J20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="151" t="str">
+      <c r="K20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="151" t="str">
+      <c r="L20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="151" t="str">
+      <c r="M20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N20" s="87"/>
+      <c r="N20" s="86"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="198" t="str">
+      <c r="B21" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="196" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="198" t="str">
+      <c r="D21" s="196" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="198" t="str">
+      <c r="E21" s="196" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="198" t="str">
+      <c r="F21" s="196" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="198" t="str">
+      <c r="G21" s="196" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="198" t="str">
+      <c r="H21" s="196" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="198" t="str">
+      <c r="I21" s="196" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="198" t="str">
+      <c r="J21" s="196" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="198" t="str">
+      <c r="K21" s="196" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="198" t="str">
+      <c r="L21" s="196" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="198" t="str">
+      <c r="M21" s="196" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
-      <c r="N21" s="87"/>
+      <c r="N21" s="86"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
-      <c r="B22" s="98" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="160">
+      <c r="B22" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="158">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>263212.33333333337</v>
       </c>
-      <c r="D22" s="160">
+      <c r="D22" s="158">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>282328</v>
       </c>
-      <c r="E22" s="160" t="str">
+      <c r="E22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="160" t="str">
+      <c r="F22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="160" t="str">
+      <c r="G22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="160" t="str">
+      <c r="H22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="160" t="str">
+      <c r="I22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="160" t="str">
+      <c r="J22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="160" t="str">
+      <c r="K22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="160" t="str">
+      <c r="L22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="160" t="str">
+      <c r="M22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="N22" s="87"/>
+      <c r="N22" s="86"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
-      <c r="B23" s="100" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="152">
+      <c r="B23" s="99" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="151">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>0.14973304925334194</v>
       </c>
-      <c r="D23" s="152">
+      <c r="D23" s="151">
         <f t="shared" si="9"/>
         <v>0.17587140007076518</v>
       </c>
-      <c r="E23" s="152" t="str">
+      <c r="E23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="152" t="str">
+      <c r="F23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="152" t="str">
+      <c r="G23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="152" t="str">
+      <c r="H23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="152" t="str">
+      <c r="I23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="152" t="str">
+      <c r="J23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="152" t="str">
+      <c r="K23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="152" t="str">
+      <c r="L23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="152" t="str">
+      <c r="M23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="N23" s="87"/>
+      <c r="N23" s="86"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
-      <c r="B24" s="101" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="153">
+      <c r="B24" s="100" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="152">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>197409.25000000003</v>
       </c>
@@ -6661,63 +6656,63 @@
         <f>IF(M6="","",M22*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N24" s="87"/>
+      <c r="N24" s="86"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="231" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="230">
+      <c r="B25" s="229" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="228">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>-6.7707300255966912E-2</v>
       </c>
-      <c r="D25" s="230" t="str">
+      <c r="D25" s="228" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="230" t="str">
+      <c r="E25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="230" t="str">
+      <c r="F25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="230" t="str">
+      <c r="G25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="230" t="str">
+      <c r="H25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="230" t="str">
+      <c r="I25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="230" t="str">
+      <c r="J25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="230" t="str">
+      <c r="K25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="230" t="str">
+      <c r="L25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="230" t="str">
+      <c r="M25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="N25" s="87"/>
+      <c r="N25" s="86"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
-      <c r="B26" s="114" t="s">
-        <v>129</v>
+      <c r="B26" s="113" t="s">
+        <v>128</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6763,11 +6758,11 @@
         <f t="shared" ref="M26" si="19">EOMONTH(EDATE(L26,-12),0)</f>
         <v>41639</v>
       </c>
-      <c r="N26" s="87"/>
+      <c r="N26" s="86"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="93" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="65">
@@ -6814,266 +6809,266 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="N27" s="87"/>
+      <c r="N27" s="86"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
-      <c r="B28" s="94" t="s">
-        <v>112</v>
+      <c r="B28" s="93" t="s">
+        <v>111</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C13</f>
         <v>0</v>
       </c>
-      <c r="D28" s="198" t="str">
+      <c r="D28" s="196" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="198" t="str">
+      <c r="E28" s="196" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="198" t="str">
+      <c r="F28" s="196" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="198" t="str">
+      <c r="G28" s="196" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="198" t="str">
+      <c r="H28" s="196" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="198" t="str">
+      <c r="I28" s="196" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="198" t="str">
+      <c r="J28" s="196" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="198" t="str">
+      <c r="K28" s="196" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="198" t="str">
+      <c r="L28" s="196" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="198" t="str">
+      <c r="M28" s="196" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
-      <c r="N28" s="87"/>
+      <c r="N28" s="86"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
-      <c r="B29" s="94" t="s">
-        <v>141</v>
+      <c r="B29" s="93" t="s">
+        <v>140</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C18</f>
         <v>0</v>
       </c>
-      <c r="D29" s="198" t="str">
+      <c r="D29" s="196" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="198" t="str">
+      <c r="E29" s="196" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="198" t="str">
+      <c r="F29" s="196" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="198" t="str">
+      <c r="G29" s="196" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="198" t="str">
+      <c r="H29" s="196" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="198" t="str">
+      <c r="I29" s="196" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="198" t="str">
+      <c r="J29" s="196" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="198" t="str">
+      <c r="K29" s="196" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="198" t="str">
+      <c r="L29" s="196" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="198" t="str">
+      <c r="M29" s="196" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
-      <c r="N29" s="87"/>
+      <c r="N29" s="86"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
-      <c r="B30" s="94" t="s">
-        <v>259</v>
+      <c r="B30" s="93" t="s">
+        <v>257</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="D30" s="198" t="str">
+      <c r="D30" s="196" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E30" s="198" t="str">
+      <c r="E30" s="196" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="198" t="str">
+      <c r="F30" s="196" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="198" t="str">
+      <c r="G30" s="196" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="198" t="str">
+      <c r="H30" s="196" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="198" t="str">
+      <c r="I30" s="196" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="198" t="str">
+      <c r="J30" s="196" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="198" t="str">
+      <c r="K30" s="196" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="198" t="str">
+      <c r="L30" s="196" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="198" t="str">
+      <c r="M30" s="196" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
-      <c r="N30" s="87"/>
+      <c r="N30" s="86"/>
     </row>
     <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="93" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I15</f>
         <v>0</v>
       </c>
-      <c r="D31" s="198" t="str">
+      <c r="D31" s="196" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="198" t="str">
+      <c r="E31" s="196" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="198" t="str">
+      <c r="F31" s="196" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="198" t="str">
+      <c r="G31" s="196" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="198" t="str">
+      <c r="H31" s="196" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="198" t="str">
+      <c r="I31" s="196" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="198" t="str">
+      <c r="J31" s="196" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="198" t="str">
+      <c r="K31" s="196" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="198" t="str">
+      <c r="L31" s="196" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="198" t="str">
+      <c r="M31" s="196" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
-      <c r="N31" s="87"/>
+      <c r="N31" s="86"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="93" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I34</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198" t="str">
+      <c r="D32" s="196" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="198" t="str">
+      <c r="E32" s="196" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="198" t="str">
+      <c r="F32" s="196" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="198" t="str">
+      <c r="G32" s="196" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="198" t="str">
+      <c r="H32" s="196" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="198" t="str">
+      <c r="I32" s="196" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="198" t="str">
+      <c r="J32" s="196" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="198" t="str">
+      <c r="K32" s="196" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="198" t="str">
+      <c r="L32" s="196" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="198" t="str">
+      <c r="M32" s="196" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
-      <c r="N32" s="87"/>
+      <c r="N32" s="86"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="93" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="77">
@@ -7120,165 +7115,165 @@
         <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
-      <c r="N33" s="87"/>
+      <c r="N33" s="86"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
-      <c r="B34" s="94" t="s">
-        <v>132</v>
+      <c r="B34" s="93" t="s">
+        <v>131</v>
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
-      <c r="D34" s="198" t="str">
+      <c r="D34" s="196" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E34" s="198" t="str">
+      <c r="E34" s="196" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="198" t="str">
+      <c r="F34" s="196" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="198" t="str">
+      <c r="G34" s="196" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="198" t="str">
+      <c r="H34" s="196" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="198" t="str">
+      <c r="I34" s="196" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="198" t="str">
+      <c r="J34" s="196" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="198" t="str">
+      <c r="K34" s="196" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="198" t="str">
+      <c r="L34" s="196" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="198" t="str">
+      <c r="M34" s="196" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
-      <c r="N34" s="87"/>
+      <c r="N34" s="86"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
-      <c r="B35" s="94" t="s">
-        <v>133</v>
+      <c r="B35" s="93" t="s">
+        <v>132</v>
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
-      <c r="D35" s="198" t="str">
+      <c r="D35" s="196" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E35" s="198" t="str">
+      <c r="E35" s="196" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="198" t="str">
+      <c r="F35" s="196" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="198" t="str">
+      <c r="G35" s="196" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="198" t="str">
+      <c r="H35" s="196" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="198" t="str">
+      <c r="I35" s="196" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="198" t="str">
+      <c r="J35" s="196" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="198" t="str">
+      <c r="K35" s="196" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="198" t="str">
+      <c r="L35" s="196" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="198" t="str">
+      <c r="M35" s="196" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
-      <c r="N35" s="87"/>
+      <c r="N35" s="86"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
-      <c r="B36" s="94" t="s">
-        <v>131</v>
+      <c r="B36" s="93" t="s">
+        <v>130</v>
       </c>
       <c r="C36" s="65">
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198" t="str">
+      <c r="D36" s="196" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="198" t="str">
+      <c r="E36" s="196" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="198" t="str">
+      <c r="F36" s="196" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="198" t="str">
+      <c r="G36" s="196" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="198" t="str">
+      <c r="H36" s="196" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="198" t="str">
+      <c r="I36" s="196" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="198" t="str">
+      <c r="J36" s="196" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="198" t="str">
+      <c r="K36" s="196" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="198" t="str">
+      <c r="L36" s="196" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="198" t="str">
+      <c r="M36" s="196" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
-      <c r="N36" s="87"/>
+      <c r="N36" s="86"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
-      <c r="B37" s="94" t="s">
-        <v>135</v>
+      <c r="B37" s="93" t="s">
+        <v>134</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!C68</f>
@@ -7324,63 +7319,63 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="N37" s="87"/>
+      <c r="N37" s="86"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="98" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="154" t="e">
+      <c r="B38" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="153" t="e">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D38" s="154" t="e">
+      <c r="D38" s="153" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="154" t="str">
+      <c r="E38" s="153" t="str">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v/>
       </c>
-      <c r="F38" s="154" t="str">
+      <c r="F38" s="153" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="154" t="str">
+      <c r="G38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="154" t="str">
+      <c r="H38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="154" t="str">
+      <c r="I38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="154" t="str">
+      <c r="J38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="154" t="str">
+      <c r="K38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="154" t="str">
+      <c r="L38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="154" t="str">
+      <c r="M38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="N38" s="87"/>
+      <c r="N38" s="86"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7393,372 +7388,372 @@
       <c r="K39" s="54"/>
       <c r="L39" s="54"/>
       <c r="M39" s="54"/>
-      <c r="N39" s="87"/>
+      <c r="N39" s="86"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="95" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="155">
+      <c r="B40" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="154">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.11401933240696355</v>
       </c>
-      <c r="D40" s="155">
+      <c r="D40" s="154">
         <f t="shared" si="34"/>
         <v>0.13247872476498818</v>
       </c>
-      <c r="E40" s="155" t="str">
+      <c r="E40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F40" s="155" t="str">
+      <c r="F40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G40" s="155" t="str">
+      <c r="G40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="155" t="str">
+      <c r="H40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="155" t="str">
+      <c r="I40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="155" t="str">
+      <c r="J40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="155" t="str">
+      <c r="K40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="155" t="str">
+      <c r="L40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="155" t="str">
+      <c r="M40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="N40" s="87"/>
+      <c r="N40" s="86"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
-      <c r="B41" s="94" t="s">
-        <v>219</v>
-      </c>
-      <c r="C41" s="152">
+      <c r="B41" s="93" t="s">
+        <v>218</v>
+      </c>
+      <c r="C41" s="151">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.19137095648691452</v>
       </c>
-      <c r="D41" s="152">
+      <c r="D41" s="151">
         <f t="shared" si="35"/>
         <v>0.20230451950278328</v>
       </c>
-      <c r="E41" s="152" t="str">
+      <c r="E41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F41" s="152" t="str">
+      <c r="F41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G41" s="152" t="str">
+      <c r="G41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="152" t="str">
+      <c r="H41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="152" t="str">
+      <c r="I41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="152" t="str">
+      <c r="J41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="152" t="str">
+      <c r="K41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="152" t="str">
+      <c r="L41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="152" t="str">
+      <c r="M41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="N41" s="87"/>
+      <c r="N41" s="86"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="94" t="s">
-        <v>105</v>
-      </c>
-      <c r="C42" s="152">
+      <c r="B42" s="93" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" s="151">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="152">
+      <c r="D42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="152" t="str">
+      <c r="E42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F42" s="152" t="str">
+      <c r="F42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G42" s="152" t="str">
+      <c r="G42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="152" t="str">
+      <c r="H42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="152" t="str">
+      <c r="I42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="152" t="str">
+      <c r="J42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="152" t="str">
+      <c r="K42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="152" t="str">
+      <c r="L42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="152" t="str">
+      <c r="M42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="N42" s="87"/>
+      <c r="N42" s="86"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
-      <c r="B43" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C43" s="152">
+      <c r="B43" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="151">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>0.49449639261897682</v>
       </c>
-      <c r="D43" s="152">
+      <c r="D43" s="151">
         <f t="shared" si="37"/>
         <v>0.43072155563787501</v>
       </c>
-      <c r="E43" s="152" t="str">
+      <c r="E43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F43" s="152" t="str">
+      <c r="F43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G43" s="152" t="str">
+      <c r="G43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="152" t="str">
+      <c r="H43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="152" t="str">
+      <c r="I43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="152" t="str">
+      <c r="J43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="152" t="str">
+      <c r="K43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="152" t="str">
+      <c r="L43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="152" t="str">
+      <c r="M43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="N43" s="87"/>
+      <c r="N43" s="86"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
-      <c r="B44" s="94" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="152">
+      <c r="B44" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="151">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>4.6925281602255647E-4</v>
       </c>
-      <c r="D44" s="152">
+      <c r="D44" s="151">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="E44" s="152" t="str">
+      <c r="E44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F44" s="152" t="str">
+      <c r="F44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G44" s="152" t="str">
+      <c r="G44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="152" t="str">
+      <c r="H44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="152" t="str">
+      <c r="I44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="152" t="str">
+      <c r="J44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="152" t="str">
+      <c r="K44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="152" t="str">
+      <c r="L44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="152" t="str">
+      <c r="M44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="N44" s="87"/>
+      <c r="N44" s="86"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
-      <c r="B45" s="94" t="s">
-        <v>221</v>
-      </c>
-      <c r="C45" s="152">
+      <c r="B45" s="93" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" s="151">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="152">
+      <c r="D45" s="151">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="E45" s="152" t="str">
+      <c r="E45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="N45" s="87"/>
+      <c r="N45" s="86"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
-      <c r="B46" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C46" s="152">
+      <c r="B46" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="151">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>0.19964406567112258</v>
       </c>
-      <c r="D46" s="152">
+      <c r="D46" s="151">
         <f t="shared" si="40"/>
         <v>0.23449520009435357</v>
       </c>
-      <c r="E46" s="152" t="str">
+      <c r="E46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F46" s="152" t="str">
+      <c r="F46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G46" s="152" t="str">
+      <c r="G46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="152" t="str">
+      <c r="H46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="152" t="str">
+      <c r="I46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="152" t="str">
+      <c r="J46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="152" t="str">
+      <c r="K46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="152" t="str">
+      <c r="L46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="152" t="str">
+      <c r="M46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="N46" s="87"/>
+      <c r="N46" s="86"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
-      <c r="B47" s="102" t="s">
-        <v>245</v>
-      </c>
-      <c r="C47" s="280" t="s">
-        <v>263</v>
+      <c r="B47" s="101" t="s">
+        <v>243</v>
+      </c>
+      <c r="C47" s="278" t="s">
+        <v>260</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
@@ -7770,216 +7765,216 @@
       <c r="K47" s="36"/>
       <c r="L47" s="36"/>
       <c r="M47" s="36"/>
-      <c r="N47" s="87"/>
+      <c r="N47" s="86"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="268" t="s">
-        <v>251</v>
-      </c>
-      <c r="C48" s="269" t="e">
+      <c r="B48" s="266" t="s">
+        <v>249</v>
+      </c>
+      <c r="C48" s="267" t="e">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D48" s="269" t="e">
+      <c r="D48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="269" t="str">
+      <c r="E48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F48" s="269" t="str">
+      <c r="F48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G48" s="269" t="str">
+      <c r="G48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="269" t="str">
+      <c r="H48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="269" t="str">
+      <c r="I48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="269" t="str">
+      <c r="J48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="269" t="str">
+      <c r="K48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="269" t="str">
+      <c r="L48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="269" t="str">
+      <c r="M48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="N48" s="87"/>
+      <c r="N48" s="86"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
-      <c r="B49" s="94" t="s">
-        <v>252</v>
-      </c>
-      <c r="C49" s="152">
+      <c r="B49" s="93" t="s">
+        <v>250</v>
+      </c>
+      <c r="C49" s="151">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="152" t="str">
+      <c r="D49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="152" t="str">
+      <c r="E49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="152" t="str">
+      <c r="F49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="152" t="str">
+      <c r="G49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="152" t="str">
+      <c r="H49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="152" t="str">
+      <c r="I49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="152" t="str">
+      <c r="J49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="152" t="str">
+      <c r="K49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="152" t="str">
+      <c r="L49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="152" t="str">
+      <c r="M49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="N49" s="87"/>
+      <c r="N49" s="86"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="94" t="s">
-        <v>253</v>
-      </c>
-      <c r="C50" s="152">
+      <c r="B50" s="93" t="s">
+        <v>251</v>
+      </c>
+      <c r="C50" s="151">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>0</v>
       </c>
-      <c r="D50" s="152" t="str">
+      <c r="D50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="152" t="str">
+      <c r="E50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="152" t="str">
+      <c r="F50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="152" t="str">
+      <c r="G50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="152" t="str">
+      <c r="H50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="152" t="str">
+      <c r="I50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="152" t="str">
+      <c r="J50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="152" t="str">
+      <c r="K50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="152" t="str">
+      <c r="L50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="152" t="str">
+      <c r="M50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="N50" s="87"/>
+      <c r="N50" s="86"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
-      <c r="B51" s="94" t="s">
-        <v>243</v>
-      </c>
-      <c r="C51" s="152" t="e">
+      <c r="B51" s="93" t="s">
+        <v>241</v>
+      </c>
+      <c r="C51" s="151" t="e">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D51" s="152" t="str">
+      <c r="D51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E51" s="152" t="str">
+      <c r="E51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F51" s="152" t="str">
+      <c r="F51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="152" t="str">
+      <c r="G51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="152" t="str">
+      <c r="H51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="152" t="str">
+      <c r="I51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="152" t="str">
+      <c r="J51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="152" t="str">
+      <c r="K51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="152" t="str">
+      <c r="L51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="152" t="str">
+      <c r="M51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="N51" s="87"/>
+      <c r="N51" s="86"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
-        <v>246</v>
+      <c r="B52" s="101" t="s">
+        <v>244</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -7995,350 +7990,350 @@
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
-        <v>247</v>
-      </c>
-      <c r="C53" s="155" t="e">
+      <c r="B53" s="94" t="s">
+        <v>245</v>
+      </c>
+      <c r="C53" s="154" t="e">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D53" s="155" t="str">
+      <c r="D53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E53" s="155" t="str">
+      <c r="E53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="155" t="str">
+      <c r="F53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="155" t="str">
+      <c r="G53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="155" t="str">
+      <c r="H53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="155" t="str">
+      <c r="I53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="155" t="str">
+      <c r="J53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="155" t="str">
+      <c r="K53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="155" t="str">
+      <c r="L53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="155" t="str">
+      <c r="M53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>116</v>
-      </c>
-      <c r="C54" s="156" t="str">
+      <c r="B54" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="C54" s="155" t="str">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>-</v>
       </c>
-      <c r="D54" s="156" t="str">
+      <c r="D54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="156" t="str">
+      <c r="E54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="156" t="str">
+      <c r="F54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="156" t="str">
+      <c r="G54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="156" t="str">
+      <c r="H54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="156" t="str">
+      <c r="I54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="156" t="str">
+      <c r="J54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="156" t="str">
+      <c r="K54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="156" t="str">
+      <c r="L54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="156" t="str">
+      <c r="M54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" s="152">
+      <c r="B55" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="151">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>2.4768900140190997</v>
       </c>
-      <c r="D55" s="152">
+      <c r="D55" s="151">
         <f t="shared" si="47"/>
         <v>1.8368032926241817</v>
       </c>
-      <c r="E55" s="152" t="str">
+      <c r="E55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="F55" s="152" t="str">
+      <c r="F55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="G55" s="152" t="str">
+      <c r="G55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="152" t="str">
+      <c r="H55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="152" t="str">
+      <c r="I55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="152" t="str">
+      <c r="J55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="152" t="str">
+      <c r="K55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="152" t="str">
+      <c r="L55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="152" t="str">
+      <c r="M55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="C56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/C30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/D30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/E30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/F30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/G30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/H30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/I30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/J30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/K30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/L30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/M30)</f>
-        <v>#REF!</v>
+      <c r="B56" s="93" t="s">
+        <v>264</v>
+      </c>
+      <c r="C56" s="151">
+        <f>IF(C34="","",IF(Inputs!C38=0,0,Inputs!C38/C27))</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="151" t="str">
+        <f>IF(D34="","",IF(Inputs!D38=0,0,Inputs!D38/D27))</f>
+        <v/>
+      </c>
+      <c r="E56" s="151" t="str">
+        <f>IF(E34="","",IF(Inputs!E38=0,0,Inputs!E38/E27))</f>
+        <v/>
+      </c>
+      <c r="F56" s="151" t="str">
+        <f>IF(F34="","",IF(Inputs!F38=0,0,Inputs!F38/F27))</f>
+        <v/>
+      </c>
+      <c r="G56" s="151" t="str">
+        <f>IF(G34="","",IF(Inputs!G38=0,0,Inputs!G38/G27))</f>
+        <v/>
+      </c>
+      <c r="H56" s="151" t="str">
+        <f>IF(H34="","",IF(Inputs!H38=0,0,Inputs!H38/H27))</f>
+        <v/>
+      </c>
+      <c r="I56" s="151" t="str">
+        <f>IF(I34="","",IF(Inputs!I38=0,0,Inputs!I38/I27))</f>
+        <v/>
+      </c>
+      <c r="J56" s="151" t="str">
+        <f>IF(J34="","",IF(Inputs!J38=0,0,Inputs!J38/J27))</f>
+        <v/>
+      </c>
+      <c r="K56" s="151" t="str">
+        <f>IF(K34="","",IF(Inputs!K38=0,0,Inputs!K38/K27))</f>
+        <v/>
+      </c>
+      <c r="L56" s="151" t="str">
+        <f>IF(L34="","",IF(Inputs!L38=0,0,Inputs!L38/L27))</f>
+        <v/>
+      </c>
+      <c r="M56" s="151" t="str">
+        <f>IF(M34="","",IF(Inputs!M38=0,0,Inputs!M38/M27))</f>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
-      <c r="B57" s="102" t="s">
-        <v>248</v>
-      </c>
-      <c r="C57" s="270" t="str">
+      <c r="B57" s="101" t="s">
+        <v>246</v>
+      </c>
+      <c r="C57" s="268" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="270" t="str">
+      <c r="D57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="270" t="str">
+      <c r="E57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="270" t="str">
+      <c r="F57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="270" t="str">
+      <c r="G57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="270" t="str">
+      <c r="H57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="270" t="str">
+      <c r="I57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="270" t="str">
+      <c r="J57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="270" t="str">
+      <c r="K57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="270" t="str">
+      <c r="L57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="270" t="str">
+      <c r="M57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="268" t="s">
-        <v>249</v>
-      </c>
-      <c r="C58" s="271" t="e">
+      <c r="B58" s="266" t="s">
+        <v>247</v>
+      </c>
+      <c r="C58" s="269" t="e">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D58" s="271" t="e">
+      <c r="D58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="271" t="str">
+      <c r="E58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="F58" s="271" t="str">
+      <c r="F58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="G58" s="271" t="str">
+      <c r="G58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="271" t="str">
+      <c r="H58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="271" t="str">
+      <c r="I58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="271" t="str">
+      <c r="J58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="271" t="str">
+      <c r="K58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="271" t="str">
+      <c r="L58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="271" t="str">
+      <c r="M58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="268" t="s">
-        <v>250</v>
-      </c>
-      <c r="C59" s="271" t="e">
+      <c r="B59" s="266" t="s">
+        <v>248</v>
+      </c>
+      <c r="C59" s="269" t="e">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D59" s="271" t="e">
+      <c r="D59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="271" t="str">
+      <c r="E59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="F59" s="271" t="str">
+      <c r="F59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="G59" s="271" t="str">
+      <c r="G59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="271" t="str">
+      <c r="H59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="271" t="str">
+      <c r="I59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="271" t="str">
+      <c r="J59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="271" t="str">
+      <c r="K59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="271" t="str">
+      <c r="L59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="271" t="str">
+      <c r="M59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9617,7 +9612,7 @@
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9635,7 +9630,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9653,25 +9648,25 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="87"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="87"/>
+      <c r="I2" s="86"/>
       <c r="K2" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="204">
+        <v>20</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="202">
         <f>Inputs!C41</f>
         <v>0</v>
       </c>
@@ -9679,12 +9674,12 @@
         <f>IF((C49-I49)=D3,"", "Error!")</f>
         <v/>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
       <c r="H3" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="282">
+        <v>21</v>
+      </c>
+      <c r="I3" s="280">
         <f>D3-D4</f>
         <v>0</v>
       </c>
@@ -9692,28 +9687,28 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="198">
+        <v>22</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="196">
         <f>Inputs!C42</f>
         <v>0</v>
       </c>
       <c r="E4" s="37"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
       <c r="H4" s="21"/>
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="I5" s="63" t="e">
         <f>C28/I28</f>
@@ -9726,7 +9721,7 @@
         <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
         <v>Adj. Net Asset in CNY</v>
       </c>
-      <c r="C6" s="87"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
         <v>0</v>
@@ -9735,16 +9730,16 @@
         <f>1-D6/D3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" s="63" t="e">
         <f>(C24+C25)/I28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J6" s="87"/>
+      <c r="J6" s="86"/>
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -9752,7 +9747,7 @@
         <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
-      <c r="C7" s="87"/>
+      <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
         <v>0</v>
@@ -9762,287 +9757,287 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" s="63" t="e">
         <f>C24/I28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" s="87"/>
+      <c r="J7" s="86"/>
       <c r="K7" s="33"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
       <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="202">
+        <v>27</v>
+      </c>
+      <c r="C9" s="85"/>
+      <c r="D9" s="200">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="118" t="str">
+      <c r="E9" s="117" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
       <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="111" t="s">
+      <c r="G10" s="86"/>
+      <c r="H10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="22" t="s">
-        <v>33</v>
-      </c>
       <c r="I10" s="74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
         <v>0</v>
       </c>
-      <c r="D11" s="197">
+      <c r="D11" s="195">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
-      <c r="E11" s="88">
+      <c r="E11" s="87">
         <f t="shared" ref="E11:E22" si="0">C11*D11</f>
         <v>0</v>
       </c>
-      <c r="F11" s="112"/>
-      <c r="G11" s="87"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="86"/>
       <c r="H11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
         <v>0</v>
       </c>
-      <c r="J11" s="87"/>
+      <c r="J11" s="86"/>
       <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="197">
+      <c r="D12" s="195">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
-      <c r="E12" s="88">
+      <c r="E12" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="112"/>
-      <c r="G12" s="87"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="86"/>
       <c r="H12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
         <v>0</v>
       </c>
-      <c r="J12" s="87"/>
+      <c r="J12" s="86"/>
       <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
         <v>0</v>
       </c>
-      <c r="D13" s="197">
+      <c r="D13" s="195">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
-      <c r="E13" s="88">
+      <c r="E13" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="112"/>
-      <c r="G13" s="87"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="86"/>
       <c r="H13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
         <v>0</v>
       </c>
-      <c r="J13" s="87"/>
+      <c r="J13" s="86"/>
       <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="197">
+      <c r="D14" s="195">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
-      <c r="E14" s="88">
+      <c r="E14" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="112"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="203">
+      <c r="F14" s="111"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="201">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
-      <c r="J14" s="87"/>
+      <c r="J14" s="86"/>
       <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="197">
+      <c r="D15" s="195">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
-      <c r="E15" s="88">
+      <c r="E15" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="112"/>
-      <c r="G15" s="87"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="86"/>
       <c r="H15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="84">
+        <v>49</v>
+      </c>
+      <c r="I15" s="83">
         <f>SUM(I11:I14)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="87"/>
+      <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="197">
+      <c r="D16" s="195">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
-      <c r="E16" s="88">
+      <c r="E16" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="112"/>
+      <c r="F16" s="111"/>
       <c r="G16" s="30"/>
       <c r="H16" s="3"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="87"/>
+      <c r="J16" s="86"/>
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="197">
+      <c r="D17" s="195">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
-      <c r="E17" s="88">
+      <c r="E17" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="112"/>
-      <c r="G17" s="87"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="86"/>
       <c r="H17" s="3"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="87"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
         <v>0</v>
       </c>
-      <c r="D18" s="197">
+      <c r="D18" s="195">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
-      <c r="E18" s="88">
+      <c r="E18" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="112"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="197">
+      <c r="D19" s="195">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
-      <c r="E19" s="88">
+      <c r="E19" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="133" t="str">
+      <c r="F19" s="132" t="str">
         <f>Inputs!E56</f>
         <v>N</v>
       </c>
@@ -10053,21 +10048,21 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="197">
+      <c r="D20" s="195">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
-      <c r="E20" s="88">
+      <c r="E20" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="133" t="str">
+      <c r="F20" s="132" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10080,45 +10075,45 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="197">
+      <c r="D21" s="195">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
-      <c r="E21" s="88">
+      <c r="E21" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="112"/>
-      <c r="G21" s="87"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="86"/>
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="197">
+      <c r="D22" s="195">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
-      <c r="E22" s="88">
+      <c r="E22" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="112"/>
-      <c r="G22" s="87"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="86"/>
       <c r="H22" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10126,17 +10121,17 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="111" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="87"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="110" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="86"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10146,19 +10141,19 @@
         <f>IF(E24=0,0,E24/C24)</f>
         <v>0</v>
       </c>
-      <c r="E24" s="88">
+      <c r="E24" s="87">
         <f>SUM(E11:E14)</f>
         <v>0</v>
       </c>
-      <c r="F24" s="113" t="e">
+      <c r="F24" s="112" t="e">
         <f>E24/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="87"/>
+      <c r="G24" s="86"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10168,17 +10163,17 @@
         <f>IF(E25=0,0,E25/C25)</f>
         <v>0</v>
       </c>
-      <c r="E25" s="88">
+      <c r="E25" s="87">
         <f>SUM(E15:E17)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="113" t="e">
+      <c r="F25" s="112" t="e">
         <f>E25/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="87"/>
+      <c r="G25" s="86"/>
       <c r="H25" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I25" s="63" t="e">
         <f>E28/I28</f>
@@ -10187,7 +10182,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10197,17 +10192,17 @@
         <f>IF(E26=0,0,E26/C26)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="88">
+      <c r="E26" s="87">
         <f>E18+E19+E20</f>
         <v>0</v>
       </c>
-      <c r="F26" s="113" t="e">
+      <c r="F26" s="112" t="e">
         <f>E26/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="87"/>
+      <c r="G26" s="86"/>
       <c r="H26" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I26" s="63" t="e">
         <f>E24/($I$28-I22)</f>
@@ -10220,7 +10215,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10230,17 +10225,17 @@
         <f>IF(E27=0,0,E27/C27)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="88">
+      <c r="E27" s="87">
         <f>E21+E22</f>
         <v>0</v>
       </c>
-      <c r="F27" s="113" t="e">
+      <c r="F27" s="112" t="e">
         <f>E27/$E$28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="87"/>
+      <c r="G27" s="86"/>
       <c r="H27" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I27" s="63" t="e">
         <f>(E25+E24)/$I$28</f>
@@ -10267,12 +10262,12 @@
         <f>SUM(E24:E27)</f>
         <v>0</v>
       </c>
-      <c r="F28" s="112"/>
-      <c r="G28" s="87"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="86"/>
       <c r="H28" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="204">
+      <c r="I28" s="202">
         <f>Inputs!C77</f>
         <v>0</v>
       </c>
@@ -10282,171 +10277,171 @@
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="112" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="111" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="197">
+      <c r="D30" s="195">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
-      <c r="E30" s="88">
-        <v>0</v>
-      </c>
-      <c r="F30" s="112"/>
-      <c r="G30" s="87"/>
+      <c r="E30" s="87">
+        <v>0</v>
+      </c>
+      <c r="F30" s="111"/>
+      <c r="G30" s="86"/>
       <c r="H30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
         <v>0</v>
       </c>
-      <c r="J30" s="87"/>
+      <c r="J30" s="86"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="197">
+      <c r="D31" s="195">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
-      <c r="E31" s="88">
+      <c r="E31" s="87">
         <f t="shared" ref="E31:E42" si="1">C31*D31</f>
         <v>0</v>
       </c>
-      <c r="F31" s="112"/>
-      <c r="G31" s="87"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="86"/>
       <c r="H31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
         <v>0</v>
       </c>
-      <c r="J31" s="87"/>
+      <c r="J31" s="86"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="197">
+      <c r="D32" s="195">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
-      <c r="E32" s="88">
+      <c r="E32" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32" s="112"/>
-      <c r="G32" s="87"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="86"/>
       <c r="H32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
         <v>0</v>
       </c>
-      <c r="J32" s="87"/>
+      <c r="J32" s="86"/>
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="197">
+      <c r="D33" s="195">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
-      <c r="E33" s="88">
+      <c r="E33" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="112"/>
+      <c r="F33" s="111"/>
       <c r="G33" s="30">
         <f>IF(F33="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H33" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="I33" s="203">
+      <c r="H33" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="201">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
-      <c r="J33" s="87"/>
+      <c r="J33" s="86"/>
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="197">
+      <c r="D34" s="195">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
-      <c r="E34" s="88">
+      <c r="E34" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F34" s="112"/>
-      <c r="G34" s="87"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="86"/>
       <c r="H34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I34" s="84">
+        <v>73</v>
+      </c>
+      <c r="I34" s="83">
         <f>SUM(I30:I33)</f>
         <v>0</v>
       </c>
-      <c r="J34" s="87"/>
+      <c r="J34" s="86"/>
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
         <v>0</v>
       </c>
-      <c r="D35" s="197">
+      <c r="D35" s="195">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
-      <c r="E35" s="88">
+      <c r="E35" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="133" t="str">
+      <c r="F35" s="132" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10454,25 +10449,25 @@
         <f>IF(F35="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="J35" s="87"/>
+      <c r="J35" s="86"/>
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
         <v>0</v>
       </c>
-      <c r="D36" s="197">
+      <c r="D36" s="195">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
-      <c r="E36" s="88">
+      <c r="E36" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="133" t="str">
+      <c r="F36" s="132" t="str">
         <f>Inputs!E66</f>
         <v>N</v>
       </c>
@@ -10480,26 +10475,26 @@
         <f>IF(F36="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="197">
+      <c r="D37" s="195">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
-      <c r="E37" s="88">
+      <c r="E37" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="133" t="str">
+      <c r="F37" s="132" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10507,113 +10502,113 @@
         <f>IF(F37="Y",0,1)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
         <v>0</v>
       </c>
-      <c r="D38" s="197">
+      <c r="D38" s="195">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
-      <c r="E38" s="88">
+      <c r="E38" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F38" s="112"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="197">
+      <c r="D39" s="195">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
-      <c r="E39" s="88">
+      <c r="E39" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F39" s="112"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
         <v>0</v>
       </c>
-      <c r="D40" s="197">
+      <c r="D40" s="195">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
-      <c r="E40" s="88">
+      <c r="E40" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F40" s="112"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="197">
+      <c r="D41" s="195">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
-      <c r="E41" s="88">
+      <c r="E41" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F41" s="112"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="197">
+      <c r="D42" s="195">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
-      <c r="E42" s="88">
+      <c r="E42" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F42" s="112"/>
-      <c r="G42" s="87"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="86"/>
       <c r="H42" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -10621,17 +10616,17 @@
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -10641,16 +10636,16 @@
         <f>IF(E44=0,0,E44/C44)</f>
         <v>0</v>
       </c>
-      <c r="E44" s="88">
+      <c r="E44" s="87">
         <f>SUM(E30:E31)</f>
         <v>0</v>
       </c>
       <c r="F44" s="72"/>
-      <c r="G44" s="87"/>
+      <c r="G44" s="86"/>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -10660,16 +10655,16 @@
         <f>IF(E45=0,0,E45/C45)</f>
         <v>0</v>
       </c>
-      <c r="E45" s="88">
+      <c r="E45" s="87">
         <f>SUM(E32:E35)</f>
         <v>0</v>
       </c>
       <c r="F45" s="72"/>
-      <c r="G45" s="87"/>
+      <c r="G45" s="86"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -10679,14 +10674,14 @@
         <f>IF(E46=0,0,E46/C46)</f>
         <v>0</v>
       </c>
-      <c r="E46" s="88">
+      <c r="E46" s="87">
         <f>E36+E37+E38+E39</f>
         <v>0</v>
       </c>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
       <c r="H46" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I46" s="63" t="e">
         <f>(E44+E24)/E64</f>
@@ -10699,7 +10694,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -10709,14 +10704,14 @@
         <f>IF(E47=0,0,E47/C47)</f>
         <v>0</v>
       </c>
-      <c r="E47" s="88">
+      <c r="E47" s="87">
         <f>E40+E41+E42</f>
         <v>0</v>
       </c>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
       <c r="H47" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I47" s="63" t="e">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -10729,13 +10724,13 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="C48" s="81">
+        <v>79</v>
+      </c>
+      <c r="C48" s="281">
         <f>SUM(C30:C42)</f>
         <v>0</v>
       </c>
-      <c r="D48" s="82" t="e">
+      <c r="D48" s="81" t="e">
         <f>E48/C48</f>
         <v>#DIV/0!</v>
       </c>
@@ -10743,12 +10738,12 @@
         <f>SUM(E30:E42)</f>
         <v>0</v>
       </c>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
       <c r="H48" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="I48" s="281">
+        <v>80</v>
+      </c>
+      <c r="I48" s="279">
         <f>I49-I28</f>
         <v>0</v>
       </c>
@@ -10759,63 +10754,63 @@
         <v>13</v>
       </c>
       <c r="C49" s="61">
-        <f>C28+C48</f>
+        <f>Inputs!C41+Inputs!C37</f>
         <v>0</v>
       </c>
       <c r="D49" s="56" t="e">
         <f>E49/C49</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E49" s="88">
+      <c r="E49" s="87">
         <f>E28+E48</f>
         <v>0</v>
       </c>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="86"/>
       <c r="H49" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I49" s="40">
         <f>Inputs!C37</f>
         <v>0</v>
       </c>
-      <c r="J49" s="87"/>
+      <c r="J49" s="86"/>
     </row>
     <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="I50" s="87"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="I50" s="86"/>
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="87"/>
+        <v>83</v>
+      </c>
+      <c r="C52" s="86"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
         <v>BV of the MI</v>
       </c>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="I52" s="87"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
+      <c r="I52" s="86"/>
       <c r="K52" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C53" s="88">
+        <v>84</v>
+      </c>
+      <c r="C53" s="87">
         <f>MAX(D4,0)</f>
         <v>0</v>
       </c>
@@ -10823,45 +10818,45 @@
         <f>IF(E53=0, 0,E53/C53)</f>
         <v>0</v>
       </c>
-      <c r="E53" s="88">
+      <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
         <v>0</v>
       </c>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
     <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="I54" s="87"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="I54" s="86"/>
       <c r="K54" s="33"/>
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="124"/>
+      <c r="E55" s="123"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="I55" s="87"/>
+      <c r="I55" s="86"/>
       <c r="K55" s="33"/>
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="87"/>
-      <c r="D56" s="296">
+        <v>85</v>
+      </c>
+      <c r="C56" s="86"/>
+      <c r="D56" s="295">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="294"/>
+      <c r="E56" s="293"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10869,61 +10864,61 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" s="86"/>
+      <c r="D57" s="294">
+        <f>Inputs!C84</f>
+        <v>0</v>
+      </c>
+      <c r="E57" s="293"/>
+      <c r="G57" s="86"/>
+      <c r="I57" s="86"/>
+      <c r="K57" s="33" t="s">
         <v>87</v>
-      </c>
-      <c r="C57" s="87"/>
-      <c r="D57" s="295">
-        <f>Inputs!C84</f>
-        <v>0</v>
-      </c>
-      <c r="E57" s="294"/>
-      <c r="G57" s="87"/>
-      <c r="I57" s="87"/>
-      <c r="K57" s="33" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="87"/>
-      <c r="D58" s="295">
+        <v>88</v>
+      </c>
+      <c r="C58" s="86"/>
+      <c r="D58" s="294">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="294"/>
+      <c r="E58" s="293"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="I58" s="87"/>
+      <c r="I58" s="86"/>
       <c r="K58" s="33"/>
     </row>
     <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="I59" s="87"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="86"/>
+      <c r="I59" s="86"/>
       <c r="K59" s="33"/>
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="E60" s="87"/>
+        <v>89</v>
+      </c>
+      <c r="E60" s="86"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="I60" s="87"/>
+      <c r="I60" s="86"/>
       <c r="K60" s="33"/>
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -10937,35 +10932,35 @@
         <f>E14+E15+(E19*G19)+(E20*G20)+E31+E32+(E35*G35)+(E36*G36)+(E37*G37)</f>
         <v>0</v>
       </c>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87"/>
-      <c r="I61" s="87"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
+      <c r="I61" s="86"/>
       <c r="K61" s="33"/>
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="C62" s="116">
+        <v>133</v>
+      </c>
+      <c r="C62" s="115">
         <f>C11+C30</f>
         <v>0</v>
       </c>
-      <c r="D62" s="107">
+      <c r="D62" s="106">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E62" s="117">
+      <c r="E62" s="116">
         <f>E11+E30</f>
         <v>0</v>
       </c>
-      <c r="F62" s="87"/>
-      <c r="G62" s="87"/>
-      <c r="I62" s="87"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="I62" s="86"/>
       <c r="K62" s="33"/>
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -10979,29 +10974,29 @@
         <f>E61+E62</f>
         <v>0</v>
       </c>
-      <c r="F63" s="87"/>
-      <c r="G63" s="87"/>
-      <c r="I63" s="87"/>
+      <c r="F63" s="86"/>
+      <c r="G63" s="86"/>
+      <c r="I63" s="86"/>
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="120" t="s">
-        <v>143</v>
-      </c>
-      <c r="C64" s="205"/>
-      <c r="D64" s="205"/>
+      <c r="B64" s="119" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="203"/>
+      <c r="D64" s="203"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>0</v>
       </c>
-      <c r="F64" s="87"/>
-      <c r="G64" s="87"/>
-      <c r="I64" s="87"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="I64" s="86"/>
       <c r="K64" s="33"/>
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11015,9 +11010,9 @@
         <f>E63-E64</f>
         <v>0</v>
       </c>
-      <c r="F65" s="87"/>
-      <c r="G65" s="87"/>
-      <c r="I65" s="87"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="86"/>
+      <c r="I65" s="86"/>
       <c r="K65" s="33"/>
     </row>
     <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
@@ -11025,28 +11020,28 @@
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
       <c r="E66" s="61"/>
-      <c r="F66" s="87"/>
-      <c r="G66" s="87"/>
-      <c r="I66" s="87"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="I66" s="86"/>
       <c r="K66" s="33"/>
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E67" s="61"/>
-      <c r="F67" s="87"/>
-      <c r="G67" s="87"/>
-      <c r="I67" s="87"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="86"/>
+      <c r="I67" s="86"/>
       <c r="K67" s="33"/>
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11060,29 +11055,29 @@
         <f>E49-E63</f>
         <v>0</v>
       </c>
-      <c r="F68" s="87"/>
-      <c r="G68" s="87"/>
-      <c r="I68" s="87"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="I68" s="86"/>
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="120" t="s">
-        <v>144</v>
-      </c>
-      <c r="C69" s="205"/>
-      <c r="D69" s="205"/>
-      <c r="E69" s="125">
+      <c r="B69" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" s="203"/>
+      <c r="D69" s="203"/>
+      <c r="E69" s="124">
         <f>I49-E64</f>
         <v>0</v>
       </c>
-      <c r="F69" s="87"/>
-      <c r="G69" s="87"/>
-      <c r="I69" s="87"/>
+      <c r="F69" s="86"/>
+      <c r="G69" s="86"/>
+      <c r="I69" s="86"/>
       <c r="K69" s="33"/>
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11096,29 +11091,29 @@
         <f>E68-E69</f>
         <v>0</v>
       </c>
-      <c r="F70" s="87"/>
-      <c r="G70" s="87"/>
-      <c r="I70" s="87"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="86"/>
+      <c r="I70" s="86"/>
       <c r="K70" s="33"/>
     </row>
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
-      <c r="B72" s="106" t="s">
-        <v>122</v>
-      </c>
-      <c r="C72" s="283">
+      <c r="B72" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" s="282">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="283"/>
-      <c r="E72" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F72" s="297"/>
-      <c r="H72" s="297" t="s">
+      <c r="D72" s="282"/>
+      <c r="E72" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I72" s="297"/>
+      <c r="F72" s="296"/>
+      <c r="H72" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I72" s="296"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11128,66 +11123,66 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C73" s="284" t="s">
+      <c r="C73" s="283" t="s">
+        <v>96</v>
+      </c>
+      <c r="D73" s="283"/>
+      <c r="E73" s="297" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="284"/>
-      <c r="E73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="F73" s="284"/>
-      <c r="H73" s="298" t="s">
-        <v>98</v>
-      </c>
-      <c r="I73" s="284"/>
+      <c r="F73" s="283"/>
+      <c r="H73" s="297" t="s">
+        <v>97</v>
+      </c>
+      <c r="I73" s="283"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
         <v>1318408</v>
       </c>
-      <c r="D74" s="206"/>
-      <c r="E74" s="235">
+      <c r="D74" s="204"/>
+      <c r="E74" s="233">
         <f>Inputs!E91</f>
         <v>1318408</v>
       </c>
-      <c r="F74" s="206"/>
-      <c r="H74" s="235">
+      <c r="F74" s="204"/>
+      <c r="H74" s="233">
         <f>Inputs!F91</f>
         <v>1318408</v>
       </c>
-      <c r="I74" s="206"/>
+      <c r="I74" s="204"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="104" t="s">
-        <v>102</v>
+      <c r="B75" s="103" t="s">
+        <v>101</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
         <v>150324</v>
       </c>
-      <c r="D75" s="158">
+      <c r="D75" s="156">
         <f>C75/$C$74</f>
         <v>0.11401933240696355</v>
       </c>
-      <c r="E75" s="235">
+      <c r="E75" s="233">
         <f>Inputs!E92</f>
         <v>150324</v>
       </c>
-      <c r="F75" s="159">
+      <c r="F75" s="157">
         <f>E75/E74</f>
         <v>0.11401933240696355</v>
       </c>
-      <c r="H75" s="235">
+      <c r="H75" s="233">
         <f>Inputs!F92</f>
         <v>150324</v>
       </c>
-      <c r="I75" s="159">
+      <c r="I75" s="157">
         <f>H75/$H$74</f>
         <v>0.11401933240696355</v>
       </c>
@@ -11195,50 +11190,50 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="C76" s="160">
+        <v>91</v>
+      </c>
+      <c r="C76" s="158">
         <f>C74-C75</f>
         <v>1168084</v>
       </c>
-      <c r="D76" s="207"/>
-      <c r="E76" s="161">
+      <c r="D76" s="205"/>
+      <c r="E76" s="159">
         <f>E74-E75</f>
         <v>1168084</v>
       </c>
-      <c r="F76" s="207"/>
-      <c r="H76" s="161">
+      <c r="F76" s="205"/>
+      <c r="H76" s="159">
         <f>H74-H75</f>
         <v>1168084</v>
       </c>
-      <c r="I76" s="207"/>
+      <c r="I76" s="205"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="104" t="s">
-        <v>229</v>
+      <c r="B77" s="103" t="s">
+        <v>228</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>252305</v>
       </c>
-      <c r="D77" s="158">
+      <c r="D77" s="156">
         <f>C77/$C$74</f>
         <v>0.19137095648691452</v>
       </c>
-      <c r="E77" s="235">
+      <c r="E77" s="233">
         <f>Inputs!E93</f>
         <v>252305</v>
       </c>
-      <c r="F77" s="159">
+      <c r="F77" s="157">
         <f>E77/E74</f>
         <v>0.19137095648691452</v>
       </c>
-      <c r="H77" s="235">
+      <c r="H77" s="233">
         <f>Inputs!F93</f>
         <v>252305</v>
       </c>
-      <c r="I77" s="159">
+      <c r="I77" s="157">
         <f>H77/$H$74</f>
         <v>0.19137095648691452</v>
       </c>
@@ -11246,60 +11241,60 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
         <v>618.66666666666663</v>
       </c>
-      <c r="D78" s="158">
+      <c r="D78" s="156">
         <f>C78/$C$74</f>
         <v>4.6925281602255647E-4</v>
       </c>
-      <c r="E78" s="179">
+      <c r="E78" s="177">
         <f>E74*F78</f>
         <v>618.66666666666663</v>
       </c>
-      <c r="F78" s="159">
+      <c r="F78" s="157">
         <f>I78</f>
         <v>4.6925281602255647E-4</v>
       </c>
-      <c r="H78" s="235">
+      <c r="H78" s="233">
         <f>Inputs!F97</f>
         <v>618.66666666666663</v>
       </c>
-      <c r="I78" s="159">
+      <c r="I78" s="157">
         <f>H78/$H$74</f>
         <v>4.6925281602255647E-4</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="253" t="s">
-        <v>217</v>
-      </c>
-      <c r="C79" s="254">
+      <c r="B79" s="251" t="s">
+        <v>216</v>
+      </c>
+      <c r="C79" s="252">
         <f>C76-C77-C78</f>
         <v>915160.33333333337</v>
       </c>
-      <c r="D79" s="255">
+      <c r="D79" s="253">
         <f>C79/C74</f>
         <v>0.6941404582900994</v>
       </c>
-      <c r="E79" s="256">
+      <c r="E79" s="254">
         <f>E76-E77-E78</f>
         <v>915160.33333333337</v>
       </c>
-      <c r="F79" s="255">
+      <c r="F79" s="253">
         <f>E79/E74</f>
         <v>0.6941404582900994</v>
       </c>
-      <c r="G79" s="257"/>
-      <c r="H79" s="256">
+      <c r="G79" s="255"/>
+      <c r="H79" s="254">
         <f>H76-H77-H78</f>
         <v>915160.33333333337</v>
       </c>
-      <c r="I79" s="255">
+      <c r="I79" s="253">
         <f>H79/H74</f>
         <v>0.6941404582900994</v>
       </c>
@@ -11307,61 +11302,61 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="158">
+      <c r="D80" s="156">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="179">
+      <c r="E80" s="177">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="159">
+      <c r="F80" s="157">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="235">
+      <c r="H80" s="233">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="159">
+      <c r="I80" s="157">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="180" t="s">
-        <v>126</v>
+      <c r="K80" s="178" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="104" t="s">
-        <v>237</v>
+      <c r="B81" s="103" t="s">
+        <v>235</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>651948</v>
       </c>
-      <c r="D81" s="158">
+      <c r="D81" s="156">
         <f>C81/$C$74</f>
         <v>0.49449639261897682</v>
       </c>
-      <c r="E81" s="179">
+      <c r="E81" s="177">
         <f>E74*F81</f>
         <v>651948</v>
       </c>
-      <c r="F81" s="159">
+      <c r="F81" s="157">
         <f>I81</f>
         <v>0.49449639261897682</v>
       </c>
-      <c r="H81" s="235">
+      <c r="H81" s="233">
         <f>Inputs!F94</f>
         <v>651948</v>
       </c>
-      <c r="I81" s="159">
+      <c r="I81" s="157">
         <f>H81/$H$74</f>
         <v>0.49449639261897682</v>
       </c>
@@ -11369,59 +11364,59 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="158">
+      <c r="D82" s="156">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="235">
+      <c r="E82" s="233">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="159">
+      <c r="F82" s="157">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="235">
+      <c r="H82" s="233">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="159">
+      <c r="I82" s="157">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
       <c r="K82" s="24"/>
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="105" t="s">
-        <v>120</v>
-      </c>
-      <c r="C83" s="162">
+      <c r="B83" s="104" t="s">
+        <v>119</v>
+      </c>
+      <c r="C83" s="160">
         <f>C79-C81-C82-C80</f>
         <v>263212.33333333337</v>
       </c>
-      <c r="D83" s="163">
+      <c r="D83" s="161">
         <f>C83/$C$74</f>
         <v>0.19964406567112258</v>
       </c>
-      <c r="E83" s="164">
+      <c r="E83" s="162">
         <f>E79-E81-E82-E80</f>
         <v>263212.33333333337</v>
       </c>
-      <c r="F83" s="163">
+      <c r="F83" s="161">
         <f>E83/E74</f>
         <v>0.19964406567112258</v>
       </c>
-      <c r="H83" s="164">
+      <c r="H83" s="162">
         <f>H79-H81-H82-H80</f>
         <v>263212.33333333337</v>
       </c>
-      <c r="I83" s="163">
+      <c r="I83" s="161">
         <f>H83/$H$74</f>
         <v>0.19964406567112258</v>
       </c>
@@ -11429,184 +11424,184 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C84" s="208"/>
-      <c r="D84" s="158">
+        <v>92</v>
+      </c>
+      <c r="C84" s="206"/>
+      <c r="D84" s="156">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="209"/>
-      <c r="F84" s="178">
+      <c r="E84" s="207"/>
+      <c r="F84" s="176">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="209"/>
-      <c r="I84" s="201">
+      <c r="H84" s="207"/>
+      <c r="I84" s="199">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="260" t="s">
-        <v>156</v>
-      </c>
-      <c r="C85" s="254">
+      <c r="B85" s="258" t="s">
+        <v>155</v>
+      </c>
+      <c r="C85" s="252">
         <f>C83*(1-I84)</f>
         <v>197409.25000000003</v>
       </c>
-      <c r="D85" s="255">
+      <c r="D85" s="253">
         <f>C85/$C$74</f>
         <v>0.14973304925334194</v>
       </c>
-      <c r="E85" s="261">
+      <c r="E85" s="259">
         <f>E83*(1-F84)</f>
         <v>197409.25000000003</v>
       </c>
-      <c r="F85" s="255">
+      <c r="F85" s="253">
         <f>E85/E74</f>
         <v>0.14973304925334194</v>
       </c>
-      <c r="G85" s="257"/>
-      <c r="H85" s="261">
+      <c r="G85" s="255"/>
+      <c r="H85" s="259">
         <f>H83*(1-I84)</f>
         <v>197409.25000000003</v>
       </c>
-      <c r="I85" s="255">
+      <c r="I85" s="253">
         <f>H85/$H$74</f>
         <v>0.14973304925334194</v>
       </c>
       <c r="K85" s="24"/>
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="87" t="s">
-        <v>152</v>
-      </c>
-      <c r="C86" s="166">
+      <c r="B86" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="C86" s="164">
         <f>C85*Data!C4/Common_Shares</f>
         <v>0.5640537708797474</v>
       </c>
-      <c r="D86" s="206"/>
-      <c r="E86" s="167">
+      <c r="D86" s="204"/>
+      <c r="E86" s="165">
         <f>E85*Data!C4/Common_Shares</f>
         <v>0.5640537708797474</v>
       </c>
-      <c r="F86" s="206"/>
-      <c r="H86" s="167">
+      <c r="F86" s="204"/>
+      <c r="H86" s="165">
         <f>H85*Data!C4/Common_Shares</f>
         <v>0.5640537708797474</v>
       </c>
-      <c r="I86" s="206"/>
+      <c r="I86" s="204"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="87" t="s">
-        <v>194</v>
-      </c>
-      <c r="C87" s="258">
+      <c r="B87" s="86" t="s">
+        <v>193</v>
+      </c>
+      <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14448974427884237</v>
-      </c>
-      <c r="D87" s="206"/>
-      <c r="E87" s="259">
+        <v>0.14411258891627254</v>
+      </c>
+      <c r="D87" s="204"/>
+      <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14448974427884237</v>
-      </c>
-      <c r="F87" s="206"/>
-      <c r="H87" s="259">
+        <v>0.14411258891627254</v>
+      </c>
+      <c r="F87" s="204"/>
+      <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14448974427884237</v>
-      </c>
-      <c r="I87" s="206"/>
+        <v>0.14411258891627254</v>
+      </c>
+      <c r="I87" s="204"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="86" t="s">
-        <v>193</v>
-      </c>
-      <c r="C88" s="168">
+      <c r="B88" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="C88" s="166">
         <f>Inputs!C44</f>
         <v>0.3473</v>
       </c>
-      <c r="D88" s="165">
+      <c r="D88" s="163">
         <f>C88/C86</f>
         <v>0.61572143992286532</v>
       </c>
-      <c r="E88" s="169">
+      <c r="E88" s="167">
         <f>Inputs!E98</f>
         <v>0.23089999999999999</v>
       </c>
-      <c r="F88" s="165">
+      <c r="F88" s="163">
         <f>E88/E86</f>
         <v>0.40935813555482176</v>
       </c>
-      <c r="H88" s="169">
+      <c r="H88" s="167">
         <f>Inputs!F98</f>
         <v>0.23089999999999999</v>
       </c>
-      <c r="I88" s="165">
+      <c r="I88" s="163">
         <f>H88/H86</f>
         <v>0.40935813555482176</v>
       </c>
       <c r="K88" s="24"/>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="87" t="s">
-        <v>206</v>
-      </c>
-      <c r="C89" s="258">
+      <c r="B89" s="86" t="s">
+        <v>205</v>
+      </c>
+      <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.8965433401455421E-2</v>
-      </c>
-      <c r="D89" s="206"/>
-      <c r="E89" s="258">
+        <v>8.8733210758539294E-2</v>
+      </c>
+      <c r="D89" s="204"/>
+      <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9148052324779883E-2</v>
-      </c>
-      <c r="F89" s="206"/>
-      <c r="H89" s="258">
+        <v>5.8993660708743803E-2</v>
+      </c>
+      <c r="F89" s="204"/>
+      <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.9148052324779883E-2</v>
-      </c>
-      <c r="I89" s="206"/>
+        <v>5.8993660708743803E-2</v>
+      </c>
+      <c r="I89" s="204"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="28"/>
-      <c r="C90" s="88"/>
+      <c r="C90" s="87"/>
     </row>
     <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
-      <c r="B91" s="106" t="str">
+      <c r="B91" s="105" t="str">
         <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
         <v>Valuation Drivers in HKD</v>
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="C92" s="197" t="str">
+        <v>146</v>
+      </c>
+      <c r="C92" s="195" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E92" s="297" t="s">
-        <v>192</v>
-      </c>
-      <c r="F92" s="297"/>
-      <c r="G92" s="87"/>
-      <c r="H92" s="297" t="s">
+        <v>147</v>
+      </c>
+      <c r="E92" s="296" t="s">
         <v>191</v>
       </c>
-      <c r="I92" s="297"/>
+      <c r="F92" s="296"/>
+      <c r="G92" s="86"/>
+      <c r="H92" s="296" t="s">
+        <v>190</v>
+      </c>
+      <c r="I92" s="296"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11614,55 +11609,55 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="135">
+      <c r="C93" s="134">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="236">
+      <c r="D93" s="234">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
-      <c r="E93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="F93" s="143">
+      <c r="E93" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>17.858571688592281</v>
-      </c>
-      <c r="H93" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="I93" s="143">
+        <v>17.825270976285889</v>
+      </c>
+      <c r="H93" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>17.858571688592281</v>
+        <v>17.825270976285889</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C94" s="181">
+        <v>196</v>
+      </c>
+      <c r="C94" s="179">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="267">
+      <c r="D94" s="265">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
-      <c r="E94" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="F94" s="143">
+      <c r="E94" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.9621967548430304</v>
-      </c>
-      <c r="H94" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="I94" s="143">
+        <v>4.9574979933540169</v>
+      </c>
+      <c r="H94" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.9621967548430304</v>
+        <v>4.9574979933540169</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11672,123 +11667,123 @@
     </row>
     <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
-      <c r="B96" s="106" t="str">
+      <c r="B96" s="105" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="126" t="str">
+      <c r="C96" s="125" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E96" s="182" t="str">
+      <c r="D96" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E96" s="180" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H96" s="182" t="str">
+      <c r="F96" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H96" s="180" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="123" t="s">
-        <v>111</v>
+      <c r="I96" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C97" s="91">
+        <v>124</v>
+      </c>
+      <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>3107452.5892542363</v>
-      </c>
-      <c r="D97" s="210"/>
-      <c r="E97" s="122">
+        <v>3101658.1513515338</v>
+      </c>
+      <c r="D97" s="208"/>
+      <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>8.8788663692247791</v>
-      </c>
-      <c r="F97" s="210"/>
-      <c r="H97" s="122">
+        <v>8.8623100297971789</v>
+      </c>
+      <c r="F97" s="208"/>
+      <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>8.8788663692247791</v>
-      </c>
-      <c r="I97" s="122">
+        <v>8.8623100297971789</v>
+      </c>
+      <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>11.80858266551374</v>
+        <v>11.786563311393627</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C98" s="90">
+        <f>-E53*Exchange_Rate</f>
+        <v>0</v>
+      </c>
+      <c r="D98" s="208"/>
+      <c r="E98" s="208"/>
+      <c r="F98" s="208"/>
+      <c r="H98" s="121">
+        <f>C98*Data!$C$4/Common_Shares</f>
+        <v>0</v>
+      </c>
+      <c r="I98" s="210"/>
+      <c r="K98" s="24"/>
+    </row>
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B99" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="C98" s="91">
-        <f>-E53*Exchange_Rate</f>
-        <v>0</v>
-      </c>
-      <c r="D98" s="210"/>
-      <c r="E98" s="210"/>
-      <c r="F98" s="210"/>
-      <c r="H98" s="122">
-        <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0</v>
-      </c>
-      <c r="I98" s="212"/>
-      <c r="K98" s="24"/>
-    </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B99" s="105" t="s">
-        <v>140</v>
-      </c>
-      <c r="C99" s="108">
+      <c r="C99" s="107">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>0</v>
       </c>
-      <c r="D99" s="211"/>
-      <c r="E99" s="144">
+      <c r="D99" s="209"/>
+      <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>0</v>
       </c>
-      <c r="F99" s="211"/>
-      <c r="H99" s="144">
+      <c r="F99" s="209"/>
+      <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>0</v>
       </c>
-      <c r="I99" s="213"/>
+      <c r="I99" s="211"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C100" s="91">
+        <v>110</v>
+      </c>
+      <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>3107452.5892542363</v>
-      </c>
-      <c r="D100" s="109">
+        <v>3101658.1513515338</v>
+      </c>
+      <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>7.5470364138410622</v>
-      </c>
-      <c r="E100" s="109">
+        <v>7.5329635253276015</v>
+      </c>
+      <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>8.8788663692247791</v>
-      </c>
-      <c r="F100" s="109">
+        <v>8.8623100297971789</v>
+      </c>
+      <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>8.8788663692247791</v>
-      </c>
-      <c r="H100" s="109">
+        <v>8.8623100297971789</v>
+      </c>
+      <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>8.8788663692247791</v>
-      </c>
-      <c r="I100" s="109">
+        <v>8.8623100297971789</v>
+      </c>
+      <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>11.80858266551374</v>
+        <v>11.786563311393627</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11798,58 +11793,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C102" s="126" t="str">
+        <v>153</v>
+      </c>
+      <c r="C102" s="125" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E102" s="182" t="str">
+      <c r="D102" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E102" s="180" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H102" s="182" t="str">
+      <c r="F102" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H102" s="180" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="123" t="s">
-        <v>111</v>
+      <c r="I102" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C103" s="91">
+        <v>152</v>
+      </c>
+      <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>863439.21692661545</v>
-      </c>
-      <c r="D103" s="109">
+        <v>862621.61634746881</v>
+      </c>
+      <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.0970254651085325</v>
-      </c>
-      <c r="E103" s="122">
+        <v>2.0950397674460373</v>
+      </c>
+      <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.4670887824806265</v>
-      </c>
-      <c r="F103" s="109">
+        <v>2.4647526675835731</v>
+      </c>
+      <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>2.4670887824806265</v>
-      </c>
-      <c r="H103" s="122">
+        <v>2.4647526675835731</v>
+      </c>
+      <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.4670887824806265</v>
-      </c>
-      <c r="I103" s="109">
+        <v>2.4647526675835731</v>
+      </c>
+      <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.2811420534565081</v>
+        <v>3.2780351021036185</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11859,58 +11854,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C105" s="126" t="str">
+        <v>182</v>
+      </c>
+      <c r="C105" s="125" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="123" t="s">
-        <v>199</v>
-      </c>
-      <c r="E105" s="183" t="str">
+      <c r="D105" s="122" t="s">
+        <v>198</v>
+      </c>
+      <c r="E105" s="181" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="224" t="s">
-        <v>222</v>
-      </c>
-      <c r="H105" s="183" t="str">
+      <c r="F105" s="222" t="s">
+        <v>221</v>
+      </c>
+      <c r="H105" s="181" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="123" t="s">
-        <v>111</v>
+      <c r="I105" s="122" t="s">
+        <v>110</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C106" s="91">
+        <v>183</v>
+      </c>
+      <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>1985445.903090426</v>
-      </c>
-      <c r="D106" s="109">
+        <v>1982139.8838495011</v>
+      </c>
+      <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>4.8220309394747973</v>
-      </c>
-      <c r="E106" s="122">
+        <v>4.8140016463868189</v>
+      </c>
+      <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>5.6729775758527028</v>
-      </c>
-      <c r="F106" s="109">
+        <v>5.663531348690376</v>
+      </c>
+      <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>5.6729775758527028</v>
-      </c>
-      <c r="H106" s="122">
+        <v>5.663531348690376</v>
+      </c>
+      <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>5.6729775758527028</v>
-      </c>
-      <c r="I106" s="122">
+        <v>5.663531348690376</v>
+      </c>
+      <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>7.5448623594851236</v>
+        <v>7.5322992067486227</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11919,15 +11914,16 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C108" s="127" t="str">
+        <v>156</v>
+      </c>
+      <c r="C108" s="126" t="str">
         <f>Inputs!C87</f>
         <v>Dividend</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/1288.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1288.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEB37063-0005-4B7B-8731-ED6C9F39303E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{33406F27-44A7-437B-8CEF-7BEA8C048E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="277">
   <si>
     <t>Company Info:</t>
   </si>
@@ -977,6 +977,14 @@
   </si>
   <si>
     <t>Contin. Liabilities / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pages.stern.nyu.edu/~adamodar/New_Home_Page/datafile/countrytaxrates.html</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1684,7 +1692,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2336,9 +2344,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2347,9 +2352,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2357,6 +2359,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2812,7 +2826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2834,7 +2848,7 @@
         <v>179</v>
       </c>
       <c r="C4" s="185" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2842,7 +2856,7 @@
         <v>180</v>
       </c>
       <c r="C5" s="188" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2866,7 +2880,7 @@
         <v>200</v>
       </c>
       <c r="C8" s="188" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E8" s="262"/>
     </row>
@@ -2875,7 +2889,7 @@
         <v>201</v>
       </c>
       <c r="C9" s="189" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2891,7 +2905,7 @@
         <v>203</v>
       </c>
       <c r="C11" s="189" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2934,13 +2948,16 @@
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
+      <c r="E16" s="109" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="235" t="s">
         <v>208</v>
       </c>
       <c r="C17" s="237" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -2949,7 +2966,7 @@
         <v>222</v>
       </c>
       <c r="C18" s="237" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D18" s="24"/>
     </row>
@@ -2958,7 +2975,7 @@
         <v>223</v>
       </c>
       <c r="C19" s="237" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D19" s="24"/>
     </row>
@@ -2967,7 +2984,7 @@
         <v>212</v>
       </c>
       <c r="C20" s="237" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D20" s="24"/>
     </row>
@@ -2976,7 +2993,7 @@
         <v>215</v>
       </c>
       <c r="C21" s="237" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -2985,7 +3002,7 @@
         <v>214</v>
       </c>
       <c r="C22" s="238" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3387,7 +3404,7 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.8733210758539294E-2</v>
+        <v>8.7428599533232509E-2</v>
       </c>
       <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3810,7 +3827,7 @@
         <v>229</v>
       </c>
       <c r="C87" s="231" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D87" s="264">
         <v>0.02</v>
@@ -3820,11 +3837,11 @@
       <c r="B89" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C89" s="282">
+      <c r="C89" s="284">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="282"/>
+      <c r="D89" s="284"/>
       <c r="E89" s="88" t="s">
         <v>191</v>
       </c>
@@ -3838,10 +3855,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C90" s="283" t="s">
+      <c r="C90" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D90" s="283"/>
+      <c r="D90" s="285"/>
       <c r="E90" s="230" t="s">
         <v>97</v>
       </c>
@@ -4062,8 +4079,11 @@
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4076,8 +4096,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4120,60 +4140,60 @@
       <c r="B3" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="288" t="str">
+      <c r="C3" s="290" t="str">
         <f>Inputs!C4</f>
         <v>1288.HK</v>
       </c>
-      <c r="D3" s="289"/>
+      <c r="D3" s="291"/>
       <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>4.18</v>
+        <v>4.24</v>
       </c>
       <c r="H3" s="132" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="290" t="str">
+      <c r="C4" s="292" t="str">
         <f>Inputs!C5</f>
         <v>农业银行</v>
       </c>
-      <c r="D4" s="291"/>
+      <c r="D4" s="293"/>
       <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="294">
+      <c r="G4" s="296">
         <f>Inputs!C10</f>
         <v>349983033873</v>
       </c>
-      <c r="H4" s="294"/>
+      <c r="H4" s="296"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="292">
+      <c r="C5" s="294">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="293"/>
+      <c r="D5" s="295"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="G5" s="286">
+      <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>1462929.08158914</v>
-      </c>
-      <c r="H5" s="286"/>
+        <v>1483928.0636215201</v>
+      </c>
+      <c r="H5" s="288"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4196,11 +4216,11 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="287" t="str">
+      <c r="G6" s="289" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="287"/>
+      <c r="H6" s="289"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4220,7 +4240,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>1.0679666598637898</v>
+        <v>1.067369023958842</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4341,7 +4361,7 @@
         <v>247</v>
       </c>
       <c r="C20" s="271" t="e">
-        <f>C23*C22*(1/C21)</f>
+        <f>C21*C22*C23</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="86" t="s">
@@ -4353,20 +4373,20 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="272" t="s">
-        <v>245</v>
-      </c>
-      <c r="C21" s="273" t="e">
-        <f>Data!C53</f>
-        <v>#DIV/0!</v>
+        <v>252</v>
+      </c>
+      <c r="C21" s="283">
+        <f>Data!C13</f>
+        <v>0.6941404582900994</v>
       </c>
       <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="274" t="s">
+      <c r="B22" s="273" t="s">
         <v>259</v>
       </c>
-      <c r="C22" s="275" t="e">
+      <c r="C22" s="274" t="e">
         <f>Data!C48</f>
         <v>#DIV/0!</v>
       </c>
@@ -4375,12 +4395,12 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="276" t="s">
-        <v>252</v>
-      </c>
-      <c r="C23" s="277">
-        <f>Data!C13</f>
-        <v>0.6941404582900994</v>
+      <c r="B23" s="275" t="s">
+        <v>265</v>
+      </c>
+      <c r="C23" s="282" t="e">
+        <f>1/Data!C53</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F23" s="138" t="s">
         <v>174</v>
@@ -4391,10 +4411,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="135" t="s">
+      <c r="B24" s="280" t="s">
         <v>253</v>
       </c>
-      <c r="C24" s="168">
+      <c r="C24" s="281">
         <f>Fin_Analysis!I81</f>
         <v>0.49449639261897682</v>
       </c>
@@ -4403,7 +4423,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>6.9390190511460892</v>
+        <v>7.0425632254217136</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4435,7 +4455,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.8993660708743803E-2</v>
+        <v>5.8126298969834102E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4454,10 +4474,10 @@
       <c r="F28" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="G28" s="284" t="s">
+      <c r="G28" s="286" t="s">
         <v>236</v>
       </c>
-      <c r="H28" s="284"/>
+      <c r="H28" s="286"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="86" t="s">
@@ -4465,22 +4485,22 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.0950397674460373</v>
+        <v>2.085306573571752</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>3.769740367419161</v>
+        <v>3.7522268030363048</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.4647526675835731</v>
-      </c>
-      <c r="G29" s="285">
+        <v>2.4533018512608846</v>
+      </c>
+      <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.2780351021036185</v>
-      </c>
-      <c r="H29" s="285"/>
+        <v>3.2628059156837437</v>
+      </c>
+      <c r="H29" s="287"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5511,7 +5531,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -7752,7 +7772,7 @@
       <c r="B47" s="101" t="s">
         <v>243</v>
       </c>
-      <c r="C47" s="278" t="s">
+      <c r="C47" s="276" t="s">
         <v>260</v>
       </c>
       <c r="D47" s="36"/>
@@ -9679,7 +9699,7 @@
       <c r="H3" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="280">
+      <c r="I3" s="278">
         <f>D3-D4</f>
         <v>0</v>
       </c>
@@ -10726,7 +10746,7 @@
       <c r="B48" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="281">
+      <c r="C48" s="279">
         <f>SUM(C30:C42)</f>
         <v>0</v>
       </c>
@@ -10743,7 +10763,7 @@
       <c r="H48" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="I48" s="279">
+      <c r="I48" s="277">
         <f>I49-I28</f>
         <v>0</v>
       </c>
@@ -10852,11 +10872,11 @@
         <v>85</v>
       </c>
       <c r="C56" s="86"/>
-      <c r="D56" s="295">
+      <c r="D56" s="297">
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="293"/>
+      <c r="E56" s="295"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10867,11 +10887,11 @@
         <v>86</v>
       </c>
       <c r="C57" s="86"/>
-      <c r="D57" s="294">
+      <c r="D57" s="296">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="293"/>
+      <c r="E57" s="295"/>
       <c r="G57" s="86"/>
       <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
@@ -10883,11 +10903,11 @@
         <v>88</v>
       </c>
       <c r="C58" s="86"/>
-      <c r="D58" s="294">
+      <c r="D58" s="296">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="293"/>
+      <c r="E58" s="295"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="86"/>
@@ -11101,19 +11121,19 @@
       <c r="B72" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C72" s="282">
+      <c r="C72" s="284">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="282"/>
-      <c r="E72" s="296" t="s">
+      <c r="D72" s="284"/>
+      <c r="E72" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F72" s="296"/>
-      <c r="H72" s="296" t="s">
+      <c r="F72" s="298"/>
+      <c r="H72" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I72" s="296"/>
+      <c r="I72" s="298"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11123,18 +11143,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000CNY)</v>
       </c>
-      <c r="C73" s="283" t="s">
+      <c r="C73" s="285" t="s">
         <v>96</v>
       </c>
-      <c r="D73" s="283"/>
-      <c r="E73" s="297" t="s">
+      <c r="D73" s="285"/>
+      <c r="E73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="F73" s="283"/>
-      <c r="H73" s="297" t="s">
+      <c r="F73" s="285"/>
+      <c r="H73" s="299" t="s">
         <v>97</v>
       </c>
-      <c r="I73" s="283"/>
+      <c r="I73" s="285"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11501,17 +11521,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14411258891627254</v>
+        <v>0.14199375539722175</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14411258891627254</v>
+        <v>0.14199375539722175</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14411258891627254</v>
+        <v>0.14199375539722175</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11552,17 +11572,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.8733210758539294E-2</v>
+        <v>8.7428599533232509E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8993660708743803E-2</v>
+        <v>5.8126298969834102E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8993660708743803E-2</v>
+        <v>5.8126298969834102E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11593,15 +11613,15 @@
       <c r="D92" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="E92" s="296" t="s">
+      <c r="E92" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="296"/>
+      <c r="F92" s="298"/>
       <c r="G92" s="86"/>
-      <c r="H92" s="296" t="s">
+      <c r="H92" s="298" t="s">
         <v>190</v>
       </c>
-      <c r="I92" s="296"/>
+      <c r="I92" s="298"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11622,14 +11642,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>17.825270976285889</v>
+        <v>17.650941070284063</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>17.825270976285889</v>
+        <v>17.650941070284063</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11650,14 +11670,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.9574979933540169</v>
+        <v>4.9344663116406347</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.9574979933540169</v>
+        <v>4.9344663116406347</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11700,21 +11720,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>3101658.1513515338</v>
+        <v>3071324.1511170203</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>8.8623100297971789</v>
+        <v>8.7756372562663323</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>8.8623100297971789</v>
+        <v>8.7756372562663323</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>11.786563311393627</v>
+        <v>11.671291544872187</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11763,27 +11783,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>3101658.1513515338</v>
+        <v>3071324.1511170203</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>7.5329635253276015</v>
+        <v>7.4592916678263821</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>8.8623100297971789</v>
+        <v>8.7756372562663323</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>8.8623100297971789</v>
+        <v>8.7756372562663323</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>8.8623100297971789</v>
+        <v>8.7756372562663323</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>11.786563311393627</v>
+        <v>11.671291544872187</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11824,27 +11844,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>862621.61634746881</v>
+        <v>858614.02491053171</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.0950397674460373</v>
+        <v>2.085306573571752</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.4647526675835731</v>
+        <v>2.4533018512608846</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>2.4647526675835731</v>
+        <v>2.4533018512608846</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.4647526675835731</v>
+        <v>2.4533018512608846</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.2780351021036185</v>
+        <v>3.2628059156837437</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11885,27 +11905,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>1982139.8838495011</v>
+        <v>1964969.0880137763</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>4.8140016463868189</v>
+        <v>4.772299120699067</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>5.663531348690376</v>
+        <v>5.6144695537636089</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>5.663531348690376</v>
+        <v>5.6144695537636089</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>5.663531348690376</v>
+        <v>5.6144695537636089</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>7.5322992067486227</v>
+        <v>7.4670487302779653</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1288.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1288.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33406F27-44A7-437B-8CEF-7BEA8C048E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{320D5FA2-4475-4517-B3C0-1A94E638F5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.7428599533232509E-2</v>
+        <v>8.854250355960841E-2</v>
       </c>
       <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4150,7 +4150,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>4.24</v>
+        <v>4.18</v>
       </c>
       <c r="H3" s="132" t="s">
         <v>276</v>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>1483928.0636215201</v>
+        <v>1462929.08158914</v>
       </c>
       <c r="H5" s="288"/>
       <c r="I5" s="38"/>
@@ -4240,7 +4240,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="131">
-        <v>1.067369023958842</v>
+        <v>1.0656713644663494</v>
       </c>
       <c r="H7" s="71" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4423,7 +4423,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>7.0425632254217136</v>
+        <v>6.9539646516585165</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4455,7 +4455,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.8126298969834102E-2</v>
+        <v>5.8866870348153133E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4485,20 +4485,20 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.085306573571752</v>
+        <v>2.0892858946366859</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>3.7522268030363048</v>
+        <v>3.7593870524437381</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.4533018512608846</v>
+        <v>2.4579834054549248</v>
       </c>
       <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.2628059156837437</v>
+        <v>3.2690322195162942</v>
       </c>
       <c r="H29" s="287"/>
     </row>
@@ -9650,7 +9650,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -11521,17 +11521,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14199375539722175</v>
+        <v>0.14380285924540909</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14199375539722175</v>
+        <v>0.14380285924540909</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14199375539722175</v>
+        <v>0.14380285924540909</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11572,17 +11572,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.7428599533232509E-2</v>
+        <v>8.854250355960841E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8126298969834102E-2</v>
+        <v>5.8866870348153133E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8126298969834102E-2</v>
+        <v>5.8866870348153133E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11642,14 +11642,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>17.650941070284063</v>
+        <v>17.762897497049124</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>194</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>17.650941070284063</v>
+        <v>17.762897497049124</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11670,14 +11670,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.9344663116406347</v>
+        <v>4.9438825893174885</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.9344663116406347</v>
+        <v>4.9438825893174885</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11720,21 +11720,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>3071324.1511170203</v>
+        <v>3090804.9525103918</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>8.7756372562663323</v>
+        <v>8.8312993870210477</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>8.7756372562663323</v>
+        <v>8.8312993870210477</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>11.671291544872187</v>
+        <v>11.745320237840689</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11761,7 +11761,7 @@
         <v>139</v>
       </c>
       <c r="C99" s="107">
-        <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
+        <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
         <v>0</v>
       </c>
       <c r="D99" s="209"/>
@@ -11783,27 +11783,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>3071324.1511170203</v>
+        <v>3090804.9525103918</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>7.4592916678263821</v>
+        <v>7.5066044789678905</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>8.7756372562663323</v>
+        <v>8.8312993870210477</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>8.7756372562663323</v>
+        <v>8.8312993870210477</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>8.7756372562663323</v>
+        <v>8.8312993870210477</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>11.671291544872187</v>
+        <v>11.745320237840689</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11844,27 +11844,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>858614.02491053171</v>
+        <v>860252.48945060279</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.085306573571752</v>
+        <v>2.0892858946366859</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.4533018512608846</v>
+        <v>2.4579834054549248</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>2.4533018512608846</v>
+        <v>2.4579834054549248</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.4533018512608846</v>
+        <v>2.4579834054549248</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.2628059156837437</v>
+        <v>3.2690322195162942</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11905,27 +11905,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>1964969.0880137763</v>
+        <v>1975528.7209804973</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>4.772299120699067</v>
+        <v>4.7979451868022878</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>5.6144695537636089</v>
+        <v>5.6446413962379864</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>5.6144695537636089</v>
+        <v>5.6446413962379864</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>5.6144695537636089</v>
+        <v>5.6446413962379864</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>7.4670487302779653</v>
+        <v>7.5071762286784915</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/1288.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1288.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A4B0DEF-77BF-4EBE-A8D5-56EE6707427D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9A7E214-FCBA-40D8-9F59-62E010C889F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3617,7 +3617,7 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.3785377939992661E-2</v>
+        <v>8.3401887029342134E-2</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4363,7 +4363,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>4.41</v>
+        <v>4.43</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>258</v>
@@ -4404,7 +4404,7 @@
       </c>
       <c r="G5" s="313">
         <f>G3*G4/1000000</f>
-        <v>1543425.17937993</v>
+        <v>1550424.8400573898</v>
       </c>
       <c r="H5" s="313"/>
       <c r="I5" s="17"/>
@@ -4453,7 +4453,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0639030138651531</v>
+        <v>1.0638363361358643</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4584,7 +4584,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4641,7 +4641,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>7.3487934895256641</v>
+        <v>7.3825840380115677</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4673,7 +4673,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.5704128322327399E-2</v>
+        <v>5.5449167045997984E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4703,20 +4703,20 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.4383281567283479</v>
+        <v>2.0522449779926455</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>3.9144902984418346</v>
+        <v>3.692736938737557</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.86862136085688</v>
+        <v>2.414405856461936</v>
       </c>
       <c r="G29" s="312">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.403904607340726</v>
+        <v>3.2110755989022239</v>
       </c>
       <c r="H29" s="312"/>
     </row>
@@ -11753,17 +11753,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.13607675891631921</v>
+        <v>0.13545392708720738</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.13607675891631921</v>
+        <v>0.13545392708720738</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.13607675891631921</v>
+        <v>0.13545392708720738</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11804,17 +11804,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3785377939992661E-2</v>
+        <v>8.3401887029342134E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5704128322327399E-2</v>
+        <v>5.5449167045997984E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5704128322327399E-2</v>
+        <v>5.5449167045997984E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11867,21 +11867,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>13.281884211282946</v>
+        <v>17.094524608375782</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>13.281884211282946</v>
+        <v>17.094524608375782</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11902,14 +11902,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.3628145121932063</v>
+        <v>4.8562325729368068</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.3628145121932063</v>
+        <v>4.8562325729368068</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -11952,21 +11952,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>3056420.8970590644</v>
+        <v>2974505.7825817</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>8.7330544662006737</v>
+        <v>8.4989999362685484</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>8.7330544662006737</v>
+        <v>8.4989999362685484</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>10.362637864754113</v>
+        <v>11.303373555602434</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12016,23 +12016,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>7.4230962962705727</v>
+        <v>7.2241499458282661</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>8.7330544662006737</v>
+        <v>8.4989999362685484</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>8.7330544662006737</v>
+        <v>8.4989999362685484</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>8.7330544662006737</v>
+        <v>8.4989999362685484</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>10.362637864754113</v>
+        <v>11.303373555602434</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12071,23 +12071,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.4383281567283479</v>
+        <v>2.0522449779926455</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.86862136085688</v>
+        <v>2.414405856461936</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>2.86862136085688</v>
+        <v>2.414405856461936</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.86862136085688</v>
+        <v>2.414405856461936</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.403904607340726</v>
+        <v>3.2110755989022239</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12126,23 +12126,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>4.9307122264994607</v>
+        <v>4.6381974619104556</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>5.8008379135287766</v>
+        <v>5.4567028963652424</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>5.8008379135287766</v>
+        <v>5.4567028963652424</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>5.8008379135287766</v>
+        <v>5.4567028963652424</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>6.8832712360474195</v>
+        <v>7.2572245772523285</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/1288.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1288.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9A7E214-FCBA-40D8-9F59-62E010C889F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{51C62DE1-0294-4FFB-8012-87E537746930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2588,6 +2588,9 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2604,9 +2607,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2820,11 +2820,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFB6D7A8"/>
       <color rgb="FF2F75B5"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
   </colors>
@@ -3039,7 +3039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3064,6 +3064,7 @@
       <c r="C4" s="66" t="s">
         <v>279</v>
       </c>
+      <c r="D4" s="66"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="46" t="s">
@@ -4268,7 +4269,7 @@
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
       <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
@@ -4291,6 +4292,9 @@
     <dataValidation type="list" allowBlank="1" sqref="C22" xr:uid="{AC11383D-4B80-4250-901A-577B0CB0078C}">
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{EC47C593-A7DE-4ABB-B6D2-C8BF531E4639}">
+      <formula1>"HOLD"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
@@ -4309,8 +4313,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4346,18 +4350,21 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="311" t="str">
+        <f>IF(Inputs!D4="","",Inputs!D4)</f>
+        <v/>
+      </c>
+      <c r="H2" s="311"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="315" t="str">
+      <c r="C3" s="316" t="str">
         <f>Inputs!C4</f>
         <v>1288.HK</v>
       </c>
-      <c r="D3" s="316"/>
+      <c r="D3" s="317"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
@@ -4373,7 +4380,7 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="317" t="str">
+      <c r="C4" s="311" t="str">
         <f>Inputs!C5</f>
         <v>农业银行</v>
       </c>
@@ -4402,11 +4409,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="313">
+      <c r="G5" s="314">
         <f>G3*G4/1000000</f>
         <v>1550424.8400573898</v>
       </c>
-      <c r="H5" s="313"/>
+      <c r="H5" s="314"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4429,11 +4436,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="314" t="str">
+      <c r="G6" s="315" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="314"/>
+      <c r="H6" s="315"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4501,10 +4508,10 @@
         <v>220</v>
       </c>
       <c r="C12" s="120">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="121">
-        <v>8.0625000000000002E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="25"/>
     </row>
@@ -4551,7 +4558,7 @@
         <v>221</v>
       </c>
       <c r="C17" s="119">
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="122"/>
     </row>
@@ -4692,10 +4699,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="311" t="s">
+      <c r="G28" s="312" t="s">
         <v>224</v>
       </c>
-      <c r="H28" s="311"/>
+      <c r="H28" s="312"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4703,22 +4710,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.0522449779926455</v>
+        <v>2.2472930544134346</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>3.692736938737557</v>
+        <v>4.1524457745935601</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.414405856461936</v>
-      </c>
-      <c r="G29" s="312">
+        <v>2.6438741816628641</v>
+      </c>
+      <c r="G29" s="313">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.2110755989022239</v>
-      </c>
-      <c r="H29" s="312"/>
+        <v>3.6108224126900526</v>
+      </c>
+      <c r="H29" s="313"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5700,15 +5707,16 @@
     <row r="922" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -5736,7 +5744,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -11863,7 +11871,7 @@
       </c>
       <c r="C93" s="242">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
@@ -11874,14 +11882,14 @@
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>17.094524608375782</v>
+        <v>18.719210831485871</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>17.094524608375782</v>
+        <v>18.719210831485871</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11902,14 +11910,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.8562325729368068</v>
+        <v>5.3177753381332806</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>4.8562325729368068</v>
+        <v>5.3177753381332806</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -11952,21 +11960,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>2974505.7825817</v>
+        <v>3257206.7453890508</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>8.4989999362685484</v>
+        <v>9.306756128558531</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>8.4989999362685484</v>
+        <v>9.306756128558531</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>11.303373555602434</v>
+        <v>12.710530573472209</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12016,23 +12024,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>7.2241499458282661</v>
+        <v>7.9107427092747509</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>8.4989999362685484</v>
+        <v>9.306756128558531</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>8.4989999362685484</v>
+        <v>9.306756128558531</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>8.4989999362685484</v>
+        <v>9.306756128558531</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>11.303373555602434</v>
+        <v>12.710530573472209</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12071,23 +12079,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.0522449779926455</v>
+        <v>2.2472930544134346</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.414405856461936</v>
+        <v>2.6438741816628641</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>2.414405856461936</v>
+        <v>2.6438741816628641</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.414405856461936</v>
+        <v>2.6438741816628641</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.2110755989022239</v>
+        <v>3.6108224126900526</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12126,23 +12134,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>4.6381974619104556</v>
+        <v>5.0790178818440932</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>5.4567028963652424</v>
+        <v>5.9753151551106978</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>5.4567028963652424</v>
+        <v>5.9753151551106978</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>5.4567028963652424</v>
+        <v>5.9753151551106978</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>7.2572245772523285</v>
+        <v>8.1606764930811302</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/1288.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1288.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51C62DE1-0294-4FFB-8012-87E537746930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C324C81-5B7A-4003-AC00-20584FAC9FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2588,31 +2588,31 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3618,7 +3618,7 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.3401887029342134E-2</v>
+        <v>8.3780126879815328E-2</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4350,27 +4350,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="311" t="str">
+      <c r="G2" s="313" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="311"/>
+      <c r="H2" s="313"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="311" t="str">
         <f>Inputs!C4</f>
         <v>1288.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="312"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>4.43</v>
+        <v>4.41</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>258</v>
@@ -4380,40 +4380,40 @@
       <c r="B4" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="311" t="str">
+      <c r="C4" s="313" t="str">
         <f>Inputs!C5</f>
         <v>农业银行</v>
       </c>
-      <c r="D4" s="318"/>
+      <c r="D4" s="314"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="321">
+      <c r="G4" s="317">
         <f>Inputs!C10</f>
         <v>349983033873</v>
       </c>
-      <c r="H4" s="321"/>
+      <c r="H4" s="317"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="319">
+      <c r="C5" s="315">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="320"/>
+      <c r="D5" s="316"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="320">
         <f>G3*G4/1000000</f>
-        <v>1550424.8400573898</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>1543425.17937993</v>
+      </c>
+      <c r="H5" s="320"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4436,11 +4436,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="321" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="321"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4591,7 +4591,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>7.3825840380115677</v>
+        <v>7.3492540875013583</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4680,7 +4680,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.5449167045997984E-2</v>
+        <v>5.5700637191331302E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4699,10 +4699,10 @@
       <c r="F28" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="318" t="s">
         <v>224</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="318"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4710,22 +4710,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.2472930544134346</v>
+        <v>2.4509478868744843</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>4.1524457745935601</v>
+        <v>4.2550558847874189</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.6438741816628641</v>
-      </c>
-      <c r="G29" s="313">
+        <v>2.8834681022052755</v>
+      </c>
+      <c r="G29" s="319">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.6108224126900526</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>3.700048595467321</v>
+      </c>
+      <c r="H29" s="319"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5708,15 +5708,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11089,7 +11089,7 @@
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="320"/>
+      <c r="E56" s="316"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="176"/>
@@ -11100,11 +11100,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="321">
+      <c r="D57" s="317">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="320"/>
+      <c r="E57" s="316"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="178" t="s">
@@ -11116,11 +11116,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="321">
+      <c r="D58" s="317">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="320"/>
+      <c r="E58" s="316"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11761,17 +11761,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.13545392708720738</v>
+        <v>0.13606823061141241</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.13545392708720738</v>
+        <v>0.13606823061141241</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.13545392708720738</v>
+        <v>0.13606823061141241</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11812,17 +11812,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3401887029342134E-2</v>
+        <v>8.3780126879815328E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5449167045997984E-2</v>
+        <v>5.5700637191331302E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5449167045997984E-2</v>
+        <v>5.5700637191331302E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11875,21 +11875,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>18.719210831485871</v>
+        <v>16.521809609757049</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>18.719210831485871</v>
+        <v>16.521809609757049</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11910,14 +11910,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.3177753381332806</v>
+        <v>5.043203732432664</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.3177753381332806</v>
+        <v>5.043203732432664</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -11960,21 +11960,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>3257206.7453890508</v>
+        <v>3306079.1248143683</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>9.306756128558531</v>
+        <v>9.4463982674487603</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>9.306756128558531</v>
+        <v>9.4463982674487603</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>12.710530573472209</v>
+        <v>12.12156035815598</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12024,23 +12024,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>7.9107427092747509</v>
+        <v>8.0294385273314468</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>9.306756128558531</v>
+        <v>9.4463982674487603</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>9.306756128558531</v>
+        <v>9.4463982674487603</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>9.306756128558531</v>
+        <v>9.4463982674487603</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>12.710530573472209</v>
+        <v>12.12156035815598</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12079,23 +12079,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.2472930544134346</v>
+        <v>2.4509478868744843</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.6438741816628641</v>
+        <v>2.8834681022052755</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>2.6438741816628641</v>
+        <v>2.8834681022052755</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.6438741816628641</v>
+        <v>2.8834681022052755</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.6108224126900526</v>
+        <v>3.700048595467321</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12134,23 +12134,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>5.0790178818440932</v>
+        <v>5.2401932071029655</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>5.9753151551106978</v>
+        <v>6.1649331848270181</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>5.9753151551106978</v>
+        <v>6.1649331848270181</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>5.9753151551106978</v>
+        <v>6.1649331848270181</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>8.1606764930811302</v>
+        <v>7.9108044768116503</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/1288.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1288.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5073FBF4-E618-4336-821F-35DCED3BA3A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72C63277-6B13-4137-A646-09748F101FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2601,6 +2601,9 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2617,9 +2620,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.3777504479083151E-2</v>
+        <v>8.7807311777641908E-2</v>
       </c>
       <c r="D45" s="82" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4378,27 +4378,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="318" t="str">
+      <c r="G2" s="312" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="318"/>
+      <c r="H2" s="312"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="317" t="str">
         <f>Inputs!C4</f>
         <v>1288.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="318"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>4.41</v>
+        <v>4.21</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>255</v>
@@ -4408,7 +4408,7 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="318" t="str">
+      <c r="C4" s="312" t="str">
         <f>Inputs!C5</f>
         <v>农业银行</v>
       </c>
@@ -4437,11 +4437,11 @@
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="315">
         <f>G3*G4/1000000</f>
-        <v>1543425.17937993</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>1473428.57260533</v>
+      </c>
+      <c r="H5" s="315"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4464,11 +4464,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="316" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="316"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4488,7 +4488,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0638030370076497</v>
+        <v>1.0644076665242512</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4676,7 +4676,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>7.3494841336148093</v>
+        <v>7.0121887056750136</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4708,7 +4708,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.5698893706364237E-2</v>
+        <v>5.8378083183004657E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4727,10 +4727,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="313" t="s">
         <v>222</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="313"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4738,22 +4738,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.4712787709078055</v>
+        <v>2.4978801254171152</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>4.2983026598817373</v>
+        <v>4.3445704764428852</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.9073867893033007</v>
-      </c>
-      <c r="G29" s="313">
+        <v>2.938682500490724</v>
+      </c>
+      <c r="G29" s="314">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.737654486853685</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>3.7778873708199008</v>
+      </c>
+      <c r="H29" s="314"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5736,15 +5736,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11891,17 +11891,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.13606397154138145</v>
+        <v>0.14260882614164289</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.13606397154138145</v>
+        <v>0.14260882614164289</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.13606397154138145</v>
+        <v>0.14260882614164289</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -11942,17 +11942,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.3777504479083151E-2</v>
+        <v>8.7807311777641908E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5698893706364237E-2</v>
+        <v>5.8378083183004657E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.5698893706364237E-2</v>
+        <v>5.8378083183004657E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12012,14 +12012,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>16.658720084379965</v>
+        <v>17.055621455089511</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>16.658720084379965</v>
+        <v>17.055621455089511</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12040,14 +12040,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.0850376656589047</v>
+        <v>5.1397740601239024</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.0850376656589047</v>
+        <v>5.1397740601239024</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12090,21 +12090,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>3333475.4496002402</v>
+        <v>3412896.9758922588</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>9.5246772756700953</v>
+        <v>9.7516069225536022</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>9.5246772756700953</v>
+        <v>9.7516069225536022</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>12.244656571399124</v>
+        <v>12.536390927486474</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12154,23 +12154,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>8.0959756843195816</v>
+        <v>8.288865884170562</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>9.5246772756700953</v>
+        <v>9.7516069225536022</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>9.5246772756700953</v>
+        <v>9.7516069225536022</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>9.5246772756700953</v>
+        <v>9.7516069225536022</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>12.244656571399124</v>
+        <v>12.536390927486474</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12209,23 +12209,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.4712787709078055</v>
+        <v>2.4978801254171152</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.9073867893033007</v>
+        <v>2.938682500490724</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>2.9073867893033007</v>
+        <v>2.938682500490724</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.9073867893033007</v>
+        <v>2.938682500490724</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.737654486853685</v>
+        <v>3.7778873708199008</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12264,23 +12264,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>5.2836272276136933</v>
+        <v>5.3933730047938386</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>6.216032032486698</v>
+        <v>6.3451447115221633</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>6.216032032486698</v>
+        <v>6.3451447115221633</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>6.216032032486698</v>
+        <v>6.3451447115221633</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>7.9911555291264049</v>
+        <v>8.1571391491531884</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/1288.HK_Valuation.xlsx
+++ b/financial_models/opportunities/1288.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72C63277-6B13-4137-A646-09748F101FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{645335A0-D774-4881-B57C-E23BB14B91B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2601,31 +2601,31 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.7807311777641908E-2</v>
+        <v>8.8402897443512166E-2</v>
       </c>
       <c r="D45" s="82" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4378,27 +4378,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="312" t="str">
+      <c r="G2" s="314" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="312"/>
+      <c r="H2" s="314"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="317" t="str">
+      <c r="C3" s="312" t="str">
         <f>Inputs!C4</f>
         <v>1288.HK</v>
       </c>
-      <c r="D3" s="318"/>
+      <c r="D3" s="313"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>4.21</v>
+        <v>4.17</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>255</v>
@@ -4408,40 +4408,40 @@
       <c r="B4" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="312" t="str">
+      <c r="C4" s="314" t="str">
         <f>Inputs!C5</f>
         <v>农业银行</v>
       </c>
-      <c r="D4" s="319"/>
+      <c r="D4" s="315"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="322">
+      <c r="G4" s="318">
         <f>Inputs!C10</f>
         <v>349983033873</v>
       </c>
-      <c r="H4" s="322"/>
+      <c r="H4" s="318"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="320">
+      <c r="C5" s="316">
         <f>Inputs!C6</f>
         <v>45593</v>
       </c>
-      <c r="D5" s="321"/>
+      <c r="D5" s="317"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="315">
+      <c r="G5" s="321">
         <f>G3*G4/1000000</f>
-        <v>1473428.57260533</v>
-      </c>
-      <c r="H5" s="315"/>
+        <v>1459429.25125041</v>
+      </c>
+      <c r="H5" s="321"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4464,11 +4464,11 @@
       <c r="F6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="316" t="str">
+      <c r="G6" s="322" t="str">
         <f>Inputs!C11</f>
         <v>CNY</v>
       </c>
-      <c r="H6" s="316"/>
+      <c r="H6" s="322"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4488,7 +4488,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="21">
-        <v>1.0644076665242512</v>
+        <v>1.061445673306783</v>
       </c>
       <c r="H7" s="22" t="str">
         <f>IF(G6=Dashboard!H3,H3,G6&amp;"/"&amp;Dashboard!H3)</f>
@@ -4676,7 +4676,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>7.0121887056750136</v>
+        <v>6.9649463731242518</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4708,7 +4708,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.8378083183004657E-2</v>
+        <v>5.8774054188617787E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4727,10 +4727,10 @@
       <c r="F28" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="G28" s="313" t="s">
+      <c r="G28" s="319" t="s">
         <v>222</v>
       </c>
-      <c r="H28" s="313"/>
+      <c r="H28" s="319"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4738,22 +4738,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>2.4978801254171152</v>
+        <v>2.4946589373731247</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>4.3445704764428852</v>
+        <v>4.3389678543103862</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>2.938682500490724</v>
-      </c>
-      <c r="G29" s="314">
+        <v>2.9348928674977937</v>
+      </c>
+      <c r="G29" s="320">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>3.7778873708199008</v>
-      </c>
-      <c r="H29" s="314"/>
+        <v>3.7730155254872928</v>
+      </c>
+      <c r="H29" s="320"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5736,15 +5736,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11219,7 +11219,7 @@
         <f>I15+I34</f>
         <v>0</v>
       </c>
-      <c r="E56" s="321"/>
+      <c r="E56" s="317"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="170"/>
@@ -11230,11 +11230,11 @@
         <v>82</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="322">
+      <c r="D57" s="318">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="321"/>
+      <c r="E57" s="317"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="172" t="s">
@@ -11246,11 +11246,11 @@
         <v>84</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="322">
+      <c r="D58" s="318">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="321"/>
+      <c r="E58" s="317"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11891,17 +11891,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14260882614164289</v>
+        <v>0.14357612340831738</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14260882614164289</v>
+        <v>0.14357612340831738</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.14260882614164289</v>
+        <v>0.14357612340831738</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -11942,17 +11942,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.7807311777641908E-2</v>
+        <v>8.8402897443512166E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8378083183004657E-2</v>
+        <v>5.8774054188617787E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.8378083183004657E-2</v>
+        <v>5.8774054188617787E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12012,14 +12012,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>17.055621455089511</v>
+        <v>17.065827223652867</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>182</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>17.055621455089511</v>
+        <v>17.065827223652867</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12040,14 +12040,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.1397740601239024</v>
+        <v>5.1331459683340617</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>5.1397740601239024</v>
+        <v>5.1331459683340617</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12090,21 +12090,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>3412896.9758922588</v>
+        <v>3414939.1903467863</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>9.7516069225536022</v>
+        <v>9.7574421038534727</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>9.7516069225536022</v>
+        <v>9.7574421038534727</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>12.536390927486474</v>
+        <v>12.543892472051272</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12154,23 +12154,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>8.288865884170562</v>
+        <v>8.293825788275452</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>9.7516069225536022</v>
+        <v>9.7574421038534727</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>9.7516069225536022</v>
+        <v>9.7574421038534727</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>9.7516069225536022</v>
+        <v>9.7574421038534727</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>12.536390927486474</v>
+        <v>12.543892472051272</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12209,23 +12209,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>2.4978801254171152</v>
+        <v>2.4946589373731247</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>2.938682500490724</v>
+        <v>2.9348928674977937</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>2.938682500490724</v>
+        <v>2.9348928674977937</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>2.938682500490724</v>
+        <v>2.9348928674977937</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>3.7778873708199008</v>
+        <v>3.7730155254872928</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12264,23 +12264,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>5.3933730047938386</v>
+        <v>5.3942423628242882</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>6.3451447115221633</v>
+        <v>6.3461674856756334</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>6.3451447115221633</v>
+        <v>6.3461674856756334</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>6.3451447115221633</v>
+        <v>6.3461674856756334</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>8.1571391491531884</v>
+        <v>8.1584539987692821</v>
       </c>
       <c r="K106" s="75"/>
     </row>
